--- a/Surveys/Survey Lines/Survey Lines.xlsx
+++ b/Surveys/Survey Lines/Survey Lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darre\Documents\GitHub\HerringScience.github.io\Surveys\Survey Lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55DE9F3-2DCE-456B-B17E-73CC415951EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ACDE2C-7827-43F0-94E9-42705BAD7AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2205" windowWidth="25590" windowHeight="20250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="1200" windowWidth="30105" windowHeight="20250" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>Both</t>
   </si>
   <si>
-    <t>Scots Bay</t>
+    <t>German Bank</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="B9" s="13" t="str">
         <f>IF(B2="German Bank", "German Bank Box", IF(B2="Scots Bay", "Main Survey Box",""))</f>
-        <v>Main Survey Box</v>
+        <v>German Bank Box</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>36</v>
@@ -809,7 +809,7 @@
       <c r="I9" s="11"/>
       <c r="L9" s="1" t="str">
         <f>IF(B2="German Bank", "Seal Island Box", IF(B3="North", "North Box", IF(B3="East", "East Box", IF(B3="Both", "East Box",""))))</f>
-        <v>East Box</v>
+        <v>Seal Island Box</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>36</v>
@@ -853,31 +853,31 @@
       </c>
       <c r="L10" s="6" t="str">
         <f t="array" ref="L10:T34">IF(B2="German Bank",'Back End'!L6:S30, IF(B3="North", 'Back End'!AF18:AM22, IF(B3="East", 'Back End'!AF6:AM10,IF(B3="Both", 'Back End'!AE6:AM22,""))))</f>
-        <v>LINE #</v>
-      </c>
-      <c r="M10" s="6" t="str">
         <v>START POINT</v>
       </c>
-      <c r="N10" s="6">
+      <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="O10" s="6" t="str">
+      <c r="N10" s="6" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="P10" s="6">
+      <c r="O10" s="6">
         <v>0</v>
       </c>
-      <c r="Q10" s="6" t="str">
+      <c r="P10" s="6" t="str">
         <v>START POINT</v>
       </c>
-      <c r="R10" s="6">
+      <c r="Q10" s="6">
         <v>0</v>
       </c>
-      <c r="S10" s="6" t="str">
+      <c r="R10" s="6" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="T10">
+      <c r="S10" s="6">
         <v>0</v>
+      </c>
+      <c r="T10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -885,55 +885,55 @@
         <v>1</v>
       </c>
       <c r="B11" s="16">
-        <v>4502.1819999999998</v>
+        <v>4334</v>
       </c>
       <c r="C11" s="16">
-        <v>6514</v>
+        <v>6614.4</v>
       </c>
       <c r="D11" s="16">
-        <v>4512.973</v>
+        <v>4314</v>
       </c>
       <c r="E11" s="16">
-        <v>6440.8639999999996</v>
+        <v>6614.4</v>
       </c>
       <c r="F11" s="12">
-        <v>45.036366666666666</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G11" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.239999999999995</v>
       </c>
       <c r="H11" s="12">
-        <v>45.216216666666668</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I11" s="12">
-        <v>-64.681066666666666</v>
+        <v>-66.239999999999995</v>
       </c>
       <c r="L11" s="6">
-        <v>1</v>
+        <v>4330.12</v>
       </c>
       <c r="M11" s="6">
-        <v>4513.4750000000004</v>
+        <v>6607.5</v>
       </c>
       <c r="N11" s="6">
-        <v>6441.48</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
-        <v>4515.8249999999998</v>
+        <v>6607.5</v>
       </c>
       <c r="P11" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q11" s="6">
-        <v>45.224583333333335</v>
+        <v>-66.125</v>
       </c>
       <c r="R11" s="6">
-        <v>-64.691333333333333</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S11" s="6">
-        <v>45.263750000000002</v>
-      </c>
-      <c r="T11">
-        <v>-64.55</v>
+        <v>-66.125</v>
+      </c>
+      <c r="T11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -941,55 +941,55 @@
         <v>2</v>
       </c>
       <c r="B12" s="16">
-        <v>4502.7833846153844</v>
+        <v>4334</v>
       </c>
       <c r="C12" s="16">
-        <v>6514</v>
+        <v>6615.413333333333</v>
       </c>
       <c r="D12" s="16">
-        <v>4513.4135384615383</v>
+        <v>4314</v>
       </c>
       <c r="E12" s="16">
-        <v>6441.528307692307</v>
+        <v>6615.413333333333</v>
       </c>
       <c r="F12" s="12">
-        <v>45.046389743589664</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G12" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.256888888888838</v>
       </c>
       <c r="H12" s="12">
-        <v>45.223558974359001</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I12" s="12">
-        <v>-64.692138461538505</v>
+        <v>-66.256888888888838</v>
       </c>
       <c r="L12" s="6">
-        <v>2</v>
+        <v>4330.12</v>
       </c>
       <c r="M12" s="6">
-        <v>4514.3566666666666</v>
+        <v>6608.4</v>
       </c>
       <c r="N12" s="6">
-        <v>6442.7966666666662</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
-        <v>4517.1166666666668</v>
+        <v>6608.4</v>
       </c>
       <c r="P12" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q12" s="6">
-        <v>45.239277777777836</v>
+        <v>-66.14</v>
       </c>
       <c r="R12" s="6">
-        <v>-64.713277777777833</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S12" s="6">
-        <v>45.285277777777836</v>
-      </c>
-      <c r="T12">
-        <v>-64.55</v>
+        <v>-66.14</v>
+      </c>
+      <c r="T12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -997,55 +997,55 @@
         <v>3</v>
       </c>
       <c r="B13" s="16">
-        <v>4503.3847692307691</v>
+        <v>4334</v>
       </c>
       <c r="C13" s="16">
-        <v>6514</v>
+        <v>6616.4266666666663</v>
       </c>
       <c r="D13" s="16">
-        <v>4513.8540769230767</v>
+        <v>4314</v>
       </c>
       <c r="E13" s="16">
-        <v>6442.1926153846143</v>
+        <v>6616.4266666666663</v>
       </c>
       <c r="F13" s="12">
-        <v>45.056412820512833</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G13" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.273777777777838</v>
       </c>
       <c r="H13" s="12">
-        <v>45.230901282051335</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I13" s="12">
-        <v>-64.703210256410173</v>
+        <v>-66.273777777777838</v>
       </c>
       <c r="L13" s="6">
-        <v>3</v>
+        <v>4330.12</v>
       </c>
       <c r="M13" s="6">
-        <v>4515.2383333333328</v>
+        <v>6609.2999999999993</v>
       </c>
       <c r="N13" s="6">
-        <v>6444.1133333333328</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
-        <v>4518.4083333333338</v>
+        <v>6609.2999999999993</v>
       </c>
       <c r="P13" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q13" s="6">
-        <v>45.253972222222167</v>
+        <v>-66.155000000000001</v>
       </c>
       <c r="R13" s="6">
-        <v>-64.735222222222163</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S13" s="6">
-        <v>45.306805555555499</v>
-      </c>
-      <c r="T13">
-        <v>-64.55</v>
+        <v>-66.155000000000001</v>
+      </c>
+      <c r="T13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1053,55 +1053,55 @@
         <v>4</v>
       </c>
       <c r="B14" s="16">
-        <v>4503.9861538461537</v>
+        <v>4334</v>
       </c>
       <c r="C14" s="16">
-        <v>6514</v>
+        <v>6617.44</v>
       </c>
       <c r="D14" s="16">
-        <v>4514.2946153846151</v>
+        <v>4314</v>
       </c>
       <c r="E14" s="16">
-        <v>6442.8569230769217</v>
+        <v>6617.44</v>
       </c>
       <c r="F14" s="12">
-        <v>45.066435897435831</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G14" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.290666666666667</v>
       </c>
       <c r="H14" s="12">
-        <v>45.238243589743668</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I14" s="12">
-        <v>-64.714282051281998</v>
+        <v>-66.290666666666667</v>
       </c>
       <c r="L14" s="6">
-        <v>4</v>
+        <v>4330.12</v>
       </c>
       <c r="M14" s="6">
-        <v>4516.119999999999</v>
+        <v>6610.1999999999989</v>
       </c>
       <c r="N14" s="6">
-        <v>6445.4299999999994</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
-        <v>4519.7000000000007</v>
+        <v>6610.1999999999989</v>
       </c>
       <c r="P14" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q14" s="6">
-        <v>45.268666666666668</v>
+        <v>-66.17</v>
       </c>
       <c r="R14" s="6">
-        <v>-64.757166666666663</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S14" s="6">
-        <v>45.328333333333333</v>
-      </c>
-      <c r="T14">
-        <v>-64.55</v>
+        <v>-66.17</v>
+      </c>
+      <c r="T14" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1109,55 +1109,55 @@
         <v>5</v>
       </c>
       <c r="B15" s="16">
-        <v>4504.5875384615383</v>
+        <v>4334</v>
       </c>
       <c r="C15" s="16">
-        <v>6514</v>
+        <v>6618.4533333333329</v>
       </c>
       <c r="D15" s="16">
-        <v>4514.7351538461535</v>
+        <v>4314</v>
       </c>
       <c r="E15" s="16">
-        <v>6443.5212307692291</v>
+        <v>6618.4533333333329</v>
       </c>
       <c r="F15" s="12">
-        <v>45.076458974358999</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G15" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.307555555555496</v>
       </c>
       <c r="H15" s="12">
-        <v>45.245585897435831</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I15" s="12">
-        <v>-64.725353846153837</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <v>BOTTOM</v>
+        <v>-66.307555555555496</v>
+      </c>
+      <c r="L15" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M15" s="6">
-        <v>4513.4750000000004</v>
+        <v>6611.0999999999985</v>
       </c>
       <c r="N15" s="6">
-        <v>6441.48</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
-        <v>4515.8249999999998</v>
+        <v>6611.0999999999985</v>
       </c>
       <c r="P15" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q15" s="6">
-        <v>45.224583333333335</v>
+        <v>-66.185000000000002</v>
       </c>
       <c r="R15" s="6">
-        <v>-64.691333333333333</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S15" s="6">
-        <v>45.263750000000002</v>
-      </c>
-      <c r="T15">
-        <v>-64.55</v>
+        <v>-66.185000000000002</v>
+      </c>
+      <c r="T15" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1165,55 +1165,55 @@
         <v>6</v>
       </c>
       <c r="B16" s="16">
-        <v>4505.1889230769229</v>
+        <v>4334</v>
       </c>
       <c r="C16" s="16">
-        <v>6514</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="D16" s="16">
-        <v>4515.1756923076919</v>
+        <v>4314</v>
       </c>
       <c r="E16" s="16">
-        <v>6444.1855384615365</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="F16" s="12">
-        <v>45.086482051281997</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G16" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="H16" s="12">
-        <v>45.252928205128164</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I16" s="12">
-        <v>-64.736425641025662</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="L16" s="6">
-        <v>0</v>
+        <v>4330.12</v>
       </c>
       <c r="M16" s="6">
-        <v>0</v>
+        <v>6611.9999999999982</v>
       </c>
       <c r="N16" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
-        <v>0</v>
+        <v>6611.9999999999982</v>
       </c>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q16" s="6">
-        <v>0</v>
+        <v>-66.2</v>
       </c>
       <c r="R16" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+        <v>-66.2</v>
+      </c>
+      <c r="T16" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1221,56 +1221,56 @@
         <v>7</v>
       </c>
       <c r="B17" s="16">
-        <v>4505.7903076923076</v>
+        <v>4334</v>
       </c>
       <c r="C17" s="16">
-        <v>6514</v>
+        <v>6620.48</v>
       </c>
       <c r="D17" s="16">
-        <v>4515.6162307692302</v>
+        <v>4314</v>
       </c>
       <c r="E17" s="16">
-        <v>6444.8498461538438</v>
+        <v>6620.48</v>
       </c>
       <c r="F17" s="12">
-        <v>45.096505128205166</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G17" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.341333333333338</v>
       </c>
       <c r="H17" s="12">
-        <v>45.260270512820497</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I17" s="12">
-        <v>-64.74749743589733</v>
+        <v>-66.341333333333338</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="6" t="str">
-        <v>NORTH BOX</v>
+      <c r="L17" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>6612.8999999999978</v>
       </c>
       <c r="N17" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
-        <v>0</v>
+        <v>6612.8999999999978</v>
       </c>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q17" s="6">
-        <v>0</v>
+        <v>-66.215000000000003</v>
       </c>
       <c r="R17" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
+        <v>-66.215000000000003</v>
+      </c>
+      <c r="T17" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1278,56 +1278,56 @@
         <v>8</v>
       </c>
       <c r="B18" s="16">
-        <v>4506.3916923076922</v>
+        <v>4334</v>
       </c>
       <c r="C18" s="16">
-        <v>6514</v>
+        <v>6621.4933333333329</v>
       </c>
       <c r="D18" s="16">
-        <v>4516.0567692307686</v>
+        <v>4314</v>
       </c>
       <c r="E18" s="16">
-        <v>6445.5141538461512</v>
+        <v>6621.4933333333329</v>
       </c>
       <c r="F18" s="12">
-        <v>45.106528205128164</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G18" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.358222222222167</v>
       </c>
       <c r="H18" s="12">
-        <v>45.267612820512831</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I18" s="12">
-        <v>-64.758569230769169</v>
+        <v>-66.358222222222167</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6" t="str">
-        <v>TOP</v>
+      <c r="L18" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M18" s="6">
-        <v>4517.2759939999996</v>
+        <v>6613.7999999999975</v>
       </c>
       <c r="N18" s="6">
-        <v>6503.107994</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
-        <v>4520.348</v>
+        <v>6613.7999999999975</v>
       </c>
       <c r="P18" s="6">
-        <v>6452.4799940000003</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q18" s="6">
-        <v>45.290999999999997</v>
+        <v>-66.23</v>
       </c>
       <c r="R18" s="6">
-        <v>-65.052999999999997</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S18" s="6">
-        <v>45.343000000000004</v>
-      </c>
-      <c r="T18">
-        <v>-64.88</v>
+        <v>-66.23</v>
+      </c>
+      <c r="T18" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1335,55 +1335,55 @@
         <v>9</v>
       </c>
       <c r="B19" s="16">
-        <v>4506.9930769230768</v>
+        <v>4334</v>
       </c>
       <c r="C19" s="16">
-        <v>6514</v>
+        <v>6622.5066666666662</v>
       </c>
       <c r="D19" s="16">
-        <v>4516.497307692307</v>
+        <v>4314</v>
       </c>
       <c r="E19" s="16">
-        <v>6446.1784615384586</v>
+        <v>6622.5066666666662</v>
       </c>
       <c r="F19" s="12">
-        <v>45.116551282051333</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G19" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.375111111111167</v>
       </c>
       <c r="H19" s="12">
-        <v>45.274955128205164</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I19" s="12">
-        <v>-64.769641025640993</v>
-      </c>
-      <c r="L19" s="6" t="str">
-        <v>BOATS</v>
+        <v>-66.375111111111167</v>
+      </c>
+      <c r="L19" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M19" s="6">
-        <v>1</v>
+        <v>6614.6999999999971</v>
       </c>
       <c r="N19" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
-        <v>1</v>
+        <v>6614.6999999999971</v>
       </c>
       <c r="P19" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="6" t="str">
-        <v>Converted</v>
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>-66.245000000000005</v>
       </c>
       <c r="R19" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
+        <v>-66.245000000000005</v>
+      </c>
+      <c r="T19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1391,55 +1391,55 @@
         <v>10</v>
       </c>
       <c r="B20" s="16">
-        <v>4507.5944615384615</v>
+        <v>4334</v>
       </c>
       <c r="C20" s="16">
-        <v>6514</v>
+        <v>6623.5199999999995</v>
       </c>
       <c r="D20" s="16">
-        <v>4516.9378461538454</v>
+        <v>4314</v>
       </c>
       <c r="E20" s="16">
-        <v>6446.842769230766</v>
+        <v>6623.5199999999995</v>
       </c>
       <c r="F20" s="12">
-        <v>45.126574358974331</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G20" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.391999999999996</v>
       </c>
       <c r="H20" s="12">
-        <v>45.282297435897497</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I20" s="12">
-        <v>-64.780712820512832</v>
-      </c>
-      <c r="L20" s="6" t="str">
-        <v>LINES</v>
+        <v>-66.391999999999996</v>
+      </c>
+      <c r="L20" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M20" s="6">
-        <v>4</v>
+        <v>6615.5999999999967</v>
       </c>
       <c r="N20" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
-        <v>4</v>
+        <v>6615.5999999999967</v>
       </c>
       <c r="P20" s="6">
-        <v>4</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q20" s="6">
-        <v>4</v>
+        <v>-66.260000000000005</v>
       </c>
       <c r="R20" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S20" s="6">
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
+        <v>-66.260000000000005</v>
+      </c>
+      <c r="T20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,55 +1447,55 @@
         <v>11</v>
       </c>
       <c r="B21" s="16">
-        <v>4508.1958461538461</v>
+        <v>4334</v>
       </c>
       <c r="C21" s="16">
-        <v>6514</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="D21" s="16">
-        <v>4517.3783846153838</v>
+        <v>4314</v>
       </c>
       <c r="E21" s="16">
-        <v>6447.5070769230733</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="F21" s="12">
-        <v>45.1365974358975</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G21" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.408888888888839</v>
       </c>
       <c r="H21" s="12">
-        <v>45.289639743589667</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I21" s="12">
-        <v>-64.791784615384501</v>
-      </c>
-      <c r="L21" s="6" t="str">
-        <v>SPACING</v>
+        <v>-66.408888888888839</v>
+      </c>
+      <c r="L21" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M21" s="6">
-        <v>0.95199999999992235</v>
+        <v>6616.4999999999964</v>
       </c>
       <c r="N21" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
-        <v>0.60266866666673502</v>
+        <v>6616.4999999999964</v>
       </c>
       <c r="P21" s="6">
-        <v>1.023997999999968</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q21" s="6">
-        <v>1.5333333333333124E-2</v>
+        <v>-66.275000000000006</v>
       </c>
       <c r="R21" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S21" s="6">
-        <v>9.3333333333352666E-3</v>
-      </c>
-      <c r="T21">
-        <v>-1.7333333333330831E-2</v>
+        <v>-66.275000000000006</v>
+      </c>
+      <c r="T21" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,55 +1503,55 @@
         <v>12</v>
       </c>
       <c r="B22" s="16">
-        <v>4508.7972307692307</v>
+        <v>4334</v>
       </c>
       <c r="C22" s="16">
-        <v>6514</v>
+        <v>6625.5466666666662</v>
       </c>
       <c r="D22" s="16">
-        <v>4517.8189230769221</v>
+        <v>4314</v>
       </c>
       <c r="E22" s="16">
-        <v>6448.1713846153807</v>
+        <v>6625.5466666666662</v>
       </c>
       <c r="F22" s="12">
-        <v>45.146620512820498</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G22" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.425777777777839</v>
       </c>
       <c r="H22" s="12">
-        <v>45.296982051282001</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I22" s="12">
-        <v>-64.802856410256339</v>
-      </c>
-      <c r="L22" s="6" t="str">
-        <v>LINE #</v>
-      </c>
-      <c r="M22" s="6" t="str">
-        <v>START POINT</v>
+        <v>-66.425777777777839</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M22" s="6">
+        <v>6617.399999999996</v>
       </c>
       <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6" t="str">
-        <v>TURN POINT</v>
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O22" s="6">
+        <v>6617.399999999996</v>
       </c>
       <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6" t="str">
-        <v>START POINT</v>
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>-66.290000000000006</v>
       </c>
       <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6" t="str">
-        <v>TURN POINT</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S22" s="6">
+        <v>-66.290000000000006</v>
+      </c>
+      <c r="T22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1559,55 +1559,55 @@
         <v>13</v>
       </c>
       <c r="B23" s="16">
-        <v>4509.3986153846154</v>
+        <v>4334</v>
       </c>
       <c r="C23" s="16">
-        <v>6514</v>
+        <v>6626.5599999999995</v>
       </c>
       <c r="D23" s="16">
-        <v>4518.2594615384605</v>
+        <v>4314</v>
       </c>
       <c r="E23" s="16">
-        <v>6448.8356923076881</v>
+        <v>6626.5599999999995</v>
       </c>
       <c r="F23" s="12">
-        <v>45.156643589743666</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G23" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.442666666666668</v>
       </c>
       <c r="H23" s="12">
-        <v>45.304324358974334</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I23" s="12">
-        <v>-64.813928205128164</v>
+        <v>-66.442666666666668</v>
       </c>
       <c r="L23" s="6">
-        <v>1</v>
+        <v>4330.12</v>
       </c>
       <c r="M23" s="6">
-        <v>4515</v>
+        <v>6618.2999999999956</v>
       </c>
       <c r="N23" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
-        <v>4519</v>
+        <v>6618.2999999999956</v>
       </c>
       <c r="P23" s="6">
-        <v>6450</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q23" s="6">
-        <v>45.25</v>
+        <v>-66.305000000000007</v>
       </c>
       <c r="R23" s="6">
-        <v>-65.05</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S23" s="6">
-        <v>45.31666666666667</v>
-      </c>
-      <c r="T23">
-        <v>-64.833333333333329</v>
+        <v>-66.305000000000007</v>
+      </c>
+      <c r="T23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1615,55 +1615,55 @@
         <v>14</v>
       </c>
       <c r="B24" s="16">
-        <v>4510</v>
+        <v>4334</v>
       </c>
       <c r="C24" s="16">
-        <v>6514</v>
+        <v>6627.5733333333328</v>
       </c>
       <c r="D24" s="16">
-        <v>4518.6999999999989</v>
+        <v>4314</v>
       </c>
       <c r="E24" s="16">
-        <v>6449.4999999999955</v>
+        <v>6627.5733333333328</v>
       </c>
       <c r="F24" s="12">
-        <v>45.166666666666664</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G24" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.459555555555497</v>
       </c>
       <c r="H24" s="12">
-        <v>45.311666666666667</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I24" s="12">
-        <v>-64.825000000000003</v>
+        <v>-66.459555555555497</v>
       </c>
       <c r="L24" s="6">
-        <v>2</v>
+        <v>4330.12</v>
       </c>
       <c r="M24" s="6">
-        <v>4515.7830000000004</v>
+        <v>6619.1999999999953</v>
       </c>
       <c r="N24" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
-        <v>4519.4669999999996</v>
+        <v>6619.1999999999953</v>
       </c>
       <c r="P24" s="6">
-        <v>6451</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q24" s="6">
-        <v>45.26305</v>
+        <v>-66.319999999999993</v>
       </c>
       <c r="R24" s="6">
-        <v>-65.05</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S24" s="6">
-        <v>45.324449999999999</v>
-      </c>
-      <c r="T24">
-        <v>-64.849999999999994</v>
+        <v>-66.319999999999993</v>
+      </c>
+      <c r="T24" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1671,55 +1671,55 @@
         <v>15</v>
       </c>
       <c r="B25" s="16">
-        <v>4510.6013846153846</v>
+        <v>4334</v>
       </c>
       <c r="C25" s="16">
-        <v>6514</v>
+        <v>6628.5866666666661</v>
       </c>
       <c r="D25" s="16">
-        <v>4519.1405384615373</v>
+        <v>4314</v>
       </c>
       <c r="E25" s="16">
-        <v>6450.1643076923028</v>
+        <v>6628.5866666666661</v>
       </c>
       <c r="F25" s="12">
-        <v>45.176689743589669</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G25" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.476444444444496</v>
       </c>
       <c r="H25" s="12">
-        <v>45.319008974359001</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I25" s="12">
-        <v>-64.836071794871671</v>
+        <v>-66.476444444444496</v>
       </c>
       <c r="L25" s="6">
-        <v>3</v>
+        <v>4330.12</v>
       </c>
       <c r="M25" s="6">
-        <v>4516.567</v>
+        <v>6620.0999999999949</v>
       </c>
       <c r="N25" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
-        <v>4519.933</v>
+        <v>6620.0999999999949</v>
       </c>
       <c r="P25" s="6">
-        <v>6452</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q25" s="6">
-        <v>45.276116666666667</v>
+        <v>-66.334999999999837</v>
       </c>
       <c r="R25" s="6">
-        <v>-65.05</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S25" s="6">
-        <v>45.332216666666667</v>
-      </c>
-      <c r="T25">
-        <v>-64.86666666666666</v>
+        <v>-66.334999999999837</v>
+      </c>
+      <c r="T25" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1727,55 +1727,55 @@
         <v>16</v>
       </c>
       <c r="B26" s="16">
-        <v>4511.2027692307693</v>
+        <v>4334</v>
       </c>
       <c r="C26" s="16">
-        <v>6514</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="D26" s="16">
-        <v>4519.5810769230757</v>
+        <v>4314</v>
       </c>
       <c r="E26" s="16">
-        <v>6450.8286153846102</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="F26" s="12">
-        <v>45.186712820512831</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G26" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H26" s="12">
-        <v>45.326351282051334</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I26" s="12">
-        <v>-64.847143589743496</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="L26" s="6">
-        <v>4</v>
+        <v>4330.12</v>
       </c>
       <c r="M26" s="6">
-        <v>4517.3500000000004</v>
+        <v>6620.0999999999949</v>
       </c>
       <c r="N26" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
-        <v>4520.3999999999996</v>
+        <v>6620.0999999999949</v>
       </c>
       <c r="P26" s="6">
-        <v>6453</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q26" s="6">
-        <v>45.289166666666667</v>
+        <v>-66.334999999999837</v>
       </c>
       <c r="R26" s="6">
-        <v>-65.05</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S26" s="6">
-        <v>45.34</v>
-      </c>
-      <c r="T26">
-        <v>-64.88333333333334</v>
+        <v>-66.334999999999837</v>
+      </c>
+      <c r="T26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,52 +1783,52 @@
         <v>17</v>
       </c>
       <c r="B27" s="16">
-        <v>4511.8041538461539</v>
+        <v>4334</v>
       </c>
       <c r="C27" s="16">
-        <v>6514</v>
+        <v>6630.6133333333328</v>
       </c>
       <c r="D27" s="16">
-        <v>4520.0216153846141</v>
+        <v>4314</v>
       </c>
       <c r="E27" s="16">
-        <v>6451.4929230769176</v>
+        <v>6630.6133333333328</v>
       </c>
       <c r="F27" s="12">
-        <v>45.196735897435836</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G27" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.510222222222168</v>
       </c>
       <c r="H27" s="12">
-        <v>45.333693589743497</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I27" s="12">
-        <v>-64.858215384615335</v>
-      </c>
-      <c r="L27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S27" s="6" t="e">
-        <v>#N/A</v>
+        <v>-66.510222222222168</v>
+      </c>
+      <c r="L27" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M27" s="6">
+        <v>6620.9999999999945</v>
+      </c>
+      <c r="N27" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O27" s="6">
+        <v>6620.9999999999945</v>
+      </c>
+      <c r="P27" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>-66.349999999999838</v>
+      </c>
+      <c r="R27" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S27" s="6">
+        <v>-66.349999999999838</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
@@ -1839,52 +1839,52 @@
         <v>18</v>
       </c>
       <c r="B28" s="16">
-        <v>4512.4055384615385</v>
+        <v>4334</v>
       </c>
       <c r="C28" s="16">
-        <v>6514</v>
+        <v>6631.6266666666661</v>
       </c>
       <c r="D28" s="16">
-        <v>4520.4621538461524</v>
+        <v>4314</v>
       </c>
       <c r="E28" s="16">
-        <v>6452.157230769225</v>
+        <v>6631.6266666666661</v>
       </c>
       <c r="F28" s="12">
-        <v>45.206758974358998</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G28" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.527111111111168</v>
       </c>
       <c r="H28" s="12">
-        <v>45.34103589743583</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I28" s="12">
-        <v>-64.869287179487003</v>
-      </c>
-      <c r="L28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S28" s="6" t="e">
-        <v>#N/A</v>
+        <v>-66.527111111111168</v>
+      </c>
+      <c r="L28" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M28" s="6">
+        <v>6621.8999999999942</v>
+      </c>
+      <c r="N28" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O28" s="6">
+        <v>6621.8999999999942</v>
+      </c>
+      <c r="P28" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>-66.364999999999839</v>
+      </c>
+      <c r="R28" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S28" s="6">
+        <v>-66.364999999999839</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
@@ -1894,53 +1894,53 @@
       <c r="A29" s="6">
         <v>19</v>
       </c>
-      <c r="B29" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C29" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H29" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I29" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S29" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B29" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C29" s="16">
+        <v>6632.6399999999994</v>
+      </c>
+      <c r="D29" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E29" s="16">
+        <v>6632.6399999999994</v>
+      </c>
+      <c r="F29" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-66.543999999999997</v>
+      </c>
+      <c r="H29" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I29" s="12">
+        <v>-66.543999999999997</v>
+      </c>
+      <c r="L29" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M29" s="6">
+        <v>6622.7999999999938</v>
+      </c>
+      <c r="N29" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O29" s="6">
+        <v>6622.7999999999938</v>
+      </c>
+      <c r="P29" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>-66.379999999999839</v>
+      </c>
+      <c r="R29" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S29" s="6">
+        <v>-66.379999999999839</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
@@ -1950,53 +1950,53 @@
       <c r="A30" s="6">
         <v>20</v>
       </c>
-      <c r="B30" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C30" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D30" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I30" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S30" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B30" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6633.6533333333327</v>
+      </c>
+      <c r="D30" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E30" s="16">
+        <v>6633.6533333333327</v>
+      </c>
+      <c r="F30" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G30" s="12">
+        <v>-66.56088888888884</v>
+      </c>
+      <c r="H30" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I30" s="12">
+        <v>-66.56088888888884</v>
+      </c>
+      <c r="L30" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M30" s="6">
+        <v>6623.6999999999935</v>
+      </c>
+      <c r="N30" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O30" s="6">
+        <v>6623.6999999999935</v>
+      </c>
+      <c r="P30" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>-66.39499999999984</v>
+      </c>
+      <c r="R30" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S30" s="6">
+        <v>-66.39499999999984</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
@@ -2006,53 +2006,53 @@
       <c r="A31" s="6">
         <v>21</v>
       </c>
-      <c r="B31" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C31" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D31" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H31" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I31" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S31" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B31" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C31" s="16">
+        <v>6634.6666666666661</v>
+      </c>
+      <c r="D31" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E31" s="16">
+        <v>6634.6666666666661</v>
+      </c>
+      <c r="F31" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G31" s="12">
+        <v>-66.57777777777784</v>
+      </c>
+      <c r="H31" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I31" s="12">
+        <v>-66.57777777777784</v>
+      </c>
+      <c r="L31" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M31" s="6">
+        <v>6624.5999999999931</v>
+      </c>
+      <c r="N31" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O31" s="6">
+        <v>6624.5999999999931</v>
+      </c>
+      <c r="P31" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>-66.40999999999984</v>
+      </c>
+      <c r="R31" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S31" s="6">
+        <v>-66.40999999999984</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
@@ -2062,53 +2062,53 @@
       <c r="A32" s="6">
         <v>22</v>
       </c>
-      <c r="B32" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C32" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F32" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G32" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H32" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I32" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S32" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B32" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C32" s="16">
+        <v>6635.6799999999994</v>
+      </c>
+      <c r="D32" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E32" s="16">
+        <v>6635.6799999999994</v>
+      </c>
+      <c r="F32" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G32" s="12">
+        <v>-66.594666666666669</v>
+      </c>
+      <c r="H32" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I32" s="12">
+        <v>-66.594666666666669</v>
+      </c>
+      <c r="L32" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M32" s="6">
+        <v>6625.4999999999927</v>
+      </c>
+      <c r="N32" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O32" s="6">
+        <v>6625.4999999999927</v>
+      </c>
+      <c r="P32" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>-66.424999999999827</v>
+      </c>
+      <c r="R32" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S32" s="6">
+        <v>-66.424999999999827</v>
       </c>
       <c r="T32" t="e">
         <v>#N/A</v>
@@ -2118,53 +2118,53 @@
       <c r="A33" s="6">
         <v>23</v>
       </c>
-      <c r="B33" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C33" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H33" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I33" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S33" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B33" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C33" s="16">
+        <v>6636.6933333333327</v>
+      </c>
+      <c r="D33" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E33" s="16">
+        <v>6636.6933333333327</v>
+      </c>
+      <c r="F33" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G33" s="12">
+        <v>-66.611555555555498</v>
+      </c>
+      <c r="H33" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I33" s="12">
+        <v>-66.611555555555498</v>
+      </c>
+      <c r="L33" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M33" s="6">
+        <v>6626.3999999999924</v>
+      </c>
+      <c r="N33" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O33" s="6">
+        <v>6626.3999999999924</v>
+      </c>
+      <c r="P33" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>-66.439999999999827</v>
+      </c>
+      <c r="R33" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S33" s="6">
+        <v>-66.439999999999827</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
@@ -2174,53 +2174,53 @@
       <c r="A34" s="6">
         <v>24</v>
       </c>
-      <c r="B34" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C34" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F34" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G34" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H34" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I34" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S34" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B34" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C34" s="16">
+        <v>6637.706666666666</v>
+      </c>
+      <c r="D34" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E34" s="16">
+        <v>6637.706666666666</v>
+      </c>
+      <c r="F34" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G34" s="12">
+        <v>-66.628444444444497</v>
+      </c>
+      <c r="H34" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I34" s="12">
+        <v>-66.628444444444497</v>
+      </c>
+      <c r="L34" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M34" s="6">
+        <v>6627.299999999992</v>
+      </c>
+      <c r="N34" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O34" s="6">
+        <v>6627.299999999992</v>
+      </c>
+      <c r="P34" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>-66.454999999999828</v>
+      </c>
+      <c r="R34" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S34" s="6">
+        <v>-66.454999999999828</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
@@ -5820,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5943,11 +5943,11 @@
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" ref="X3:X4" si="8">V3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>23</v>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -6001,15 +6001,15 @@
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>24</v>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>1.0500000000000302</v>
+        <v>0.900000000000026</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>26</v>
@@ -6059,15 +6059,15 @@
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>0.60138461538463162</v>
+        <v>0.5212000000000141</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:Y5" si="10">(X2-X25)/(X4-1)</f>
-        <v>0.44053846153845089</v>
+        <v>0.38179999999999076</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="10"/>
-        <v>0.6643076923077248</v>
+        <v>0.57573333333336152</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>26</v>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>1.1692307692308253</v>
+        <v>1.0133333333333818</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>26</v>
@@ -6184,11 +6184,11 @@
         <v>-66.125</v>
       </c>
       <c r="R7" s="6">
-        <f t="shared" ref="R7:S7" si="15">P7</f>
-        <v>43.502000000000002</v>
+        <f>(LEFT(N7,2)+((RIGHT(N7,LEN(N7)-2))/60))</f>
+        <v>43.247500000000002</v>
       </c>
       <c r="S7" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="R7:S7" si="15">Q7</f>
         <v>-66.125</v>
       </c>
       <c r="U7" s="6">
@@ -6287,11 +6287,11 @@
         <v>-66.239999999999995</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8:I8" si="27">F8</f>
-        <v>43.56666666666667</v>
+        <f>(LEFT(D8,2)+((RIGHT(D8,LEN(D8)-2))/60))</f>
+        <v>43.233333333333334</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H8:I8" si="27">G8</f>
         <v>-66.239999999999995</v>
       </c>
       <c r="K8" s="6">
@@ -6303,14 +6303,14 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6608.55</v>
+        <v>6608.4</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="12"/>
-        <v>6608.55</v>
+        <v>6608.4</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="13"/>
@@ -6318,38 +6318,38 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="14"/>
-        <v>-66.142499999999998</v>
+        <v>-66.14</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" ref="R8:S8" si="29">P8</f>
-        <v>43.502000000000002</v>
+        <f t="shared" ref="R8:R30" si="29">(LEFT(N8,2)+((RIGHT(N8,LEN(N8)-2))/60))</f>
+        <v>43.247500000000002</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="29"/>
-        <v>-66.142499999999998</v>
+        <f t="shared" ref="R8:S8" si="30">Q8</f>
+        <v>-66.14</v>
       </c>
       <c r="U8" s="6">
-        <f t="shared" ref="U8:U24" si="30">U7+1</f>
+        <f t="shared" ref="U8:U24" si="31">U7+1</f>
         <v>2</v>
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4502.7833846153844</v>
+        <v>4502.7031999999999</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
-        <f t="shared" ref="X8:Y8" si="31">X7+X5</f>
-        <v>4513.4135384615383</v>
+        <f t="shared" ref="X8:Y8" si="32">X7+X5</f>
+        <v>4513.3548000000001</v>
       </c>
       <c r="Y8" s="6">
-        <f t="shared" si="31"/>
-        <v>6441.528307692307</v>
+        <f t="shared" si="32"/>
+        <v>6441.4397333333327</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="16"/>
-        <v>45.046389743589664</v>
+        <v>45.045053333333335</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="17"/>
@@ -6357,25 +6357,25 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="18"/>
-        <v>45.223558974359001</v>
+        <v>45.222580000000001</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="19"/>
-        <v>-64.692138461538505</v>
+        <v>-64.690662222222173</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
       </c>
       <c r="AF8" s="6">
-        <f t="shared" ref="AF8:AH8" si="32">AF7+AF5</f>
+        <f t="shared" ref="AF8:AH8" si="33">AF7+AF5</f>
         <v>4514.3566666666666</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>6442.7966666666662</v>
       </c>
       <c r="AH8" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4517.1166666666668</v>
       </c>
       <c r="AI8" s="6">
@@ -6400,7 +6400,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <f t="shared" ref="A9:A31" si="33">A8+1</f>
+        <f t="shared" ref="A9:A31" si="34">A8+1</f>
         <v>2</v>
       </c>
       <c r="B9" s="6">
@@ -6408,14 +6408,14 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6615.5692307692307</v>
+        <v>6615.413333333333</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="24"/>
-        <v>6615.5692307692307</v>
+        <v>6615.413333333333</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="25"/>
@@ -6423,15 +6423,15 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="26"/>
-        <v>-66.259487179487166</v>
+        <v>-66.256888888888838</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ref="H9:I9" si="34">F9</f>
-        <v>43.56666666666667</v>
+        <f t="shared" ref="H9:H31" si="35">(LEFT(D9,2)+((RIGHT(D9,LEN(D9)-2))/60))</f>
+        <v>43.233333333333334</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="34"/>
-        <v>-66.259487179487166</v>
+        <f t="shared" ref="H9:I9" si="36">G9</f>
+        <v>-66.256888888888838</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="28"/>
@@ -6442,14 +6442,14 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6609.6</v>
+        <v>6609.2999999999993</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="12"/>
-        <v>6609.6</v>
+        <v>6609.2999999999993</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="13"/>
@@ -6457,38 +6457,38 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="14"/>
-        <v>-66.16</v>
+        <v>-66.155000000000001</v>
       </c>
       <c r="R9" s="6">
-        <f t="shared" ref="R9:S9" si="35">P9</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S9" s="6">
-        <f t="shared" si="35"/>
-        <v>-66.16</v>
+        <f t="shared" ref="R9:S9" si="37">Q9</f>
+        <v>-66.155000000000001</v>
       </c>
       <c r="U9" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4503.3847692307691</v>
+        <v>4503.2244000000001</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
-        <f t="shared" ref="X9:Y9" si="36">X8+X5</f>
-        <v>4513.8540769230767</v>
+        <f t="shared" ref="X9:Y9" si="38">X8+X5</f>
+        <v>4513.7366000000002</v>
       </c>
       <c r="Y9" s="6">
-        <f t="shared" si="36"/>
-        <v>6442.1926153846143</v>
+        <f t="shared" si="38"/>
+        <v>6442.0154666666658</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="16"/>
-        <v>45.056412820512833</v>
+        <v>45.053739999999998</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="17"/>
@@ -6496,25 +6496,25 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="18"/>
-        <v>45.230901282051335</v>
+        <v>45.228943333333333</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="19"/>
-        <v>-64.703210256410173</v>
+        <v>-64.700257777777836</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
       </c>
       <c r="AF9" s="6">
-        <f t="shared" ref="AF9:AH9" si="37">AF8+AF5</f>
+        <f t="shared" ref="AF9:AH9" si="39">AF8+AF5</f>
         <v>4515.2383333333328</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>6444.1133333333328</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4518.4083333333338</v>
       </c>
       <c r="AI9" s="6">
@@ -6539,7 +6539,7 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="B10" s="6">
@@ -6547,14 +6547,14 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6616.7384615384617</v>
+        <v>6616.4266666666663</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="24"/>
-        <v>6616.7384615384617</v>
+        <v>6616.4266666666663</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="25"/>
@@ -6562,15 +6562,15 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="26"/>
-        <v>-66.278974358974338</v>
+        <v>-66.273777777777838</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" ref="H10:I10" si="38">F10</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="38"/>
-        <v>-66.278974358974338</v>
+        <f t="shared" ref="H10:I10" si="40">G10</f>
+        <v>-66.273777777777838</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="28"/>
@@ -6581,14 +6581,14 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6610.6500000000005</v>
+        <v>6610.1999999999989</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="12"/>
-        <v>6610.6500000000005</v>
+        <v>6610.1999999999989</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="13"/>
@@ -6596,38 +6596,38 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="14"/>
-        <v>-66.177499999999995</v>
+        <v>-66.17</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" ref="R10:S10" si="39">P10</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S10" s="6">
-        <f t="shared" si="39"/>
-        <v>-66.177499999999995</v>
+        <f t="shared" ref="R10:S10" si="41">Q10</f>
+        <v>-66.17</v>
       </c>
       <c r="U10" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4503.9861538461537</v>
+        <v>4503.7456000000002</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
-        <f t="shared" ref="X10:Y10" si="40">X9+X5</f>
-        <v>4514.2946153846151</v>
+        <f t="shared" ref="X10:Y10" si="42">X9+X5</f>
+        <v>4514.1184000000003</v>
       </c>
       <c r="Y10" s="6">
-        <f t="shared" si="40"/>
-        <v>6442.8569230769217</v>
+        <f t="shared" si="42"/>
+        <v>6442.5911999999989</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="16"/>
-        <v>45.066435897435831</v>
+        <v>45.062426666666667</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="17"/>
@@ -6635,25 +6635,25 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="18"/>
-        <v>45.238243589743668</v>
+        <v>45.235306666666666</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="19"/>
-        <v>-64.714282051281998</v>
+        <v>-64.709853333333328</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
       </c>
       <c r="AF10" s="6">
-        <f t="shared" ref="AF10:AH10" si="41">AF9+AF5</f>
+        <f t="shared" ref="AF10:AH10" si="43">AF9+AF5</f>
         <v>4516.119999999999</v>
       </c>
       <c r="AG10" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>6445.4299999999994</v>
       </c>
       <c r="AH10" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4519.7000000000007</v>
       </c>
       <c r="AI10" s="6">
@@ -6678,7 +6678,7 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="B11" s="6">
@@ -6686,14 +6686,14 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6617.9076923076927</v>
+        <v>6617.44</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="24"/>
-        <v>6617.9076923076927</v>
+        <v>6617.44</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="25"/>
@@ -6701,15 +6701,15 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="26"/>
-        <v>-66.298461538461495</v>
+        <v>-66.290666666666667</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ref="H11:I11" si="42">F11</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="42"/>
-        <v>-66.298461538461495</v>
+        <f t="shared" ref="H11:I11" si="44">G11</f>
+        <v>-66.290666666666667</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="28"/>
@@ -6720,14 +6720,14 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6611.7000000000007</v>
+        <v>6611.0999999999985</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="12"/>
-        <v>6611.7000000000007</v>
+        <v>6611.0999999999985</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="13"/>
@@ -6735,38 +6735,38 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="14"/>
-        <v>-66.194999999999993</v>
+        <v>-66.185000000000002</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" ref="R11:S11" si="43">P11</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" si="43"/>
-        <v>-66.194999999999993</v>
+        <f t="shared" ref="R11:S11" si="45">Q11</f>
+        <v>-66.185000000000002</v>
       </c>
       <c r="U11" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4504.5875384615383</v>
+        <v>4504.2668000000003</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
-        <f t="shared" ref="X11:Y11" si="44">X10+X5</f>
-        <v>4514.7351538461535</v>
+        <f t="shared" ref="X11:Y11" si="46">X10+X5</f>
+        <v>4514.5002000000004</v>
       </c>
       <c r="Y11" s="6">
-        <f t="shared" si="44"/>
-        <v>6443.5212307692291</v>
+        <f t="shared" si="46"/>
+        <v>6443.1669333333321</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="16"/>
-        <v>45.076458974358999</v>
+        <v>45.071113333333336</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="17"/>
@@ -6774,11 +6774,11 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="18"/>
-        <v>45.245585897435831</v>
+        <v>45.241669999999999</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="19"/>
-        <v>-64.725353846153837</v>
+        <v>-64.719448888888834</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>28</v>
@@ -6796,25 +6796,25 @@
         <v>6433</v>
       </c>
       <c r="AJ11" s="6">
-        <f t="shared" ref="AJ11" si="45">(LEFT(AF11,2)+((RIGHT(AF11,LEN(AF11)-2))/60))</f>
+        <f t="shared" ref="AJ11" si="47">(LEFT(AF11,2)+((RIGHT(AF11,LEN(AF11)-2))/60))</f>
         <v>45.224583333333335</v>
       </c>
       <c r="AK11" s="6">
-        <f t="shared" ref="AK11" si="46">-(LEFT(AG11,2)+((RIGHT(AG11,LEN(AG11)-2))/60))</f>
+        <f t="shared" ref="AK11" si="48">-(LEFT(AG11,2)+((RIGHT(AG11,LEN(AG11)-2))/60))</f>
         <v>-64.691333333333333</v>
       </c>
       <c r="AL11" s="6">
-        <f t="shared" ref="AL11" si="47">(LEFT(AH11,2)+((RIGHT(AH11,LEN(AH11)-2))/60))</f>
+        <f t="shared" ref="AL11" si="49">(LEFT(AH11,2)+((RIGHT(AH11,LEN(AH11)-2))/60))</f>
         <v>45.263750000000002</v>
       </c>
       <c r="AM11" s="6">
-        <f t="shared" ref="AM11" si="48">-(LEFT(AI11,2)+((RIGHT(AI11,LEN(AI11)-2))/60))</f>
+        <f t="shared" ref="AM11" si="50">-(LEFT(AI11,2)+((RIGHT(AI11,LEN(AI11)-2))/60))</f>
         <v>-64.55</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="B12" s="6">
@@ -6822,14 +6822,14 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6619.0769230769238</v>
+        <v>6618.4533333333329</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="24"/>
-        <v>6619.0769230769238</v>
+        <v>6618.4533333333329</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="25"/>
@@ -6837,15 +6837,15 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="26"/>
-        <v>-66.317948717948667</v>
+        <v>-66.307555555555496</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" ref="H12:I12" si="49">F12</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="49"/>
-        <v>-66.317948717948667</v>
+        <f t="shared" ref="H12:I12" si="51">G12</f>
+        <v>-66.307555555555496</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="28"/>
@@ -6856,14 +6856,14 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6612.7500000000009</v>
+        <v>6611.9999999999982</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="12"/>
-        <v>6612.7500000000009</v>
+        <v>6611.9999999999982</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="13"/>
@@ -6871,38 +6871,38 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="14"/>
-        <v>-66.212500000000006</v>
+        <v>-66.2</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" ref="R12:S12" si="50">P12</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" si="50"/>
-        <v>-66.212500000000006</v>
+        <f t="shared" ref="R12:S12" si="52">Q12</f>
+        <v>-66.2</v>
       </c>
       <c r="U12" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4505.1889230769229</v>
+        <v>4504.7880000000005</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
-        <f t="shared" ref="X12:Y12" si="51">X11+X5</f>
-        <v>4515.1756923076919</v>
+        <f t="shared" ref="X12:Y12" si="53">X11+X5</f>
+        <v>4514.8820000000005</v>
       </c>
       <c r="Y12" s="6">
-        <f t="shared" si="51"/>
-        <v>6444.1855384615365</v>
+        <f t="shared" si="53"/>
+        <v>6443.7426666666652</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="16"/>
-        <v>45.086482051281997</v>
+        <v>45.079799999999999</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="17"/>
@@ -6910,16 +6910,16 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="18"/>
-        <v>45.252928205128164</v>
+        <v>45.248033333333332</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="19"/>
-        <v>-64.736425641025662</v>
+        <v>-64.729044444444497</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="B13" s="6">
@@ -6927,14 +6927,14 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6620.2461538461548</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="24"/>
-        <v>6620.2461538461548</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="25"/>
@@ -6942,15 +6942,15 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="26"/>
-        <v>-66.337435897435839</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ref="H13:I13" si="52">F13</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="52"/>
-        <v>-66.337435897435839</v>
+        <f t="shared" ref="H13:I13" si="54">G13</f>
+        <v>-66.324444444444495</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="28"/>
@@ -6961,14 +6961,14 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6613.8000000000011</v>
+        <v>6612.8999999999978</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="12"/>
-        <v>6613.8000000000011</v>
+        <v>6612.8999999999978</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="13"/>
@@ -6976,38 +6976,38 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="14"/>
-        <v>-66.23</v>
+        <v>-66.215000000000003</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" ref="R13:S13" si="53">P13</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="53"/>
-        <v>-66.23</v>
+        <f t="shared" ref="R13:S13" si="55">Q13</f>
+        <v>-66.215000000000003</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4505.7903076923076</v>
+        <v>4505.3092000000006</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
-        <f t="shared" ref="X13:Y13" si="54">X12+X5</f>
-        <v>4515.6162307692302</v>
+        <f t="shared" ref="X13:Y13" si="56">X12+X5</f>
+        <v>4515.2638000000006</v>
       </c>
       <c r="Y13" s="6">
-        <f t="shared" si="54"/>
-        <v>6444.8498461538438</v>
+        <f t="shared" si="56"/>
+        <v>6444.3183999999983</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="16"/>
-        <v>45.096505128205166</v>
+        <v>45.088486666666668</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="17"/>
@@ -7015,11 +7015,11 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="18"/>
-        <v>45.260270512820497</v>
+        <v>45.254396666666665</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="19"/>
-        <v>-64.74749743589733</v>
+        <v>-64.738640000000004</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>29</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="B14" s="6">
@@ -7035,14 +7035,14 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6621.4153846153858</v>
+        <v>6620.48</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="24"/>
-        <v>6621.4153846153858</v>
+        <v>6620.48</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="25"/>
@@ -7050,15 +7050,15 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="26"/>
-        <v>-66.356923076923167</v>
+        <v>-66.341333333333338</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" ref="H14:I14" si="55">F14</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="55"/>
-        <v>-66.356923076923167</v>
+        <f t="shared" ref="H14:I14" si="57">G14</f>
+        <v>-66.341333333333338</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="28"/>
@@ -7069,14 +7069,14 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6614.8500000000013</v>
+        <v>6613.7999999999975</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="12"/>
-        <v>6614.8500000000013</v>
+        <v>6613.7999999999975</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="13"/>
@@ -7084,38 +7084,38 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="14"/>
-        <v>-66.247500000000002</v>
+        <v>-66.23</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" ref="R14:S14" si="56">P14</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S14" s="6">
-        <f t="shared" si="56"/>
-        <v>-66.247500000000002</v>
+        <f t="shared" ref="R14:S14" si="58">Q14</f>
+        <v>-66.23</v>
       </c>
       <c r="U14" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4506.3916923076922</v>
+        <v>4505.8304000000007</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
-        <f t="shared" ref="X14:Y14" si="57">X13+X5</f>
-        <v>4516.0567692307686</v>
+        <f t="shared" ref="X14:Y14" si="59">X13+X5</f>
+        <v>4515.6456000000007</v>
       </c>
       <c r="Y14" s="6">
-        <f t="shared" si="57"/>
-        <v>6445.5141538461512</v>
+        <f t="shared" si="59"/>
+        <v>6444.8941333333314</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="16"/>
-        <v>45.106528205128164</v>
+        <v>45.09717333333333</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="17"/>
@@ -7123,11 +7123,11 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="18"/>
-        <v>45.267612820512831</v>
+        <v>45.260759999999998</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="19"/>
-        <v>-64.758569230769169</v>
+        <v>-64.748235555555496</v>
       </c>
       <c r="AE14" s="6" t="s">
         <v>21</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="B15" s="6">
@@ -7167,14 +7167,14 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6622.5846153846169</v>
+        <v>6621.4933333333329</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="24"/>
-        <v>6622.5846153846169</v>
+        <v>6621.4933333333329</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="25"/>
@@ -7182,15 +7182,15 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="26"/>
-        <v>-66.376410256410338</v>
+        <v>-66.358222222222167</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:I15" si="58">F15</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="58"/>
-        <v>-66.376410256410338</v>
+        <f t="shared" ref="H15:I15" si="60">G15</f>
+        <v>-66.358222222222167</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="28"/>
@@ -7201,14 +7201,14 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6615.9000000000015</v>
+        <v>6614.6999999999971</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="12"/>
-        <v>6615.9000000000015</v>
+        <v>6614.6999999999971</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="13"/>
@@ -7216,38 +7216,38 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="14"/>
-        <v>-66.265000000000001</v>
+        <v>-66.245000000000005</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" ref="R15:S15" si="59">P15</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="59"/>
-        <v>-66.265000000000001</v>
+        <f t="shared" ref="R15:S15" si="61">Q15</f>
+        <v>-66.245000000000005</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4506.9930769230768</v>
+        <v>4506.3516000000009</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
-        <f t="shared" ref="X15:Y15" si="60">X14+X5</f>
-        <v>4516.497307692307</v>
+        <f t="shared" ref="X15:Y15" si="62">X14+X5</f>
+        <v>4516.0274000000009</v>
       </c>
       <c r="Y15" s="6">
-        <f t="shared" si="60"/>
-        <v>6446.1784615384586</v>
+        <f t="shared" si="62"/>
+        <v>6445.4698666666645</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="16"/>
-        <v>45.116551282051333</v>
+        <v>45.10586</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="17"/>
@@ -7255,11 +7255,11 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="18"/>
-        <v>45.274955128205164</v>
+        <v>45.26712333333333</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="19"/>
-        <v>-64.769641025640993</v>
+        <v>-64.757831111111003</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>23</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="B16" s="6">
@@ -7289,14 +7289,14 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6623.7538461538479</v>
+        <v>6622.5066666666662</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="24"/>
-        <v>6623.7538461538479</v>
+        <v>6622.5066666666662</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="25"/>
@@ -7304,15 +7304,15 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="26"/>
-        <v>-66.395897435897496</v>
+        <v>-66.375111111111167</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:I16" si="61">F16</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="61"/>
-        <v>-66.395897435897496</v>
+        <f t="shared" ref="H16:I16" si="63">G16</f>
+        <v>-66.375111111111167</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="28"/>
@@ -7323,14 +7323,14 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6616.9500000000016</v>
+        <v>6615.5999999999967</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="12"/>
-        <v>6616.9500000000016</v>
+        <v>6615.5999999999967</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="13"/>
@@ -7338,38 +7338,38 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="14"/>
-        <v>-66.282499999999999</v>
+        <v>-66.260000000000005</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" ref="R16:S16" si="62">P16</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" si="62"/>
-        <v>-66.282499999999999</v>
+        <f t="shared" ref="R16:S16" si="64">Q16</f>
+        <v>-66.260000000000005</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4507.5944615384615</v>
+        <v>4506.872800000001</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
-        <f t="shared" ref="X16:Y16" si="63">X15+X5</f>
-        <v>4516.9378461538454</v>
+        <f t="shared" ref="X16:Y16" si="65">X15+X5</f>
+        <v>4516.409200000001</v>
       </c>
       <c r="Y16" s="6">
-        <f t="shared" si="63"/>
-        <v>6446.842769230766</v>
+        <f t="shared" si="65"/>
+        <v>6446.0455999999976</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="16"/>
-        <v>45.126574358974331</v>
+        <v>45.114546666666669</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="17"/>
@@ -7377,11 +7377,11 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="18"/>
-        <v>45.282297435897497</v>
+        <v>45.273486666666663</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="19"/>
-        <v>-64.780712820512832</v>
+        <v>-64.767426666666665</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>24</v>
@@ -7391,11 +7391,11 @@
         <v>4</v>
       </c>
       <c r="AH16" s="6">
-        <f t="shared" ref="AH16:AI16" si="64">AH15*4</f>
+        <f t="shared" ref="AH16:AI16" si="66">AH15*4</f>
         <v>4</v>
       </c>
       <c r="AI16" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4</v>
       </c>
       <c r="AJ16">
@@ -7410,7 +7410,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="B17" s="6">
@@ -7418,14 +7418,14 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6624.923076923079</v>
+        <v>6623.5199999999995</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="24"/>
-        <v>6624.923076923079</v>
+        <v>6623.5199999999995</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="25"/>
@@ -7433,15 +7433,15 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="26"/>
-        <v>-66.415384615384667</v>
+        <v>-66.391999999999996</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ref="H17:I17" si="65">F17</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="65"/>
-        <v>-66.415384615384667</v>
+        <f t="shared" ref="H17:I17" si="67">G17</f>
+        <v>-66.391999999999996</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="28"/>
@@ -7452,14 +7452,14 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6618.0000000000018</v>
+        <v>6616.4999999999964</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="12"/>
-        <v>6618.0000000000018</v>
+        <v>6616.4999999999964</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="13"/>
@@ -7467,38 +7467,38 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="14"/>
-        <v>-66.3</v>
+        <v>-66.275000000000006</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" ref="R17:S17" si="66">P17</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="66"/>
-        <v>-66.3</v>
+        <f t="shared" ref="R17:S17" si="68">Q17</f>
+        <v>-66.275000000000006</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4508.1958461538461</v>
+        <v>4507.3940000000011</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
-        <f t="shared" ref="X17:Y17" si="67">X16+X5</f>
-        <v>4517.3783846153838</v>
+        <f t="shared" ref="X17:Y17" si="69">X16+X5</f>
+        <v>4516.7910000000011</v>
       </c>
       <c r="Y17" s="6">
-        <f t="shared" si="67"/>
-        <v>6447.5070769230733</v>
+        <f t="shared" si="69"/>
+        <v>6446.6213333333308</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="16"/>
-        <v>45.1365974358975</v>
+        <v>45.123233333333332</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="17"/>
@@ -7506,11 +7506,11 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="18"/>
-        <v>45.289639743589667</v>
+        <v>45.279850000000003</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="19"/>
-        <v>-64.791784615384501</v>
+        <v>-64.777022222222172</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>25</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="B18" s="6">
@@ -7550,14 +7550,14 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6626.09230769231</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="24"/>
-        <v>6626.09230769231</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="25"/>
@@ -7565,15 +7565,15 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="26"/>
-        <v>-66.434871794871839</v>
+        <v>-66.408888888888839</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:I18" si="68">F18</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="68"/>
-        <v>-66.434871794871839</v>
+        <f t="shared" ref="H18:I18" si="70">G18</f>
+        <v>-66.408888888888839</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="28"/>
@@ -7584,14 +7584,14 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6619.050000000002</v>
+        <v>6617.399999999996</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="12"/>
-        <v>6619.050000000002</v>
+        <v>6617.399999999996</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="13"/>
@@ -7599,38 +7599,38 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="14"/>
-        <v>-66.317499999999995</v>
+        <v>-66.290000000000006</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" ref="R18:S18" si="69">P18</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="69"/>
-        <v>-66.317499999999995</v>
+        <f t="shared" ref="R18:S18" si="71">Q18</f>
+        <v>-66.290000000000006</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4508.7972307692307</v>
+        <v>4507.9152000000013</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" ref="X18:Y18" si="70">X17+X5</f>
-        <v>4517.8189230769221</v>
+        <f t="shared" ref="X18:Y18" si="72">X17+X5</f>
+        <v>4517.1728000000012</v>
       </c>
       <c r="Y18" s="6">
-        <f t="shared" si="70"/>
-        <v>6448.1713846153807</v>
+        <f t="shared" si="72"/>
+        <v>6447.1970666666639</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="16"/>
-        <v>45.146620512820498</v>
+        <v>45.131920000000001</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="17"/>
@@ -7638,11 +7638,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="18"/>
-        <v>45.296982051282001</v>
+        <v>45.286213333333336</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="19"/>
-        <v>-64.802856410256339</v>
+        <v>-64.786617777777664</v>
       </c>
       <c r="AE18" s="6" t="s">
         <v>27</v>
@@ -7662,7 +7662,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="B19" s="6">
@@ -7670,14 +7670,14 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6627.261538461541</v>
+        <v>6625.5466666666662</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="24"/>
-        <v>6627.261538461541</v>
+        <v>6625.5466666666662</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="25"/>
@@ -7685,15 +7685,15 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="26"/>
-        <v>-66.454358974358996</v>
+        <v>-66.425777777777839</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" ref="H19:I19" si="71">F19</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="71"/>
-        <v>-66.454358974358996</v>
+        <f t="shared" ref="H19:I19" si="73">G19</f>
+        <v>-66.425777777777839</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="28"/>
@@ -7704,14 +7704,14 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6620.1000000000022</v>
+        <v>6618.2999999999956</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="12"/>
-        <v>6620.1000000000022</v>
+        <v>6618.2999999999956</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="13"/>
@@ -7719,38 +7719,38 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="14"/>
-        <v>-66.334999999999994</v>
+        <v>-66.305000000000007</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" ref="R19:S19" si="72">P19</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="72"/>
-        <v>-66.334999999999994</v>
+        <f t="shared" ref="R19:S19" si="74">Q19</f>
+        <v>-66.305000000000007</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4509.3986153846154</v>
+        <v>4508.4364000000014</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" ref="X19:Y19" si="73">X18+X5</f>
-        <v>4518.2594615384605</v>
+        <f t="shared" ref="X19:Y19" si="75">X18+X5</f>
+        <v>4517.5546000000013</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" si="73"/>
-        <v>6448.8356923076881</v>
+        <f t="shared" si="75"/>
+        <v>6447.772799999997</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="16"/>
-        <v>45.156643589743666</v>
+        <v>45.140606666666663</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="17"/>
@@ -7758,11 +7758,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="18"/>
-        <v>45.304324358974334</v>
+        <v>45.292576666666669</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="19"/>
-        <v>-64.813928205128164</v>
+        <v>-64.796213333333327</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7788,7 +7788,7 @@
         <v>-65.05</v>
       </c>
       <c r="AL19" s="6">
-        <f t="shared" ref="AL19:AL22" si="74">(LEFT(AH19,2)+((RIGHT(AH19,LEN(AH19)-2))/60))</f>
+        <f t="shared" ref="AL19:AL22" si="76">(LEFT(AH19,2)+((RIGHT(AH19,LEN(AH19)-2))/60))</f>
         <v>45.31666666666667</v>
       </c>
       <c r="AM19" s="6">
@@ -7798,7 +7798,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="B20" s="6">
@@ -7806,14 +7806,14 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6628.4307692307721</v>
+        <v>6626.5599999999995</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="24"/>
-        <v>6628.4307692307721</v>
+        <v>6626.5599999999995</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="25"/>
@@ -7821,15 +7821,15 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="26"/>
-        <v>-66.473846153846168</v>
+        <v>-66.442666666666668</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20:I20" si="75">F20</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="75"/>
-        <v>-66.473846153846168</v>
+        <f t="shared" ref="H20:I20" si="77">G20</f>
+        <v>-66.442666666666668</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="28"/>
@@ -7840,14 +7840,14 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6621.1500000000024</v>
+        <v>6619.1999999999953</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="12"/>
-        <v>6621.1500000000024</v>
+        <v>6619.1999999999953</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="13"/>
@@ -7855,38 +7855,38 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="14"/>
-        <v>-66.352500000000006</v>
+        <v>-66.319999999999993</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" ref="R20:S20" si="76">P20</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" si="76"/>
-        <v>-66.352500000000006</v>
+        <f t="shared" ref="R20:S20" si="78">Q20</f>
+        <v>-66.319999999999993</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4510</v>
+        <v>4508.9576000000015</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" ref="X20:Y20" si="77">X19+X5</f>
-        <v>4518.6999999999989</v>
+        <f t="shared" ref="X20:Y20" si="79">X19+X5</f>
+        <v>4517.9364000000014</v>
       </c>
       <c r="Y20" s="6">
-        <f t="shared" si="77"/>
-        <v>6449.4999999999955</v>
+        <f t="shared" si="79"/>
+        <v>6448.3485333333301</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="16"/>
-        <v>45.166666666666664</v>
+        <v>45.149293333333333</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="17"/>
@@ -7894,11 +7894,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="18"/>
-        <v>45.311666666666667</v>
+        <v>45.298940000000002</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="19"/>
-        <v>-64.825000000000003</v>
+        <v>-64.805808888888834</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -7916,25 +7916,25 @@
         <v>6451</v>
       </c>
       <c r="AJ20" s="6">
-        <f t="shared" ref="AJ20:AJ22" si="78">(LEFT(AF20,2)+((RIGHT(AF20,LEN(AF20)-2))/60))</f>
+        <f t="shared" ref="AJ20:AJ22" si="80">(LEFT(AF20,2)+((RIGHT(AF20,LEN(AF20)-2))/60))</f>
         <v>45.26305</v>
       </c>
       <c r="AK20" s="6">
-        <f t="shared" ref="AK20:AK22" si="79">-(LEFT(AG20,2)+((RIGHT(AG20,LEN(AG20)-2))/60))</f>
+        <f t="shared" ref="AK20:AK22" si="81">-(LEFT(AG20,2)+((RIGHT(AG20,LEN(AG20)-2))/60))</f>
         <v>-65.05</v>
       </c>
       <c r="AL20" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>45.324449999999999</v>
       </c>
       <c r="AM20" s="6">
-        <f t="shared" ref="AM20:AM22" si="80">-(LEFT(AI20,2)+((RIGHT(AI20,LEN(AI20)-2))/60))</f>
+        <f t="shared" ref="AM20:AM22" si="82">-(LEFT(AI20,2)+((RIGHT(AI20,LEN(AI20)-2))/60))</f>
         <v>-64.849999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="B21" s="6">
@@ -7942,14 +7942,14 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6629.6000000000031</v>
+        <v>6627.5733333333328</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="24"/>
-        <v>6629.6000000000031</v>
+        <v>6627.5733333333328</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="25"/>
@@ -7957,15 +7957,15 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="26"/>
-        <v>-66.493333333333339</v>
+        <v>-66.459555555555497</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ref="H21:I21" si="81">F21</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="81"/>
-        <v>-66.493333333333339</v>
+        <f t="shared" ref="H21:I21" si="83">G21</f>
+        <v>-66.459555555555497</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="28"/>
@@ -7976,14 +7976,14 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6622.2000000000025</v>
+        <v>6620.0999999999949</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="12"/>
-        <v>6622.2000000000025</v>
+        <v>6620.0999999999949</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="13"/>
@@ -7991,38 +7991,38 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="14"/>
-        <v>-66.37</v>
+        <v>-66.334999999999837</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21:S21" si="82">P21</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="82"/>
-        <v>-66.37</v>
+        <f t="shared" ref="R21:S21" si="84">Q21</f>
+        <v>-66.334999999999837</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4510.6013846153846</v>
+        <v>4509.4788000000017</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" ref="X21:Y21" si="83">X20+X5</f>
-        <v>4519.1405384615373</v>
+        <f t="shared" ref="X21:Y21" si="85">X20+X5</f>
+        <v>4518.3182000000015</v>
       </c>
       <c r="Y21" s="6">
-        <f t="shared" si="83"/>
-        <v>6450.1643076923028</v>
+        <f t="shared" si="85"/>
+        <v>6448.9242666666632</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="16"/>
-        <v>45.176689743589669</v>
+        <v>45.157980000000002</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="17"/>
@@ -8030,11 +8030,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="18"/>
-        <v>45.319008974359001</v>
+        <v>45.305303333333335</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="19"/>
-        <v>-64.836071794871671</v>
+        <v>-64.81540444444434</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -8052,25 +8052,25 @@
         <v>6452</v>
       </c>
       <c r="AJ21" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>45.276116666666667</v>
       </c>
       <c r="AK21" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>-65.05</v>
       </c>
       <c r="AL21" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>45.332216666666667</v>
       </c>
       <c r="AM21" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-64.86666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="B22" s="6">
@@ -8078,14 +8078,14 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6630.7692307692341</v>
+        <v>6628.5866666666661</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="24"/>
-        <v>6630.7692307692341</v>
+        <v>6628.5866666666661</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="25"/>
@@ -8093,15 +8093,15 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="26"/>
-        <v>-66.512820512820497</v>
+        <v>-66.476444444444496</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:I22" si="84">F22</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="84"/>
-        <v>-66.512820512820497</v>
+        <f t="shared" ref="H22:I22" si="86">G22</f>
+        <v>-66.476444444444496</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="28"/>
@@ -8112,14 +8112,14 @@
       </c>
       <c r="M22" s="6">
         <f>M21+EM5</f>
-        <v>6622.2000000000025</v>
+        <v>6620.0999999999949</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="12"/>
-        <v>6622.2000000000025</v>
+        <v>6620.0999999999949</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="13"/>
@@ -8127,38 +8127,38 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="14"/>
-        <v>-66.37</v>
+        <v>-66.334999999999837</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" ref="R22:S22" si="85">P22</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" si="85"/>
-        <v>-66.37</v>
+        <f t="shared" ref="R22:S22" si="87">Q22</f>
+        <v>-66.334999999999837</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4511.2027692307693</v>
+        <v>4510.0000000000018</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" ref="X22:Y22" si="86">X21+X5</f>
-        <v>4519.5810769230757</v>
+        <f t="shared" ref="X22:Y22" si="88">X21+X5</f>
+        <v>4518.7000000000016</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="86"/>
-        <v>6450.8286153846102</v>
+        <f t="shared" si="88"/>
+        <v>6449.4999999999964</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="16"/>
-        <v>45.186712820512831</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="17"/>
@@ -8166,11 +8166,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="18"/>
-        <v>45.326351282051334</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="19"/>
-        <v>-64.847143589743496</v>
+        <v>-64.825000000000003</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8188,25 +8188,25 @@
         <v>6453</v>
       </c>
       <c r="AJ22" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>45.289166666666667</v>
       </c>
       <c r="AK22" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>-65.05</v>
       </c>
       <c r="AL22" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>45.34</v>
       </c>
       <c r="AM22" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-64.88333333333334</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="B23" s="6">
@@ -8214,14 +8214,14 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6631.9384615384652</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="24"/>
-        <v>6631.9384615384652</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="25"/>
@@ -8229,15 +8229,15 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="26"/>
-        <v>-66.532307692307839</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:I23" si="87">F23</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="87"/>
-        <v>-66.532307692307839</v>
+        <f t="shared" ref="H23:I23" si="89">G23</f>
+        <v>-66.493333333333339</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="28"/>
@@ -8248,14 +8248,14 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6623.2500000000027</v>
+        <v>6620.9999999999945</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="12"/>
-        <v>6623.2500000000027</v>
+        <v>6620.9999999999945</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="13"/>
@@ -8263,38 +8263,38 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="14"/>
-        <v>-66.387500000000003</v>
+        <v>-66.349999999999838</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" ref="R23:S23" si="88">P23</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="88"/>
-        <v>-66.387500000000003</v>
+        <f t="shared" ref="R23:S23" si="90">Q23</f>
+        <v>-66.349999999999838</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4511.8041538461539</v>
+        <v>4510.521200000002</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" ref="X23:Y23" si="89">X22+X5</f>
-        <v>4520.0216153846141</v>
+        <f t="shared" ref="X23:Y23" si="91">X22+X5</f>
+        <v>4519.0818000000017</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="89"/>
-        <v>6451.4929230769176</v>
+        <f t="shared" si="91"/>
+        <v>6450.0757333333295</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="16"/>
-        <v>45.196735897435836</v>
+        <v>45.175353333333334</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="17"/>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="18"/>
-        <v>45.333693589743497</v>
+        <v>45.31803</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="19"/>
-        <v>-64.858215384615335</v>
+        <v>-64.834595555555495</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>28</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="24" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="B24" s="6">
@@ -8346,14 +8346,14 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6633.1076923076962</v>
+        <v>6630.6133333333328</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="24"/>
-        <v>6633.1076923076962</v>
+        <v>6630.6133333333328</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="25"/>
@@ -8361,15 +8361,15 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="26"/>
-        <v>-66.551794871794996</v>
+        <v>-66.510222222222168</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:I24" si="90">F24</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="90"/>
-        <v>-66.551794871794996</v>
+        <f t="shared" ref="H24:I24" si="92">G24</f>
+        <v>-66.510222222222168</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="28"/>
@@ -8380,14 +8380,14 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6624.3000000000029</v>
+        <v>6621.8999999999942</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="12"/>
-        <v>6624.3000000000029</v>
+        <v>6621.8999999999942</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="13"/>
@@ -8395,38 +8395,38 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="14"/>
-        <v>-66.405000000000001</v>
+        <v>-66.364999999999839</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" ref="R24:S24" si="91">P24</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="91"/>
-        <v>-66.405000000000001</v>
+        <f t="shared" ref="R24:S24" si="93">Q24</f>
+        <v>-66.364999999999839</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4512.4055384615385</v>
+        <v>4511.0424000000021</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
-        <f t="shared" ref="X24:Y24" si="92">X23+X5</f>
-        <v>4520.4621538461524</v>
+        <f t="shared" ref="X24:Y24" si="94">X23+X5</f>
+        <v>4519.4636000000019</v>
       </c>
       <c r="Y24" s="6">
-        <f t="shared" si="92"/>
-        <v>6452.157230769225</v>
+        <f t="shared" si="94"/>
+        <v>6450.6514666666626</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="16"/>
-        <v>45.206758974358998</v>
+        <v>45.184040000000003</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="17"/>
@@ -8434,16 +8434,16 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="18"/>
-        <v>45.34103589743583</v>
+        <v>45.324393333333333</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="19"/>
-        <v>-64.869287179487003</v>
+        <v>-64.844191111111002</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="B25" s="6">
@@ -8451,14 +8451,14 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6634.2769230769272</v>
+        <v>6631.6266666666661</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="24"/>
-        <v>6634.2769230769272</v>
+        <v>6631.6266666666661</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="25"/>
@@ -8466,15 +8466,15 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="26"/>
-        <v>-66.571282051282168</v>
+        <v>-66.527111111111168</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" ref="H25:I25" si="93">F25</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="93"/>
-        <v>-66.571282051282168</v>
+        <f t="shared" ref="H25:I25" si="95">G25</f>
+        <v>-66.527111111111168</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="28"/>
@@ -8485,14 +8485,14 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6625.3500000000031</v>
+        <v>6622.7999999999938</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="12"/>
-        <v>6625.3500000000031</v>
+        <v>6622.7999999999938</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="13"/>
@@ -8500,15 +8500,15 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="14"/>
-        <v>-66.422499999999999</v>
+        <v>-66.379999999999839</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" ref="R25:S25" si="94">P25</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="94"/>
-        <v>-66.422499999999999</v>
+        <f t="shared" ref="R25:S25" si="96">Q25</f>
+        <v>-66.379999999999839</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>28</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="26" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>19</v>
       </c>
       <c r="B26" s="6">
@@ -8552,14 +8552,14 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6635.4461538461583</v>
+        <v>6632.6399999999994</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="24"/>
-        <v>6635.4461538461583</v>
+        <v>6632.6399999999994</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="25"/>
@@ -8567,15 +8567,15 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="26"/>
-        <v>-66.59076923076934</v>
+        <v>-66.543999999999997</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" ref="H26:I26" si="95">F26</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="95"/>
-        <v>-66.59076923076934</v>
+        <f t="shared" ref="H26:I26" si="97">G26</f>
+        <v>-66.543999999999997</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="28"/>
@@ -8586,14 +8586,14 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6626.4000000000033</v>
+        <v>6623.6999999999935</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="12"/>
-        <v>6626.4000000000033</v>
+        <v>6623.6999999999935</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="13"/>
@@ -8601,20 +8601,20 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="14"/>
-        <v>-66.44</v>
+        <v>-66.39499999999984</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" ref="R26:S26" si="96">P26</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="96"/>
-        <v>-66.44</v>
+        <f t="shared" ref="R26:S26" si="98">Q26</f>
+        <v>-66.39499999999984</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="B27" s="6">
@@ -8622,14 +8622,14 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6636.6153846153893</v>
+        <v>6633.6533333333327</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="24"/>
-        <v>6636.6153846153893</v>
+        <v>6633.6533333333327</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="25"/>
@@ -8637,15 +8637,15 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="26"/>
-        <v>-66.610256410256497</v>
+        <v>-66.56088888888884</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:I27" si="97">F27</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="97"/>
-        <v>-66.610256410256497</v>
+        <f t="shared" ref="H27:I27" si="99">G27</f>
+        <v>-66.56088888888884</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="28"/>
@@ -8656,14 +8656,14 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6627.4500000000035</v>
+        <v>6624.5999999999931</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="12"/>
-        <v>6627.4500000000035</v>
+        <v>6624.5999999999931</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="13"/>
@@ -8671,20 +8671,20 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="14"/>
-        <v>-66.457499999999996</v>
+        <v>-66.40999999999984</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ref="R27:S27" si="98">P27</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" si="98"/>
-        <v>-66.457499999999996</v>
+        <f t="shared" ref="R27:S27" si="100">Q27</f>
+        <v>-66.40999999999984</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="B28" s="6">
@@ -8692,14 +8692,14 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6637.7846153846203</v>
+        <v>6634.6666666666661</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="24"/>
-        <v>6637.7846153846203</v>
+        <v>6634.6666666666661</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="25"/>
@@ -8707,15 +8707,15 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="26"/>
-        <v>-66.629743589743669</v>
+        <v>-66.57777777777784</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:I28" si="99">F28</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="99"/>
-        <v>-66.629743589743669</v>
+        <f t="shared" ref="H28:I28" si="101">G28</f>
+        <v>-66.57777777777784</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="28"/>
@@ -8726,14 +8726,14 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6628.5000000000036</v>
+        <v>6625.4999999999927</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="12"/>
-        <v>6628.5000000000036</v>
+        <v>6625.4999999999927</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="13"/>
@@ -8741,20 +8741,20 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="14"/>
-        <v>-66.474999999999994</v>
+        <v>-66.424999999999827</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" ref="R28:S28" si="100">P28</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" si="100"/>
-        <v>-66.474999999999994</v>
+        <f t="shared" ref="R28:S28" si="102">Q28</f>
+        <v>-66.424999999999827</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>22</v>
       </c>
       <c r="B29" s="6">
@@ -8762,14 +8762,14 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6638.9538461538514</v>
+        <v>6635.6799999999994</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="24"/>
-        <v>6638.9538461538514</v>
+        <v>6635.6799999999994</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="25"/>
@@ -8777,15 +8777,15 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="26"/>
-        <v>-66.64923076923084</v>
+        <v>-66.594666666666669</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" ref="H29:I29" si="101">F29</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="101"/>
-        <v>-66.64923076923084</v>
+        <f t="shared" ref="H29:I29" si="103">G29</f>
+        <v>-66.594666666666669</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="28"/>
@@ -8796,14 +8796,14 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6629.5500000000038</v>
+        <v>6626.3999999999924</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="12"/>
-        <v>6629.5500000000038</v>
+        <v>6626.3999999999924</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="13"/>
@@ -8811,20 +8811,20 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="14"/>
-        <v>-66.492500000000007</v>
+        <v>-66.439999999999827</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29:S29" si="102">P29</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="102"/>
-        <v>-66.492500000000007</v>
+        <f t="shared" ref="R29:S29" si="104">Q29</f>
+        <v>-66.439999999999827</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>23</v>
       </c>
       <c r="B30" s="6">
@@ -8832,14 +8832,14 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6640.1230769230824</v>
+        <v>6636.6933333333327</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="24"/>
-        <v>6640.1230769230824</v>
+        <v>6636.6933333333327</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="25"/>
@@ -8847,15 +8847,15 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="26"/>
-        <v>-66.668717948717998</v>
+        <v>-66.611555555555498</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" ref="H30:I30" si="103">F30</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="103"/>
-        <v>-66.668717948717998</v>
+        <f t="shared" ref="H30:I30" si="105">G30</f>
+        <v>-66.611555555555498</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="28"/>
@@ -8866,14 +8866,14 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6630.600000000004</v>
+        <v>6627.299999999992</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="12"/>
-        <v>6630.600000000004</v>
+        <v>6627.299999999992</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="13"/>
@@ -8881,20 +8881,20 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="14"/>
-        <v>-66.510000000000005</v>
+        <v>-66.454999999999828</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" ref="R30:S30" si="104">P30</f>
-        <v>43.502000000000002</v>
+        <f t="shared" si="29"/>
+        <v>43.247500000000002</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="104"/>
-        <v>-66.510000000000005</v>
+        <f t="shared" ref="R30:S30" si="106">Q30</f>
+        <v>-66.454999999999828</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>24</v>
       </c>
       <c r="B31" s="6">
@@ -8902,14 +8902,14 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6641.2923076923134</v>
+        <v>6637.706666666666</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="24"/>
-        <v>6641.2923076923134</v>
+        <v>6637.706666666666</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="25"/>
@@ -8917,15 +8917,15 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="26"/>
-        <v>-66.688205128205169</v>
+        <v>-66.628444444444497</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31:I31" si="105">F31</f>
-        <v>43.56666666666667</v>
+        <f t="shared" si="35"/>
+        <v>43.233333333333334</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="105"/>
-        <v>-66.688205128205169</v>
+        <f t="shared" ref="H31:I31" si="107">G31</f>
+        <v>-66.628444444444497</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>30</v>

--- a/Surveys/Survey Lines/Survey Lines.xlsx
+++ b/Surveys/Survey Lines/Survey Lines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darre\Documents\GitHub\HerringScience.github.io\Surveys\Survey Lines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Surveys\Survey Lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ACDE2C-7827-43F0-94E9-42705BAD7AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB6EACC-EC75-4951-963E-04C6D147BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="1200" windowWidth="30105" windowHeight="20250" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8775" yWindow="345" windowWidth="27570" windowHeight="19965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -944,49 +944,49 @@
         <v>4334</v>
       </c>
       <c r="C12" s="16">
-        <v>6615.413333333333</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="D12" s="16">
         <v>4314</v>
       </c>
       <c r="E12" s="16">
-        <v>6615.413333333333</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="F12" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G12" s="12">
-        <v>-66.256888888888838</v>
+        <v>-66.268148148148171</v>
       </c>
       <c r="H12" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I12" s="12">
-        <v>-66.256888888888838</v>
+        <v>-66.268148148148171</v>
       </c>
       <c r="L12" s="6">
         <v>4330.12</v>
       </c>
       <c r="M12" s="6">
-        <v>6608.4</v>
+        <v>6609.0749999999998</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
-        <v>6608.4</v>
+        <v>6609.0749999999998</v>
       </c>
       <c r="P12" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q12" s="6">
-        <v>-66.14</v>
+        <v>-66.151250000000005</v>
       </c>
       <c r="R12" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S12" s="6">
-        <v>-66.14</v>
+        <v>-66.151250000000005</v>
       </c>
       <c r="T12" t="e">
         <v>#N/A</v>
@@ -1000,49 +1000,49 @@
         <v>4334</v>
       </c>
       <c r="C13" s="16">
-        <v>6616.4266666666663</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="D13" s="16">
         <v>4314</v>
       </c>
       <c r="E13" s="16">
-        <v>6616.4266666666663</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="F13" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G13" s="12">
-        <v>-66.273777777777838</v>
+        <v>-66.296296296296333</v>
       </c>
       <c r="H13" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I13" s="12">
-        <v>-66.273777777777838</v>
+        <v>-66.296296296296333</v>
       </c>
       <c r="L13" s="6">
         <v>4330.12</v>
       </c>
       <c r="M13" s="6">
-        <v>6609.2999999999993</v>
+        <v>6610.65</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
-        <v>6609.2999999999993</v>
+        <v>6610.65</v>
       </c>
       <c r="P13" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q13" s="6">
-        <v>-66.155000000000001</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="R13" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S13" s="6">
-        <v>-66.155000000000001</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="T13" t="e">
         <v>#N/A</v>
@@ -1056,49 +1056,49 @@
         <v>4334</v>
       </c>
       <c r="C14" s="16">
-        <v>6617.44</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="D14" s="16">
         <v>4314</v>
       </c>
       <c r="E14" s="16">
-        <v>6617.44</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="F14" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G14" s="12">
-        <v>-66.290666666666667</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="H14" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I14" s="12">
-        <v>-66.290666666666667</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="L14" s="6">
         <v>4330.12</v>
       </c>
       <c r="M14" s="6">
-        <v>6610.1999999999989</v>
+        <v>6612.2249999999995</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
-        <v>6610.1999999999989</v>
+        <v>6612.2249999999995</v>
       </c>
       <c r="P14" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q14" s="6">
-        <v>-66.17</v>
+        <v>-66.203749999999999</v>
       </c>
       <c r="R14" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S14" s="6">
-        <v>-66.17</v>
+        <v>-66.203749999999999</v>
       </c>
       <c r="T14" t="e">
         <v>#N/A</v>
@@ -1112,49 +1112,49 @@
         <v>4334</v>
       </c>
       <c r="C15" s="16">
-        <v>6618.4533333333329</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="D15" s="16">
         <v>4314</v>
       </c>
       <c r="E15" s="16">
-        <v>6618.4533333333329</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="F15" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G15" s="12">
-        <v>-66.307555555555496</v>
+        <v>-66.352592592592671</v>
       </c>
       <c r="H15" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I15" s="12">
-        <v>-66.307555555555496</v>
+        <v>-66.352592592592671</v>
       </c>
       <c r="L15" s="6">
         <v>4330.12</v>
       </c>
       <c r="M15" s="6">
-        <v>6611.0999999999985</v>
+        <v>6613.7999999999993</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
-        <v>6611.0999999999985</v>
+        <v>6613.7999999999993</v>
       </c>
       <c r="P15" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q15" s="6">
-        <v>-66.185000000000002</v>
+        <v>-66.23</v>
       </c>
       <c r="R15" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S15" s="6">
-        <v>-66.185000000000002</v>
+        <v>-66.23</v>
       </c>
       <c r="T15" t="e">
         <v>#N/A</v>
@@ -1168,49 +1168,49 @@
         <v>4334</v>
       </c>
       <c r="C16" s="16">
-        <v>6619.4666666666662</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="D16" s="16">
         <v>4314</v>
       </c>
       <c r="E16" s="16">
-        <v>6619.4666666666662</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="F16" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G16" s="12">
-        <v>-66.324444444444495</v>
+        <v>-66.380740740740663</v>
       </c>
       <c r="H16" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I16" s="12">
-        <v>-66.324444444444495</v>
+        <v>-66.380740740740663</v>
       </c>
       <c r="L16" s="6">
         <v>4330.12</v>
       </c>
       <c r="M16" s="6">
-        <v>6611.9999999999982</v>
+        <v>6615.3749999999991</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
-        <v>6611.9999999999982</v>
+        <v>6615.3749999999991</v>
       </c>
       <c r="P16" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q16" s="6">
-        <v>-66.2</v>
+        <v>-66.256249999999994</v>
       </c>
       <c r="R16" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S16" s="6">
-        <v>-66.2</v>
+        <v>-66.256249999999994</v>
       </c>
       <c r="T16" t="e">
         <v>#N/A</v>
@@ -1224,50 +1224,50 @@
         <v>4334</v>
       </c>
       <c r="C17" s="16">
-        <v>6620.48</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="D17" s="16">
         <v>4314</v>
       </c>
       <c r="E17" s="16">
-        <v>6620.48</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="F17" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G17" s="12">
-        <v>-66.341333333333338</v>
+        <v>-66.408888888888839</v>
       </c>
       <c r="H17" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I17" s="12">
-        <v>-66.341333333333338</v>
+        <v>-66.408888888888839</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="6">
         <v>4330.12</v>
       </c>
       <c r="M17" s="6">
-        <v>6612.8999999999978</v>
+        <v>6616.9499999999989</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
-        <v>6612.8999999999978</v>
+        <v>6616.9499999999989</v>
       </c>
       <c r="P17" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q17" s="6">
-        <v>-66.215000000000003</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="R17" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S17" s="6">
-        <v>-66.215000000000003</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="T17" t="e">
         <v>#N/A</v>
@@ -1281,50 +1281,50 @@
         <v>4334</v>
       </c>
       <c r="C18" s="16">
-        <v>6621.4933333333329</v>
+        <v>6626.2222222222217</v>
       </c>
       <c r="D18" s="16">
         <v>4314</v>
       </c>
       <c r="E18" s="16">
-        <v>6621.4933333333329</v>
+        <v>6626.2222222222217</v>
       </c>
       <c r="F18" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G18" s="12">
-        <v>-66.358222222222167</v>
+        <v>-66.437037037037001</v>
       </c>
       <c r="H18" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I18" s="12">
-        <v>-66.358222222222167</v>
+        <v>-66.437037037037001</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6">
         <v>4330.12</v>
       </c>
       <c r="M18" s="6">
-        <v>6613.7999999999975</v>
+        <v>6618.5249999999987</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
-        <v>6613.7999999999975</v>
+        <v>6618.5249999999987</v>
       </c>
       <c r="P18" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q18" s="6">
-        <v>-66.23</v>
+        <v>-66.308750000000003</v>
       </c>
       <c r="R18" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S18" s="6">
-        <v>-66.23</v>
+        <v>-66.308750000000003</v>
       </c>
       <c r="T18" t="e">
         <v>#N/A</v>
@@ -1338,49 +1338,49 @@
         <v>4334</v>
       </c>
       <c r="C19" s="16">
-        <v>6622.5066666666662</v>
+        <v>6627.9111111111106</v>
       </c>
       <c r="D19" s="16">
         <v>4314</v>
       </c>
       <c r="E19" s="16">
-        <v>6622.5066666666662</v>
+        <v>6627.9111111111106</v>
       </c>
       <c r="F19" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G19" s="12">
-        <v>-66.375111111111167</v>
+        <v>-66.465185185185163</v>
       </c>
       <c r="H19" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I19" s="12">
-        <v>-66.375111111111167</v>
+        <v>-66.465185185185163</v>
       </c>
       <c r="L19" s="6">
         <v>4330.12</v>
       </c>
       <c r="M19" s="6">
-        <v>6614.6999999999971</v>
+        <v>6620.0999999999985</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
-        <v>6614.6999999999971</v>
+        <v>6620.0999999999985</v>
       </c>
       <c r="P19" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q19" s="6">
-        <v>-66.245000000000005</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R19" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S19" s="6">
-        <v>-66.245000000000005</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="T19" t="e">
         <v>#N/A</v>
@@ -1394,49 +1394,49 @@
         <v>4334</v>
       </c>
       <c r="C20" s="16">
-        <v>6623.5199999999995</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="D20" s="16">
         <v>4314</v>
       </c>
       <c r="E20" s="16">
-        <v>6623.5199999999995</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="F20" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G20" s="12">
-        <v>-66.391999999999996</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H20" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I20" s="12">
-        <v>-66.391999999999996</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="L20" s="6">
         <v>4330.12</v>
       </c>
       <c r="M20" s="6">
-        <v>6615.5999999999967</v>
+        <v>6621.6749999999984</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
-        <v>6615.5999999999967</v>
+        <v>6621.6749999999984</v>
       </c>
       <c r="P20" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q20" s="6">
-        <v>-66.260000000000005</v>
+        <v>-66.361249999999998</v>
       </c>
       <c r="R20" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S20" s="6">
-        <v>-66.260000000000005</v>
+        <v>-66.361249999999998</v>
       </c>
       <c r="T20" t="e">
         <v>#N/A</v>
@@ -1450,49 +1450,49 @@
         <v>4334</v>
       </c>
       <c r="C21" s="16">
-        <v>6624.5333333333328</v>
+        <v>6631.2888888888883</v>
       </c>
       <c r="D21" s="16">
         <v>4314</v>
       </c>
       <c r="E21" s="16">
-        <v>6624.5333333333328</v>
+        <v>6631.2888888888883</v>
       </c>
       <c r="F21" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G21" s="12">
-        <v>-66.408888888888839</v>
+        <v>-66.521481481481501</v>
       </c>
       <c r="H21" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I21" s="12">
-        <v>-66.408888888888839</v>
+        <v>-66.521481481481501</v>
       </c>
       <c r="L21" s="6">
         <v>4330.12</v>
       </c>
       <c r="M21" s="6">
-        <v>6616.4999999999964</v>
+        <v>6623.2499999999982</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
-        <v>6616.4999999999964</v>
+        <v>6623.2499999999982</v>
       </c>
       <c r="P21" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q21" s="6">
-        <v>-66.275000000000006</v>
+        <v>-66.387500000000003</v>
       </c>
       <c r="R21" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S21" s="6">
-        <v>-66.275000000000006</v>
+        <v>-66.387500000000003</v>
       </c>
       <c r="T21" t="e">
         <v>#N/A</v>
@@ -1506,49 +1506,49 @@
         <v>4334</v>
       </c>
       <c r="C22" s="16">
-        <v>6625.5466666666662</v>
+        <v>6632.9777777777772</v>
       </c>
       <c r="D22" s="16">
         <v>4314</v>
       </c>
       <c r="E22" s="16">
-        <v>6625.5466666666662</v>
+        <v>6632.9777777777772</v>
       </c>
       <c r="F22" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G22" s="12">
-        <v>-66.425777777777839</v>
+        <v>-66.549629629629663</v>
       </c>
       <c r="H22" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I22" s="12">
-        <v>-66.425777777777839</v>
+        <v>-66.549629629629663</v>
       </c>
       <c r="L22" s="6">
         <v>4330.12</v>
       </c>
       <c r="M22" s="6">
-        <v>6617.399999999996</v>
+        <v>6624.824999999998</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
-        <v>6617.399999999996</v>
+        <v>6624.824999999998</v>
       </c>
       <c r="P22" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q22" s="6">
-        <v>-66.290000000000006</v>
+        <v>-66.413749999999993</v>
       </c>
       <c r="R22" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S22" s="6">
-        <v>-66.290000000000006</v>
+        <v>-66.413749999999993</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
@@ -1562,49 +1562,49 @@
         <v>4334</v>
       </c>
       <c r="C23" s="16">
-        <v>6626.5599999999995</v>
+        <v>6634.6666666666661</v>
       </c>
       <c r="D23" s="16">
         <v>4314</v>
       </c>
       <c r="E23" s="16">
-        <v>6626.5599999999995</v>
+        <v>6634.6666666666661</v>
       </c>
       <c r="F23" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G23" s="12">
-        <v>-66.442666666666668</v>
+        <v>-66.57777777777784</v>
       </c>
       <c r="H23" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I23" s="12">
-        <v>-66.442666666666668</v>
+        <v>-66.57777777777784</v>
       </c>
       <c r="L23" s="6">
         <v>4330.12</v>
       </c>
       <c r="M23" s="6">
-        <v>6618.2999999999956</v>
+        <v>6626.3999999999978</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
-        <v>6618.2999999999956</v>
+        <v>6626.3999999999978</v>
       </c>
       <c r="P23" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q23" s="6">
-        <v>-66.305000000000007</v>
+        <v>-66.44</v>
       </c>
       <c r="R23" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S23" s="6">
-        <v>-66.305000000000007</v>
+        <v>-66.44</v>
       </c>
       <c r="T23" t="e">
         <v>#N/A</v>
@@ -1618,49 +1618,49 @@
         <v>4334</v>
       </c>
       <c r="C24" s="16">
-        <v>6627.5733333333328</v>
+        <v>6636.3555555555549</v>
       </c>
       <c r="D24" s="16">
         <v>4314</v>
       </c>
       <c r="E24" s="16">
-        <v>6627.5733333333328</v>
+        <v>6636.3555555555549</v>
       </c>
       <c r="F24" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G24" s="12">
-        <v>-66.459555555555497</v>
+        <v>-66.605925925925831</v>
       </c>
       <c r="H24" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I24" s="12">
-        <v>-66.459555555555497</v>
+        <v>-66.605925925925831</v>
       </c>
       <c r="L24" s="6">
         <v>4330.12</v>
       </c>
       <c r="M24" s="6">
-        <v>6619.1999999999953</v>
+        <v>6627.9749999999976</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
-        <v>6619.1999999999953</v>
+        <v>6627.9749999999976</v>
       </c>
       <c r="P24" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q24" s="6">
-        <v>-66.319999999999993</v>
+        <v>-66.466250000000002</v>
       </c>
       <c r="R24" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S24" s="6">
-        <v>-66.319999999999993</v>
+        <v>-66.466250000000002</v>
       </c>
       <c r="T24" t="e">
         <v>#N/A</v>
@@ -1674,49 +1674,49 @@
         <v>4334</v>
       </c>
       <c r="C25" s="16">
-        <v>6628.5866666666661</v>
+        <v>6638.0444444444438</v>
       </c>
       <c r="D25" s="16">
         <v>4314</v>
       </c>
       <c r="E25" s="16">
-        <v>6628.5866666666661</v>
+        <v>6638.0444444444438</v>
       </c>
       <c r="F25" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G25" s="12">
-        <v>-66.476444444444496</v>
+        <v>-66.634074074073993</v>
       </c>
       <c r="H25" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I25" s="12">
-        <v>-66.476444444444496</v>
+        <v>-66.634074074073993</v>
       </c>
       <c r="L25" s="6">
         <v>4330.12</v>
       </c>
       <c r="M25" s="6">
-        <v>6620.0999999999949</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
-        <v>6620.0999999999949</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="P25" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q25" s="6">
-        <v>-66.334999999999837</v>
+        <v>-66.492500000000007</v>
       </c>
       <c r="R25" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S25" s="6">
-        <v>-66.334999999999837</v>
+        <v>-66.492500000000007</v>
       </c>
       <c r="T25" t="e">
         <v>#N/A</v>
@@ -1730,49 +1730,49 @@
         <v>4334</v>
       </c>
       <c r="C26" s="16">
-        <v>6629.5999999999995</v>
+        <v>6639.7333333333327</v>
       </c>
       <c r="D26" s="16">
         <v>4314</v>
       </c>
       <c r="E26" s="16">
-        <v>6629.5999999999995</v>
+        <v>6639.7333333333327</v>
       </c>
       <c r="F26" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G26" s="12">
-        <v>-66.493333333333339</v>
+        <v>-66.662222222222169</v>
       </c>
       <c r="H26" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I26" s="12">
-        <v>-66.493333333333339</v>
+        <v>-66.662222222222169</v>
       </c>
       <c r="L26" s="6">
         <v>4330.12</v>
       </c>
       <c r="M26" s="6">
-        <v>6620.0999999999949</v>
+        <v>6631.1249999999973</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
-        <v>6620.0999999999949</v>
+        <v>6631.1249999999973</v>
       </c>
       <c r="P26" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q26" s="6">
-        <v>-66.334999999999837</v>
+        <v>-66.518749999999997</v>
       </c>
       <c r="R26" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S26" s="6">
-        <v>-66.334999999999837</v>
+        <v>-66.518749999999997</v>
       </c>
       <c r="T26" t="e">
         <v>#N/A</v>
@@ -1786,49 +1786,49 @@
         <v>4334</v>
       </c>
       <c r="C27" s="16">
-        <v>6630.6133333333328</v>
+        <v>6641.4222222222215</v>
       </c>
       <c r="D27" s="16">
         <v>4314</v>
       </c>
       <c r="E27" s="16">
-        <v>6630.6133333333328</v>
+        <v>6641.4222222222215</v>
       </c>
       <c r="F27" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G27" s="12">
-        <v>-66.510222222222168</v>
+        <v>-66.690370370370331</v>
       </c>
       <c r="H27" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I27" s="12">
-        <v>-66.510222222222168</v>
+        <v>-66.690370370370331</v>
       </c>
       <c r="L27" s="6">
         <v>4330.12</v>
       </c>
       <c r="M27" s="6">
-        <v>6620.9999999999945</v>
+        <v>6632.6999999999971</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
-        <v>6620.9999999999945</v>
+        <v>6632.6999999999971</v>
       </c>
       <c r="P27" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q27" s="6">
-        <v>-66.349999999999838</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="R27" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S27" s="6">
-        <v>-66.349999999999838</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
@@ -1842,49 +1842,49 @@
         <v>4334</v>
       </c>
       <c r="C28" s="16">
-        <v>6631.6266666666661</v>
+        <v>6643.1111111111104</v>
       </c>
       <c r="D28" s="16">
         <v>4314</v>
       </c>
       <c r="E28" s="16">
-        <v>6631.6266666666661</v>
+        <v>6643.1111111111104</v>
       </c>
       <c r="F28" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G28" s="12">
-        <v>-66.527111111111168</v>
+        <v>-66.718518518518493</v>
       </c>
       <c r="H28" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I28" s="12">
-        <v>-66.527111111111168</v>
+        <v>-66.718518518518493</v>
       </c>
       <c r="L28" s="6">
         <v>4330.12</v>
       </c>
       <c r="M28" s="6">
-        <v>6621.8999999999942</v>
+        <v>6634.2749999999969</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
-        <v>6621.8999999999942</v>
+        <v>6634.2749999999969</v>
       </c>
       <c r="P28" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q28" s="6">
-        <v>-66.364999999999839</v>
+        <v>-66.571250000000006</v>
       </c>
       <c r="R28" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S28" s="6">
-        <v>-66.364999999999839</v>
+        <v>-66.571250000000006</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
@@ -1898,49 +1898,49 @@
         <v>4334</v>
       </c>
       <c r="C29" s="16">
-        <v>6632.6399999999994</v>
+        <v>6644.7999999999993</v>
       </c>
       <c r="D29" s="16">
         <v>4314</v>
       </c>
       <c r="E29" s="16">
-        <v>6632.6399999999994</v>
+        <v>6644.7999999999993</v>
       </c>
       <c r="F29" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G29" s="12">
-        <v>-66.543999999999997</v>
+        <v>-66.74666666666667</v>
       </c>
       <c r="H29" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I29" s="12">
-        <v>-66.543999999999997</v>
+        <v>-66.74666666666667</v>
       </c>
       <c r="L29" s="6">
         <v>4330.12</v>
       </c>
       <c r="M29" s="6">
-        <v>6622.7999999999938</v>
+        <v>6635.8499999999967</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
-        <v>6622.7999999999938</v>
+        <v>6635.8499999999967</v>
       </c>
       <c r="P29" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q29" s="6">
-        <v>-66.379999999999839</v>
+        <v>-66.597499999999997</v>
       </c>
       <c r="R29" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S29" s="6">
-        <v>-66.379999999999839</v>
+        <v>-66.597499999999997</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
@@ -1954,49 +1954,49 @@
         <v>4334</v>
       </c>
       <c r="C30" s="16">
-        <v>6633.6533333333327</v>
+        <v>6646.4888888888881</v>
       </c>
       <c r="D30" s="16">
         <v>4314</v>
       </c>
       <c r="E30" s="16">
-        <v>6633.6533333333327</v>
+        <v>6646.4888888888881</v>
       </c>
       <c r="F30" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G30" s="12">
-        <v>-66.56088888888884</v>
+        <v>-66.774814814814832</v>
       </c>
       <c r="H30" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I30" s="12">
-        <v>-66.56088888888884</v>
+        <v>-66.774814814814832</v>
       </c>
       <c r="L30" s="6">
         <v>4330.12</v>
       </c>
       <c r="M30" s="6">
-        <v>6623.6999999999935</v>
+        <v>6637.4249999999965</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
-        <v>6623.6999999999935</v>
+        <v>6637.4249999999965</v>
       </c>
       <c r="P30" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q30" s="6">
-        <v>-66.39499999999984</v>
+        <v>-66.623750000000001</v>
       </c>
       <c r="R30" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S30" s="6">
-        <v>-66.39499999999984</v>
+        <v>-66.623750000000001</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
@@ -2010,49 +2010,49 @@
         <v>4334</v>
       </c>
       <c r="C31" s="16">
-        <v>6634.6666666666661</v>
+        <v>6648.177777777777</v>
       </c>
       <c r="D31" s="16">
         <v>4314</v>
       </c>
       <c r="E31" s="16">
-        <v>6634.6666666666661</v>
+        <v>6648.177777777777</v>
       </c>
       <c r="F31" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G31" s="12">
-        <v>-66.57777777777784</v>
+        <v>-66.802962962962994</v>
       </c>
       <c r="H31" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I31" s="12">
-        <v>-66.57777777777784</v>
+        <v>-66.802962962962994</v>
       </c>
       <c r="L31" s="6">
         <v>4330.12</v>
       </c>
       <c r="M31" s="6">
-        <v>6624.5999999999931</v>
+        <v>6638.9999999999964</v>
       </c>
       <c r="N31" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O31" s="6">
-        <v>6624.5999999999931</v>
+        <v>6638.9999999999964</v>
       </c>
       <c r="P31" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q31" s="6">
-        <v>-66.40999999999984</v>
+        <v>-66.650000000000006</v>
       </c>
       <c r="R31" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S31" s="6">
-        <v>-66.40999999999984</v>
+        <v>-66.650000000000006</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
@@ -2066,49 +2066,49 @@
         <v>4334</v>
       </c>
       <c r="C32" s="16">
-        <v>6635.6799999999994</v>
+        <v>6649.8666666666659</v>
       </c>
       <c r="D32" s="16">
         <v>4314</v>
       </c>
       <c r="E32" s="16">
-        <v>6635.6799999999994</v>
+        <v>6649.8666666666659</v>
       </c>
       <c r="F32" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G32" s="12">
-        <v>-66.594666666666669</v>
+        <v>-66.83111111111117</v>
       </c>
       <c r="H32" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I32" s="12">
-        <v>-66.594666666666669</v>
+        <v>-66.83111111111117</v>
       </c>
       <c r="L32" s="6">
         <v>4330.12</v>
       </c>
       <c r="M32" s="6">
-        <v>6625.4999999999927</v>
+        <v>6640.5749999999962</v>
       </c>
       <c r="N32" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O32" s="6">
-        <v>6625.4999999999927</v>
+        <v>6640.5749999999962</v>
       </c>
       <c r="P32" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q32" s="6">
-        <v>-66.424999999999827</v>
+        <v>-66.676249999999996</v>
       </c>
       <c r="R32" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S32" s="6">
-        <v>-66.424999999999827</v>
+        <v>-66.676249999999996</v>
       </c>
       <c r="T32" t="e">
         <v>#N/A</v>
@@ -2122,49 +2122,49 @@
         <v>4334</v>
       </c>
       <c r="C33" s="16">
-        <v>6636.6933333333327</v>
+        <v>6651.5555555555547</v>
       </c>
       <c r="D33" s="16">
         <v>4314</v>
       </c>
       <c r="E33" s="16">
-        <v>6636.6933333333327</v>
+        <v>6651.5555555555547</v>
       </c>
       <c r="F33" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G33" s="12">
-        <v>-66.611555555555498</v>
+        <v>-66.859259259259161</v>
       </c>
       <c r="H33" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I33" s="12">
-        <v>-66.611555555555498</v>
+        <v>-66.859259259259161</v>
       </c>
       <c r="L33" s="6">
         <v>4330.12</v>
       </c>
       <c r="M33" s="6">
-        <v>6626.3999999999924</v>
+        <v>6642.149999999996</v>
       </c>
       <c r="N33" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O33" s="6">
-        <v>6626.3999999999924</v>
+        <v>6642.149999999996</v>
       </c>
       <c r="P33" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q33" s="6">
-        <v>-66.439999999999827</v>
+        <v>-66.702500000000001</v>
       </c>
       <c r="R33" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S33" s="6">
-        <v>-66.439999999999827</v>
+        <v>-66.702500000000001</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
@@ -2178,49 +2178,49 @@
         <v>4334</v>
       </c>
       <c r="C34" s="16">
-        <v>6637.706666666666</v>
+        <v>6653.2444444444436</v>
       </c>
       <c r="D34" s="16">
         <v>4314</v>
       </c>
       <c r="E34" s="16">
-        <v>6637.706666666666</v>
+        <v>6653.2444444444436</v>
       </c>
       <c r="F34" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G34" s="12">
-        <v>-66.628444444444497</v>
+        <v>-66.887407407407338</v>
       </c>
       <c r="H34" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I34" s="12">
-        <v>-66.628444444444497</v>
+        <v>-66.887407407407338</v>
       </c>
       <c r="L34" s="6">
         <v>4330.12</v>
       </c>
       <c r="M34" s="6">
-        <v>6627.299999999992</v>
+        <v>6643.7249999999958</v>
       </c>
       <c r="N34" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O34" s="6">
-        <v>6627.299999999992</v>
+        <v>6643.7249999999958</v>
       </c>
       <c r="P34" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q34" s="6">
-        <v>-66.454999999999828</v>
+        <v>-66.728750000000005</v>
       </c>
       <c r="R34" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S34" s="6">
-        <v>-66.454999999999828</v>
+        <v>-66.728750000000005</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
@@ -5820,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5943,11 +5943,11 @@
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" ref="X3:X4" si="8">V3</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>23</v>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -6001,15 +6001,15 @@
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>24</v>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>0.900000000000026</v>
+        <v>1.5750000000000455</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>26</v>
@@ -6059,15 +6059,15 @@
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>0.5212000000000141</v>
+        <v>0.86866666666669012</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:Y5" si="10">(X2-X25)/(X4-1)</f>
-        <v>0.38179999999999076</v>
+        <v>0.63633333333331799</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="10"/>
-        <v>0.57573333333336152</v>
+        <v>0.95955555555560246</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>26</v>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>1.0133333333333818</v>
+        <v>1.6888888888889697</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>26</v>
@@ -6188,7 +6188,7 @@
         <v>43.247500000000002</v>
       </c>
       <c r="S7" s="6">
-        <f t="shared" ref="R7:S7" si="15">Q7</f>
+        <f t="shared" ref="S7" si="15">Q7</f>
         <v>-66.125</v>
       </c>
       <c r="U7" s="6">
@@ -6291,7 +6291,7 @@
         <v>43.233333333333334</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" ref="H8:I8" si="27">G8</f>
+        <f t="shared" ref="I8" si="27">G8</f>
         <v>-66.239999999999995</v>
       </c>
       <c r="K8" s="6">
@@ -6303,14 +6303,14 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6608.4</v>
+        <v>6609.0749999999998</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="12"/>
-        <v>6608.4</v>
+        <v>6609.0749999999998</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="13"/>
@@ -6318,15 +6318,15 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="14"/>
-        <v>-66.14</v>
+        <v>-66.151250000000005</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ref="R8:R30" si="29">(LEFT(N8,2)+((RIGHT(N8,LEN(N8)-2))/60))</f>
         <v>43.247500000000002</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" ref="R8:S8" si="30">Q8</f>
-        <v>-66.14</v>
+        <f t="shared" ref="S8" si="30">Q8</f>
+        <v>-66.151250000000005</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" ref="U8:U24" si="31">U7+1</f>
@@ -6334,22 +6334,22 @@
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4502.7031999999999</v>
+        <v>4503.0506666666661</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="32">X7+X5</f>
-        <v>4513.3548000000001</v>
+        <v>4513.6093333333329</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="32"/>
-        <v>6441.4397333333327</v>
+        <v>6441.8235555555548</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="16"/>
-        <v>45.045053333333335</v>
+        <v>45.0508444444445</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="17"/>
@@ -6357,11 +6357,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="18"/>
-        <v>45.222580000000001</v>
+        <v>45.226822222222168</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="19"/>
-        <v>-64.690662222222173</v>
+        <v>-64.697059259259163</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -6408,14 +6408,14 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6615.413333333333</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="24"/>
-        <v>6615.413333333333</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="25"/>
@@ -6423,15 +6423,15 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="26"/>
-        <v>-66.256888888888838</v>
+        <v>-66.268148148148171</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:H31" si="35">(LEFT(D9,2)+((RIGHT(D9,LEN(D9)-2))/60))</f>
         <v>43.233333333333334</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" ref="H9:I9" si="36">G9</f>
-        <v>-66.256888888888838</v>
+        <f t="shared" ref="I9" si="36">G9</f>
+        <v>-66.268148148148171</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="28"/>
@@ -6442,14 +6442,14 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6609.2999999999993</v>
+        <v>6610.65</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="12"/>
-        <v>6609.2999999999993</v>
+        <v>6610.65</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="13"/>
@@ -6457,15 +6457,15 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="14"/>
-        <v>-66.155000000000001</v>
+        <v>-66.177499999999995</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S9" s="6">
-        <f t="shared" ref="R9:S9" si="37">Q9</f>
-        <v>-66.155000000000001</v>
+        <f t="shared" ref="S9" si="37">Q9</f>
+        <v>-66.177499999999995</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="31"/>
@@ -6473,22 +6473,22 @@
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4503.2244000000001</v>
+        <v>4503.9193333333324</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" ref="X9:Y9" si="38">X8+X5</f>
-        <v>4513.7366000000002</v>
+        <v>4514.2456666666658</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="38"/>
-        <v>6442.0154666666658</v>
+        <v>6442.78311111111</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="16"/>
-        <v>45.053739999999998</v>
+        <v>45.065322222222164</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="17"/>
@@ -6496,11 +6496,11 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="18"/>
-        <v>45.228943333333333</v>
+        <v>45.237427777777832</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="19"/>
-        <v>-64.700257777777836</v>
+        <v>-64.71305185185183</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
@@ -6547,14 +6547,14 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6616.4266666666663</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="24"/>
-        <v>6616.4266666666663</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="25"/>
@@ -6562,15 +6562,15 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="26"/>
-        <v>-66.273777777777838</v>
+        <v>-66.296296296296333</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" ref="H10:I10" si="40">G10</f>
-        <v>-66.273777777777838</v>
+        <f t="shared" ref="I10" si="40">G10</f>
+        <v>-66.296296296296333</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="28"/>
@@ -6581,14 +6581,14 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6610.1999999999989</v>
+        <v>6612.2249999999995</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="12"/>
-        <v>6610.1999999999989</v>
+        <v>6612.2249999999995</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="13"/>
@@ -6596,15 +6596,15 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="14"/>
-        <v>-66.17</v>
+        <v>-66.203749999999999</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S10" s="6">
-        <f t="shared" ref="R10:S10" si="41">Q10</f>
-        <v>-66.17</v>
+        <f t="shared" ref="S10" si="41">Q10</f>
+        <v>-66.203749999999999</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="31"/>
@@ -6612,22 +6612,22 @@
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4503.7456000000002</v>
+        <v>4504.7879999999986</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" ref="X10:Y10" si="42">X9+X5</f>
-        <v>4514.1184000000003</v>
+        <v>4514.8819999999987</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="42"/>
-        <v>6442.5911999999989</v>
+        <v>6443.7426666666652</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="16"/>
-        <v>45.062426666666667</v>
+        <v>45.079799999999999</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="17"/>
@@ -6635,11 +6635,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="18"/>
-        <v>45.235306666666666</v>
+        <v>45.248033333333332</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="19"/>
-        <v>-64.709853333333328</v>
+        <v>-64.729044444444497</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
@@ -6686,14 +6686,14 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6617.44</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="24"/>
-        <v>6617.44</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="25"/>
@@ -6701,15 +6701,15 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="26"/>
-        <v>-66.290666666666667</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" ref="H11:I11" si="44">G11</f>
-        <v>-66.290666666666667</v>
+        <f t="shared" ref="I11" si="44">G11</f>
+        <v>-66.324444444444495</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="28"/>
@@ -6720,14 +6720,14 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6611.0999999999985</v>
+        <v>6613.7999999999993</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="12"/>
-        <v>6611.0999999999985</v>
+        <v>6613.7999999999993</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="13"/>
@@ -6735,15 +6735,15 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="14"/>
-        <v>-66.185000000000002</v>
+        <v>-66.23</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" ref="R11:S11" si="45">Q11</f>
-        <v>-66.185000000000002</v>
+        <f t="shared" ref="S11" si="45">Q11</f>
+        <v>-66.23</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="31"/>
@@ -6751,22 +6751,22 @@
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4504.2668000000003</v>
+        <v>4505.6566666666649</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" ref="X11:Y11" si="46">X10+X5</f>
-        <v>4514.5002000000004</v>
+        <v>4515.5183333333316</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="46"/>
-        <v>6443.1669333333321</v>
+        <v>6444.7022222222204</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="16"/>
-        <v>45.071113333333336</v>
+        <v>45.09427777777767</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="17"/>
@@ -6774,11 +6774,11 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="18"/>
-        <v>45.241669999999999</v>
+        <v>45.258638888888832</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="19"/>
-        <v>-64.719448888888834</v>
+        <v>-64.745037037036994</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>28</v>
@@ -6822,14 +6822,14 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6618.4533333333329</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="24"/>
-        <v>6618.4533333333329</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="25"/>
@@ -6837,15 +6837,15 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="26"/>
-        <v>-66.307555555555496</v>
+        <v>-66.352592592592671</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" ref="H12:I12" si="51">G12</f>
-        <v>-66.307555555555496</v>
+        <f t="shared" ref="I12" si="51">G12</f>
+        <v>-66.352592592592671</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="28"/>
@@ -6856,14 +6856,14 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6611.9999999999982</v>
+        <v>6615.3749999999991</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="12"/>
-        <v>6611.9999999999982</v>
+        <v>6615.3749999999991</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="13"/>
@@ -6871,15 +6871,15 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="14"/>
-        <v>-66.2</v>
+        <v>-66.256249999999994</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" ref="R12:S12" si="52">Q12</f>
-        <v>-66.2</v>
+        <f t="shared" ref="S12" si="52">Q12</f>
+        <v>-66.256249999999994</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="31"/>
@@ -6887,22 +6887,22 @@
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4504.7880000000005</v>
+        <v>4506.5253333333312</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:Y12" si="53">X11+X5</f>
-        <v>4514.8820000000005</v>
+        <v>4516.1546666666645</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="53"/>
-        <v>6443.7426666666652</v>
+        <v>6445.6617777777756</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="16"/>
-        <v>45.079799999999999</v>
+        <v>45.108755555555497</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="17"/>
@@ -6910,11 +6910,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="18"/>
-        <v>45.248033333333332</v>
+        <v>45.269244444444332</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="19"/>
-        <v>-64.729044444444497</v>
+        <v>-64.761029629629661</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -6927,14 +6927,14 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6619.4666666666662</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="24"/>
-        <v>6619.4666666666662</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="25"/>
@@ -6942,15 +6942,15 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="26"/>
-        <v>-66.324444444444495</v>
+        <v>-66.380740740740663</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" ref="H13:I13" si="54">G13</f>
-        <v>-66.324444444444495</v>
+        <f t="shared" ref="I13" si="54">G13</f>
+        <v>-66.380740740740663</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="28"/>
@@ -6961,14 +6961,14 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6612.8999999999978</v>
+        <v>6616.9499999999989</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="12"/>
-        <v>6612.8999999999978</v>
+        <v>6616.9499999999989</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="13"/>
@@ -6976,15 +6976,15 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="14"/>
-        <v>-66.215000000000003</v>
+        <v>-66.282499999999999</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" ref="R13:S13" si="55">Q13</f>
-        <v>-66.215000000000003</v>
+        <f t="shared" ref="S13" si="55">Q13</f>
+        <v>-66.282499999999999</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="31"/>
@@ -6992,22 +6992,22 @@
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4505.3092000000006</v>
+        <v>4507.3939999999975</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ref="X13:Y13" si="56">X12+X5</f>
-        <v>4515.2638000000006</v>
+        <v>4516.7909999999974</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="56"/>
-        <v>6444.3183999999983</v>
+        <v>6446.6213333333308</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="16"/>
-        <v>45.088486666666668</v>
+        <v>45.123233333333332</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="17"/>
@@ -7015,11 +7015,11 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="18"/>
-        <v>45.254396666666665</v>
+        <v>45.279850000000003</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="19"/>
-        <v>-64.738640000000004</v>
+        <v>-64.777022222222172</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>29</v>
@@ -7035,14 +7035,14 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6620.48</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="24"/>
-        <v>6620.48</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="25"/>
@@ -7050,15 +7050,15 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="26"/>
-        <v>-66.341333333333338</v>
+        <v>-66.408888888888839</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" ref="H14:I14" si="57">G14</f>
-        <v>-66.341333333333338</v>
+        <f t="shared" ref="I14" si="57">G14</f>
+        <v>-66.408888888888839</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="28"/>
@@ -7069,14 +7069,14 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6613.7999999999975</v>
+        <v>6618.5249999999987</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="12"/>
-        <v>6613.7999999999975</v>
+        <v>6618.5249999999987</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="13"/>
@@ -7084,15 +7084,15 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="14"/>
-        <v>-66.23</v>
+        <v>-66.308750000000003</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S14" s="6">
-        <f t="shared" ref="R14:S14" si="58">Q14</f>
-        <v>-66.23</v>
+        <f t="shared" ref="S14" si="58">Q14</f>
+        <v>-66.308750000000003</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="31"/>
@@ -7100,22 +7100,22 @@
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4505.8304000000007</v>
+        <v>4508.2626666666638</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ref="X14:Y14" si="59">X13+X5</f>
-        <v>4515.6456000000007</v>
+        <v>4517.4273333333304</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="59"/>
-        <v>6444.8941333333314</v>
+        <v>6447.580888888886</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="16"/>
-        <v>45.09717333333333</v>
+        <v>45.137711111111003</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="17"/>
@@ -7123,11 +7123,11 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="18"/>
-        <v>45.260759999999998</v>
+        <v>45.290455555555504</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="19"/>
-        <v>-64.748235555555496</v>
+        <v>-64.793014814814839</v>
       </c>
       <c r="AE14" s="6" t="s">
         <v>21</v>
@@ -7167,14 +7167,14 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6621.4933333333329</v>
+        <v>6626.2222222222217</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="24"/>
-        <v>6621.4933333333329</v>
+        <v>6626.2222222222217</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="25"/>
@@ -7182,15 +7182,15 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="26"/>
-        <v>-66.358222222222167</v>
+        <v>-66.437037037037001</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" ref="H15:I15" si="60">G15</f>
-        <v>-66.358222222222167</v>
+        <f t="shared" ref="I15" si="60">G15</f>
+        <v>-66.437037037037001</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="28"/>
@@ -7201,14 +7201,14 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6614.6999999999971</v>
+        <v>6620.0999999999985</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="12"/>
-        <v>6614.6999999999971</v>
+        <v>6620.0999999999985</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="13"/>
@@ -7216,15 +7216,15 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="14"/>
-        <v>-66.245000000000005</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" ref="R15:S15" si="61">Q15</f>
-        <v>-66.245000000000005</v>
+        <f t="shared" ref="S15" si="61">Q15</f>
+        <v>-66.334999999999994</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="31"/>
@@ -7232,22 +7232,22 @@
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4506.3516000000009</v>
+        <v>4509.1313333333301</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ref="X15:Y15" si="62">X14+X5</f>
-        <v>4516.0274000000009</v>
+        <v>4518.0636666666633</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="62"/>
-        <v>6445.4698666666645</v>
+        <v>6448.5404444444412</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="16"/>
-        <v>45.10586</v>
+        <v>45.15218888888883</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="17"/>
@@ -7255,11 +7255,11 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="18"/>
-        <v>45.26712333333333</v>
+        <v>45.301061111110997</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="19"/>
-        <v>-64.757831111111003</v>
+        <v>-64.809007407407336</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>23</v>
@@ -7289,14 +7289,14 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6622.5066666666662</v>
+        <v>6627.9111111111106</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="24"/>
-        <v>6622.5066666666662</v>
+        <v>6627.9111111111106</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="25"/>
@@ -7304,15 +7304,15 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="26"/>
-        <v>-66.375111111111167</v>
+        <v>-66.465185185185163</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" ref="H16:I16" si="63">G16</f>
-        <v>-66.375111111111167</v>
+        <f t="shared" ref="I16" si="63">G16</f>
+        <v>-66.465185185185163</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="28"/>
@@ -7323,14 +7323,14 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6615.5999999999967</v>
+        <v>6621.6749999999984</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="12"/>
-        <v>6615.5999999999967</v>
+        <v>6621.6749999999984</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="13"/>
@@ -7338,15 +7338,15 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="14"/>
-        <v>-66.260000000000005</v>
+        <v>-66.361249999999998</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" ref="R16:S16" si="64">Q16</f>
-        <v>-66.260000000000005</v>
+        <f t="shared" ref="S16" si="64">Q16</f>
+        <v>-66.361249999999998</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="31"/>
@@ -7354,22 +7354,22 @@
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4506.872800000001</v>
+        <v>4509.9999999999964</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" ref="X16:Y16" si="65">X15+X5</f>
-        <v>4516.409200000001</v>
+        <v>4518.6999999999962</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="65"/>
-        <v>6446.0455999999976</v>
+        <v>6449.4999999999964</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="16"/>
-        <v>45.114546666666669</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="17"/>
@@ -7377,11 +7377,11 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="18"/>
-        <v>45.273486666666663</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="19"/>
-        <v>-64.767426666666665</v>
+        <v>-64.825000000000003</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>24</v>
@@ -7418,14 +7418,14 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6623.5199999999995</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="24"/>
-        <v>6623.5199999999995</v>
+        <v>6629.5999999999995</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="25"/>
@@ -7433,15 +7433,15 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="26"/>
-        <v>-66.391999999999996</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" ref="H17:I17" si="67">G17</f>
-        <v>-66.391999999999996</v>
+        <f t="shared" ref="I17" si="67">G17</f>
+        <v>-66.493333333333339</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="28"/>
@@ -7452,14 +7452,14 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6616.4999999999964</v>
+        <v>6623.2499999999982</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="12"/>
-        <v>6616.4999999999964</v>
+        <v>6623.2499999999982</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="13"/>
@@ -7467,15 +7467,15 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="14"/>
-        <v>-66.275000000000006</v>
+        <v>-66.387500000000003</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" ref="R17:S17" si="68">Q17</f>
-        <v>-66.275000000000006</v>
+        <f t="shared" ref="S17" si="68">Q17</f>
+        <v>-66.387500000000003</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="31"/>
@@ -7483,22 +7483,22 @@
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4507.3940000000011</v>
+        <v>4510.8686666666626</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17:Y17" si="69">X16+X5</f>
-        <v>4516.7910000000011</v>
+        <v>4519.3363333333291</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="69"/>
-        <v>6446.6213333333308</v>
+        <v>6450.4595555555516</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="16"/>
-        <v>45.123233333333332</v>
+        <v>45.181144444444335</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="17"/>
@@ -7506,11 +7506,11 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="18"/>
-        <v>45.279850000000003</v>
+        <v>45.322272222222168</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="19"/>
-        <v>-64.777022222222172</v>
+        <v>-64.840992592592499</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>25</v>
@@ -7550,14 +7550,14 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6624.5333333333328</v>
+        <v>6631.2888888888883</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="24"/>
-        <v>6624.5333333333328</v>
+        <v>6631.2888888888883</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="25"/>
@@ -7565,15 +7565,15 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="26"/>
-        <v>-66.408888888888839</v>
+        <v>-66.521481481481501</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" ref="H18:I18" si="70">G18</f>
-        <v>-66.408888888888839</v>
+        <f t="shared" ref="I18" si="70">G18</f>
+        <v>-66.521481481481501</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="28"/>
@@ -7584,14 +7584,14 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6617.399999999996</v>
+        <v>6624.824999999998</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="12"/>
-        <v>6617.399999999996</v>
+        <v>6624.824999999998</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="13"/>
@@ -7599,15 +7599,15 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="14"/>
-        <v>-66.290000000000006</v>
+        <v>-66.413749999999993</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" ref="R18:S18" si="71">Q18</f>
-        <v>-66.290000000000006</v>
+        <f t="shared" ref="S18" si="71">Q18</f>
+        <v>-66.413749999999993</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="31"/>
@@ -7615,22 +7615,22 @@
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4507.9152000000013</v>
+        <v>4511.7373333333289</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="9">
         <f t="shared" ref="X18:Y18" si="72">X17+X5</f>
-        <v>4517.1728000000012</v>
+        <v>4519.972666666662</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="72"/>
-        <v>6447.1970666666639</v>
+        <v>6451.4191111111068</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="16"/>
-        <v>45.131920000000001</v>
+        <v>45.19562222222217</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="17"/>
@@ -7638,11 +7638,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="18"/>
-        <v>45.286213333333336</v>
+        <v>45.332877777777668</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="19"/>
-        <v>-64.786617777777664</v>
+        <v>-64.856985185185167</v>
       </c>
       <c r="AE18" s="6" t="s">
         <v>27</v>
@@ -7670,14 +7670,14 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6625.5466666666662</v>
+        <v>6632.9777777777772</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="24"/>
-        <v>6625.5466666666662</v>
+        <v>6632.9777777777772</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="25"/>
@@ -7685,15 +7685,15 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="26"/>
-        <v>-66.425777777777839</v>
+        <v>-66.549629629629663</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" ref="H19:I19" si="73">G19</f>
-        <v>-66.425777777777839</v>
+        <f t="shared" ref="I19" si="73">G19</f>
+        <v>-66.549629629629663</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="28"/>
@@ -7704,14 +7704,14 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6618.2999999999956</v>
+        <v>6626.3999999999978</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="12"/>
-        <v>6618.2999999999956</v>
+        <v>6626.3999999999978</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="13"/>
@@ -7719,15 +7719,15 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="14"/>
-        <v>-66.305000000000007</v>
+        <v>-66.44</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" ref="R19:S19" si="74">Q19</f>
-        <v>-66.305000000000007</v>
+        <f t="shared" ref="S19" si="74">Q19</f>
+        <v>-66.44</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="31"/>
@@ -7735,22 +7735,22 @@
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4508.4364000000014</v>
+        <v>4512.6059999999952</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" ref="X19:Y19" si="75">X18+X5</f>
-        <v>4517.5546000000013</v>
+        <v>4520.6089999999949</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="75"/>
-        <v>6447.772799999997</v>
+        <v>6452.378666666662</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="16"/>
-        <v>45.140606666666663</v>
+        <v>45.210099999999997</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="17"/>
@@ -7758,11 +7758,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="18"/>
-        <v>45.292576666666669</v>
+        <v>45.343483333333168</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="19"/>
-        <v>-64.796213333333327</v>
+        <v>-64.872977777777663</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7806,14 +7806,14 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6626.5599999999995</v>
+        <v>6634.6666666666661</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="24"/>
-        <v>6626.5599999999995</v>
+        <v>6634.6666666666661</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="25"/>
@@ -7821,15 +7821,15 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="26"/>
-        <v>-66.442666666666668</v>
+        <v>-66.57777777777784</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" ref="H20:I20" si="77">G20</f>
-        <v>-66.442666666666668</v>
+        <f t="shared" ref="I20" si="77">G20</f>
+        <v>-66.57777777777784</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="28"/>
@@ -7840,14 +7840,14 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6619.1999999999953</v>
+        <v>6627.9749999999976</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="12"/>
-        <v>6619.1999999999953</v>
+        <v>6627.9749999999976</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="13"/>
@@ -7855,15 +7855,15 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="14"/>
-        <v>-66.319999999999993</v>
+        <v>-66.466250000000002</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" ref="R20:S20" si="78">Q20</f>
-        <v>-66.319999999999993</v>
+        <f t="shared" ref="S20" si="78">Q20</f>
+        <v>-66.466250000000002</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="31"/>
@@ -7871,22 +7871,22 @@
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4508.9576000000015</v>
+        <v>4513.4746666666615</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" ref="X20:Y20" si="79">X19+X5</f>
-        <v>4517.9364000000014</v>
+        <v>4521.2453333333278</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="79"/>
-        <v>6448.3485333333301</v>
+        <v>6453.3382222222172</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="16"/>
-        <v>45.149293333333333</v>
+        <v>45.224577777777668</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="17"/>
@@ -7894,11 +7894,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="18"/>
-        <v>45.298940000000002</v>
+        <v>45.354088888888832</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="19"/>
-        <v>-64.805808888888834</v>
+        <v>-64.88897037037033</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -7942,14 +7942,14 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6627.5733333333328</v>
+        <v>6636.3555555555549</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="24"/>
-        <v>6627.5733333333328</v>
+        <v>6636.3555555555549</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="25"/>
@@ -7957,15 +7957,15 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="26"/>
-        <v>-66.459555555555497</v>
+        <v>-66.605925925925831</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" ref="H21:I21" si="83">G21</f>
-        <v>-66.459555555555497</v>
+        <f t="shared" ref="I21" si="83">G21</f>
+        <v>-66.605925925925831</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="28"/>
@@ -7976,14 +7976,14 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6620.0999999999949</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="12"/>
-        <v>6620.0999999999949</v>
+        <v>6629.5499999999975</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="13"/>
@@ -7991,15 +7991,15 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="14"/>
-        <v>-66.334999999999837</v>
+        <v>-66.492500000000007</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" ref="R21:S21" si="84">Q21</f>
-        <v>-66.334999999999837</v>
+        <f t="shared" ref="S21" si="84">Q21</f>
+        <v>-66.492500000000007</v>
       </c>
       <c r="U21" s="6">
         <f t="shared" si="31"/>
@@ -8007,22 +8007,22 @@
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4509.4788000000017</v>
+        <v>4514.3433333333278</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" ref="X21:Y21" si="85">X20+X5</f>
-        <v>4518.3182000000015</v>
+        <v>4521.8816666666607</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="85"/>
-        <v>6448.9242666666632</v>
+        <v>6454.2977777777724</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="16"/>
-        <v>45.157980000000002</v>
+        <v>45.239055555555503</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="17"/>
@@ -8030,11 +8030,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="18"/>
-        <v>45.305303333333335</v>
+        <v>45.364694444444332</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="19"/>
-        <v>-64.81540444444434</v>
+        <v>-64.904962962962827</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -8078,14 +8078,14 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6628.5866666666661</v>
+        <v>6638.0444444444438</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="24"/>
-        <v>6628.5866666666661</v>
+        <v>6638.0444444444438</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="25"/>
@@ -8093,15 +8093,15 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="26"/>
-        <v>-66.476444444444496</v>
+        <v>-66.634074074073993</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" ref="H22:I22" si="86">G22</f>
-        <v>-66.476444444444496</v>
+        <f t="shared" ref="I22" si="86">G22</f>
+        <v>-66.634074074073993</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="28"/>
@@ -8111,15 +8111,15 @@
         <v>4330.12</v>
       </c>
       <c r="M22" s="6">
-        <f>M21+EM5</f>
-        <v>6620.0999999999949</v>
+        <f>M21+L5</f>
+        <v>6631.1249999999973</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="12"/>
-        <v>6620.0999999999949</v>
+        <v>6631.1249999999973</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="13"/>
@@ -8127,15 +8127,15 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="14"/>
-        <v>-66.334999999999837</v>
+        <v>-66.518749999999997</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" ref="R22:S22" si="87">Q22</f>
-        <v>-66.334999999999837</v>
+        <f t="shared" ref="S22" si="87">Q22</f>
+        <v>-66.518749999999997</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="31"/>
@@ -8143,22 +8143,22 @@
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4510.0000000000018</v>
+        <v>4515.2119999999941</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" ref="X22:Y22" si="88">X21+X5</f>
-        <v>4518.7000000000016</v>
+        <v>4522.5179999999937</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="88"/>
-        <v>6449.4999999999964</v>
+        <v>6455.2573333333276</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="16"/>
-        <v>45.166666666666664</v>
+        <v>45.253533333333166</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="17"/>
@@ -8166,11 +8166,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="18"/>
-        <v>45.311666666666667</v>
+        <v>45.375299999999832</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="19"/>
-        <v>-64.825000000000003</v>
+        <v>-64.920955555555494</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8214,14 +8214,14 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6629.5999999999995</v>
+        <v>6639.7333333333327</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="24"/>
-        <v>6629.5999999999995</v>
+        <v>6639.7333333333327</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="25"/>
@@ -8229,15 +8229,15 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="26"/>
-        <v>-66.493333333333339</v>
+        <v>-66.662222222222169</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" ref="H23:I23" si="89">G23</f>
-        <v>-66.493333333333339</v>
+        <f t="shared" ref="I23" si="89">G23</f>
+        <v>-66.662222222222169</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="28"/>
@@ -8248,14 +8248,14 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6620.9999999999945</v>
+        <v>6632.6999999999971</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="12"/>
-        <v>6620.9999999999945</v>
+        <v>6632.6999999999971</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="13"/>
@@ -8263,15 +8263,15 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="14"/>
-        <v>-66.349999999999838</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" ref="R23:S23" si="90">Q23</f>
-        <v>-66.349999999999838</v>
+        <f t="shared" ref="S23" si="90">Q23</f>
+        <v>-66.545000000000002</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="31"/>
@@ -8279,22 +8279,22 @@
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4510.521200000002</v>
+        <v>4516.0806666666604</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" ref="X23:Y23" si="91">X22+X5</f>
-        <v>4519.0818000000017</v>
+        <v>4523.1543333333266</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="91"/>
-        <v>6450.0757333333295</v>
+        <v>6456.2168888888827</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="16"/>
-        <v>45.175353333333334</v>
+        <v>45.268011111111001</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="17"/>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="18"/>
-        <v>45.31803</v>
+        <v>45.385905555555503</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="19"/>
-        <v>-64.834595555555495</v>
+        <v>-64.936948148148005</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>28</v>
@@ -8346,14 +8346,14 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6630.6133333333328</v>
+        <v>6641.4222222222215</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="24"/>
-        <v>6630.6133333333328</v>
+        <v>6641.4222222222215</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="25"/>
@@ -8361,15 +8361,15 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="26"/>
-        <v>-66.510222222222168</v>
+        <v>-66.690370370370331</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" ref="H24:I24" si="92">G24</f>
-        <v>-66.510222222222168</v>
+        <f t="shared" ref="I24" si="92">G24</f>
+        <v>-66.690370370370331</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="28"/>
@@ -8380,14 +8380,14 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6621.8999999999942</v>
+        <v>6634.2749999999969</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="12"/>
-        <v>6621.8999999999942</v>
+        <v>6634.2749999999969</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="13"/>
@@ -8395,15 +8395,15 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="14"/>
-        <v>-66.364999999999839</v>
+        <v>-66.571250000000006</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" ref="R24:S24" si="93">Q24</f>
-        <v>-66.364999999999839</v>
+        <f t="shared" ref="S24" si="93">Q24</f>
+        <v>-66.571250000000006</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="31"/>
@@ -8411,22 +8411,22 @@
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4511.0424000000021</v>
+        <v>4516.9493333333266</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" ref="X24:Y24" si="94">X23+X5</f>
-        <v>4519.4636000000019</v>
+        <v>4523.7906666666595</v>
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="94"/>
-        <v>6450.6514666666626</v>
+        <v>6457.1764444444379</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="16"/>
-        <v>45.184040000000003</v>
+        <v>45.282488888888835</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="17"/>
@@ -8434,11 +8434,11 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="18"/>
-        <v>45.324393333333333</v>
+        <v>45.396511111111003</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="19"/>
-        <v>-64.844191111111002</v>
+        <v>-64.952940740740672</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8451,14 +8451,14 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6631.6266666666661</v>
+        <v>6643.1111111111104</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="24"/>
-        <v>6631.6266666666661</v>
+        <v>6643.1111111111104</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="25"/>
@@ -8466,15 +8466,15 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="26"/>
-        <v>-66.527111111111168</v>
+        <v>-66.718518518518493</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="H25:I25" si="95">G25</f>
-        <v>-66.527111111111168</v>
+        <f t="shared" ref="I25" si="95">G25</f>
+        <v>-66.718518518518493</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="28"/>
@@ -8485,14 +8485,14 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6622.7999999999938</v>
+        <v>6635.8499999999967</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="12"/>
-        <v>6622.7999999999938</v>
+        <v>6635.8499999999967</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="13"/>
@@ -8500,15 +8500,15 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="14"/>
-        <v>-66.379999999999839</v>
+        <v>-66.597499999999997</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" ref="R25:S25" si="96">Q25</f>
-        <v>-66.379999999999839</v>
+        <f t="shared" ref="S25" si="96">Q25</f>
+        <v>-66.597499999999997</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>28</v>
@@ -8552,14 +8552,14 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6632.6399999999994</v>
+        <v>6644.7999999999993</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="24"/>
-        <v>6632.6399999999994</v>
+        <v>6644.7999999999993</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="25"/>
@@ -8567,15 +8567,15 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="26"/>
-        <v>-66.543999999999997</v>
+        <v>-66.74666666666667</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" ref="H26:I26" si="97">G26</f>
-        <v>-66.543999999999997</v>
+        <f t="shared" ref="I26" si="97">G26</f>
+        <v>-66.74666666666667</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="28"/>
@@ -8586,14 +8586,14 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6623.6999999999935</v>
+        <v>6637.4249999999965</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="12"/>
-        <v>6623.6999999999935</v>
+        <v>6637.4249999999965</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="13"/>
@@ -8601,15 +8601,15 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="14"/>
-        <v>-66.39499999999984</v>
+        <v>-66.623750000000001</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" ref="R26:S26" si="98">Q26</f>
-        <v>-66.39499999999984</v>
+        <f t="shared" ref="S26" si="98">Q26</f>
+        <v>-66.623750000000001</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8622,14 +8622,14 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6633.6533333333327</v>
+        <v>6646.4888888888881</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="24"/>
-        <v>6633.6533333333327</v>
+        <v>6646.4888888888881</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="25"/>
@@ -8637,15 +8637,15 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="26"/>
-        <v>-66.56088888888884</v>
+        <v>-66.774814814814832</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ref="H27:I27" si="99">G27</f>
-        <v>-66.56088888888884</v>
+        <f t="shared" ref="I27" si="99">G27</f>
+        <v>-66.774814814814832</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="28"/>
@@ -8656,14 +8656,14 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6624.5999999999931</v>
+        <v>6638.9999999999964</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="12"/>
-        <v>6624.5999999999931</v>
+        <v>6638.9999999999964</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="13"/>
@@ -8671,15 +8671,15 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="14"/>
-        <v>-66.40999999999984</v>
+        <v>-66.650000000000006</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" ref="R27:S27" si="100">Q27</f>
-        <v>-66.40999999999984</v>
+        <f t="shared" ref="S27" si="100">Q27</f>
+        <v>-66.650000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8692,14 +8692,14 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6634.6666666666661</v>
+        <v>6648.177777777777</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="24"/>
-        <v>6634.6666666666661</v>
+        <v>6648.177777777777</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="25"/>
@@ -8707,15 +8707,15 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="26"/>
-        <v>-66.57777777777784</v>
+        <v>-66.802962962962994</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" ref="H28:I28" si="101">G28</f>
-        <v>-66.57777777777784</v>
+        <f t="shared" ref="I28" si="101">G28</f>
+        <v>-66.802962962962994</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="28"/>
@@ -8726,14 +8726,14 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6625.4999999999927</v>
+        <v>6640.5749999999962</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="12"/>
-        <v>6625.4999999999927</v>
+        <v>6640.5749999999962</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="13"/>
@@ -8741,15 +8741,15 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="14"/>
-        <v>-66.424999999999827</v>
+        <v>-66.676249999999996</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S28" s="6">
-        <f t="shared" ref="R28:S28" si="102">Q28</f>
-        <v>-66.424999999999827</v>
+        <f t="shared" ref="S28" si="102">Q28</f>
+        <v>-66.676249999999996</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8762,14 +8762,14 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6635.6799999999994</v>
+        <v>6649.8666666666659</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="24"/>
-        <v>6635.6799999999994</v>
+        <v>6649.8666666666659</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="25"/>
@@ -8777,15 +8777,15 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="26"/>
-        <v>-66.594666666666669</v>
+        <v>-66.83111111111117</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" ref="H29:I29" si="103">G29</f>
-        <v>-66.594666666666669</v>
+        <f t="shared" ref="I29" si="103">G29</f>
+        <v>-66.83111111111117</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="28"/>
@@ -8796,14 +8796,14 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6626.3999999999924</v>
+        <v>6642.149999999996</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="12"/>
-        <v>6626.3999999999924</v>
+        <v>6642.149999999996</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="13"/>
@@ -8811,15 +8811,15 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="14"/>
-        <v>-66.439999999999827</v>
+        <v>-66.702500000000001</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" ref="R29:S29" si="104">Q29</f>
-        <v>-66.439999999999827</v>
+        <f t="shared" ref="S29" si="104">Q29</f>
+        <v>-66.702500000000001</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8832,14 +8832,14 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6636.6933333333327</v>
+        <v>6651.5555555555547</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="24"/>
-        <v>6636.6933333333327</v>
+        <v>6651.5555555555547</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="25"/>
@@ -8847,15 +8847,15 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="26"/>
-        <v>-66.611555555555498</v>
+        <v>-66.859259259259161</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" ref="H30:I30" si="105">G30</f>
-        <v>-66.611555555555498</v>
+        <f t="shared" ref="I30" si="105">G30</f>
+        <v>-66.859259259259161</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="28"/>
@@ -8866,14 +8866,14 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6627.299999999992</v>
+        <v>6643.7249999999958</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="12"/>
-        <v>6627.299999999992</v>
+        <v>6643.7249999999958</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="13"/>
@@ -8881,15 +8881,15 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="14"/>
-        <v>-66.454999999999828</v>
+        <v>-66.728750000000005</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="29"/>
         <v>43.247500000000002</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" ref="R30:S30" si="106">Q30</f>
-        <v>-66.454999999999828</v>
+        <f t="shared" ref="S30" si="106">Q30</f>
+        <v>-66.728750000000005</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8902,14 +8902,14 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6637.706666666666</v>
+        <v>6653.2444444444436</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="24"/>
-        <v>6637.706666666666</v>
+        <v>6653.2444444444436</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="25"/>
@@ -8917,15 +8917,15 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="26"/>
-        <v>-66.628444444444497</v>
+        <v>-66.887407407407338</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="35"/>
         <v>43.233333333333334</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" ref="H31:I31" si="107">G31</f>
-        <v>-66.628444444444497</v>
+        <f t="shared" ref="I31" si="107">G31</f>
+        <v>-66.887407407407338</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>30</v>
@@ -8933,10 +8933,7 @@
       <c r="L31" s="6">
         <v>6613.8</v>
       </c>
-      <c r="Q31" s="6">
-        <f>-(LEFT(L31,2)+((RIGHT(L31,LEN(L31)-2))/60))</f>
-        <v>-66.23</v>
-      </c>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">

--- a/Surveys/Survey Lines/Survey Lines.xlsx
+++ b/Surveys/Survey Lines/Survey Lines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Surveys\Survey Lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB6EACC-EC75-4951-963E-04C6D147BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03977933-67CA-4396-B019-D0E6FBFB935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="345" windowWidth="27570" windowHeight="19965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
   <si>
     <t>INSTRUCTIONS:</t>
   </si>
@@ -187,28 +187,25 @@
     <t>2) Copy standard/leftside format for "Table" sheet (BLUE), use Converted/rightside format for "survey plan" sheet (GREEN)</t>
   </si>
   <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>LJ</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
     <t>Both</t>
   </si>
   <si>
     <t>German Bank</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
   </si>
 </sst>
 </file>
@@ -361,9 +358,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P11:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +605,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -636,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>34</v>
@@ -664,22 +661,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -944,49 +941,49 @@
         <v>4334</v>
       </c>
       <c r="C12" s="16">
-        <v>6616.0888888888885</v>
+        <v>6615.2</v>
       </c>
       <c r="D12" s="16">
         <v>4314</v>
       </c>
       <c r="E12" s="16">
-        <v>6616.0888888888885</v>
+        <v>6615.2</v>
       </c>
       <c r="F12" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G12" s="12">
-        <v>-66.268148148148171</v>
+        <v>-66.25333333333333</v>
       </c>
       <c r="H12" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I12" s="12">
-        <v>-66.268148148148171</v>
+        <v>-66.25333333333333</v>
       </c>
       <c r="L12" s="6">
         <v>4330.12</v>
       </c>
       <c r="M12" s="6">
-        <v>6609.0749999999998</v>
+        <v>6608.2</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
-        <v>6609.0749999999998</v>
+        <v>6608.2</v>
       </c>
       <c r="P12" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q12" s="6">
-        <v>-66.151250000000005</v>
+        <v>-66.13666666666667</v>
       </c>
       <c r="R12" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S12" s="6">
-        <v>-66.151250000000005</v>
+        <v>-66.13666666666667</v>
       </c>
       <c r="T12" t="e">
         <v>#N/A</v>
@@ -1000,49 +997,49 @@
         <v>4334</v>
       </c>
       <c r="C13" s="16">
-        <v>6617.7777777777774</v>
+        <v>6616</v>
       </c>
       <c r="D13" s="16">
         <v>4314</v>
       </c>
       <c r="E13" s="16">
-        <v>6617.7777777777774</v>
+        <v>6616</v>
       </c>
       <c r="F13" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G13" s="12">
-        <v>-66.296296296296333</v>
+        <v>-66.266666666666666</v>
       </c>
       <c r="H13" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I13" s="12">
-        <v>-66.296296296296333</v>
+        <v>-66.266666666666666</v>
       </c>
       <c r="L13" s="6">
         <v>4330.12</v>
       </c>
       <c r="M13" s="6">
-        <v>6610.65</v>
+        <v>6608.9</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
-        <v>6610.65</v>
+        <v>6608.9</v>
       </c>
       <c r="P13" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q13" s="6">
-        <v>-66.177499999999995</v>
+        <v>-66.148333333333326</v>
       </c>
       <c r="R13" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S13" s="6">
-        <v>-66.177499999999995</v>
+        <v>-66.148333333333326</v>
       </c>
       <c r="T13" t="e">
         <v>#N/A</v>
@@ -1056,49 +1053,49 @@
         <v>4334</v>
       </c>
       <c r="C14" s="16">
-        <v>6619.4666666666662</v>
+        <v>6616.8</v>
       </c>
       <c r="D14" s="16">
         <v>4314</v>
       </c>
       <c r="E14" s="16">
-        <v>6619.4666666666662</v>
+        <v>6616.8</v>
       </c>
       <c r="F14" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G14" s="12">
-        <v>-66.324444444444495</v>
+        <v>-66.28</v>
       </c>
       <c r="H14" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I14" s="12">
-        <v>-66.324444444444495</v>
+        <v>-66.28</v>
       </c>
       <c r="L14" s="6">
         <v>4330.12</v>
       </c>
       <c r="M14" s="6">
-        <v>6612.2249999999995</v>
+        <v>6609.5999999999995</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
-        <v>6612.2249999999995</v>
+        <v>6609.5999999999995</v>
       </c>
       <c r="P14" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q14" s="6">
-        <v>-66.203749999999999</v>
+        <v>-66.16</v>
       </c>
       <c r="R14" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S14" s="6">
-        <v>-66.203749999999999</v>
+        <v>-66.16</v>
       </c>
       <c r="T14" t="e">
         <v>#N/A</v>
@@ -1112,49 +1109,49 @@
         <v>4334</v>
       </c>
       <c r="C15" s="16">
-        <v>6621.1555555555551</v>
+        <v>6617.6</v>
       </c>
       <c r="D15" s="16">
         <v>4314</v>
       </c>
       <c r="E15" s="16">
-        <v>6621.1555555555551</v>
+        <v>6617.6</v>
       </c>
       <c r="F15" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G15" s="12">
-        <v>-66.352592592592671</v>
+        <v>-66.293333333333337</v>
       </c>
       <c r="H15" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I15" s="12">
-        <v>-66.352592592592671</v>
+        <v>-66.293333333333337</v>
       </c>
       <c r="L15" s="6">
         <v>4330.12</v>
       </c>
       <c r="M15" s="6">
-        <v>6613.7999999999993</v>
+        <v>6610.2999999999993</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
-        <v>6613.7999999999993</v>
+        <v>6610.2999999999993</v>
       </c>
       <c r="P15" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q15" s="6">
-        <v>-66.23</v>
+        <v>-66.171666666666667</v>
       </c>
       <c r="R15" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S15" s="6">
-        <v>-66.23</v>
+        <v>-66.171666666666667</v>
       </c>
       <c r="T15" t="e">
         <v>#N/A</v>
@@ -1168,49 +1165,49 @@
         <v>4334</v>
       </c>
       <c r="C16" s="16">
-        <v>6622.844444444444</v>
+        <v>6618.4000000000005</v>
       </c>
       <c r="D16" s="16">
         <v>4314</v>
       </c>
       <c r="E16" s="16">
-        <v>6622.844444444444</v>
+        <v>6618.4000000000005</v>
       </c>
       <c r="F16" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G16" s="12">
-        <v>-66.380740740740663</v>
+        <v>-66.306666666666672</v>
       </c>
       <c r="H16" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I16" s="12">
-        <v>-66.380740740740663</v>
+        <v>-66.306666666666672</v>
       </c>
       <c r="L16" s="6">
         <v>4330.12</v>
       </c>
       <c r="M16" s="6">
-        <v>6615.3749999999991</v>
+        <v>6610.9999999999991</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
-        <v>6615.3749999999991</v>
+        <v>6610.9999999999991</v>
       </c>
       <c r="P16" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q16" s="6">
-        <v>-66.256249999999994</v>
+        <v>-66.183333333333337</v>
       </c>
       <c r="R16" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S16" s="6">
-        <v>-66.256249999999994</v>
+        <v>-66.183333333333337</v>
       </c>
       <c r="T16" t="e">
         <v>#N/A</v>
@@ -1224,50 +1221,50 @@
         <v>4334</v>
       </c>
       <c r="C17" s="16">
-        <v>6624.5333333333328</v>
+        <v>6619.2000000000007</v>
       </c>
       <c r="D17" s="16">
         <v>4314</v>
       </c>
       <c r="E17" s="16">
-        <v>6624.5333333333328</v>
+        <v>6619.2000000000007</v>
       </c>
       <c r="F17" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G17" s="12">
-        <v>-66.408888888888839</v>
+        <v>-66.319999999999993</v>
       </c>
       <c r="H17" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I17" s="12">
-        <v>-66.408888888888839</v>
+        <v>-66.319999999999993</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="6">
         <v>4330.12</v>
       </c>
       <c r="M17" s="6">
-        <v>6616.9499999999989</v>
+        <v>6611.6999999999989</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
-        <v>6616.9499999999989</v>
+        <v>6611.6999999999989</v>
       </c>
       <c r="P17" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q17" s="6">
-        <v>-66.282499999999999</v>
+        <v>-66.194999999999993</v>
       </c>
       <c r="R17" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S17" s="6">
-        <v>-66.282499999999999</v>
+        <v>-66.194999999999993</v>
       </c>
       <c r="T17" t="e">
         <v>#N/A</v>
@@ -1281,50 +1278,50 @@
         <v>4334</v>
       </c>
       <c r="C18" s="16">
-        <v>6626.2222222222217</v>
+        <v>6620.0000000000009</v>
       </c>
       <c r="D18" s="16">
         <v>4314</v>
       </c>
       <c r="E18" s="16">
-        <v>6626.2222222222217</v>
+        <v>6620.0000000000009</v>
       </c>
       <c r="F18" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G18" s="12">
-        <v>-66.437037037037001</v>
+        <v>-66.333333333333329</v>
       </c>
       <c r="H18" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I18" s="12">
-        <v>-66.437037037037001</v>
+        <v>-66.333333333333329</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6">
         <v>4330.12</v>
       </c>
       <c r="M18" s="6">
-        <v>6618.5249999999987</v>
+        <v>6612.3999999999987</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
-        <v>6618.5249999999987</v>
+        <v>6612.3999999999987</v>
       </c>
       <c r="P18" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q18" s="6">
-        <v>-66.308750000000003</v>
+        <v>-66.206666666666663</v>
       </c>
       <c r="R18" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S18" s="6">
-        <v>-66.308750000000003</v>
+        <v>-66.206666666666663</v>
       </c>
       <c r="T18" t="e">
         <v>#N/A</v>
@@ -1338,49 +1335,49 @@
         <v>4334</v>
       </c>
       <c r="C19" s="16">
-        <v>6627.9111111111106</v>
+        <v>6620.8000000000011</v>
       </c>
       <c r="D19" s="16">
         <v>4314</v>
       </c>
       <c r="E19" s="16">
-        <v>6627.9111111111106</v>
+        <v>6620.8000000000011</v>
       </c>
       <c r="F19" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G19" s="12">
-        <v>-66.465185185185163</v>
+        <v>-66.346666666666664</v>
       </c>
       <c r="H19" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I19" s="12">
-        <v>-66.465185185185163</v>
+        <v>-66.346666666666664</v>
       </c>
       <c r="L19" s="6">
         <v>4330.12</v>
       </c>
       <c r="M19" s="6">
-        <v>6620.0999999999985</v>
+        <v>6613.0999999999985</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
-        <v>6620.0999999999985</v>
+        <v>6613.0999999999985</v>
       </c>
       <c r="P19" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q19" s="6">
-        <v>-66.334999999999994</v>
+        <v>-66.218333333333334</v>
       </c>
       <c r="R19" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S19" s="6">
-        <v>-66.334999999999994</v>
+        <v>-66.218333333333334</v>
       </c>
       <c r="T19" t="e">
         <v>#N/A</v>
@@ -1394,49 +1391,49 @@
         <v>4334</v>
       </c>
       <c r="C20" s="16">
-        <v>6629.5999999999995</v>
+        <v>6621.6000000000013</v>
       </c>
       <c r="D20" s="16">
         <v>4314</v>
       </c>
       <c r="E20" s="16">
-        <v>6629.5999999999995</v>
+        <v>6621.6000000000013</v>
       </c>
       <c r="F20" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G20" s="12">
-        <v>-66.493333333333339</v>
+        <v>-66.36</v>
       </c>
       <c r="H20" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I20" s="12">
-        <v>-66.493333333333339</v>
+        <v>-66.36</v>
       </c>
       <c r="L20" s="6">
         <v>4330.12</v>
       </c>
       <c r="M20" s="6">
-        <v>6621.6749999999984</v>
+        <v>6613.7999999999984</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
-        <v>6621.6749999999984</v>
+        <v>6613.7999999999984</v>
       </c>
       <c r="P20" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q20" s="6">
-        <v>-66.361249999999998</v>
+        <v>-66.23</v>
       </c>
       <c r="R20" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S20" s="6">
-        <v>-66.361249999999998</v>
+        <v>-66.23</v>
       </c>
       <c r="T20" t="e">
         <v>#N/A</v>
@@ -1450,49 +1447,49 @@
         <v>4334</v>
       </c>
       <c r="C21" s="16">
-        <v>6631.2888888888883</v>
+        <v>6622.4000000000015</v>
       </c>
       <c r="D21" s="16">
         <v>4314</v>
       </c>
       <c r="E21" s="16">
-        <v>6631.2888888888883</v>
+        <v>6622.4000000000015</v>
       </c>
       <c r="F21" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G21" s="12">
-        <v>-66.521481481481501</v>
+        <v>-66.373333333333335</v>
       </c>
       <c r="H21" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I21" s="12">
-        <v>-66.521481481481501</v>
+        <v>-66.373333333333335</v>
       </c>
       <c r="L21" s="6">
         <v>4330.12</v>
       </c>
       <c r="M21" s="6">
-        <v>6623.2499999999982</v>
+        <v>6614.4999999999982</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
-        <v>6623.2499999999982</v>
+        <v>6614.4999999999982</v>
       </c>
       <c r="P21" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q21" s="6">
-        <v>-66.387500000000003</v>
+        <v>-66.24166666666666</v>
       </c>
       <c r="R21" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S21" s="6">
-        <v>-66.387500000000003</v>
+        <v>-66.24166666666666</v>
       </c>
       <c r="T21" t="e">
         <v>#N/A</v>
@@ -1506,49 +1503,49 @@
         <v>4334</v>
       </c>
       <c r="C22" s="16">
-        <v>6632.9777777777772</v>
+        <v>6623.2000000000016</v>
       </c>
       <c r="D22" s="16">
         <v>4314</v>
       </c>
       <c r="E22" s="16">
-        <v>6632.9777777777772</v>
+        <v>6623.2000000000016</v>
       </c>
       <c r="F22" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G22" s="12">
-        <v>-66.549629629629663</v>
+        <v>-66.38666666666667</v>
       </c>
       <c r="H22" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I22" s="12">
-        <v>-66.549629629629663</v>
+        <v>-66.38666666666667</v>
       </c>
       <c r="L22" s="6">
         <v>4330.12</v>
       </c>
       <c r="M22" s="6">
-        <v>6624.824999999998</v>
+        <v>6615.199999999998</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
-        <v>6624.824999999998</v>
+        <v>6615.199999999998</v>
       </c>
       <c r="P22" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q22" s="6">
-        <v>-66.413749999999993</v>
+        <v>-66.25333333333333</v>
       </c>
       <c r="R22" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S22" s="6">
-        <v>-66.413749999999993</v>
+        <v>-66.25333333333333</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
@@ -1562,49 +1559,49 @@
         <v>4334</v>
       </c>
       <c r="C23" s="16">
-        <v>6634.6666666666661</v>
+        <v>6624.0000000000018</v>
       </c>
       <c r="D23" s="16">
         <v>4314</v>
       </c>
       <c r="E23" s="16">
-        <v>6634.6666666666661</v>
+        <v>6624.0000000000018</v>
       </c>
       <c r="F23" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G23" s="12">
-        <v>-66.57777777777784</v>
+        <v>-66.400000000000006</v>
       </c>
       <c r="H23" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I23" s="12">
-        <v>-66.57777777777784</v>
+        <v>-66.400000000000006</v>
       </c>
       <c r="L23" s="6">
         <v>4330.12</v>
       </c>
       <c r="M23" s="6">
-        <v>6626.3999999999978</v>
+        <v>6615.8999999999978</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
-        <v>6626.3999999999978</v>
+        <v>6615.8999999999978</v>
       </c>
       <c r="P23" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q23" s="6">
-        <v>-66.44</v>
+        <v>-66.265000000000001</v>
       </c>
       <c r="R23" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S23" s="6">
-        <v>-66.44</v>
+        <v>-66.265000000000001</v>
       </c>
       <c r="T23" t="e">
         <v>#N/A</v>
@@ -1618,49 +1615,49 @@
         <v>4334</v>
       </c>
       <c r="C24" s="16">
-        <v>6636.3555555555549</v>
+        <v>6624.800000000002</v>
       </c>
       <c r="D24" s="16">
         <v>4314</v>
       </c>
       <c r="E24" s="16">
-        <v>6636.3555555555549</v>
+        <v>6624.800000000002</v>
       </c>
       <c r="F24" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G24" s="12">
-        <v>-66.605925925925831</v>
+        <v>-66.413333333333327</v>
       </c>
       <c r="H24" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I24" s="12">
-        <v>-66.605925925925831</v>
+        <v>-66.413333333333327</v>
       </c>
       <c r="L24" s="6">
         <v>4330.12</v>
       </c>
       <c r="M24" s="6">
-        <v>6627.9749999999976</v>
+        <v>6616.5999999999976</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
-        <v>6627.9749999999976</v>
+        <v>6616.5999999999976</v>
       </c>
       <c r="P24" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q24" s="6">
-        <v>-66.466250000000002</v>
+        <v>-66.276666666666671</v>
       </c>
       <c r="R24" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S24" s="6">
-        <v>-66.466250000000002</v>
+        <v>-66.276666666666671</v>
       </c>
       <c r="T24" t="e">
         <v>#N/A</v>
@@ -1674,49 +1671,49 @@
         <v>4334</v>
       </c>
       <c r="C25" s="16">
-        <v>6638.0444444444438</v>
+        <v>6625.6000000000022</v>
       </c>
       <c r="D25" s="16">
         <v>4314</v>
       </c>
       <c r="E25" s="16">
-        <v>6638.0444444444438</v>
+        <v>6625.6000000000022</v>
       </c>
       <c r="F25" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G25" s="12">
-        <v>-66.634074074073993</v>
+        <v>-66.426666666666662</v>
       </c>
       <c r="H25" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I25" s="12">
-        <v>-66.634074074073993</v>
+        <v>-66.426666666666662</v>
       </c>
       <c r="L25" s="6">
         <v>4330.12</v>
       </c>
       <c r="M25" s="6">
-        <v>6629.5499999999975</v>
+        <v>6617.2999999999975</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
-        <v>6629.5499999999975</v>
+        <v>6617.2999999999975</v>
       </c>
       <c r="P25" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q25" s="6">
-        <v>-66.492500000000007</v>
+        <v>-66.288333333333327</v>
       </c>
       <c r="R25" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S25" s="6">
-        <v>-66.492500000000007</v>
+        <v>-66.288333333333327</v>
       </c>
       <c r="T25" t="e">
         <v>#N/A</v>
@@ -1730,49 +1727,49 @@
         <v>4334</v>
       </c>
       <c r="C26" s="16">
-        <v>6639.7333333333327</v>
+        <v>6626.4000000000024</v>
       </c>
       <c r="D26" s="16">
         <v>4314</v>
       </c>
       <c r="E26" s="16">
-        <v>6639.7333333333327</v>
+        <v>6626.4000000000024</v>
       </c>
       <c r="F26" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G26" s="12">
-        <v>-66.662222222222169</v>
+        <v>-66.44</v>
       </c>
       <c r="H26" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I26" s="12">
-        <v>-66.662222222222169</v>
+        <v>-66.44</v>
       </c>
       <c r="L26" s="6">
         <v>4330.12</v>
       </c>
       <c r="M26" s="6">
-        <v>6631.1249999999973</v>
+        <v>6617.9999999999973</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
-        <v>6631.1249999999973</v>
+        <v>6617.9999999999973</v>
       </c>
       <c r="P26" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q26" s="6">
-        <v>-66.518749999999997</v>
+        <v>-66.3</v>
       </c>
       <c r="R26" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S26" s="6">
-        <v>-66.518749999999997</v>
+        <v>-66.3</v>
       </c>
       <c r="T26" t="e">
         <v>#N/A</v>
@@ -1786,49 +1783,49 @@
         <v>4334</v>
       </c>
       <c r="C27" s="16">
-        <v>6641.4222222222215</v>
+        <v>6627.2000000000025</v>
       </c>
       <c r="D27" s="16">
         <v>4314</v>
       </c>
       <c r="E27" s="16">
-        <v>6641.4222222222215</v>
+        <v>6627.2000000000025</v>
       </c>
       <c r="F27" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G27" s="12">
-        <v>-66.690370370370331</v>
+        <v>-66.453333333333333</v>
       </c>
       <c r="H27" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I27" s="12">
-        <v>-66.690370370370331</v>
+        <v>-66.453333333333333</v>
       </c>
       <c r="L27" s="6">
         <v>4330.12</v>
       </c>
       <c r="M27" s="6">
-        <v>6632.6999999999971</v>
+        <v>6618.6999999999971</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
-        <v>6632.6999999999971</v>
+        <v>6618.6999999999971</v>
       </c>
       <c r="P27" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q27" s="6">
-        <v>-66.545000000000002</v>
+        <v>-66.311666666666667</v>
       </c>
       <c r="R27" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S27" s="6">
-        <v>-66.545000000000002</v>
+        <v>-66.311666666666667</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
@@ -1842,49 +1839,49 @@
         <v>4334</v>
       </c>
       <c r="C28" s="16">
-        <v>6643.1111111111104</v>
+        <v>6628.0000000000027</v>
       </c>
       <c r="D28" s="16">
         <v>4314</v>
       </c>
       <c r="E28" s="16">
-        <v>6643.1111111111104</v>
+        <v>6628.0000000000027</v>
       </c>
       <c r="F28" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G28" s="12">
-        <v>-66.718518518518493</v>
+        <v>-66.466666666666669</v>
       </c>
       <c r="H28" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I28" s="12">
-        <v>-66.718518518518493</v>
+        <v>-66.466666666666669</v>
       </c>
       <c r="L28" s="6">
         <v>4330.12</v>
       </c>
       <c r="M28" s="6">
-        <v>6634.2749999999969</v>
+        <v>6619.3999999999969</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
-        <v>6634.2749999999969</v>
+        <v>6619.3999999999969</v>
       </c>
       <c r="P28" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q28" s="6">
-        <v>-66.571250000000006</v>
+        <v>-66.323333333333338</v>
       </c>
       <c r="R28" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S28" s="6">
-        <v>-66.571250000000006</v>
+        <v>-66.323333333333338</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
@@ -1898,49 +1895,49 @@
         <v>4334</v>
       </c>
       <c r="C29" s="16">
-        <v>6644.7999999999993</v>
+        <v>6628.8000000000029</v>
       </c>
       <c r="D29" s="16">
         <v>4314</v>
       </c>
       <c r="E29" s="16">
-        <v>6644.7999999999993</v>
+        <v>6628.8000000000029</v>
       </c>
       <c r="F29" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G29" s="12">
-        <v>-66.74666666666667</v>
+        <v>-66.48</v>
       </c>
       <c r="H29" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I29" s="12">
-        <v>-66.74666666666667</v>
+        <v>-66.48</v>
       </c>
       <c r="L29" s="6">
         <v>4330.12</v>
       </c>
       <c r="M29" s="6">
-        <v>6635.8499999999967</v>
+        <v>6620.0999999999967</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
-        <v>6635.8499999999967</v>
+        <v>6620.0999999999967</v>
       </c>
       <c r="P29" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q29" s="6">
-        <v>-66.597499999999997</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R29" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S29" s="6">
-        <v>-66.597499999999997</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
@@ -1954,49 +1951,49 @@
         <v>4334</v>
       </c>
       <c r="C30" s="16">
-        <v>6646.4888888888881</v>
+        <v>6629.6000000000031</v>
       </c>
       <c r="D30" s="16">
         <v>4314</v>
       </c>
       <c r="E30" s="16">
-        <v>6646.4888888888881</v>
+        <v>6629.6000000000031</v>
       </c>
       <c r="F30" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G30" s="12">
-        <v>-66.774814814814832</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H30" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I30" s="12">
-        <v>-66.774814814814832</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="L30" s="6">
         <v>4330.12</v>
       </c>
       <c r="M30" s="6">
-        <v>6637.4249999999965</v>
+        <v>6620.7999999999965</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
-        <v>6637.4249999999965</v>
+        <v>6620.7999999999965</v>
       </c>
       <c r="P30" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q30" s="6">
-        <v>-66.623750000000001</v>
+        <v>-66.346666666666664</v>
       </c>
       <c r="R30" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S30" s="6">
-        <v>-66.623750000000001</v>
+        <v>-66.346666666666664</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
@@ -2010,49 +2007,49 @@
         <v>4334</v>
       </c>
       <c r="C31" s="16">
-        <v>6648.177777777777</v>
+        <v>6630.4000000000033</v>
       </c>
       <c r="D31" s="16">
         <v>4314</v>
       </c>
       <c r="E31" s="16">
-        <v>6648.177777777777</v>
+        <v>6630.4000000000033</v>
       </c>
       <c r="F31" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G31" s="12">
-        <v>-66.802962962962994</v>
+        <v>-66.506666666666661</v>
       </c>
       <c r="H31" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I31" s="12">
-        <v>-66.802962962962994</v>
+        <v>-66.506666666666661</v>
       </c>
       <c r="L31" s="6">
         <v>4330.12</v>
       </c>
       <c r="M31" s="6">
-        <v>6638.9999999999964</v>
+        <v>6621.4999999999964</v>
       </c>
       <c r="N31" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O31" s="6">
-        <v>6638.9999999999964</v>
+        <v>6621.4999999999964</v>
       </c>
       <c r="P31" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q31" s="6">
-        <v>-66.650000000000006</v>
+        <v>-66.358333333333334</v>
       </c>
       <c r="R31" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S31" s="6">
-        <v>-66.650000000000006</v>
+        <v>-66.358333333333334</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
@@ -2066,49 +2063,49 @@
         <v>4334</v>
       </c>
       <c r="C32" s="16">
-        <v>6649.8666666666659</v>
+        <v>6631.2000000000035</v>
       </c>
       <c r="D32" s="16">
         <v>4314</v>
       </c>
       <c r="E32" s="16">
-        <v>6649.8666666666659</v>
+        <v>6631.2000000000035</v>
       </c>
       <c r="F32" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G32" s="12">
-        <v>-66.83111111111117</v>
+        <v>-66.52</v>
       </c>
       <c r="H32" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I32" s="12">
-        <v>-66.83111111111117</v>
+        <v>-66.52</v>
       </c>
       <c r="L32" s="6">
         <v>4330.12</v>
       </c>
       <c r="M32" s="6">
-        <v>6640.5749999999962</v>
+        <v>6622.1999999999962</v>
       </c>
       <c r="N32" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O32" s="6">
-        <v>6640.5749999999962</v>
+        <v>6622.1999999999962</v>
       </c>
       <c r="P32" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q32" s="6">
-        <v>-66.676249999999996</v>
+        <v>-66.37</v>
       </c>
       <c r="R32" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S32" s="6">
-        <v>-66.676249999999996</v>
+        <v>-66.37</v>
       </c>
       <c r="T32" t="e">
         <v>#N/A</v>
@@ -2122,49 +2119,49 @@
         <v>4334</v>
       </c>
       <c r="C33" s="16">
-        <v>6651.5555555555547</v>
+        <v>6632.0000000000036</v>
       </c>
       <c r="D33" s="16">
         <v>4314</v>
       </c>
       <c r="E33" s="16">
-        <v>6651.5555555555547</v>
+        <v>6632.0000000000036</v>
       </c>
       <c r="F33" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G33" s="12">
-        <v>-66.859259259259161</v>
+        <v>-66.533333333333331</v>
       </c>
       <c r="H33" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I33" s="12">
-        <v>-66.859259259259161</v>
+        <v>-66.533333333333331</v>
       </c>
       <c r="L33" s="6">
         <v>4330.12</v>
       </c>
       <c r="M33" s="6">
-        <v>6642.149999999996</v>
+        <v>6622.899999999996</v>
       </c>
       <c r="N33" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O33" s="6">
-        <v>6642.149999999996</v>
+        <v>6622.899999999996</v>
       </c>
       <c r="P33" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q33" s="6">
-        <v>-66.702500000000001</v>
+        <v>-66.381666666666661</v>
       </c>
       <c r="R33" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S33" s="6">
-        <v>-66.702500000000001</v>
+        <v>-66.381666666666661</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
@@ -2178,49 +2175,49 @@
         <v>4334</v>
       </c>
       <c r="C34" s="16">
-        <v>6653.2444444444436</v>
+        <v>6632.8000000000038</v>
       </c>
       <c r="D34" s="16">
         <v>4314</v>
       </c>
       <c r="E34" s="16">
-        <v>6653.2444444444436</v>
+        <v>6632.8000000000038</v>
       </c>
       <c r="F34" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G34" s="12">
-        <v>-66.887407407407338</v>
+        <v>-66.546666666666667</v>
       </c>
       <c r="H34" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I34" s="12">
-        <v>-66.887407407407338</v>
+        <v>-66.546666666666667</v>
       </c>
       <c r="L34" s="6">
         <v>4330.12</v>
       </c>
       <c r="M34" s="6">
-        <v>6643.7249999999958</v>
+        <v>6623.5999999999958</v>
       </c>
       <c r="N34" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O34" s="6">
-        <v>6643.7249999999958</v>
+        <v>6623.5999999999958</v>
       </c>
       <c r="P34" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q34" s="6">
-        <v>-66.728750000000005</v>
+        <v>-66.393333333333331</v>
       </c>
       <c r="R34" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S34" s="6">
-        <v>-66.728750000000005</v>
+        <v>-66.393333333333331</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
@@ -3217,7 +3214,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3244,292 +3241,344 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>45.224583333333335</v>
-      </c>
-      <c r="C2">
-        <v>-64.691333333333333</v>
-      </c>
-      <c r="D2">
-        <v>45.263750000000002</v>
-      </c>
-      <c r="E2">
-        <v>-64.55</v>
+      <c r="A2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C2" s="12">
+        <v>-66.493333333333339</v>
+      </c>
+      <c r="D2" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E2" s="12">
+        <v>-66.493333333333339</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>45.239277777777836</v>
-      </c>
-      <c r="C3">
-        <v>-64.713277777777833</v>
-      </c>
-      <c r="D3">
-        <v>45.285277777777836</v>
-      </c>
-      <c r="E3">
-        <v>-64.55</v>
+      <c r="A3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C3" s="12">
+        <v>-66.465185185185163</v>
+      </c>
+      <c r="D3" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E3" s="12">
+        <v>-66.465185185185163</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>45.253972222222167</v>
-      </c>
-      <c r="C4">
-        <v>-64.735222222222163</v>
-      </c>
-      <c r="D4">
-        <v>45.306805555555499</v>
-      </c>
-      <c r="E4">
-        <v>-64.55</v>
+      <c r="A4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C4" s="12">
+        <v>-66.437037037037001</v>
+      </c>
+      <c r="D4" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-66.437037037037001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>45.268666666666668</v>
-      </c>
-      <c r="C5">
-        <v>-64.757166666666663</v>
-      </c>
-      <c r="D5">
-        <v>45.328333333333333</v>
-      </c>
-      <c r="E5">
-        <v>-64.55</v>
+      <c r="A5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-66.408888888888839</v>
+      </c>
+      <c r="D5" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E5" s="12">
+        <v>-66.408888888888839</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C6" s="12">
+        <v>-66.380740740740663</v>
+      </c>
+      <c r="D6" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E6" s="12">
+        <v>-66.380740740740663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-66.352592592592671</v>
+      </c>
+      <c r="D7" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-66.352592592592671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-66.324444444444495</v>
+      </c>
+      <c r="D8" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-66.324444444444495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C9" s="12">
+        <v>-66.296296296296333</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E9" s="12">
+        <v>-66.296296296296333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B6">
-        <v>45.25</v>
-      </c>
-      <c r="C6">
-        <v>-65.05</v>
-      </c>
-      <c r="D6">
-        <v>45.31666666666667</v>
-      </c>
-      <c r="E6">
-        <v>-64.833333333333329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B10" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-66.268148148148171</v>
+      </c>
+      <c r="D10" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-66.268148148148171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-66.239999999999995</v>
+      </c>
+      <c r="D11" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-66.239999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-66.23</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-66.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-66.218333333333334</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-66.218333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-66.206666666666663</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E14" s="6">
+        <v>-66.206666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B7">
-        <v>45.26305</v>
-      </c>
-      <c r="C7">
-        <v>-65.05</v>
-      </c>
-      <c r="D7">
-        <v>45.324449999999999</v>
-      </c>
-      <c r="E7">
-        <v>-64.849999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B15" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-66.194999999999993</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E15" s="6">
+        <v>-66.194999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-66.183333333333337</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-66.183333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-66.171666666666667</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-66.171666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-66.16</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-66.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-66.148333333333326</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-66.148333333333326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B8">
-        <v>45.276116666666667</v>
-      </c>
-      <c r="C8">
-        <v>-65.05</v>
-      </c>
-      <c r="D8">
-        <v>45.332216666666667</v>
-      </c>
-      <c r="E8">
-        <v>-64.86666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>45.289166666666667</v>
-      </c>
-      <c r="C9">
-        <v>-65.05</v>
-      </c>
-      <c r="D9">
-        <v>45.34</v>
-      </c>
-      <c r="E9">
-        <v>-64.88333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>45.036366666666666</v>
-      </c>
-      <c r="C10">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="D10">
-        <v>45.216216666666668</v>
-      </c>
-      <c r="E10">
-        <v>-64.681066666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>45.054980952381001</v>
-      </c>
-      <c r="C11">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="D11">
-        <v>45.22985238095233</v>
-      </c>
-      <c r="E11">
-        <v>-64.7016285714285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <v>45.073595238095166</v>
-      </c>
-      <c r="C12">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="D12">
-        <v>45.243488095238</v>
-      </c>
-      <c r="E12">
-        <v>-64.722190476190505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>45.092209523809501</v>
-      </c>
-      <c r="C13">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="D13">
-        <v>45.257123809523833</v>
-      </c>
-      <c r="E13">
-        <v>-64.742752380952339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="6">
-        <v>45.110823809523836</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="D14" s="6">
-        <v>45.270759523809502</v>
-      </c>
-      <c r="E14" s="6">
-        <v>-64.76331428571433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6">
-        <v>45.129438095238164</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="D15" s="6">
-        <v>45.284395238095165</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-64.783876190476164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6">
-        <v>45.148052380952336</v>
-      </c>
-      <c r="C16" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="D16" s="6">
-        <v>45.298030952380834</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-64.804438095237998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="6">
-        <v>45.166666666666664</v>
-      </c>
-      <c r="C17" s="6">
-        <v>-65.233333333333334</v>
-      </c>
-      <c r="D17" s="6">
-        <v>45.311666666666667</v>
-      </c>
-      <c r="E17" s="6">
-        <v>-64.825000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-66.13666666666667</v>
+      </c>
+      <c r="D20" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-66.13666666666667</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-66.125</v>
+      </c>
+      <c r="D21" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="E21" s="6">
+        <v>-66.125</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4523,8 +4572,8 @@
   </sheetPr>
   <dimension ref="A1:E997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4551,289 +4600,345 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>4513.4750000000004</v>
-      </c>
-      <c r="C2">
-        <v>6441.48</v>
-      </c>
-      <c r="D2">
-        <v>4515.8249999999998</v>
-      </c>
-      <c r="E2">
-        <v>6433</v>
+      <c r="A2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C2" s="16">
+        <v>6629.5999999999995</v>
+      </c>
+      <c r="D2" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E2" s="16">
+        <v>6629.5999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="6">
-        <v>4514.3566666666666</v>
-      </c>
-      <c r="C3" s="6">
-        <v>6442.7966666666662</v>
-      </c>
-      <c r="D3" s="6">
-        <v>4517.1166666666668</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6433</v>
+      <c r="A3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C3" s="16">
+        <v>6627.9111111111106</v>
+      </c>
+      <c r="D3" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E3" s="16">
+        <v>6627.9111111111106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4515.2383333333328</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6444.1133333333328</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4518.4083333333338</v>
-      </c>
-      <c r="E4" s="6">
-        <v>6433</v>
+      <c r="A4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C4" s="16">
+        <v>6626.2222222222217</v>
+      </c>
+      <c r="D4" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E4" s="16">
+        <v>6626.2222222222217</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4516.119999999999</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6445.4299999999994</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4519.7000000000007</v>
-      </c>
-      <c r="E5" s="6">
-        <v>6433</v>
+      <c r="A5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C5" s="16">
+        <v>6624.5333333333328</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E5" s="16">
+        <v>6624.5333333333328</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C6" s="16">
+        <v>6622.844444444444</v>
+      </c>
+      <c r="D6" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E6" s="16">
+        <v>6622.844444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C7" s="16">
+        <v>6621.1555555555551</v>
+      </c>
+      <c r="D7" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E7" s="16">
+        <v>6621.1555555555551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C8" s="16">
+        <v>6619.4666666666662</v>
+      </c>
+      <c r="D8" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E8" s="16">
+        <v>6619.4666666666662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C9" s="16">
+        <v>6617.7777777777774</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E9" s="16">
+        <v>6617.7777777777774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="6">
-        <v>4515</v>
-      </c>
-      <c r="C6" s="6">
-        <v>6503</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4519</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="B10" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C10" s="16">
+        <v>6616.0888888888885</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E10" s="16">
+        <v>6616.0888888888885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C11" s="16">
+        <v>6614.4</v>
+      </c>
+      <c r="D11" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E11" s="16">
+        <v>6614.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6613.7999999999984</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6613.7999999999984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6613.0999999999985</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6613.0999999999985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6612.3999999999987</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E14" s="6">
+        <v>6612.3999999999987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B7">
-        <v>4515.7830000000004</v>
-      </c>
-      <c r="C7">
-        <v>6503</v>
-      </c>
-      <c r="D7">
-        <v>4519.4669999999996</v>
-      </c>
-      <c r="E7">
-        <v>6451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="B15" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6611.6999999999989</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6611.6999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6610.9999999999991</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6610.9999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C17" s="6">
+        <v>6610.2999999999993</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6610.2999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6609.5999999999995</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E18" s="6">
+        <v>6609.5999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6608.9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6608.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B8">
-        <v>4516.567</v>
-      </c>
-      <c r="C8">
-        <v>6503</v>
-      </c>
-      <c r="D8">
-        <v>4519.933</v>
-      </c>
-      <c r="E8">
-        <v>6452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>4517.3500000000004</v>
-      </c>
-      <c r="C9">
-        <v>6503</v>
-      </c>
-      <c r="D9">
-        <v>4520.3999999999996</v>
-      </c>
-      <c r="E9">
-        <v>6453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>4502.1819999999998</v>
-      </c>
-      <c r="C10">
-        <v>6514</v>
-      </c>
-      <c r="D10">
-        <v>4512.973</v>
-      </c>
-      <c r="E10">
-        <v>6440.8639999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>4503.2988571428568</v>
-      </c>
-      <c r="C11">
-        <v>6514</v>
-      </c>
-      <c r="D11">
-        <v>4513.7911428571424</v>
-      </c>
-      <c r="E11">
-        <v>6442.0977142857137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <v>4504.4157142857139</v>
-      </c>
-      <c r="C12">
-        <v>6514</v>
-      </c>
-      <c r="D12">
-        <v>4514.6092857142849</v>
-      </c>
-      <c r="E12">
-        <v>6443.3314285714278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="6">
-        <v>4505.5325714285709</v>
-      </c>
-      <c r="C13" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4515.4274285714273</v>
-      </c>
-      <c r="E13" s="6">
-        <v>6444.5651428571418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="6">
-        <v>4506.649428571428</v>
-      </c>
-      <c r="C14" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D14" s="6">
-        <v>4516.2455714285697</v>
-      </c>
-      <c r="E14" s="6">
-        <v>6445.7988571428559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="6">
-        <v>4507.766285714285</v>
-      </c>
-      <c r="C15" s="6">
-        <v>6514</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4517.0637142857122</v>
-      </c>
-      <c r="E15" s="6">
-        <v>6447.03257142857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16">
-        <v>4508.883142857142</v>
-      </c>
-      <c r="C16">
-        <v>6514</v>
-      </c>
-      <c r="D16">
-        <v>4517.8818571428546</v>
-      </c>
-      <c r="E16">
-        <v>6448.2662857142841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>4509.9999999999991</v>
-      </c>
-      <c r="C17">
-        <v>6514</v>
-      </c>
-      <c r="D17">
-        <v>4518.6999999999971</v>
-      </c>
-      <c r="E17">
-        <v>6449.4999999999982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B20" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6608.2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E20" s="6">
+        <v>6608.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="C21" s="6">
+        <v>6607.5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="E21" s="6">
+        <v>6607.5</v>
+      </c>
+    </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5943,11 +6048,11 @@
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" ref="X3:X4" si="8">V3</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>23</v>
@@ -5974,7 +6079,7 @@
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5989,7 +6094,7 @@
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -6001,15 +6106,15 @@
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>24</v>
@@ -6037,7 +6142,7 @@
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6049,7 +6154,7 @@
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>1.5750000000000455</v>
+        <v>0.70000000000002016</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>26</v>
@@ -6059,15 +6164,15 @@
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>0.86866666666669012</v>
+        <v>0.41147368421053743</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:Y5" si="10">(X2-X25)/(X4-1)</f>
-        <v>0.63633333333331799</v>
+        <v>0.30142105263157165</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="10"/>
-        <v>0.95955555555560246</v>
+        <v>0.45452631578949587</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>26</v>
@@ -6097,7 +6202,7 @@
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>1.6888888888889697</v>
+        <v>0.80000000000003835</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>26</v>
@@ -6303,14 +6408,14 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6609.0749999999998</v>
+        <v>6608.2</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="12"/>
-        <v>6609.0749999999998</v>
+        <v>6608.2</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="13"/>
@@ -6318,7 +6423,7 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="14"/>
-        <v>-66.151250000000005</v>
+        <v>-66.13666666666667</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ref="R8:R30" si="29">(LEFT(N8,2)+((RIGHT(N8,LEN(N8)-2))/60))</f>
@@ -6326,7 +6431,7 @@
       </c>
       <c r="S8" s="6">
         <f t="shared" ref="S8" si="30">Q8</f>
-        <v>-66.151250000000005</v>
+        <v>-66.13666666666667</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" ref="U8:U24" si="31">U7+1</f>
@@ -6334,22 +6439,22 @@
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4503.0506666666661</v>
+        <v>4502.59347368421</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="32">X7+X5</f>
-        <v>4513.6093333333329</v>
+        <v>4513.2744210526316</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="32"/>
-        <v>6441.8235555555548</v>
+        <v>6441.3185263157893</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="16"/>
-        <v>45.0508444444445</v>
+        <v>45.043224561403498</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="17"/>
@@ -6357,11 +6462,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="18"/>
-        <v>45.226822222222168</v>
+        <v>45.221240350877167</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="19"/>
-        <v>-64.697059259259163</v>
+        <v>-64.68864210526317</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -6408,14 +6513,14 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6616.0888888888885</v>
+        <v>6615.2</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="24"/>
-        <v>6616.0888888888885</v>
+        <v>6615.2</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="25"/>
@@ -6423,7 +6528,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="26"/>
-        <v>-66.268148148148171</v>
+        <v>-66.25333333333333</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:H31" si="35">(LEFT(D9,2)+((RIGHT(D9,LEN(D9)-2))/60))</f>
@@ -6431,7 +6536,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" ref="I9" si="36">G9</f>
-        <v>-66.268148148148171</v>
+        <v>-66.25333333333333</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="28"/>
@@ -6442,14 +6547,14 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6610.65</v>
+        <v>6608.9</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="12"/>
-        <v>6610.65</v>
+        <v>6608.9</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="13"/>
@@ -6457,7 +6562,7 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="14"/>
-        <v>-66.177499999999995</v>
+        <v>-66.148333333333326</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="29"/>
@@ -6465,7 +6570,7 @@
       </c>
       <c r="S9" s="6">
         <f t="shared" ref="S9" si="37">Q9</f>
-        <v>-66.177499999999995</v>
+        <v>-66.148333333333326</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="31"/>
@@ -6473,22 +6578,22 @@
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4503.9193333333324</v>
+        <v>4503.0049473684203</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" ref="X9:Y9" si="38">X8+X5</f>
-        <v>4514.2456666666658</v>
+        <v>4513.5758421052633</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="38"/>
-        <v>6442.78311111111</v>
+        <v>6441.773052631579</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="16"/>
-        <v>45.065322222222164</v>
+        <v>45.050082456140331</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="17"/>
@@ -6496,11 +6601,11 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="18"/>
-        <v>45.237427777777832</v>
+        <v>45.226264035087667</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="19"/>
-        <v>-64.71305185185183</v>
+        <v>-64.69621754385966</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
@@ -6547,14 +6652,14 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6617.7777777777774</v>
+        <v>6616</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="24"/>
-        <v>6617.7777777777774</v>
+        <v>6616</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="25"/>
@@ -6562,7 +6667,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="26"/>
-        <v>-66.296296296296333</v>
+        <v>-66.266666666666666</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="35"/>
@@ -6570,7 +6675,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ref="I10" si="40">G10</f>
-        <v>-66.296296296296333</v>
+        <v>-66.266666666666666</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="28"/>
@@ -6581,14 +6686,14 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6612.2249999999995</v>
+        <v>6609.5999999999995</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="12"/>
-        <v>6612.2249999999995</v>
+        <v>6609.5999999999995</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="13"/>
@@ -6596,7 +6701,7 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="14"/>
-        <v>-66.203749999999999</v>
+        <v>-66.16</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="29"/>
@@ -6604,7 +6709,7 @@
       </c>
       <c r="S10" s="6">
         <f t="shared" ref="S10" si="41">Q10</f>
-        <v>-66.203749999999999</v>
+        <v>-66.16</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="31"/>
@@ -6612,22 +6717,22 @@
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4504.7879999999986</v>
+        <v>4503.4164210526305</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" ref="X10:Y10" si="42">X9+X5</f>
-        <v>4514.8819999999987</v>
+        <v>4513.877263157895</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="42"/>
-        <v>6443.7426666666652</v>
+        <v>6442.2275789473688</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="16"/>
-        <v>45.079799999999999</v>
+        <v>45.05694035087717</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="17"/>
@@ -6635,11 +6740,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="18"/>
-        <v>45.248033333333332</v>
+        <v>45.231287719298166</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="19"/>
-        <v>-64.729044444444497</v>
+        <v>-64.703792982456164</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
@@ -6686,14 +6791,14 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6619.4666666666662</v>
+        <v>6616.8</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="24"/>
-        <v>6619.4666666666662</v>
+        <v>6616.8</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="25"/>
@@ -6701,7 +6806,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="26"/>
-        <v>-66.324444444444495</v>
+        <v>-66.28</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="35"/>
@@ -6709,7 +6814,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" ref="I11" si="44">G11</f>
-        <v>-66.324444444444495</v>
+        <v>-66.28</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="28"/>
@@ -6720,14 +6825,14 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6613.7999999999993</v>
+        <v>6610.2999999999993</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="12"/>
-        <v>6613.7999999999993</v>
+        <v>6610.2999999999993</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="13"/>
@@ -6735,7 +6840,7 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="14"/>
-        <v>-66.23</v>
+        <v>-66.171666666666667</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="29"/>
@@ -6743,7 +6848,7 @@
       </c>
       <c r="S11" s="6">
         <f t="shared" ref="S11" si="45">Q11</f>
-        <v>-66.23</v>
+        <v>-66.171666666666667</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="31"/>
@@ -6751,22 +6856,22 @@
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4505.6566666666649</v>
+        <v>4503.8278947368408</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" ref="X11:Y11" si="46">X10+X5</f>
-        <v>4515.5183333333316</v>
+        <v>4514.1786842105266</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="46"/>
-        <v>6444.7022222222204</v>
+        <v>6442.6821052631585</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="16"/>
-        <v>45.09427777777767</v>
+        <v>45.063798245614002</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="17"/>
@@ -6774,11 +6879,11 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="18"/>
-        <v>45.258638888888832</v>
+        <v>45.236311403508836</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="19"/>
-        <v>-64.745037037036994</v>
+        <v>-64.711368421052669</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>28</v>
@@ -6822,14 +6927,14 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6621.1555555555551</v>
+        <v>6617.6</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="24"/>
-        <v>6621.1555555555551</v>
+        <v>6617.6</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="25"/>
@@ -6837,7 +6942,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="26"/>
-        <v>-66.352592592592671</v>
+        <v>-66.293333333333337</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="35"/>
@@ -6845,7 +6950,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" ref="I12" si="51">G12</f>
-        <v>-66.352592592592671</v>
+        <v>-66.293333333333337</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="28"/>
@@ -6856,14 +6961,14 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6615.3749999999991</v>
+        <v>6610.9999999999991</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="12"/>
-        <v>6615.3749999999991</v>
+        <v>6610.9999999999991</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="13"/>
@@ -6871,7 +6976,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="14"/>
-        <v>-66.256249999999994</v>
+        <v>-66.183333333333337</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="29"/>
@@ -6879,7 +6984,7 @@
       </c>
       <c r="S12" s="6">
         <f t="shared" ref="S12" si="52">Q12</f>
-        <v>-66.256249999999994</v>
+        <v>-66.183333333333337</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="31"/>
@@ -6887,22 +6992,22 @@
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4506.5253333333312</v>
+        <v>4504.239368421051</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:Y12" si="53">X11+X5</f>
-        <v>4516.1546666666645</v>
+        <v>4514.4801052631583</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="53"/>
-        <v>6445.6617777777756</v>
+        <v>6443.1366315789483</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="16"/>
-        <v>45.108755555555497</v>
+        <v>45.070656140350835</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="17"/>
@@ -6910,11 +7015,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="18"/>
-        <v>45.269244444444332</v>
+        <v>45.241335087719335</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="19"/>
-        <v>-64.761029629629661</v>
+        <v>-64.718943859649173</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -6927,14 +7032,14 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6622.844444444444</v>
+        <v>6618.4000000000005</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="24"/>
-        <v>6622.844444444444</v>
+        <v>6618.4000000000005</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="25"/>
@@ -6942,7 +7047,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="26"/>
-        <v>-66.380740740740663</v>
+        <v>-66.306666666666672</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="35"/>
@@ -6950,7 +7055,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" ref="I13" si="54">G13</f>
-        <v>-66.380740740740663</v>
+        <v>-66.306666666666672</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="28"/>
@@ -6961,14 +7066,14 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6616.9499999999989</v>
+        <v>6611.6999999999989</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="12"/>
-        <v>6616.9499999999989</v>
+        <v>6611.6999999999989</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="13"/>
@@ -6976,7 +7081,7 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="14"/>
-        <v>-66.282499999999999</v>
+        <v>-66.194999999999993</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="29"/>
@@ -6984,7 +7089,7 @@
       </c>
       <c r="S13" s="6">
         <f t="shared" ref="S13" si="55">Q13</f>
-        <v>-66.282499999999999</v>
+        <v>-66.194999999999993</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="31"/>
@@ -6992,22 +7097,22 @@
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4507.3939999999975</v>
+        <v>4504.6508421052613</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ref="X13:Y13" si="56">X12+X5</f>
-        <v>4516.7909999999974</v>
+        <v>4514.78152631579</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="56"/>
-        <v>6446.6213333333308</v>
+        <v>6443.591157894738</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="16"/>
-        <v>45.123233333333332</v>
+        <v>45.077514035087667</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="17"/>
@@ -7015,11 +7120,11 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="18"/>
-        <v>45.279850000000003</v>
+        <v>45.246358771929835</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="19"/>
-        <v>-64.777022222222172</v>
+        <v>-64.726519298245663</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>29</v>
@@ -7035,14 +7140,14 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6624.5333333333328</v>
+        <v>6619.2000000000007</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="24"/>
-        <v>6624.5333333333328</v>
+        <v>6619.2000000000007</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="25"/>
@@ -7050,7 +7155,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="26"/>
-        <v>-66.408888888888839</v>
+        <v>-66.319999999999993</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="35"/>
@@ -7058,7 +7163,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" ref="I14" si="57">G14</f>
-        <v>-66.408888888888839</v>
+        <v>-66.319999999999993</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="28"/>
@@ -7069,14 +7174,14 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6618.5249999999987</v>
+        <v>6612.3999999999987</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="12"/>
-        <v>6618.5249999999987</v>
+        <v>6612.3999999999987</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="13"/>
@@ -7084,7 +7189,7 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="14"/>
-        <v>-66.308750000000003</v>
+        <v>-66.206666666666663</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" si="29"/>
@@ -7092,7 +7197,7 @@
       </c>
       <c r="S14" s="6">
         <f t="shared" ref="S14" si="58">Q14</f>
-        <v>-66.308750000000003</v>
+        <v>-66.206666666666663</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="31"/>
@@ -7100,22 +7205,22 @@
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4508.2626666666638</v>
+        <v>4505.0623157894715</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ref="X14:Y14" si="59">X13+X5</f>
-        <v>4517.4273333333304</v>
+        <v>4515.0829473684216</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="59"/>
-        <v>6447.580888888886</v>
+        <v>6444.0456842105277</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="16"/>
-        <v>45.137711111111003</v>
+        <v>45.084371929824499</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="17"/>
@@ -7123,11 +7228,11 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="18"/>
-        <v>45.290455555555504</v>
+        <v>45.251382456140334</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="19"/>
-        <v>-64.793014814814839</v>
+        <v>-64.734094736842167</v>
       </c>
       <c r="AE14" s="6" t="s">
         <v>21</v>
@@ -7167,14 +7272,14 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6626.2222222222217</v>
+        <v>6620.0000000000009</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="24"/>
-        <v>6626.2222222222217</v>
+        <v>6620.0000000000009</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="25"/>
@@ -7182,7 +7287,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="26"/>
-        <v>-66.437037037037001</v>
+        <v>-66.333333333333329</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="35"/>
@@ -7190,7 +7295,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" ref="I15" si="60">G15</f>
-        <v>-66.437037037037001</v>
+        <v>-66.333333333333329</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="28"/>
@@ -7201,14 +7306,14 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6620.0999999999985</v>
+        <v>6613.0999999999985</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="12"/>
-        <v>6620.0999999999985</v>
+        <v>6613.0999999999985</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="13"/>
@@ -7216,7 +7321,7 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="14"/>
-        <v>-66.334999999999994</v>
+        <v>-66.218333333333334</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="29"/>
@@ -7224,7 +7329,7 @@
       </c>
       <c r="S15" s="6">
         <f t="shared" ref="S15" si="61">Q15</f>
-        <v>-66.334999999999994</v>
+        <v>-66.218333333333334</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="31"/>
@@ -7232,22 +7337,22 @@
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4509.1313333333301</v>
+        <v>4505.4737894736818</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ref="X15:Y15" si="62">X14+X5</f>
-        <v>4518.0636666666633</v>
+        <v>4515.3843684210533</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="62"/>
-        <v>6448.5404444444412</v>
+        <v>6444.5002105263175</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="16"/>
-        <v>45.15218888888883</v>
+        <v>45.091229824561331</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="17"/>
@@ -7255,11 +7360,11 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="18"/>
-        <v>45.301061111110997</v>
+        <v>45.256406140350833</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="19"/>
-        <v>-64.809007407407336</v>
+        <v>-64.741670175438671</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>23</v>
@@ -7289,14 +7394,14 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6627.9111111111106</v>
+        <v>6620.8000000000011</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="24"/>
-        <v>6627.9111111111106</v>
+        <v>6620.8000000000011</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="25"/>
@@ -7304,7 +7409,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="26"/>
-        <v>-66.465185185185163</v>
+        <v>-66.346666666666664</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="35"/>
@@ -7312,7 +7417,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" ref="I16" si="63">G16</f>
-        <v>-66.465185185185163</v>
+        <v>-66.346666666666664</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="28"/>
@@ -7323,14 +7428,14 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6621.6749999999984</v>
+        <v>6613.7999999999984</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="12"/>
-        <v>6621.6749999999984</v>
+        <v>6613.7999999999984</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="13"/>
@@ -7338,7 +7443,7 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="14"/>
-        <v>-66.361249999999998</v>
+        <v>-66.23</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="29"/>
@@ -7346,7 +7451,7 @@
       </c>
       <c r="S16" s="6">
         <f t="shared" ref="S16" si="64">Q16</f>
-        <v>-66.361249999999998</v>
+        <v>-66.23</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="31"/>
@@ -7354,22 +7459,22 @@
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4509.9999999999964</v>
+        <v>4505.885263157892</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" ref="X16:Y16" si="65">X15+X5</f>
-        <v>4518.6999999999962</v>
+        <v>4515.685789473685</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="65"/>
-        <v>6449.4999999999964</v>
+        <v>6444.9547368421072</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="16"/>
-        <v>45.166666666666664</v>
+        <v>45.098087719298164</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="17"/>
@@ -7377,11 +7482,11 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="18"/>
-        <v>45.311666666666667</v>
+        <v>45.261429824561333</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="19"/>
-        <v>-64.825000000000003</v>
+        <v>-64.749245614035161</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>24</v>
@@ -7418,14 +7523,14 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6629.5999999999995</v>
+        <v>6621.6000000000013</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="24"/>
-        <v>6629.5999999999995</v>
+        <v>6621.6000000000013</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="25"/>
@@ -7433,7 +7538,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="26"/>
-        <v>-66.493333333333339</v>
+        <v>-66.36</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="35"/>
@@ -7441,7 +7546,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="67">G17</f>
-        <v>-66.493333333333339</v>
+        <v>-66.36</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="28"/>
@@ -7452,14 +7557,14 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6623.2499999999982</v>
+        <v>6614.4999999999982</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="12"/>
-        <v>6623.2499999999982</v>
+        <v>6614.4999999999982</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="13"/>
@@ -7467,7 +7572,7 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="14"/>
-        <v>-66.387500000000003</v>
+        <v>-66.24166666666666</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="29"/>
@@ -7475,7 +7580,7 @@
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="68">Q17</f>
-        <v>-66.387500000000003</v>
+        <v>-66.24166666666666</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="31"/>
@@ -7483,22 +7588,22 @@
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4510.8686666666626</v>
+        <v>4506.2967368421023</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17:Y17" si="69">X16+X5</f>
-        <v>4519.3363333333291</v>
+        <v>4515.9872105263166</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="69"/>
-        <v>6450.4595555555516</v>
+        <v>6445.4092631578969</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="16"/>
-        <v>45.181144444444335</v>
+        <v>45.104945614035003</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="17"/>
@@ -7506,11 +7611,11 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="18"/>
-        <v>45.322272222222168</v>
+        <v>45.266453508772003</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="19"/>
-        <v>-64.840992592592499</v>
+        <v>-64.756821052631665</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>25</v>
@@ -7550,14 +7655,14 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6631.2888888888883</v>
+        <v>6622.4000000000015</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="24"/>
-        <v>6631.2888888888883</v>
+        <v>6622.4000000000015</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="25"/>
@@ -7565,7 +7670,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="26"/>
-        <v>-66.521481481481501</v>
+        <v>-66.373333333333335</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="35"/>
@@ -7573,7 +7678,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" ref="I18" si="70">G18</f>
-        <v>-66.521481481481501</v>
+        <v>-66.373333333333335</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="28"/>
@@ -7584,14 +7689,14 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6624.824999999998</v>
+        <v>6615.199999999998</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="12"/>
-        <v>6624.824999999998</v>
+        <v>6615.199999999998</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="13"/>
@@ -7599,7 +7704,7 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="14"/>
-        <v>-66.413749999999993</v>
+        <v>-66.25333333333333</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="29"/>
@@ -7607,7 +7712,7 @@
       </c>
       <c r="S18" s="6">
         <f t="shared" ref="S18" si="71">Q18</f>
-        <v>-66.413749999999993</v>
+        <v>-66.25333333333333</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="31"/>
@@ -7615,22 +7720,22 @@
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4511.7373333333289</v>
+        <v>4506.7082105263125</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="9">
         <f t="shared" ref="X18:Y18" si="72">X17+X5</f>
-        <v>4519.972666666662</v>
+        <v>4516.2886315789483</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="72"/>
-        <v>6451.4191111111068</v>
+        <v>6445.8637894736867</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="16"/>
-        <v>45.19562222222217</v>
+        <v>45.111803508771835</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="17"/>
@@ -7638,11 +7743,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="18"/>
-        <v>45.332877777777668</v>
+        <v>45.271477192982502</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="19"/>
-        <v>-64.856985185185167</v>
+        <v>-64.764396491228169</v>
       </c>
       <c r="AE18" s="6" t="s">
         <v>27</v>
@@ -7670,14 +7775,14 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6632.9777777777772</v>
+        <v>6623.2000000000016</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="24"/>
-        <v>6632.9777777777772</v>
+        <v>6623.2000000000016</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="25"/>
@@ -7685,7 +7790,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="26"/>
-        <v>-66.549629629629663</v>
+        <v>-66.38666666666667</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="35"/>
@@ -7693,7 +7798,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" ref="I19" si="73">G19</f>
-        <v>-66.549629629629663</v>
+        <v>-66.38666666666667</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="28"/>
@@ -7704,14 +7809,14 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6626.3999999999978</v>
+        <v>6615.8999999999978</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="12"/>
-        <v>6626.3999999999978</v>
+        <v>6615.8999999999978</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="13"/>
@@ -7719,7 +7824,7 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="14"/>
-        <v>-66.44</v>
+        <v>-66.265000000000001</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="29"/>
@@ -7727,7 +7832,7 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" ref="S19" si="74">Q19</f>
-        <v>-66.44</v>
+        <v>-66.265000000000001</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="31"/>
@@ -7735,22 +7840,22 @@
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4512.6059999999952</v>
+        <v>4507.1196842105228</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" ref="X19:Y19" si="75">X18+X5</f>
-        <v>4520.6089999999949</v>
+        <v>4516.59005263158</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="75"/>
-        <v>6452.378666666662</v>
+        <v>6446.3183157894764</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="16"/>
-        <v>45.210099999999997</v>
+        <v>45.118661403508668</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="17"/>
@@ -7758,11 +7863,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="18"/>
-        <v>45.343483333333168</v>
+        <v>45.276500877193001</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="19"/>
-        <v>-64.872977777777663</v>
+        <v>-64.771971929824673</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7806,14 +7911,14 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6634.6666666666661</v>
+        <v>6624.0000000000018</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="24"/>
-        <v>6634.6666666666661</v>
+        <v>6624.0000000000018</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="25"/>
@@ -7821,7 +7926,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="26"/>
-        <v>-66.57777777777784</v>
+        <v>-66.400000000000006</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="35"/>
@@ -7829,7 +7934,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" ref="I20" si="77">G20</f>
-        <v>-66.57777777777784</v>
+        <v>-66.400000000000006</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="28"/>
@@ -7840,14 +7945,14 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6627.9749999999976</v>
+        <v>6616.5999999999976</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="12"/>
-        <v>6627.9749999999976</v>
+        <v>6616.5999999999976</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="13"/>
@@ -7855,7 +7960,7 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="14"/>
-        <v>-66.466250000000002</v>
+        <v>-66.276666666666671</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="29"/>
@@ -7863,7 +7968,7 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" ref="S20" si="78">Q20</f>
-        <v>-66.466250000000002</v>
+        <v>-66.276666666666671</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="31"/>
@@ -7871,22 +7976,22 @@
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4513.4746666666615</v>
+        <v>4507.531157894733</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" ref="X20:Y20" si="79">X19+X5</f>
-        <v>4521.2453333333278</v>
+        <v>4516.8914736842116</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="79"/>
-        <v>6453.3382222222172</v>
+        <v>6446.7728421052661</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="16"/>
-        <v>45.224577777777668</v>
+        <v>45.1255192982455</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="17"/>
@@ -7894,11 +7999,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="18"/>
-        <v>45.354088888888832</v>
+        <v>45.281524561403501</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="19"/>
-        <v>-64.88897037037033</v>
+        <v>-64.779547368421163</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -7942,14 +8047,14 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6636.3555555555549</v>
+        <v>6624.800000000002</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="24"/>
-        <v>6636.3555555555549</v>
+        <v>6624.800000000002</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="25"/>
@@ -7957,7 +8062,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="26"/>
-        <v>-66.605925925925831</v>
+        <v>-66.413333333333327</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="35"/>
@@ -7965,7 +8070,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" ref="I21" si="83">G21</f>
-        <v>-66.605925925925831</v>
+        <v>-66.413333333333327</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="28"/>
@@ -7976,14 +8081,14 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6629.5499999999975</v>
+        <v>6617.2999999999975</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="12"/>
-        <v>6629.5499999999975</v>
+        <v>6617.2999999999975</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="13"/>
@@ -7991,7 +8096,7 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="14"/>
-        <v>-66.492500000000007</v>
+        <v>-66.288333333333327</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="29"/>
@@ -7999,7 +8104,7 @@
       </c>
       <c r="S21" s="6">
         <f t="shared" ref="S21" si="84">Q21</f>
-        <v>-66.492500000000007</v>
+        <v>-66.288333333333327</v>
       </c>
       <c r="U21" s="6">
         <f t="shared" si="31"/>
@@ -8007,22 +8112,22 @@
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4514.3433333333278</v>
+        <v>4507.9426315789433</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" ref="X21:Y21" si="85">X20+X5</f>
-        <v>4521.8816666666607</v>
+        <v>4517.1928947368433</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="85"/>
-        <v>6454.2977777777724</v>
+        <v>6447.2273684210559</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="16"/>
-        <v>45.239055555555503</v>
+        <v>45.132377192982332</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="17"/>
@@ -8030,11 +8135,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="18"/>
-        <v>45.364694444444332</v>
+        <v>45.286548245614</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="19"/>
-        <v>-64.904962962962827</v>
+        <v>-64.787122807017667</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -8078,14 +8183,14 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6638.0444444444438</v>
+        <v>6625.6000000000022</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="24"/>
-        <v>6638.0444444444438</v>
+        <v>6625.6000000000022</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="25"/>
@@ -8093,7 +8198,7 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="26"/>
-        <v>-66.634074074073993</v>
+        <v>-66.426666666666662</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="35"/>
@@ -8101,7 +8206,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" ref="I22" si="86">G22</f>
-        <v>-66.634074074073993</v>
+        <v>-66.426666666666662</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="28"/>
@@ -8112,14 +8217,14 @@
       </c>
       <c r="M22" s="6">
         <f>M21+L5</f>
-        <v>6631.1249999999973</v>
+        <v>6617.9999999999973</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="12"/>
-        <v>6631.1249999999973</v>
+        <v>6617.9999999999973</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="13"/>
@@ -8127,7 +8232,7 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="14"/>
-        <v>-66.518749999999997</v>
+        <v>-66.3</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="29"/>
@@ -8135,7 +8240,7 @@
       </c>
       <c r="S22" s="6">
         <f t="shared" ref="S22" si="87">Q22</f>
-        <v>-66.518749999999997</v>
+        <v>-66.3</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="31"/>
@@ -8143,22 +8248,22 @@
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4515.2119999999941</v>
+        <v>4508.3541052631535</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" ref="X22:Y22" si="88">X21+X5</f>
-        <v>4522.5179999999937</v>
+        <v>4517.494315789475</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="88"/>
-        <v>6455.2573333333276</v>
+        <v>6447.6818947368456</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="16"/>
-        <v>45.253533333333166</v>
+        <v>45.139235087719165</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="17"/>
@@ -8166,11 +8271,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="18"/>
-        <v>45.375299999999832</v>
+        <v>45.291571929824499</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="19"/>
-        <v>-64.920955555555494</v>
+        <v>-64.794698245614171</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8214,14 +8319,14 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6639.7333333333327</v>
+        <v>6626.4000000000024</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="24"/>
-        <v>6639.7333333333327</v>
+        <v>6626.4000000000024</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="25"/>
@@ -8229,7 +8334,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="26"/>
-        <v>-66.662222222222169</v>
+        <v>-66.44</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="35"/>
@@ -8237,7 +8342,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" ref="I23" si="89">G23</f>
-        <v>-66.662222222222169</v>
+        <v>-66.44</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="28"/>
@@ -8248,14 +8353,14 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6632.6999999999971</v>
+        <v>6618.6999999999971</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="12"/>
-        <v>6632.6999999999971</v>
+        <v>6618.6999999999971</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="13"/>
@@ -8263,7 +8368,7 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="14"/>
-        <v>-66.545000000000002</v>
+        <v>-66.311666666666667</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="29"/>
@@ -8271,7 +8376,7 @@
       </c>
       <c r="S23" s="6">
         <f t="shared" ref="S23" si="90">Q23</f>
-        <v>-66.545000000000002</v>
+        <v>-66.311666666666667</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="31"/>
@@ -8279,22 +8384,22 @@
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4516.0806666666604</v>
+        <v>4508.7655789473638</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" ref="X23:Y23" si="91">X22+X5</f>
-        <v>4523.1543333333266</v>
+        <v>4517.7957368421066</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="91"/>
-        <v>6456.2168888888827</v>
+        <v>6448.1364210526353</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="16"/>
-        <v>45.268011111111001</v>
+        <v>45.146092982455997</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="17"/>
@@ -8302,11 +8407,11 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="18"/>
-        <v>45.385905555555503</v>
+        <v>45.296595614035169</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="19"/>
-        <v>-64.936948148148005</v>
+        <v>-64.802273684210661</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>28</v>
@@ -8346,14 +8451,14 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6641.4222222222215</v>
+        <v>6627.2000000000025</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="24"/>
-        <v>6641.4222222222215</v>
+        <v>6627.2000000000025</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="25"/>
@@ -8361,7 +8466,7 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="26"/>
-        <v>-66.690370370370331</v>
+        <v>-66.453333333333333</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="35"/>
@@ -8369,7 +8474,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" ref="I24" si="92">G24</f>
-        <v>-66.690370370370331</v>
+        <v>-66.453333333333333</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="28"/>
@@ -8380,14 +8485,14 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6634.2749999999969</v>
+        <v>6619.3999999999969</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="12"/>
-        <v>6634.2749999999969</v>
+        <v>6619.3999999999969</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="13"/>
@@ -8395,7 +8500,7 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="14"/>
-        <v>-66.571250000000006</v>
+        <v>-66.323333333333338</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="29"/>
@@ -8403,7 +8508,7 @@
       </c>
       <c r="S24" s="6">
         <f t="shared" ref="S24" si="93">Q24</f>
-        <v>-66.571250000000006</v>
+        <v>-66.323333333333338</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="31"/>
@@ -8411,22 +8516,22 @@
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4516.9493333333266</v>
+        <v>4509.177052631574</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" ref="X24:Y24" si="94">X23+X5</f>
-        <v>4523.7906666666595</v>
+        <v>4518.0971578947383</v>
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="94"/>
-        <v>6457.1764444444379</v>
+        <v>6448.5909473684251</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="16"/>
-        <v>45.282488888888835</v>
+        <v>45.152950877192836</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="17"/>
@@ -8434,11 +8539,11 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="18"/>
-        <v>45.396511111111003</v>
+        <v>45.301619298245669</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="19"/>
-        <v>-64.952940740740672</v>
+        <v>-64.809849122807165</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8451,14 +8556,14 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6643.1111111111104</v>
+        <v>6628.0000000000027</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="24"/>
-        <v>6643.1111111111104</v>
+        <v>6628.0000000000027</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="25"/>
@@ -8466,7 +8571,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="26"/>
-        <v>-66.718518518518493</v>
+        <v>-66.466666666666669</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="35"/>
@@ -8474,7 +8579,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" ref="I25" si="95">G25</f>
-        <v>-66.718518518518493</v>
+        <v>-66.466666666666669</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="28"/>
@@ -8485,14 +8590,14 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6635.8499999999967</v>
+        <v>6620.0999999999967</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="12"/>
-        <v>6635.8499999999967</v>
+        <v>6620.0999999999967</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="13"/>
@@ -8500,7 +8605,7 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="14"/>
-        <v>-66.597499999999997</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="29"/>
@@ -8508,7 +8613,7 @@
       </c>
       <c r="S25" s="6">
         <f t="shared" ref="S25" si="96">Q25</f>
-        <v>-66.597499999999997</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>28</v>
@@ -8552,14 +8657,14 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6644.7999999999993</v>
+        <v>6628.8000000000029</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="24"/>
-        <v>6644.7999999999993</v>
+        <v>6628.8000000000029</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="25"/>
@@ -8567,7 +8672,7 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="26"/>
-        <v>-66.74666666666667</v>
+        <v>-66.48</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="35"/>
@@ -8575,7 +8680,7 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" ref="I26" si="97">G26</f>
-        <v>-66.74666666666667</v>
+        <v>-66.48</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="28"/>
@@ -8586,14 +8691,14 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6637.4249999999965</v>
+        <v>6620.7999999999965</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="12"/>
-        <v>6637.4249999999965</v>
+        <v>6620.7999999999965</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="13"/>
@@ -8601,7 +8706,7 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="14"/>
-        <v>-66.623750000000001</v>
+        <v>-66.346666666666664</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="29"/>
@@ -8609,7 +8714,7 @@
       </c>
       <c r="S26" s="6">
         <f t="shared" ref="S26" si="98">Q26</f>
-        <v>-66.623750000000001</v>
+        <v>-66.346666666666664</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8622,14 +8727,14 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6646.4888888888881</v>
+        <v>6629.6000000000031</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="24"/>
-        <v>6646.4888888888881</v>
+        <v>6629.6000000000031</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="25"/>
@@ -8637,7 +8742,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="26"/>
-        <v>-66.774814814814832</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="35"/>
@@ -8645,7 +8750,7 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" ref="I27" si="99">G27</f>
-        <v>-66.774814814814832</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="28"/>
@@ -8656,14 +8761,14 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6638.9999999999964</v>
+        <v>6621.4999999999964</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="12"/>
-        <v>6638.9999999999964</v>
+        <v>6621.4999999999964</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="13"/>
@@ -8671,7 +8776,7 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="14"/>
-        <v>-66.650000000000006</v>
+        <v>-66.358333333333334</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="29"/>
@@ -8679,7 +8784,7 @@
       </c>
       <c r="S27" s="6">
         <f t="shared" ref="S27" si="100">Q27</f>
-        <v>-66.650000000000006</v>
+        <v>-66.358333333333334</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8692,14 +8797,14 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6648.177777777777</v>
+        <v>6630.4000000000033</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="24"/>
-        <v>6648.177777777777</v>
+        <v>6630.4000000000033</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="25"/>
@@ -8707,7 +8812,7 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="26"/>
-        <v>-66.802962962962994</v>
+        <v>-66.506666666666661</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="35"/>
@@ -8715,7 +8820,7 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" ref="I28" si="101">G28</f>
-        <v>-66.802962962962994</v>
+        <v>-66.506666666666661</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="28"/>
@@ -8726,14 +8831,14 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6640.5749999999962</v>
+        <v>6622.1999999999962</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="12"/>
-        <v>6640.5749999999962</v>
+        <v>6622.1999999999962</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="13"/>
@@ -8741,7 +8846,7 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="14"/>
-        <v>-66.676249999999996</v>
+        <v>-66.37</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="29"/>
@@ -8749,7 +8854,7 @@
       </c>
       <c r="S28" s="6">
         <f t="shared" ref="S28" si="102">Q28</f>
-        <v>-66.676249999999996</v>
+        <v>-66.37</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8762,14 +8867,14 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6649.8666666666659</v>
+        <v>6631.2000000000035</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="24"/>
-        <v>6649.8666666666659</v>
+        <v>6631.2000000000035</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="25"/>
@@ -8777,7 +8882,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="26"/>
-        <v>-66.83111111111117</v>
+        <v>-66.52</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="35"/>
@@ -8785,7 +8890,7 @@
       </c>
       <c r="I29" s="6">
         <f t="shared" ref="I29" si="103">G29</f>
-        <v>-66.83111111111117</v>
+        <v>-66.52</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="28"/>
@@ -8796,14 +8901,14 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6642.149999999996</v>
+        <v>6622.899999999996</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="12"/>
-        <v>6642.149999999996</v>
+        <v>6622.899999999996</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="13"/>
@@ -8811,7 +8916,7 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="14"/>
-        <v>-66.702500000000001</v>
+        <v>-66.381666666666661</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="29"/>
@@ -8819,7 +8924,7 @@
       </c>
       <c r="S29" s="6">
         <f t="shared" ref="S29" si="104">Q29</f>
-        <v>-66.702500000000001</v>
+        <v>-66.381666666666661</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8832,14 +8937,14 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6651.5555555555547</v>
+        <v>6632.0000000000036</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="24"/>
-        <v>6651.5555555555547</v>
+        <v>6632.0000000000036</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="25"/>
@@ -8847,7 +8952,7 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="26"/>
-        <v>-66.859259259259161</v>
+        <v>-66.533333333333331</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="35"/>
@@ -8855,7 +8960,7 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" ref="I30" si="105">G30</f>
-        <v>-66.859259259259161</v>
+        <v>-66.533333333333331</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="28"/>
@@ -8866,14 +8971,14 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6643.7249999999958</v>
+        <v>6623.5999999999958</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="12"/>
-        <v>6643.7249999999958</v>
+        <v>6623.5999999999958</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="13"/>
@@ -8881,7 +8986,7 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="14"/>
-        <v>-66.728750000000005</v>
+        <v>-66.393333333333331</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="29"/>
@@ -8889,7 +8994,7 @@
       </c>
       <c r="S30" s="6">
         <f t="shared" ref="S30" si="106">Q30</f>
-        <v>-66.728750000000005</v>
+        <v>-66.393333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8902,14 +9007,14 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6653.2444444444436</v>
+        <v>6632.8000000000038</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="24"/>
-        <v>6653.2444444444436</v>
+        <v>6632.8000000000038</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="25"/>
@@ -8917,7 +9022,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="26"/>
-        <v>-66.887407407407338</v>
+        <v>-66.546666666666667</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="35"/>
@@ -8925,7 +9030,7 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" ref="I31" si="107">G31</f>
-        <v>-66.887407407407338</v>
+        <v>-66.546666666666667</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>30</v>

--- a/Surveys/Survey Lines/Survey Lines.xlsx
+++ b/Surveys/Survey Lines/Survey Lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Surveys\Survey Lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03977933-67CA-4396-B019-D0E6FBFB935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6674F02-7469-49C0-A98C-309CEB50F8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27780" yWindow="-9460" windowWidth="28800" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
   <si>
     <t>INSTRUCTIONS:</t>
   </si>
@@ -207,16 +207,26 @@
   <si>
     <t>V5</t>
   </si>
+  <si>
+    <t>V6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,29 +348,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +592,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P11:S20"/>
+      <selection activeCell="L11" sqref="L11:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -605,7 +618,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -941,49 +954,49 @@
         <v>4334</v>
       </c>
       <c r="C12" s="16">
-        <v>6615.2</v>
+        <v>6615.7818181818175</v>
       </c>
       <c r="D12" s="16">
         <v>4314</v>
       </c>
       <c r="E12" s="16">
-        <v>6615.2</v>
+        <v>6615.7818181818175</v>
       </c>
       <c r="F12" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G12" s="12">
-        <v>-66.25333333333333</v>
+        <v>-66.263030303030334</v>
       </c>
       <c r="H12" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I12" s="12">
-        <v>-66.25333333333333</v>
+        <v>-66.263030303030334</v>
       </c>
       <c r="L12" s="6">
         <v>4330.12</v>
       </c>
       <c r="M12" s="6">
-        <v>6608.2</v>
+        <v>6608.76</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
-        <v>6608.2</v>
+        <v>6608.76</v>
       </c>
       <c r="P12" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q12" s="6">
-        <v>-66.13666666666667</v>
+        <v>-66.146000000000001</v>
       </c>
       <c r="R12" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S12" s="6">
-        <v>-66.13666666666667</v>
+        <v>-66.146000000000001</v>
       </c>
       <c r="T12" t="e">
         <v>#N/A</v>
@@ -997,49 +1010,49 @@
         <v>4334</v>
       </c>
       <c r="C13" s="16">
-        <v>6616</v>
+        <v>6617.1636363636353</v>
       </c>
       <c r="D13" s="16">
         <v>4314</v>
       </c>
       <c r="E13" s="16">
-        <v>6616</v>
+        <v>6617.1636363636353</v>
       </c>
       <c r="F13" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G13" s="12">
-        <v>-66.266666666666666</v>
+        <v>-66.286060606060673</v>
       </c>
       <c r="H13" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I13" s="12">
-        <v>-66.266666666666666</v>
+        <v>-66.286060606060673</v>
       </c>
       <c r="L13" s="6">
         <v>4330.12</v>
       </c>
       <c r="M13" s="6">
-        <v>6608.9</v>
+        <v>6610.02</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
-        <v>6608.9</v>
+        <v>6610.02</v>
       </c>
       <c r="P13" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q13" s="6">
-        <v>-66.148333333333326</v>
+        <v>-66.167000000000002</v>
       </c>
       <c r="R13" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S13" s="6">
-        <v>-66.148333333333326</v>
+        <v>-66.167000000000002</v>
       </c>
       <c r="T13" t="e">
         <v>#N/A</v>
@@ -1053,49 +1066,49 @@
         <v>4334</v>
       </c>
       <c r="C14" s="16">
-        <v>6616.8</v>
+        <v>6618.5454545454531</v>
       </c>
       <c r="D14" s="16">
         <v>4314</v>
       </c>
       <c r="E14" s="16">
-        <v>6616.8</v>
+        <v>6618.5454545454531</v>
       </c>
       <c r="F14" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G14" s="12">
-        <v>-66.28</v>
+        <v>-66.309090909090827</v>
       </c>
       <c r="H14" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I14" s="12">
-        <v>-66.28</v>
+        <v>-66.309090909090827</v>
       </c>
       <c r="L14" s="6">
         <v>4330.12</v>
       </c>
       <c r="M14" s="6">
-        <v>6609.5999999999995</v>
+        <v>6611.2800000000007</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
-        <v>6609.5999999999995</v>
+        <v>6611.2800000000007</v>
       </c>
       <c r="P14" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q14" s="6">
-        <v>-66.16</v>
+        <v>-66.188000000000002</v>
       </c>
       <c r="R14" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S14" s="6">
-        <v>-66.16</v>
+        <v>-66.188000000000002</v>
       </c>
       <c r="T14" t="e">
         <v>#N/A</v>
@@ -1109,49 +1122,49 @@
         <v>4334</v>
       </c>
       <c r="C15" s="16">
-        <v>6617.6</v>
+        <v>6619.927272727271</v>
       </c>
       <c r="D15" s="16">
         <v>4314</v>
       </c>
       <c r="E15" s="16">
-        <v>6617.6</v>
+        <v>6619.927272727271</v>
       </c>
       <c r="F15" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G15" s="12">
-        <v>-66.293333333333337</v>
+        <v>-66.332121212121166</v>
       </c>
       <c r="H15" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I15" s="12">
-        <v>-66.293333333333337</v>
+        <v>-66.332121212121166</v>
       </c>
       <c r="L15" s="6">
         <v>4330.12</v>
       </c>
       <c r="M15" s="6">
-        <v>6610.2999999999993</v>
+        <v>6612.5400000000009</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
-        <v>6610.2999999999993</v>
+        <v>6612.5400000000009</v>
       </c>
       <c r="P15" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q15" s="6">
-        <v>-66.171666666666667</v>
+        <v>-66.209000000000003</v>
       </c>
       <c r="R15" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S15" s="6">
-        <v>-66.171666666666667</v>
+        <v>-66.209000000000003</v>
       </c>
       <c r="T15" t="e">
         <v>#N/A</v>
@@ -1165,49 +1178,49 @@
         <v>4334</v>
       </c>
       <c r="C16" s="16">
-        <v>6618.4000000000005</v>
+        <v>6621.3090909090888</v>
       </c>
       <c r="D16" s="16">
         <v>4314</v>
       </c>
       <c r="E16" s="16">
-        <v>6618.4000000000005</v>
+        <v>6621.3090909090888</v>
       </c>
       <c r="F16" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G16" s="12">
-        <v>-66.306666666666672</v>
+        <v>-66.355151515151505</v>
       </c>
       <c r="H16" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I16" s="12">
-        <v>-66.306666666666672</v>
+        <v>-66.355151515151505</v>
       </c>
       <c r="L16" s="6">
         <v>4330.12</v>
       </c>
       <c r="M16" s="6">
-        <v>6610.9999999999991</v>
+        <v>6613.8000000000011</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
-        <v>6610.9999999999991</v>
+        <v>6613.8000000000011</v>
       </c>
       <c r="P16" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q16" s="6">
-        <v>-66.183333333333337</v>
+        <v>-66.23</v>
       </c>
       <c r="R16" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S16" s="6">
-        <v>-66.183333333333337</v>
+        <v>-66.23</v>
       </c>
       <c r="T16" t="e">
         <v>#N/A</v>
@@ -1221,50 +1234,50 @@
         <v>4334</v>
       </c>
       <c r="C17" s="16">
-        <v>6619.2000000000007</v>
+        <v>6622.6909090909066</v>
       </c>
       <c r="D17" s="16">
         <v>4314</v>
       </c>
       <c r="E17" s="16">
-        <v>6619.2000000000007</v>
+        <v>6622.6909090909066</v>
       </c>
       <c r="F17" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G17" s="12">
-        <v>-66.319999999999993</v>
+        <v>-66.378181818181829</v>
       </c>
       <c r="H17" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I17" s="12">
-        <v>-66.319999999999993</v>
+        <v>-66.378181818181829</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="6">
         <v>4330.12</v>
       </c>
       <c r="M17" s="6">
-        <v>6611.6999999999989</v>
+        <v>6615.0600000000013</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
-        <v>6611.6999999999989</v>
+        <v>6615.0600000000013</v>
       </c>
       <c r="P17" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q17" s="6">
-        <v>-66.194999999999993</v>
+        <v>-66.251000000000005</v>
       </c>
       <c r="R17" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S17" s="6">
-        <v>-66.194999999999993</v>
+        <v>-66.251000000000005</v>
       </c>
       <c r="T17" t="e">
         <v>#N/A</v>
@@ -1278,50 +1291,50 @@
         <v>4334</v>
       </c>
       <c r="C18" s="16">
-        <v>6620.0000000000009</v>
+        <v>6624.0727272727245</v>
       </c>
       <c r="D18" s="16">
         <v>4314</v>
       </c>
       <c r="E18" s="16">
-        <v>6620.0000000000009</v>
+        <v>6624.0727272727245</v>
       </c>
       <c r="F18" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G18" s="12">
-        <v>-66.333333333333329</v>
+        <v>-66.401212121211998</v>
       </c>
       <c r="H18" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I18" s="12">
-        <v>-66.333333333333329</v>
+        <v>-66.401212121211998</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6">
         <v>4330.12</v>
       </c>
       <c r="M18" s="6">
-        <v>6612.3999999999987</v>
+        <v>6616.3200000000015</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
-        <v>6612.3999999999987</v>
+        <v>6616.3200000000015</v>
       </c>
       <c r="P18" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q18" s="6">
-        <v>-66.206666666666663</v>
+        <v>-66.272000000000006</v>
       </c>
       <c r="R18" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S18" s="6">
-        <v>-66.206666666666663</v>
+        <v>-66.272000000000006</v>
       </c>
       <c r="T18" t="e">
         <v>#N/A</v>
@@ -1335,49 +1348,49 @@
         <v>4334</v>
       </c>
       <c r="C19" s="16">
-        <v>6620.8000000000011</v>
+        <v>6625.4545454545423</v>
       </c>
       <c r="D19" s="16">
         <v>4314</v>
       </c>
       <c r="E19" s="16">
-        <v>6620.8000000000011</v>
+        <v>6625.4545454545423</v>
       </c>
       <c r="F19" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G19" s="12">
-        <v>-66.346666666666664</v>
+        <v>-66.424242424242337</v>
       </c>
       <c r="H19" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I19" s="12">
-        <v>-66.346666666666664</v>
+        <v>-66.424242424242337</v>
       </c>
       <c r="L19" s="6">
         <v>4330.12</v>
       </c>
       <c r="M19" s="6">
-        <v>6613.0999999999985</v>
+        <v>6617.5800000000017</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
-        <v>6613.0999999999985</v>
+        <v>6617.5800000000017</v>
       </c>
       <c r="P19" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q19" s="6">
-        <v>-66.218333333333334</v>
+        <v>-66.293000000000006</v>
       </c>
       <c r="R19" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S19" s="6">
-        <v>-66.218333333333334</v>
+        <v>-66.293000000000006</v>
       </c>
       <c r="T19" t="e">
         <v>#N/A</v>
@@ -1391,49 +1404,49 @@
         <v>4334</v>
       </c>
       <c r="C20" s="16">
-        <v>6621.6000000000013</v>
+        <v>6626.8363636363601</v>
       </c>
       <c r="D20" s="16">
         <v>4314</v>
       </c>
       <c r="E20" s="16">
-        <v>6621.6000000000013</v>
+        <v>6626.8363636363601</v>
       </c>
       <c r="F20" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G20" s="12">
-        <v>-66.36</v>
+        <v>-66.447272727272662</v>
       </c>
       <c r="H20" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I20" s="12">
-        <v>-66.36</v>
+        <v>-66.447272727272662</v>
       </c>
       <c r="L20" s="6">
         <v>4330.12</v>
       </c>
       <c r="M20" s="6">
-        <v>6613.7999999999984</v>
+        <v>6618.840000000002</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
-        <v>6613.7999999999984</v>
+        <v>6618.840000000002</v>
       </c>
       <c r="P20" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q20" s="6">
-        <v>-66.23</v>
+        <v>-66.313999999999993</v>
       </c>
       <c r="R20" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S20" s="6">
-        <v>-66.23</v>
+        <v>-66.313999999999993</v>
       </c>
       <c r="T20" t="e">
         <v>#N/A</v>
@@ -1447,49 +1460,49 @@
         <v>4334</v>
       </c>
       <c r="C21" s="16">
-        <v>6622.4000000000015</v>
+        <v>6628.218181818178</v>
       </c>
       <c r="D21" s="16">
         <v>4314</v>
       </c>
       <c r="E21" s="16">
-        <v>6622.4000000000015</v>
+        <v>6628.218181818178</v>
       </c>
       <c r="F21" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G21" s="12">
-        <v>-66.373333333333335</v>
+        <v>-66.470303030303</v>
       </c>
       <c r="H21" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I21" s="12">
-        <v>-66.373333333333335</v>
+        <v>-66.470303030303</v>
       </c>
       <c r="L21" s="6">
         <v>4330.12</v>
       </c>
       <c r="M21" s="6">
-        <v>6614.4999999999982</v>
+        <v>6620.1000000000022</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
-        <v>6614.4999999999982</v>
+        <v>6620.1000000000022</v>
       </c>
       <c r="P21" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q21" s="6">
-        <v>-66.24166666666666</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R21" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S21" s="6">
-        <v>-66.24166666666666</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="T21" t="e">
         <v>#N/A</v>
@@ -1503,49 +1516,49 @@
         <v>4334</v>
       </c>
       <c r="C22" s="16">
-        <v>6623.2000000000016</v>
+        <v>6629.5999999999958</v>
       </c>
       <c r="D22" s="16">
         <v>4314</v>
       </c>
       <c r="E22" s="16">
-        <v>6623.2000000000016</v>
+        <v>6629.5999999999958</v>
       </c>
       <c r="F22" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G22" s="12">
-        <v>-66.38666666666667</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H22" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I22" s="12">
-        <v>-66.38666666666667</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="L22" s="6">
         <v>4330.12</v>
       </c>
       <c r="M22" s="6">
-        <v>6615.199999999998</v>
+        <v>6621.3600000000024</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
-        <v>6615.199999999998</v>
+        <v>6621.3600000000024</v>
       </c>
       <c r="P22" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q22" s="6">
-        <v>-66.25333333333333</v>
+        <v>-66.355999999999995</v>
       </c>
       <c r="R22" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S22" s="6">
-        <v>-66.25333333333333</v>
+        <v>-66.355999999999995</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
@@ -1559,49 +1572,49 @@
         <v>4334</v>
       </c>
       <c r="C23" s="16">
-        <v>6624.0000000000018</v>
+        <v>6630.9818181818137</v>
       </c>
       <c r="D23" s="16">
         <v>4314</v>
       </c>
       <c r="E23" s="16">
-        <v>6624.0000000000018</v>
+        <v>6630.9818181818137</v>
       </c>
       <c r="F23" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G23" s="12">
-        <v>-66.400000000000006</v>
+        <v>-66.516363636363494</v>
       </c>
       <c r="H23" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I23" s="12">
-        <v>-66.400000000000006</v>
+        <v>-66.516363636363494</v>
       </c>
       <c r="L23" s="6">
         <v>4330.12</v>
       </c>
       <c r="M23" s="6">
-        <v>6615.8999999999978</v>
+        <v>6622.6200000000026</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
-        <v>6615.8999999999978</v>
+        <v>6622.6200000000026</v>
       </c>
       <c r="P23" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q23" s="6">
-        <v>-66.265000000000001</v>
+        <v>-66.376999999999995</v>
       </c>
       <c r="R23" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S23" s="6">
-        <v>-66.265000000000001</v>
+        <v>-66.376999999999995</v>
       </c>
       <c r="T23" t="e">
         <v>#N/A</v>
@@ -1615,49 +1628,49 @@
         <v>4334</v>
       </c>
       <c r="C24" s="16">
-        <v>6624.800000000002</v>
+        <v>6632.3636363636315</v>
       </c>
       <c r="D24" s="16">
         <v>4314</v>
       </c>
       <c r="E24" s="16">
-        <v>6624.800000000002</v>
+        <v>6632.3636363636315</v>
       </c>
       <c r="F24" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G24" s="12">
-        <v>-66.413333333333327</v>
+        <v>-66.539393939393833</v>
       </c>
       <c r="H24" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I24" s="12">
-        <v>-66.413333333333327</v>
+        <v>-66.539393939393833</v>
       </c>
       <c r="L24" s="6">
         <v>4330.12</v>
       </c>
       <c r="M24" s="6">
-        <v>6616.5999999999976</v>
+        <v>6623.8800000000028</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
-        <v>6616.5999999999976</v>
+        <v>6623.8800000000028</v>
       </c>
       <c r="P24" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q24" s="6">
-        <v>-66.276666666666671</v>
+        <v>-66.397999999999996</v>
       </c>
       <c r="R24" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S24" s="6">
-        <v>-66.276666666666671</v>
+        <v>-66.397999999999996</v>
       </c>
       <c r="T24" t="e">
         <v>#N/A</v>
@@ -1671,49 +1684,49 @@
         <v>4334</v>
       </c>
       <c r="C25" s="16">
-        <v>6625.6000000000022</v>
+        <v>6633.7454545454493</v>
       </c>
       <c r="D25" s="16">
         <v>4314</v>
       </c>
       <c r="E25" s="16">
-        <v>6625.6000000000022</v>
+        <v>6633.7454545454493</v>
       </c>
       <c r="F25" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G25" s="12">
-        <v>-66.426666666666662</v>
+        <v>-66.562424242424171</v>
       </c>
       <c r="H25" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I25" s="12">
-        <v>-66.426666666666662</v>
+        <v>-66.562424242424171</v>
       </c>
       <c r="L25" s="6">
         <v>4330.12</v>
       </c>
       <c r="M25" s="6">
-        <v>6617.2999999999975</v>
+        <v>6625.1400000000031</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
-        <v>6617.2999999999975</v>
+        <v>6625.1400000000031</v>
       </c>
       <c r="P25" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q25" s="6">
-        <v>-66.288333333333327</v>
+        <v>-66.418999999999997</v>
       </c>
       <c r="R25" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S25" s="6">
-        <v>-66.288333333333327</v>
+        <v>-66.418999999999997</v>
       </c>
       <c r="T25" t="e">
         <v>#N/A</v>
@@ -1727,49 +1740,49 @@
         <v>4334</v>
       </c>
       <c r="C26" s="16">
-        <v>6626.4000000000024</v>
+        <v>6635.1272727272672</v>
       </c>
       <c r="D26" s="16">
         <v>4314</v>
       </c>
       <c r="E26" s="16">
-        <v>6626.4000000000024</v>
+        <v>6635.1272727272672</v>
       </c>
       <c r="F26" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G26" s="12">
-        <v>-66.44</v>
+        <v>-66.585454545454496</v>
       </c>
       <c r="H26" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I26" s="12">
-        <v>-66.44</v>
+        <v>-66.585454545454496</v>
       </c>
       <c r="L26" s="6">
         <v>4330.12</v>
       </c>
       <c r="M26" s="6">
-        <v>6617.9999999999973</v>
+        <v>6626.4000000000033</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
-        <v>6617.9999999999973</v>
+        <v>6626.4000000000033</v>
       </c>
       <c r="P26" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q26" s="6">
-        <v>-66.3</v>
+        <v>-66.44</v>
       </c>
       <c r="R26" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S26" s="6">
-        <v>-66.3</v>
+        <v>-66.44</v>
       </c>
       <c r="T26" t="e">
         <v>#N/A</v>
@@ -1783,49 +1796,49 @@
         <v>4334</v>
       </c>
       <c r="C27" s="16">
-        <v>6627.2000000000025</v>
+        <v>6636.509090909085</v>
       </c>
       <c r="D27" s="16">
         <v>4314</v>
       </c>
       <c r="E27" s="16">
-        <v>6627.2000000000025</v>
+        <v>6636.509090909085</v>
       </c>
       <c r="F27" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G27" s="12">
-        <v>-66.453333333333333</v>
+        <v>-66.608484848484665</v>
       </c>
       <c r="H27" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I27" s="12">
-        <v>-66.453333333333333</v>
+        <v>-66.608484848484665</v>
       </c>
       <c r="L27" s="6">
         <v>4330.12</v>
       </c>
       <c r="M27" s="6">
-        <v>6618.6999999999971</v>
+        <v>6627.6600000000035</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
-        <v>6618.6999999999971</v>
+        <v>6627.6600000000035</v>
       </c>
       <c r="P27" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q27" s="6">
-        <v>-66.311666666666667</v>
+        <v>-66.460999999999999</v>
       </c>
       <c r="R27" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S27" s="6">
-        <v>-66.311666666666667</v>
+        <v>-66.460999999999999</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
@@ -1839,49 +1852,49 @@
         <v>4334</v>
       </c>
       <c r="C28" s="16">
-        <v>6628.0000000000027</v>
+        <v>6637.8909090909028</v>
       </c>
       <c r="D28" s="16">
         <v>4314</v>
       </c>
       <c r="E28" s="16">
-        <v>6628.0000000000027</v>
+        <v>6637.8909090909028</v>
       </c>
       <c r="F28" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G28" s="12">
-        <v>-66.466666666666669</v>
+        <v>-66.631515151515003</v>
       </c>
       <c r="H28" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I28" s="12">
-        <v>-66.466666666666669</v>
+        <v>-66.631515151515003</v>
       </c>
       <c r="L28" s="6">
         <v>4330.12</v>
       </c>
       <c r="M28" s="6">
-        <v>6619.3999999999969</v>
+        <v>6628.9200000000037</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
-        <v>6619.3999999999969</v>
+        <v>6628.9200000000037</v>
       </c>
       <c r="P28" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q28" s="6">
-        <v>-66.323333333333338</v>
+        <v>-66.481999999999999</v>
       </c>
       <c r="R28" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S28" s="6">
-        <v>-66.323333333333338</v>
+        <v>-66.481999999999999</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
@@ -1895,49 +1908,49 @@
         <v>4334</v>
       </c>
       <c r="C29" s="16">
-        <v>6628.8000000000029</v>
+        <v>6639.2727272727207</v>
       </c>
       <c r="D29" s="16">
         <v>4314</v>
       </c>
       <c r="E29" s="16">
-        <v>6628.8000000000029</v>
+        <v>6639.2727272727207</v>
       </c>
       <c r="F29" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G29" s="12">
-        <v>-66.48</v>
+        <v>-66.654545454545328</v>
       </c>
       <c r="H29" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I29" s="12">
-        <v>-66.48</v>
+        <v>-66.654545454545328</v>
       </c>
       <c r="L29" s="6">
         <v>4330.12</v>
       </c>
       <c r="M29" s="6">
-        <v>6620.0999999999967</v>
+        <v>6630.1800000000039</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
-        <v>6620.0999999999967</v>
+        <v>6630.1800000000039</v>
       </c>
       <c r="P29" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q29" s="6">
-        <v>-66.334999999999994</v>
+        <v>-66.503</v>
       </c>
       <c r="R29" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S29" s="6">
-        <v>-66.334999999999994</v>
+        <v>-66.503</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
@@ -1951,49 +1964,49 @@
         <v>4334</v>
       </c>
       <c r="C30" s="16">
-        <v>6629.6000000000031</v>
+        <v>6640.6545454545385</v>
       </c>
       <c r="D30" s="16">
         <v>4314</v>
       </c>
       <c r="E30" s="16">
-        <v>6629.6000000000031</v>
+        <v>6640.6545454545385</v>
       </c>
       <c r="F30" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G30" s="12">
-        <v>-66.493333333333339</v>
+        <v>-66.677575757575667</v>
       </c>
       <c r="H30" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I30" s="12">
-        <v>-66.493333333333339</v>
+        <v>-66.677575757575667</v>
       </c>
       <c r="L30" s="6">
         <v>4330.12</v>
       </c>
       <c r="M30" s="6">
-        <v>6620.7999999999965</v>
+        <v>6631.4400000000041</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
-        <v>6620.7999999999965</v>
+        <v>6631.4400000000041</v>
       </c>
       <c r="P30" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q30" s="6">
-        <v>-66.346666666666664</v>
+        <v>-66.524000000000001</v>
       </c>
       <c r="R30" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S30" s="6">
-        <v>-66.346666666666664</v>
+        <v>-66.524000000000001</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
@@ -2007,49 +2020,49 @@
         <v>4334</v>
       </c>
       <c r="C31" s="16">
-        <v>6630.4000000000033</v>
+        <v>6642.0363636363563</v>
       </c>
       <c r="D31" s="16">
         <v>4314</v>
       </c>
       <c r="E31" s="16">
-        <v>6630.4000000000033</v>
+        <v>6642.0363636363563</v>
       </c>
       <c r="F31" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G31" s="12">
-        <v>-66.506666666666661</v>
+        <v>-66.700606060606006</v>
       </c>
       <c r="H31" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I31" s="12">
-        <v>-66.506666666666661</v>
+        <v>-66.700606060606006</v>
       </c>
       <c r="L31" s="6">
         <v>4330.12</v>
       </c>
       <c r="M31" s="6">
-        <v>6621.4999999999964</v>
+        <v>6632.7000000000044</v>
       </c>
       <c r="N31" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O31" s="6">
-        <v>6621.4999999999964</v>
+        <v>6632.7000000000044</v>
       </c>
       <c r="P31" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q31" s="6">
-        <v>-66.358333333333334</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="R31" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S31" s="6">
-        <v>-66.358333333333334</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
@@ -2063,49 +2076,49 @@
         <v>4334</v>
       </c>
       <c r="C32" s="16">
-        <v>6631.2000000000035</v>
+        <v>6643.4181818181742</v>
       </c>
       <c r="D32" s="16">
         <v>4314</v>
       </c>
       <c r="E32" s="16">
-        <v>6631.2000000000035</v>
+        <v>6643.4181818181742</v>
       </c>
       <c r="F32" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G32" s="12">
-        <v>-66.52</v>
+        <v>-66.72363636363616</v>
       </c>
       <c r="H32" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I32" s="12">
-        <v>-66.52</v>
+        <v>-66.72363636363616</v>
       </c>
       <c r="L32" s="6">
         <v>4330.12</v>
       </c>
       <c r="M32" s="6">
-        <v>6622.1999999999962</v>
+        <v>6633.9600000000046</v>
       </c>
       <c r="N32" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O32" s="6">
-        <v>6622.1999999999962</v>
+        <v>6633.9600000000046</v>
       </c>
       <c r="P32" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q32" s="6">
-        <v>-66.37</v>
+        <v>-66.566000000000003</v>
       </c>
       <c r="R32" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S32" s="6">
-        <v>-66.37</v>
+        <v>-66.566000000000003</v>
       </c>
       <c r="T32" t="e">
         <v>#N/A</v>
@@ -2119,49 +2132,49 @@
         <v>4334</v>
       </c>
       <c r="C33" s="16">
-        <v>6632.0000000000036</v>
+        <v>6644.799999999992</v>
       </c>
       <c r="D33" s="16">
         <v>4314</v>
       </c>
       <c r="E33" s="16">
-        <v>6632.0000000000036</v>
+        <v>6644.799999999992</v>
       </c>
       <c r="F33" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G33" s="12">
-        <v>-66.533333333333331</v>
+        <v>-66.746666666666499</v>
       </c>
       <c r="H33" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I33" s="12">
-        <v>-66.533333333333331</v>
+        <v>-66.746666666666499</v>
       </c>
       <c r="L33" s="6">
         <v>4330.12</v>
       </c>
       <c r="M33" s="6">
-        <v>6622.899999999996</v>
+        <v>6635.2200000000048</v>
       </c>
       <c r="N33" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O33" s="6">
-        <v>6622.899999999996</v>
+        <v>6635.2200000000048</v>
       </c>
       <c r="P33" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q33" s="6">
-        <v>-66.381666666666661</v>
+        <v>-66.587000000000003</v>
       </c>
       <c r="R33" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S33" s="6">
-        <v>-66.381666666666661</v>
+        <v>-66.587000000000003</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
@@ -2175,49 +2188,49 @@
         <v>4334</v>
       </c>
       <c r="C34" s="16">
-        <v>6632.8000000000038</v>
+        <v>6646.1818181818098</v>
       </c>
       <c r="D34" s="16">
         <v>4314</v>
       </c>
       <c r="E34" s="16">
-        <v>6632.8000000000038</v>
+        <v>6646.1818181818098</v>
       </c>
       <c r="F34" s="12">
         <v>43.56666666666667</v>
       </c>
       <c r="G34" s="12">
-        <v>-66.546666666666667</v>
+        <v>-66.769696969696838</v>
       </c>
       <c r="H34" s="12">
         <v>43.233333333333334</v>
       </c>
       <c r="I34" s="12">
-        <v>-66.546666666666667</v>
+        <v>-66.769696969696838</v>
       </c>
       <c r="L34" s="6">
         <v>4330.12</v>
       </c>
       <c r="M34" s="6">
-        <v>6623.5999999999958</v>
+        <v>6636.480000000005</v>
       </c>
       <c r="N34" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O34" s="6">
-        <v>6623.5999999999958</v>
+        <v>6636.480000000005</v>
       </c>
       <c r="P34" s="6">
         <v>43.502000000000002</v>
       </c>
       <c r="Q34" s="6">
-        <v>-66.393333333333331</v>
+        <v>-66.60800000000016</v>
       </c>
       <c r="R34" s="6">
         <v>43.247500000000002</v>
       </c>
       <c r="S34" s="6">
-        <v>-66.393333333333331</v>
+        <v>-66.60800000000016</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
@@ -3192,7 +3205,7 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+      <formula1>"1,2,3,4,5,6,7,8,9,10, 11, 12"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"German Bank,Scots Bay"</formula1>
@@ -4570,10 +4583,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:E997"/>
+  <dimension ref="A1:E991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4607,13 +4620,13 @@
         <v>4334</v>
       </c>
       <c r="C2" s="16">
-        <v>6629.5999999999995</v>
+        <v>6629.5999999999958</v>
       </c>
       <c r="D2" s="16">
         <v>4314</v>
       </c>
       <c r="E2" s="16">
-        <v>6629.5999999999995</v>
+        <v>6629.5999999999958</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4624,13 +4637,13 @@
         <v>4334</v>
       </c>
       <c r="C3" s="16">
-        <v>6627.9111111111106</v>
+        <v>6628.218181818178</v>
       </c>
       <c r="D3" s="16">
         <v>4314</v>
       </c>
       <c r="E3" s="16">
-        <v>6627.9111111111106</v>
+        <v>6628.218181818178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4641,13 +4654,13 @@
         <v>4334</v>
       </c>
       <c r="C4" s="16">
-        <v>6626.2222222222217</v>
+        <v>6626.8363636363601</v>
       </c>
       <c r="D4" s="16">
         <v>4314</v>
       </c>
       <c r="E4" s="16">
-        <v>6626.2222222222217</v>
+        <v>6626.8363636363601</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4658,13 +4671,13 @@
         <v>4334</v>
       </c>
       <c r="C5" s="16">
-        <v>6624.5333333333328</v>
+        <v>6625.4545454545423</v>
       </c>
       <c r="D5" s="16">
         <v>4314</v>
       </c>
       <c r="E5" s="16">
-        <v>6624.5333333333328</v>
+        <v>6625.4545454545423</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4675,270 +4688,238 @@
         <v>4334</v>
       </c>
       <c r="C6" s="16">
-        <v>6622.844444444444</v>
+        <v>6624.0727272727245</v>
       </c>
       <c r="D6" s="16">
         <v>4314</v>
       </c>
       <c r="E6" s="16">
-        <v>6622.844444444444</v>
+        <v>6624.0727272727245</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>40</v>
+      <c r="A7" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="16">
         <v>4334</v>
       </c>
       <c r="C7" s="16">
-        <v>6621.1555555555551</v>
+        <v>6622.6909090909066</v>
       </c>
       <c r="D7" s="16">
         <v>4314</v>
       </c>
       <c r="E7" s="16">
-        <v>6621.1555555555551</v>
+        <v>6622.6909090909066</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="16">
         <v>4334</v>
       </c>
       <c r="C8" s="16">
-        <v>6619.4666666666662</v>
+        <v>6621.3090909090888</v>
       </c>
       <c r="D8" s="16">
         <v>4314</v>
       </c>
       <c r="E8" s="16">
-        <v>6619.4666666666662</v>
+        <v>6621.3090909090888</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="16">
         <v>4334</v>
       </c>
       <c r="C9" s="16">
-        <v>6617.7777777777774</v>
+        <v>6619.927272727271</v>
       </c>
       <c r="D9" s="16">
         <v>4314</v>
       </c>
       <c r="E9" s="16">
-        <v>6617.7777777777774</v>
+        <v>6619.927272727271</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="16">
         <v>4334</v>
       </c>
       <c r="C10" s="16">
-        <v>6616.0888888888885</v>
+        <v>6618.5454545454531</v>
       </c>
       <c r="D10" s="16">
         <v>4314</v>
       </c>
       <c r="E10" s="16">
-        <v>6616.0888888888885</v>
+        <v>6618.5454545454531</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="16">
         <v>4334</v>
       </c>
       <c r="C11" s="16">
-        <v>6614.4</v>
+        <v>6617.1636363636353</v>
       </c>
       <c r="D11" s="16">
         <v>4314</v>
       </c>
       <c r="E11" s="16">
-        <v>6614.4</v>
+        <v>6617.1636363636353</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6613.7999999999984</v>
-      </c>
-      <c r="D12" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="E12" s="6">
-        <v>6613.7999999999984</v>
+        <v>44</v>
+      </c>
+      <c r="B12" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C12" s="16">
+        <v>6615.7818181818175</v>
+      </c>
+      <c r="D12" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E12" s="16">
+        <v>6615.7818181818175</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="C13" s="6">
-        <v>6613.0999999999985</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="E13" s="6">
-        <v>6613.0999999999985</v>
+      <c r="A13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C13" s="16">
+        <v>6614.4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E13" s="16">
+        <v>6614.4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="6">
+        <v>40</v>
+      </c>
+      <c r="B14" s="21">
         <v>4330.12</v>
       </c>
-      <c r="C14" s="6">
-        <v>6612.3999999999987</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="21">
+        <v>6613.8000000000011</v>
+      </c>
+      <c r="D14" s="21">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E14" s="6">
-        <v>6612.3999999999987</v>
+      <c r="E14" s="21">
+        <v>6613.8000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="6">
+        <v>41</v>
+      </c>
+      <c r="B15" s="21">
         <v>4330.12</v>
       </c>
-      <c r="C15" s="6">
-        <v>6611.6999999999989</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="21">
+        <v>6612.5400000000009</v>
+      </c>
+      <c r="D15" s="21">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E15" s="6">
-        <v>6611.6999999999989</v>
+      <c r="E15" s="21">
+        <v>6612.5400000000009</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="6">
+        <v>42</v>
+      </c>
+      <c r="B16" s="22">
         <v>4330.12</v>
       </c>
-      <c r="C16" s="6">
-        <v>6610.9999999999991</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="22">
+        <v>6611.2800000000007</v>
+      </c>
+      <c r="D16" s="22">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E16" s="6">
-        <v>6610.9999999999991</v>
+      <c r="E16" s="22">
+        <v>6611.2800000000007</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="6">
+        <v>43</v>
+      </c>
+      <c r="B17" s="22">
         <v>4330.12</v>
       </c>
-      <c r="C17" s="6">
-        <v>6610.2999999999993</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="22">
+        <v>6610.02</v>
+      </c>
+      <c r="D17" s="22">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E17" s="6">
-        <v>6610.2999999999993</v>
+      <c r="E17" s="22">
+        <v>6610.02</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6">
+        <v>44</v>
+      </c>
+      <c r="B18" s="22">
         <v>4330.12</v>
       </c>
-      <c r="C18" s="6">
-        <v>6609.5999999999995</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="22">
+        <v>6608.76</v>
+      </c>
+      <c r="D18" s="22">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E18" s="6">
-        <v>6609.5999999999995</v>
+      <c r="E18" s="22">
+        <v>6608.76</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="22">
         <v>4330.12</v>
       </c>
-      <c r="C19" s="6">
-        <v>6608.9</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="22">
+        <v>6607.5</v>
+      </c>
+      <c r="D19" s="22">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E19" s="6">
-        <v>6608.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6608.2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="E20" s="6">
-        <v>6608.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="E19" s="22">
         <v>6607.5</v>
       </c>
-      <c r="D21" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="E21" s="6">
-        <v>6607.5</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5909,13 +5890,11 @@
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E19">
+    <sortCondition descending="1" ref="C2:C19"/>
+    <sortCondition descending="1" ref="B2:B19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6048,11 +6027,11 @@
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" ref="X3:X4" si="8">V3</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>23</v>
@@ -6079,7 +6058,7 @@
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -6094,7 +6073,7 @@
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -6106,15 +6085,15 @@
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>24</v>
@@ -6142,7 +6121,7 @@
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6154,7 +6133,7 @@
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>0.70000000000002016</v>
+        <v>1.2600000000000364</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>26</v>
@@ -6164,15 +6143,15 @@
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>0.41147368421053743</v>
+        <v>0.71072727272729186</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:Y5" si="10">(X2-X25)/(X4-1)</f>
-        <v>0.30142105263157165</v>
+        <v>0.52063636363635102</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="10"/>
-        <v>0.45452631578949587</v>
+        <v>0.78509090909094748</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>26</v>
@@ -6202,7 +6181,7 @@
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>0.80000000000003835</v>
+        <v>1.381818181818248</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>26</v>
@@ -6408,14 +6387,14 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6608.2</v>
+        <v>6608.76</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="12"/>
-        <v>6608.2</v>
+        <v>6608.76</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="13"/>
@@ -6423,7 +6402,7 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="14"/>
-        <v>-66.13666666666667</v>
+        <v>-66.146000000000001</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ref="R8:R30" si="29">(LEFT(N8,2)+((RIGHT(N8,LEN(N8)-2))/60))</f>
@@ -6431,7 +6410,7 @@
       </c>
       <c r="S8" s="6">
         <f t="shared" ref="S8" si="30">Q8</f>
-        <v>-66.13666666666667</v>
+        <v>-66.146000000000001</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" ref="U8:U24" si="31">U7+1</f>
@@ -6439,22 +6418,22 @@
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4502.59347368421</v>
+        <v>4502.8927272727269</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="32">X7+X5</f>
-        <v>4513.2744210526316</v>
+        <v>4513.4936363636361</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="32"/>
-        <v>6441.3185263157893</v>
+        <v>6441.6490909090908</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="16"/>
-        <v>45.043224561403498</v>
+        <v>45.048212121212167</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="17"/>
@@ -6462,11 +6441,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="18"/>
-        <v>45.221240350877167</v>
+        <v>45.224893939394001</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="19"/>
-        <v>-64.68864210526317</v>
+        <v>-64.694151515151503</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -6513,14 +6492,14 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6615.2</v>
+        <v>6615.7818181818175</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="24"/>
-        <v>6615.2</v>
+        <v>6615.7818181818175</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="25"/>
@@ -6528,7 +6507,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="26"/>
-        <v>-66.25333333333333</v>
+        <v>-66.263030303030334</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:H31" si="35">(LEFT(D9,2)+((RIGHT(D9,LEN(D9)-2))/60))</f>
@@ -6536,7 +6515,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" ref="I9" si="36">G9</f>
-        <v>-66.25333333333333</v>
+        <v>-66.263030303030334</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="28"/>
@@ -6547,14 +6526,14 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6608.9</v>
+        <v>6610.02</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="12"/>
-        <v>6608.9</v>
+        <v>6610.02</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="13"/>
@@ -6562,7 +6541,7 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="14"/>
-        <v>-66.148333333333326</v>
+        <v>-66.167000000000002</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="29"/>
@@ -6570,7 +6549,7 @@
       </c>
       <c r="S9" s="6">
         <f t="shared" ref="S9" si="37">Q9</f>
-        <v>-66.148333333333326</v>
+        <v>-66.167000000000002</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="31"/>
@@ -6578,22 +6557,22 @@
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4503.0049473684203</v>
+        <v>4503.603454545454</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" ref="X9:Y9" si="38">X8+X5</f>
-        <v>4513.5758421052633</v>
+        <v>4514.0142727272723</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="38"/>
-        <v>6441.773052631579</v>
+        <v>6442.434181818182</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="16"/>
-        <v>45.050082456140331</v>
+        <v>45.060057575757497</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="17"/>
@@ -6601,11 +6580,11 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="18"/>
-        <v>45.226264035087667</v>
+        <v>45.23357121212117</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="19"/>
-        <v>-64.69621754385966</v>
+        <v>-64.707236363636326</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
@@ -6652,14 +6631,14 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6616</v>
+        <v>6617.1636363636353</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="24"/>
-        <v>6616</v>
+        <v>6617.1636363636353</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="25"/>
@@ -6667,7 +6646,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="26"/>
-        <v>-66.266666666666666</v>
+        <v>-66.286060606060673</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="35"/>
@@ -6675,7 +6654,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ref="I10" si="40">G10</f>
-        <v>-66.266666666666666</v>
+        <v>-66.286060606060673</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="28"/>
@@ -6686,14 +6665,14 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6609.5999999999995</v>
+        <v>6611.2800000000007</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="12"/>
-        <v>6609.5999999999995</v>
+        <v>6611.2800000000007</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="13"/>
@@ -6701,7 +6680,7 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="14"/>
-        <v>-66.16</v>
+        <v>-66.188000000000002</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="29"/>
@@ -6709,7 +6688,7 @@
       </c>
       <c r="S10" s="6">
         <f t="shared" ref="S10" si="41">Q10</f>
-        <v>-66.16</v>
+        <v>-66.188000000000002</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="31"/>
@@ -6717,22 +6696,22 @@
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4503.4164210526305</v>
+        <v>4504.3141818181812</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" ref="X10:Y10" si="42">X9+X5</f>
-        <v>4513.877263157895</v>
+        <v>4514.5349090909085</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="42"/>
-        <v>6442.2275789473688</v>
+        <v>6443.2192727272732</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="16"/>
-        <v>45.05694035087717</v>
+        <v>45.071903030302998</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="17"/>
@@ -6740,11 +6719,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="18"/>
-        <v>45.231287719298166</v>
+        <v>45.242248484848503</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="19"/>
-        <v>-64.703792982456164</v>
+        <v>-64.720321212121164</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
@@ -6791,14 +6770,14 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6616.8</v>
+        <v>6618.5454545454531</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="24"/>
-        <v>6616.8</v>
+        <v>6618.5454545454531</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="25"/>
@@ -6806,7 +6785,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="26"/>
-        <v>-66.28</v>
+        <v>-66.309090909090827</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="35"/>
@@ -6814,7 +6793,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" ref="I11" si="44">G11</f>
-        <v>-66.28</v>
+        <v>-66.309090909090827</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="28"/>
@@ -6825,14 +6804,14 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6610.2999999999993</v>
+        <v>6612.5400000000009</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="12"/>
-        <v>6610.2999999999993</v>
+        <v>6612.5400000000009</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="13"/>
@@ -6840,7 +6819,7 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="14"/>
-        <v>-66.171666666666667</v>
+        <v>-66.209000000000003</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="29"/>
@@ -6848,7 +6827,7 @@
       </c>
       <c r="S11" s="6">
         <f t="shared" ref="S11" si="45">Q11</f>
-        <v>-66.171666666666667</v>
+        <v>-66.209000000000003</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="31"/>
@@ -6856,22 +6835,22 @@
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4503.8278947368408</v>
+        <v>4505.0249090909083</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" ref="X11:Y11" si="46">X10+X5</f>
-        <v>4514.1786842105266</v>
+        <v>4515.0555454545447</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="46"/>
-        <v>6442.6821052631585</v>
+        <v>6444.0043636363644</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="16"/>
-        <v>45.063798245614002</v>
+        <v>45.083748484848499</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="17"/>
@@ -6879,11 +6858,11 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="18"/>
-        <v>45.236311403508836</v>
+        <v>45.250925757575665</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="19"/>
-        <v>-64.711368421052669</v>
+        <v>-64.733406060606001</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>28</v>
@@ -6927,14 +6906,14 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6617.6</v>
+        <v>6619.927272727271</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="24"/>
-        <v>6617.6</v>
+        <v>6619.927272727271</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="25"/>
@@ -6942,7 +6921,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="26"/>
-        <v>-66.293333333333337</v>
+        <v>-66.332121212121166</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="35"/>
@@ -6950,7 +6929,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" ref="I12" si="51">G12</f>
-        <v>-66.293333333333337</v>
+        <v>-66.332121212121166</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="28"/>
@@ -6961,14 +6940,14 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6610.9999999999991</v>
+        <v>6613.8000000000011</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="12"/>
-        <v>6610.9999999999991</v>
+        <v>6613.8000000000011</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="13"/>
@@ -6976,7 +6955,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="14"/>
-        <v>-66.183333333333337</v>
+        <v>-66.23</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="29"/>
@@ -6984,7 +6963,7 @@
       </c>
       <c r="S12" s="6">
         <f t="shared" ref="S12" si="52">Q12</f>
-        <v>-66.183333333333337</v>
+        <v>-66.23</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="31"/>
@@ -6992,22 +6971,22 @@
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4504.239368421051</v>
+        <v>4505.7356363636354</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:Y12" si="53">X11+X5</f>
-        <v>4514.4801052631583</v>
+        <v>4515.5761818181809</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="53"/>
-        <v>6443.1366315789483</v>
+        <v>6444.7894545454556</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="16"/>
-        <v>45.070656140350835</v>
+        <v>45.095593939394</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="17"/>
@@ -7015,11 +6994,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="18"/>
-        <v>45.241335087719335</v>
+        <v>45.259603030302998</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="19"/>
-        <v>-64.718943859649173</v>
+        <v>-64.746490909090994</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -7032,14 +7011,14 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6618.4000000000005</v>
+        <v>6621.3090909090888</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="24"/>
-        <v>6618.4000000000005</v>
+        <v>6621.3090909090888</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="25"/>
@@ -7047,7 +7026,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="26"/>
-        <v>-66.306666666666672</v>
+        <v>-66.355151515151505</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="35"/>
@@ -7055,7 +7034,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" ref="I13" si="54">G13</f>
-        <v>-66.306666666666672</v>
+        <v>-66.355151515151505</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="28"/>
@@ -7066,14 +7045,14 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6611.6999999999989</v>
+        <v>6615.0600000000013</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="12"/>
-        <v>6611.6999999999989</v>
+        <v>6615.0600000000013</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="13"/>
@@ -7081,7 +7060,7 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="14"/>
-        <v>-66.194999999999993</v>
+        <v>-66.251000000000005</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="29"/>
@@ -7089,7 +7068,7 @@
       </c>
       <c r="S13" s="6">
         <f t="shared" ref="S13" si="55">Q13</f>
-        <v>-66.194999999999993</v>
+        <v>-66.251000000000005</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="31"/>
@@ -7097,22 +7076,22 @@
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4504.6508421052613</v>
+        <v>4506.4463636363625</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ref="X13:Y13" si="56">X12+X5</f>
-        <v>4514.78152631579</v>
+        <v>4516.0968181818171</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="56"/>
-        <v>6443.591157894738</v>
+        <v>6445.5745454545468</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="16"/>
-        <v>45.077514035087667</v>
+        <v>45.10743939393933</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="17"/>
@@ -7120,11 +7099,11 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="18"/>
-        <v>45.246358771929835</v>
+        <v>45.26828030303033</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="19"/>
-        <v>-64.726519298245663</v>
+        <v>-64.759575757575831</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>29</v>
@@ -7140,14 +7119,14 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6619.2000000000007</v>
+        <v>6622.6909090909066</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="24"/>
-        <v>6619.2000000000007</v>
+        <v>6622.6909090909066</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="25"/>
@@ -7155,7 +7134,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="26"/>
-        <v>-66.319999999999993</v>
+        <v>-66.378181818181829</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="35"/>
@@ -7163,7 +7142,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" ref="I14" si="57">G14</f>
-        <v>-66.319999999999993</v>
+        <v>-66.378181818181829</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="28"/>
@@ -7174,14 +7153,14 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6612.3999999999987</v>
+        <v>6616.3200000000015</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="12"/>
-        <v>6612.3999999999987</v>
+        <v>6616.3200000000015</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="13"/>
@@ -7189,7 +7168,7 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="14"/>
-        <v>-66.206666666666663</v>
+        <v>-66.272000000000006</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" si="29"/>
@@ -7197,7 +7176,7 @@
       </c>
       <c r="S14" s="6">
         <f t="shared" ref="S14" si="58">Q14</f>
-        <v>-66.206666666666663</v>
+        <v>-66.272000000000006</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="31"/>
@@ -7205,22 +7184,22 @@
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4505.0623157894715</v>
+        <v>4507.1570909090897</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ref="X14:Y14" si="59">X13+X5</f>
-        <v>4515.0829473684216</v>
+        <v>4516.6174545454533</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="59"/>
-        <v>6444.0456842105277</v>
+        <v>6446.3596363636379</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="16"/>
-        <v>45.084371929824499</v>
+        <v>45.119284848484831</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="17"/>
@@ -7228,11 +7207,11 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="18"/>
-        <v>45.251382456140334</v>
+        <v>45.2769575757575</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="19"/>
-        <v>-64.734094736842167</v>
+        <v>-64.772660606060668</v>
       </c>
       <c r="AE14" s="6" t="s">
         <v>21</v>
@@ -7272,14 +7251,14 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6620.0000000000009</v>
+        <v>6624.0727272727245</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="24"/>
-        <v>6620.0000000000009</v>
+        <v>6624.0727272727245</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="25"/>
@@ -7287,7 +7266,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="26"/>
-        <v>-66.333333333333329</v>
+        <v>-66.401212121211998</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="35"/>
@@ -7295,7 +7274,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" ref="I15" si="60">G15</f>
-        <v>-66.333333333333329</v>
+        <v>-66.401212121211998</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="28"/>
@@ -7306,14 +7285,14 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6613.0999999999985</v>
+        <v>6617.5800000000017</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="12"/>
-        <v>6613.0999999999985</v>
+        <v>6617.5800000000017</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="13"/>
@@ -7321,7 +7300,7 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="14"/>
-        <v>-66.218333333333334</v>
+        <v>-66.293000000000006</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="29"/>
@@ -7329,7 +7308,7 @@
       </c>
       <c r="S15" s="6">
         <f t="shared" ref="S15" si="61">Q15</f>
-        <v>-66.218333333333334</v>
+        <v>-66.293000000000006</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="31"/>
@@ -7337,22 +7316,22 @@
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4505.4737894736818</v>
+        <v>4507.8678181818168</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ref="X15:Y15" si="62">X14+X5</f>
-        <v>4515.3843684210533</v>
+        <v>4517.1380909090894</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="62"/>
-        <v>6444.5002105263175</v>
+        <v>6447.1447272727291</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="16"/>
-        <v>45.091229824561331</v>
+        <v>45.131130303030332</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="17"/>
@@ -7360,11 +7339,11 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="18"/>
-        <v>45.256406140350833</v>
+        <v>45.285634848484833</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="19"/>
-        <v>-64.741670175438671</v>
+        <v>-64.785745454545506</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>23</v>
@@ -7394,14 +7373,14 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6620.8000000000011</v>
+        <v>6625.4545454545423</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="24"/>
-        <v>6620.8000000000011</v>
+        <v>6625.4545454545423</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="25"/>
@@ -7409,7 +7388,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="26"/>
-        <v>-66.346666666666664</v>
+        <v>-66.424242424242337</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="35"/>
@@ -7417,7 +7396,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" ref="I16" si="63">G16</f>
-        <v>-66.346666666666664</v>
+        <v>-66.424242424242337</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="28"/>
@@ -7428,14 +7407,14 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6613.7999999999984</v>
+        <v>6618.840000000002</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="12"/>
-        <v>6613.7999999999984</v>
+        <v>6618.840000000002</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="13"/>
@@ -7443,7 +7422,7 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="14"/>
-        <v>-66.23</v>
+        <v>-66.313999999999993</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="29"/>
@@ -7451,7 +7430,7 @@
       </c>
       <c r="S16" s="6">
         <f t="shared" ref="S16" si="64">Q16</f>
-        <v>-66.23</v>
+        <v>-66.313999999999993</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="31"/>
@@ -7459,22 +7438,22 @@
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4505.885263157892</v>
+        <v>4508.5785454545439</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" ref="X16:Y16" si="65">X15+X5</f>
-        <v>4515.685789473685</v>
+        <v>4517.6587272727256</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="65"/>
-        <v>6444.9547368421072</v>
+        <v>6447.9298181818203</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="16"/>
-        <v>45.098087719298164</v>
+        <v>45.14297575757567</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="17"/>
@@ -7482,11 +7461,11 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="18"/>
-        <v>45.261429824561333</v>
+        <v>45.294312121212165</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="19"/>
-        <v>-64.749245614035161</v>
+        <v>-64.798830303030329</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>24</v>
@@ -7523,14 +7502,14 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6621.6000000000013</v>
+        <v>6626.8363636363601</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="24"/>
-        <v>6621.6000000000013</v>
+        <v>6626.8363636363601</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="25"/>
@@ -7538,7 +7517,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="26"/>
-        <v>-66.36</v>
+        <v>-66.447272727272662</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="35"/>
@@ -7546,7 +7525,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="67">G17</f>
-        <v>-66.36</v>
+        <v>-66.447272727272662</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="28"/>
@@ -7557,14 +7536,14 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6614.4999999999982</v>
+        <v>6620.1000000000022</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="12"/>
-        <v>6614.4999999999982</v>
+        <v>6620.1000000000022</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="13"/>
@@ -7572,7 +7551,7 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="14"/>
-        <v>-66.24166666666666</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="29"/>
@@ -7580,7 +7559,7 @@
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="68">Q17</f>
-        <v>-66.24166666666666</v>
+        <v>-66.334999999999994</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="31"/>
@@ -7588,22 +7567,22 @@
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4506.2967368421023</v>
+        <v>4509.2892727272711</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17:Y17" si="69">X16+X5</f>
-        <v>4515.9872105263166</v>
+        <v>4518.1793636363618</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="69"/>
-        <v>6445.4092631578969</v>
+        <v>6448.7149090909115</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="16"/>
-        <v>45.104945614035003</v>
+        <v>45.154821212121163</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="17"/>
@@ -7611,11 +7590,11 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="18"/>
-        <v>45.266453508772003</v>
+        <v>45.302989393939335</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="19"/>
-        <v>-64.756821052631665</v>
+        <v>-64.811915151515166</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>25</v>
@@ -7655,14 +7634,14 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6622.4000000000015</v>
+        <v>6628.218181818178</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="24"/>
-        <v>6622.4000000000015</v>
+        <v>6628.218181818178</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="25"/>
@@ -7670,7 +7649,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="26"/>
-        <v>-66.373333333333335</v>
+        <v>-66.470303030303</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="35"/>
@@ -7678,7 +7657,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" ref="I18" si="70">G18</f>
-        <v>-66.373333333333335</v>
+        <v>-66.470303030303</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="28"/>
@@ -7689,14 +7668,14 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6615.199999999998</v>
+        <v>6621.3600000000024</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="12"/>
-        <v>6615.199999999998</v>
+        <v>6621.3600000000024</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="13"/>
@@ -7704,7 +7683,7 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="14"/>
-        <v>-66.25333333333333</v>
+        <v>-66.355999999999995</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="29"/>
@@ -7712,7 +7691,7 @@
       </c>
       <c r="S18" s="6">
         <f t="shared" ref="S18" si="71">Q18</f>
-        <v>-66.25333333333333</v>
+        <v>-66.355999999999995</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="31"/>
@@ -7720,22 +7699,22 @@
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4506.7082105263125</v>
+        <v>4509.9999999999982</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="9">
         <f t="shared" ref="X18:Y18" si="72">X17+X5</f>
-        <v>4516.2886315789483</v>
+        <v>4518.699999999998</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="72"/>
-        <v>6445.8637894736867</v>
+        <v>6449.5000000000027</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="16"/>
-        <v>45.111803508771835</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="17"/>
@@ -7743,11 +7722,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="18"/>
-        <v>45.271477192982502</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="19"/>
-        <v>-64.764396491228169</v>
+        <v>-64.825000000000003</v>
       </c>
       <c r="AE18" s="6" t="s">
         <v>27</v>
@@ -7775,14 +7754,14 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6623.2000000000016</v>
+        <v>6629.5999999999958</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="24"/>
-        <v>6623.2000000000016</v>
+        <v>6629.5999999999958</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="25"/>
@@ -7790,7 +7769,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="26"/>
-        <v>-66.38666666666667</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="35"/>
@@ -7798,7 +7777,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" ref="I19" si="73">G19</f>
-        <v>-66.38666666666667</v>
+        <v>-66.493333333333339</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="28"/>
@@ -7809,14 +7788,14 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6615.8999999999978</v>
+        <v>6622.6200000000026</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="12"/>
-        <v>6615.8999999999978</v>
+        <v>6622.6200000000026</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="13"/>
@@ -7824,7 +7803,7 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="14"/>
-        <v>-66.265000000000001</v>
+        <v>-66.376999999999995</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="29"/>
@@ -7832,7 +7811,7 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" ref="S19" si="74">Q19</f>
-        <v>-66.265000000000001</v>
+        <v>-66.376999999999995</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="31"/>
@@ -7840,22 +7819,22 @@
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4507.1196842105228</v>
+        <v>4510.7107272727253</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" ref="X19:Y19" si="75">X18+X5</f>
-        <v>4516.59005263158</v>
+        <v>4519.2206363636342</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="75"/>
-        <v>6446.3183157894764</v>
+        <v>6450.2850909090939</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="16"/>
-        <v>45.118661403508668</v>
+        <v>45.178512121212165</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="17"/>
@@ -7863,11 +7842,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="18"/>
-        <v>45.276500877193001</v>
+        <v>45.320343939393837</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="19"/>
-        <v>-64.771971929824673</v>
+        <v>-64.83808484848484</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7911,14 +7890,14 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6624.0000000000018</v>
+        <v>6630.9818181818137</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="24"/>
-        <v>6624.0000000000018</v>
+        <v>6630.9818181818137</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="25"/>
@@ -7926,7 +7905,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="26"/>
-        <v>-66.400000000000006</v>
+        <v>-66.516363636363494</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="35"/>
@@ -7934,7 +7913,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" ref="I20" si="77">G20</f>
-        <v>-66.400000000000006</v>
+        <v>-66.516363636363494</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="28"/>
@@ -7945,14 +7924,14 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6616.5999999999976</v>
+        <v>6623.8800000000028</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="12"/>
-        <v>6616.5999999999976</v>
+        <v>6623.8800000000028</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="13"/>
@@ -7960,7 +7939,7 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="14"/>
-        <v>-66.276666666666671</v>
+        <v>-66.397999999999996</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="29"/>
@@ -7968,7 +7947,7 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" ref="S20" si="78">Q20</f>
-        <v>-66.276666666666671</v>
+        <v>-66.397999999999996</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="31"/>
@@ -7976,22 +7955,22 @@
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4507.531157894733</v>
+        <v>4511.4214545454524</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" ref="X20:Y20" si="79">X19+X5</f>
-        <v>4516.8914736842116</v>
+        <v>4519.7412727272704</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="79"/>
-        <v>6446.7728421052661</v>
+        <v>6451.0701818181851</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="16"/>
-        <v>45.1255192982455</v>
+        <v>45.190357575757503</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="17"/>
@@ -7999,11 +7978,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="18"/>
-        <v>45.281524561403501</v>
+        <v>45.32902121212117</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="19"/>
-        <v>-64.779547368421163</v>
+        <v>-64.851169696969833</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -8047,14 +8026,14 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6624.800000000002</v>
+        <v>6632.3636363636315</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="24"/>
-        <v>6624.800000000002</v>
+        <v>6632.3636363636315</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="25"/>
@@ -8062,7 +8041,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="26"/>
-        <v>-66.413333333333327</v>
+        <v>-66.539393939393833</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="35"/>
@@ -8070,7 +8049,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" ref="I21" si="83">G21</f>
-        <v>-66.413333333333327</v>
+        <v>-66.539393939393833</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="28"/>
@@ -8081,14 +8060,14 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6617.2999999999975</v>
+        <v>6625.1400000000031</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="12"/>
-        <v>6617.2999999999975</v>
+        <v>6625.1400000000031</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="13"/>
@@ -8096,7 +8075,7 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="14"/>
-        <v>-66.288333333333327</v>
+        <v>-66.418999999999997</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="29"/>
@@ -8104,7 +8083,7 @@
       </c>
       <c r="S21" s="6">
         <f t="shared" ref="S21" si="84">Q21</f>
-        <v>-66.288333333333327</v>
+        <v>-66.418999999999997</v>
       </c>
       <c r="U21" s="6">
         <f t="shared" si="31"/>
@@ -8112,22 +8091,22 @@
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4507.9426315789433</v>
+        <v>4512.1321818181796</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" ref="X21:Y21" si="85">X20+X5</f>
-        <v>4517.1928947368433</v>
+        <v>4520.2619090909066</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="85"/>
-        <v>6447.2273684210559</v>
+        <v>6451.8552727272763</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="16"/>
-        <v>45.132377192982332</v>
+        <v>45.202203030302996</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="17"/>
@@ -8135,11 +8114,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="18"/>
-        <v>45.286548245614</v>
+        <v>45.337698484848502</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="19"/>
-        <v>-64.787122807017667</v>
+        <v>-64.864254545454671</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -8183,14 +8162,14 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6625.6000000000022</v>
+        <v>6633.7454545454493</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="24"/>
-        <v>6625.6000000000022</v>
+        <v>6633.7454545454493</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="25"/>
@@ -8198,7 +8177,7 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="26"/>
-        <v>-66.426666666666662</v>
+        <v>-66.562424242424171</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="35"/>
@@ -8206,7 +8185,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" ref="I22" si="86">G22</f>
-        <v>-66.426666666666662</v>
+        <v>-66.562424242424171</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="28"/>
@@ -8217,14 +8196,14 @@
       </c>
       <c r="M22" s="6">
         <f>M21+L5</f>
-        <v>6617.9999999999973</v>
+        <v>6626.4000000000033</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="12"/>
-        <v>6617.9999999999973</v>
+        <v>6626.4000000000033</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="13"/>
@@ -8232,7 +8211,7 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="14"/>
-        <v>-66.3</v>
+        <v>-66.44</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="29"/>
@@ -8240,7 +8219,7 @@
       </c>
       <c r="S22" s="6">
         <f t="shared" ref="S22" si="87">Q22</f>
-        <v>-66.3</v>
+        <v>-66.44</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="31"/>
@@ -8248,22 +8227,22 @@
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4508.3541052631535</v>
+        <v>4512.8429090909067</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" ref="X22:Y22" si="88">X21+X5</f>
-        <v>4517.494315789475</v>
+        <v>4520.7825454545427</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="88"/>
-        <v>6447.6818947368456</v>
+        <v>6452.6403636363675</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="16"/>
-        <v>45.139235087719165</v>
+        <v>45.214048484848497</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="17"/>
@@ -8271,11 +8250,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="18"/>
-        <v>45.291571929824499</v>
+        <v>45.346375757575665</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="19"/>
-        <v>-64.794698245614171</v>
+        <v>-64.877339393939494</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8319,14 +8298,14 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6626.4000000000024</v>
+        <v>6635.1272727272672</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="24"/>
-        <v>6626.4000000000024</v>
+        <v>6635.1272727272672</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="25"/>
@@ -8334,7 +8313,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="26"/>
-        <v>-66.44</v>
+        <v>-66.585454545454496</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="35"/>
@@ -8342,7 +8321,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" ref="I23" si="89">G23</f>
-        <v>-66.44</v>
+        <v>-66.585454545454496</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="28"/>
@@ -8353,14 +8332,14 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6618.6999999999971</v>
+        <v>6627.6600000000035</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="12"/>
-        <v>6618.6999999999971</v>
+        <v>6627.6600000000035</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="13"/>
@@ -8368,7 +8347,7 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="14"/>
-        <v>-66.311666666666667</v>
+        <v>-66.460999999999999</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="29"/>
@@ -8376,7 +8355,7 @@
       </c>
       <c r="S23" s="6">
         <f t="shared" ref="S23" si="90">Q23</f>
-        <v>-66.311666666666667</v>
+        <v>-66.460999999999999</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="31"/>
@@ -8384,22 +8363,22 @@
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4508.7655789473638</v>
+        <v>4513.5536363636338</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" ref="X23:Y23" si="91">X22+X5</f>
-        <v>4517.7957368421066</v>
+        <v>4521.3031818181789</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="91"/>
-        <v>6448.1364210526353</v>
+        <v>6453.4254545454587</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="16"/>
-        <v>45.146092982455997</v>
+        <v>45.225893939393835</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="17"/>
@@ -8407,11 +8386,11 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="18"/>
-        <v>45.296595614035169</v>
+        <v>45.355053030302997</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="19"/>
-        <v>-64.802273684210661</v>
+        <v>-64.890424242424331</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>28</v>
@@ -8451,14 +8430,14 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6627.2000000000025</v>
+        <v>6636.509090909085</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="24"/>
-        <v>6627.2000000000025</v>
+        <v>6636.509090909085</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="25"/>
@@ -8466,7 +8445,7 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="26"/>
-        <v>-66.453333333333333</v>
+        <v>-66.608484848484665</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="35"/>
@@ -8474,7 +8453,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" ref="I24" si="92">G24</f>
-        <v>-66.453333333333333</v>
+        <v>-66.608484848484665</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="28"/>
@@ -8485,14 +8464,14 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6619.3999999999969</v>
+        <v>6628.9200000000037</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="12"/>
-        <v>6619.3999999999969</v>
+        <v>6628.9200000000037</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="13"/>
@@ -8500,7 +8479,7 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="14"/>
-        <v>-66.323333333333338</v>
+        <v>-66.481999999999999</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="29"/>
@@ -8508,7 +8487,7 @@
       </c>
       <c r="S24" s="6">
         <f t="shared" ref="S24" si="93">Q24</f>
-        <v>-66.323333333333338</v>
+        <v>-66.481999999999999</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="31"/>
@@ -8516,22 +8495,22 @@
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4509.177052631574</v>
+        <v>4514.2643636363609</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" ref="X24:Y24" si="94">X23+X5</f>
-        <v>4518.0971578947383</v>
+        <v>4521.8238181818151</v>
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="94"/>
-        <v>6448.5909473684251</v>
+        <v>6454.2105454545499</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="16"/>
-        <v>45.152950877192836</v>
+        <v>45.237739393939336</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="17"/>
@@ -8539,11 +8518,11 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="18"/>
-        <v>45.301619298245669</v>
+        <v>45.36373030303033</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="19"/>
-        <v>-64.809849122807165</v>
+        <v>-64.903509090909168</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8556,14 +8535,14 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6628.0000000000027</v>
+        <v>6637.8909090909028</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="24"/>
-        <v>6628.0000000000027</v>
+        <v>6637.8909090909028</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="25"/>
@@ -8571,7 +8550,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="26"/>
-        <v>-66.466666666666669</v>
+        <v>-66.631515151515003</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="35"/>
@@ -8579,7 +8558,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" ref="I25" si="95">G25</f>
-        <v>-66.466666666666669</v>
+        <v>-66.631515151515003</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="28"/>
@@ -8590,14 +8569,14 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6620.0999999999967</v>
+        <v>6630.1800000000039</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="12"/>
-        <v>6620.0999999999967</v>
+        <v>6630.1800000000039</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="13"/>
@@ -8605,7 +8584,7 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="14"/>
-        <v>-66.334999999999994</v>
+        <v>-66.503</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="29"/>
@@ -8613,7 +8592,7 @@
       </c>
       <c r="S25" s="6">
         <f t="shared" ref="S25" si="96">Q25</f>
-        <v>-66.334999999999994</v>
+        <v>-66.503</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>28</v>
@@ -8657,14 +8636,14 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6628.8000000000029</v>
+        <v>6639.2727272727207</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="24"/>
-        <v>6628.8000000000029</v>
+        <v>6639.2727272727207</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="25"/>
@@ -8672,7 +8651,7 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="26"/>
-        <v>-66.48</v>
+        <v>-66.654545454545328</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="35"/>
@@ -8680,7 +8659,7 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" ref="I26" si="97">G26</f>
-        <v>-66.48</v>
+        <v>-66.654545454545328</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="28"/>
@@ -8691,14 +8670,14 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6620.7999999999965</v>
+        <v>6631.4400000000041</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="12"/>
-        <v>6620.7999999999965</v>
+        <v>6631.4400000000041</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="13"/>
@@ -8706,7 +8685,7 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="14"/>
-        <v>-66.346666666666664</v>
+        <v>-66.524000000000001</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="29"/>
@@ -8714,7 +8693,7 @@
       </c>
       <c r="S26" s="6">
         <f t="shared" ref="S26" si="98">Q26</f>
-        <v>-66.346666666666664</v>
+        <v>-66.524000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8727,14 +8706,14 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6629.6000000000031</v>
+        <v>6640.6545454545385</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="24"/>
-        <v>6629.6000000000031</v>
+        <v>6640.6545454545385</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="25"/>
@@ -8742,7 +8721,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="26"/>
-        <v>-66.493333333333339</v>
+        <v>-66.677575757575667</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="35"/>
@@ -8750,7 +8729,7 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" ref="I27" si="99">G27</f>
-        <v>-66.493333333333339</v>
+        <v>-66.677575757575667</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="28"/>
@@ -8761,14 +8740,14 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6621.4999999999964</v>
+        <v>6632.7000000000044</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="12"/>
-        <v>6621.4999999999964</v>
+        <v>6632.7000000000044</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="13"/>
@@ -8776,7 +8755,7 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="14"/>
-        <v>-66.358333333333334</v>
+        <v>-66.545000000000002</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="29"/>
@@ -8784,7 +8763,7 @@
       </c>
       <c r="S27" s="6">
         <f t="shared" ref="S27" si="100">Q27</f>
-        <v>-66.358333333333334</v>
+        <v>-66.545000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8797,14 +8776,14 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6630.4000000000033</v>
+        <v>6642.0363636363563</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="24"/>
-        <v>6630.4000000000033</v>
+        <v>6642.0363636363563</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="25"/>
@@ -8812,7 +8791,7 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="26"/>
-        <v>-66.506666666666661</v>
+        <v>-66.700606060606006</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="35"/>
@@ -8820,7 +8799,7 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" ref="I28" si="101">G28</f>
-        <v>-66.506666666666661</v>
+        <v>-66.700606060606006</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="28"/>
@@ -8831,14 +8810,14 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6622.1999999999962</v>
+        <v>6633.9600000000046</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="12"/>
-        <v>6622.1999999999962</v>
+        <v>6633.9600000000046</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="13"/>
@@ -8846,7 +8825,7 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="14"/>
-        <v>-66.37</v>
+        <v>-66.566000000000003</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="29"/>
@@ -8854,7 +8833,7 @@
       </c>
       <c r="S28" s="6">
         <f t="shared" ref="S28" si="102">Q28</f>
-        <v>-66.37</v>
+        <v>-66.566000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8867,14 +8846,14 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6631.2000000000035</v>
+        <v>6643.4181818181742</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="24"/>
-        <v>6631.2000000000035</v>
+        <v>6643.4181818181742</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="25"/>
@@ -8882,7 +8861,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="26"/>
-        <v>-66.52</v>
+        <v>-66.72363636363616</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="35"/>
@@ -8890,7 +8869,7 @@
       </c>
       <c r="I29" s="6">
         <f t="shared" ref="I29" si="103">G29</f>
-        <v>-66.52</v>
+        <v>-66.72363636363616</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="28"/>
@@ -8901,14 +8880,14 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6622.899999999996</v>
+        <v>6635.2200000000048</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="12"/>
-        <v>6622.899999999996</v>
+        <v>6635.2200000000048</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="13"/>
@@ -8916,7 +8895,7 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="14"/>
-        <v>-66.381666666666661</v>
+        <v>-66.587000000000003</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="29"/>
@@ -8924,7 +8903,7 @@
       </c>
       <c r="S29" s="6">
         <f t="shared" ref="S29" si="104">Q29</f>
-        <v>-66.381666666666661</v>
+        <v>-66.587000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8937,14 +8916,14 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6632.0000000000036</v>
+        <v>6644.799999999992</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="24"/>
-        <v>6632.0000000000036</v>
+        <v>6644.799999999992</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="25"/>
@@ -8952,7 +8931,7 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="26"/>
-        <v>-66.533333333333331</v>
+        <v>-66.746666666666499</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="35"/>
@@ -8960,7 +8939,7 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" ref="I30" si="105">G30</f>
-        <v>-66.533333333333331</v>
+        <v>-66.746666666666499</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="28"/>
@@ -8971,14 +8950,14 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6623.5999999999958</v>
+        <v>6636.480000000005</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="12"/>
-        <v>6623.5999999999958</v>
+        <v>6636.480000000005</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="13"/>
@@ -8986,7 +8965,7 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="14"/>
-        <v>-66.393333333333331</v>
+        <v>-66.60800000000016</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="29"/>
@@ -8994,7 +8973,7 @@
       </c>
       <c r="S30" s="6">
         <f t="shared" ref="S30" si="106">Q30</f>
-        <v>-66.393333333333331</v>
+        <v>-66.60800000000016</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9007,14 +8986,14 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6632.8000000000038</v>
+        <v>6646.1818181818098</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="24"/>
-        <v>6632.8000000000038</v>
+        <v>6646.1818181818098</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="25"/>
@@ -9022,7 +9001,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="26"/>
-        <v>-66.546666666666667</v>
+        <v>-66.769696969696838</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="35"/>
@@ -9030,7 +9009,7 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" ref="I31" si="107">G31</f>
-        <v>-66.546666666666667</v>
+        <v>-66.769696969696838</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>30</v>

--- a/Surveys/Survey Lines/Survey Lines.xlsx
+++ b/Surveys/Survey Lines/Survey Lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Surveys\Survey Lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6674F02-7469-49C0-A98C-309CEB50F8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080CEA8-87FC-49A6-A6B3-CA8C56A4D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27780" yWindow="-9460" windowWidth="28800" windowHeight="15450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>Both</t>
   </si>
   <si>
-    <t>German Bank</t>
-  </si>
-  <si>
     <t>V1</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>V6</t>
+  </si>
+  <si>
+    <t>Scots Bay</t>
   </si>
 </sst>
 </file>
@@ -348,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -372,8 +372,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +590,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:O16"/>
+      <selection activeCell="M26" sqref="M26:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>34</v>
@@ -804,7 +802,7 @@
       </c>
       <c r="B9" s="13" t="str">
         <f>IF(B2="German Bank", "German Bank Box", IF(B2="Scots Bay", "Main Survey Box",""))</f>
-        <v>German Bank Box</v>
+        <v>Main Survey Box</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>36</v>
@@ -819,7 +817,7 @@
       <c r="I9" s="11"/>
       <c r="L9" s="1" t="str">
         <f>IF(B2="German Bank", "Seal Island Box", IF(B3="North", "North Box", IF(B3="East", "East Box", IF(B3="Both", "East Box",""))))</f>
-        <v>Seal Island Box</v>
+        <v>East Box</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>36</v>
@@ -863,31 +861,31 @@
       </c>
       <c r="L10" s="6" t="str">
         <f t="array" ref="L10:T34">IF(B2="German Bank",'Back End'!L6:S30, IF(B3="North", 'Back End'!AF18:AM22, IF(B3="East", 'Back End'!AF6:AM10,IF(B3="Both", 'Back End'!AE6:AM22,""))))</f>
+        <v>LINE #</v>
+      </c>
+      <c r="M10" s="6" t="str">
         <v>START POINT</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6" t="str">
+      <c r="O10" s="6" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="6" t="str">
+      <c r="Q10" s="6" t="str">
         <v>START POINT</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>0</v>
       </c>
-      <c r="R10" s="6" t="str">
+      <c r="S10" s="6" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="S10" s="6">
+      <c r="T10">
         <v>0</v>
-      </c>
-      <c r="T10" t="e">
-        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -895,55 +893,55 @@
         <v>1</v>
       </c>
       <c r="B11" s="16">
-        <v>4334</v>
+        <v>4502.1819999999998</v>
       </c>
       <c r="C11" s="16">
-        <v>6614.4</v>
+        <v>6514</v>
       </c>
       <c r="D11" s="16">
-        <v>4314</v>
+        <v>4512.973</v>
       </c>
       <c r="E11" s="16">
-        <v>6614.4</v>
+        <v>6440.8639999999996</v>
       </c>
       <c r="F11" s="12">
-        <v>43.56666666666667</v>
+        <v>45.036366666666666</v>
       </c>
       <c r="G11" s="12">
-        <v>-66.239999999999995</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H11" s="12">
-        <v>43.233333333333334</v>
+        <v>45.216216666666668</v>
       </c>
       <c r="I11" s="12">
-        <v>-66.239999999999995</v>
+        <v>-64.681066666666666</v>
       </c>
       <c r="L11" s="6">
-        <v>4330.12</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6">
-        <v>6607.5</v>
+        <v>4513.4750000000004</v>
       </c>
       <c r="N11" s="6">
-        <v>4314.8500000000004</v>
+        <v>6441.48</v>
       </c>
       <c r="O11" s="6">
-        <v>6607.5</v>
+        <v>4515.8249999999998</v>
       </c>
       <c r="P11" s="6">
-        <v>43.502000000000002</v>
+        <v>6433</v>
       </c>
       <c r="Q11" s="6">
-        <v>-66.125</v>
+        <v>45.224583333333335</v>
       </c>
       <c r="R11" s="6">
-        <v>43.247500000000002</v>
+        <v>-64.691333333333333</v>
       </c>
       <c r="S11" s="6">
-        <v>-66.125</v>
-      </c>
-      <c r="T11" t="e">
-        <v>#N/A</v>
+        <v>45.263750000000002</v>
+      </c>
+      <c r="T11">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -951,55 +949,55 @@
         <v>2</v>
       </c>
       <c r="B12" s="16">
-        <v>4334</v>
+        <v>4502.8927272727269</v>
       </c>
       <c r="C12" s="16">
-        <v>6615.7818181818175</v>
+        <v>6514</v>
       </c>
       <c r="D12" s="16">
-        <v>4314</v>
+        <v>4513.4936363636361</v>
       </c>
       <c r="E12" s="16">
-        <v>6615.7818181818175</v>
+        <v>6441.6490909090908</v>
       </c>
       <c r="F12" s="12">
-        <v>43.56666666666667</v>
+        <v>45.048212121212167</v>
       </c>
       <c r="G12" s="12">
-        <v>-66.263030303030334</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H12" s="12">
-        <v>43.233333333333334</v>
+        <v>45.224893939394001</v>
       </c>
       <c r="I12" s="12">
-        <v>-66.263030303030334</v>
+        <v>-64.694151515151503</v>
       </c>
       <c r="L12" s="6">
-        <v>4330.12</v>
+        <v>2</v>
       </c>
       <c r="M12" s="6">
-        <v>6608.76</v>
+        <v>4514.3566666666666</v>
       </c>
       <c r="N12" s="6">
-        <v>4314.8500000000004</v>
+        <v>6442.7966666666662</v>
       </c>
       <c r="O12" s="6">
-        <v>6608.76</v>
+        <v>4517.1166666666668</v>
       </c>
       <c r="P12" s="6">
-        <v>43.502000000000002</v>
+        <v>6433</v>
       </c>
       <c r="Q12" s="6">
-        <v>-66.146000000000001</v>
+        <v>45.239277777777836</v>
       </c>
       <c r="R12" s="6">
-        <v>43.247500000000002</v>
+        <v>-64.713277777777833</v>
       </c>
       <c r="S12" s="6">
-        <v>-66.146000000000001</v>
-      </c>
-      <c r="T12" t="e">
-        <v>#N/A</v>
+        <v>45.285277777777836</v>
+      </c>
+      <c r="T12">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1007,55 +1005,55 @@
         <v>3</v>
       </c>
       <c r="B13" s="16">
-        <v>4334</v>
+        <v>4503.603454545454</v>
       </c>
       <c r="C13" s="16">
-        <v>6617.1636363636353</v>
+        <v>6514</v>
       </c>
       <c r="D13" s="16">
-        <v>4314</v>
+        <v>4514.0142727272723</v>
       </c>
       <c r="E13" s="16">
-        <v>6617.1636363636353</v>
+        <v>6442.434181818182</v>
       </c>
       <c r="F13" s="12">
-        <v>43.56666666666667</v>
+        <v>45.060057575757497</v>
       </c>
       <c r="G13" s="12">
-        <v>-66.286060606060673</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H13" s="12">
-        <v>43.233333333333334</v>
+        <v>45.23357121212117</v>
       </c>
       <c r="I13" s="12">
-        <v>-66.286060606060673</v>
+        <v>-64.707236363636326</v>
       </c>
       <c r="L13" s="6">
-        <v>4330.12</v>
+        <v>3</v>
       </c>
       <c r="M13" s="6">
-        <v>6610.02</v>
+        <v>4515.2383333333328</v>
       </c>
       <c r="N13" s="6">
-        <v>4314.8500000000004</v>
+        <v>6444.1133333333328</v>
       </c>
       <c r="O13" s="6">
-        <v>6610.02</v>
+        <v>4518.4083333333338</v>
       </c>
       <c r="P13" s="6">
-        <v>43.502000000000002</v>
+        <v>6433</v>
       </c>
       <c r="Q13" s="6">
-        <v>-66.167000000000002</v>
+        <v>45.253972222222167</v>
       </c>
       <c r="R13" s="6">
-        <v>43.247500000000002</v>
+        <v>-64.735222222222163</v>
       </c>
       <c r="S13" s="6">
-        <v>-66.167000000000002</v>
-      </c>
-      <c r="T13" t="e">
-        <v>#N/A</v>
+        <v>45.306805555555499</v>
+      </c>
+      <c r="T13">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1063,55 +1061,55 @@
         <v>4</v>
       </c>
       <c r="B14" s="16">
-        <v>4334</v>
+        <v>4504.3141818181812</v>
       </c>
       <c r="C14" s="16">
-        <v>6618.5454545454531</v>
+        <v>6514</v>
       </c>
       <c r="D14" s="16">
-        <v>4314</v>
+        <v>4514.5349090909085</v>
       </c>
       <c r="E14" s="16">
-        <v>6618.5454545454531</v>
+        <v>6443.2192727272732</v>
       </c>
       <c r="F14" s="12">
-        <v>43.56666666666667</v>
+        <v>45.071903030302998</v>
       </c>
       <c r="G14" s="12">
-        <v>-66.309090909090827</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H14" s="12">
-        <v>43.233333333333334</v>
+        <v>45.242248484848503</v>
       </c>
       <c r="I14" s="12">
-        <v>-66.309090909090827</v>
+        <v>-64.720321212121164</v>
       </c>
       <c r="L14" s="6">
-        <v>4330.12</v>
+        <v>4</v>
       </c>
       <c r="M14" s="6">
-        <v>6611.2800000000007</v>
+        <v>4516.119999999999</v>
       </c>
       <c r="N14" s="6">
-        <v>4314.8500000000004</v>
+        <v>6445.4299999999994</v>
       </c>
       <c r="O14" s="6">
-        <v>6611.2800000000007</v>
+        <v>4519.7000000000007</v>
       </c>
       <c r="P14" s="6">
-        <v>43.502000000000002</v>
+        <v>6433</v>
       </c>
       <c r="Q14" s="6">
-        <v>-66.188000000000002</v>
+        <v>45.268666666666668</v>
       </c>
       <c r="R14" s="6">
-        <v>43.247500000000002</v>
+        <v>-64.757166666666663</v>
       </c>
       <c r="S14" s="6">
-        <v>-66.188000000000002</v>
-      </c>
-      <c r="T14" t="e">
-        <v>#N/A</v>
+        <v>45.328333333333333</v>
+      </c>
+      <c r="T14">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1119,55 +1117,55 @@
         <v>5</v>
       </c>
       <c r="B15" s="16">
-        <v>4334</v>
+        <v>4505.0249090909083</v>
       </c>
       <c r="C15" s="16">
-        <v>6619.927272727271</v>
+        <v>6514</v>
       </c>
       <c r="D15" s="16">
-        <v>4314</v>
+        <v>4515.0555454545447</v>
       </c>
       <c r="E15" s="16">
-        <v>6619.927272727271</v>
+        <v>6444.0043636363644</v>
       </c>
       <c r="F15" s="12">
-        <v>43.56666666666667</v>
+        <v>45.083748484848499</v>
       </c>
       <c r="G15" s="12">
-        <v>-66.332121212121166</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H15" s="12">
-        <v>43.233333333333334</v>
+        <v>45.250925757575665</v>
       </c>
       <c r="I15" s="12">
-        <v>-66.332121212121166</v>
-      </c>
-      <c r="L15" s="6">
-        <v>4330.12</v>
+        <v>-64.733406060606001</v>
+      </c>
+      <c r="L15" s="6" t="str">
+        <v>BOTTOM</v>
       </c>
       <c r="M15" s="6">
-        <v>6612.5400000000009</v>
+        <v>4513.4750000000004</v>
       </c>
       <c r="N15" s="6">
-        <v>4314.8500000000004</v>
+        <v>6441.48</v>
       </c>
       <c r="O15" s="6">
-        <v>6612.5400000000009</v>
+        <v>4515.8249999999998</v>
       </c>
       <c r="P15" s="6">
-        <v>43.502000000000002</v>
+        <v>6433</v>
       </c>
       <c r="Q15" s="6">
-        <v>-66.209000000000003</v>
+        <v>45.224583333333335</v>
       </c>
       <c r="R15" s="6">
-        <v>43.247500000000002</v>
+        <v>-64.691333333333333</v>
       </c>
       <c r="S15" s="6">
-        <v>-66.209000000000003</v>
-      </c>
-      <c r="T15" t="e">
-        <v>#N/A</v>
+        <v>45.263750000000002</v>
+      </c>
+      <c r="T15">
+        <v>-64.55</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1175,55 +1173,55 @@
         <v>6</v>
       </c>
       <c r="B16" s="16">
-        <v>4334</v>
+        <v>4505.7356363636354</v>
       </c>
       <c r="C16" s="16">
-        <v>6621.3090909090888</v>
+        <v>6514</v>
       </c>
       <c r="D16" s="16">
-        <v>4314</v>
+        <v>4515.5761818181809</v>
       </c>
       <c r="E16" s="16">
-        <v>6621.3090909090888</v>
+        <v>6444.7894545454556</v>
       </c>
       <c r="F16" s="12">
-        <v>43.56666666666667</v>
+        <v>45.095593939394</v>
       </c>
       <c r="G16" s="12">
-        <v>-66.355151515151505</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H16" s="12">
-        <v>43.233333333333334</v>
+        <v>45.259603030302998</v>
       </c>
       <c r="I16" s="12">
-        <v>-66.355151515151505</v>
+        <v>-64.746490909090994</v>
       </c>
       <c r="L16" s="6">
-        <v>4330.12</v>
+        <v>0</v>
       </c>
       <c r="M16" s="6">
-        <v>6613.8000000000011</v>
+        <v>0</v>
       </c>
       <c r="N16" s="6">
-        <v>4314.8500000000004</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6">
-        <v>6613.8000000000011</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>43.502000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="6">
-        <v>-66.23</v>
+        <v>0</v>
       </c>
       <c r="R16" s="6">
-        <v>43.247500000000002</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6">
-        <v>-66.23</v>
-      </c>
-      <c r="T16" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1231,56 +1229,56 @@
         <v>7</v>
       </c>
       <c r="B17" s="16">
-        <v>4334</v>
+        <v>4506.4463636363625</v>
       </c>
       <c r="C17" s="16">
-        <v>6622.6909090909066</v>
+        <v>6514</v>
       </c>
       <c r="D17" s="16">
-        <v>4314</v>
+        <v>4516.0968181818171</v>
       </c>
       <c r="E17" s="16">
-        <v>6622.6909090909066</v>
+        <v>6445.5745454545468</v>
       </c>
       <c r="F17" s="12">
-        <v>43.56666666666667</v>
+        <v>45.10743939393933</v>
       </c>
       <c r="G17" s="12">
-        <v>-66.378181818181829</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H17" s="12">
-        <v>43.233333333333334</v>
+        <v>45.26828030303033</v>
       </c>
       <c r="I17" s="12">
-        <v>-66.378181818181829</v>
+        <v>-64.759575757575831</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="6">
-        <v>4330.12</v>
+      <c r="L17" s="6" t="str">
+        <v>NORTH BOX</v>
       </c>
       <c r="M17" s="6">
-        <v>6615.0600000000013</v>
+        <v>0</v>
       </c>
       <c r="N17" s="6">
-        <v>4314.8500000000004</v>
+        <v>0</v>
       </c>
       <c r="O17" s="6">
-        <v>6615.0600000000013</v>
+        <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>43.502000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="6">
-        <v>-66.251000000000005</v>
+        <v>0</v>
       </c>
       <c r="R17" s="6">
-        <v>43.247500000000002</v>
+        <v>0</v>
       </c>
       <c r="S17" s="6">
-        <v>-66.251000000000005</v>
-      </c>
-      <c r="T17" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1288,56 +1286,56 @@
         <v>8</v>
       </c>
       <c r="B18" s="16">
-        <v>4334</v>
+        <v>4507.1570909090897</v>
       </c>
       <c r="C18" s="16">
-        <v>6624.0727272727245</v>
+        <v>6514</v>
       </c>
       <c r="D18" s="16">
-        <v>4314</v>
+        <v>4516.6174545454533</v>
       </c>
       <c r="E18" s="16">
-        <v>6624.0727272727245</v>
+        <v>6446.3596363636379</v>
       </c>
       <c r="F18" s="12">
-        <v>43.56666666666667</v>
+        <v>45.119284848484831</v>
       </c>
       <c r="G18" s="12">
-        <v>-66.401212121211998</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H18" s="12">
-        <v>43.233333333333334</v>
+        <v>45.2769575757575</v>
       </c>
       <c r="I18" s="12">
-        <v>-66.401212121211998</v>
+        <v>-64.772660606060668</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6">
-        <v>4330.12</v>
+      <c r="L18" s="6" t="str">
+        <v>TOP</v>
       </c>
       <c r="M18" s="6">
-        <v>6616.3200000000015</v>
+        <v>4517.2759939999996</v>
       </c>
       <c r="N18" s="6">
-        <v>4314.8500000000004</v>
+        <v>6503.107994</v>
       </c>
       <c r="O18" s="6">
-        <v>6616.3200000000015</v>
+        <v>4520.348</v>
       </c>
       <c r="P18" s="6">
-        <v>43.502000000000002</v>
+        <v>6452.4799940000003</v>
       </c>
       <c r="Q18" s="6">
-        <v>-66.272000000000006</v>
+        <v>45.290999999999997</v>
       </c>
       <c r="R18" s="6">
-        <v>43.247500000000002</v>
+        <v>-65.052999999999997</v>
       </c>
       <c r="S18" s="6">
-        <v>-66.272000000000006</v>
-      </c>
-      <c r="T18" t="e">
-        <v>#N/A</v>
+        <v>45.343000000000004</v>
+      </c>
+      <c r="T18">
+        <v>-64.88</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1345,55 +1343,55 @@
         <v>9</v>
       </c>
       <c r="B19" s="16">
-        <v>4334</v>
+        <v>4507.8678181818168</v>
       </c>
       <c r="C19" s="16">
-        <v>6625.4545454545423</v>
+        <v>6514</v>
       </c>
       <c r="D19" s="16">
-        <v>4314</v>
+        <v>4517.1380909090894</v>
       </c>
       <c r="E19" s="16">
-        <v>6625.4545454545423</v>
+        <v>6447.1447272727291</v>
       </c>
       <c r="F19" s="12">
-        <v>43.56666666666667</v>
+        <v>45.131130303030332</v>
       </c>
       <c r="G19" s="12">
-        <v>-66.424242424242337</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H19" s="12">
-        <v>43.233333333333334</v>
+        <v>45.285634848484833</v>
       </c>
       <c r="I19" s="12">
-        <v>-66.424242424242337</v>
-      </c>
-      <c r="L19" s="6">
-        <v>4330.12</v>
+        <v>-64.785745454545506</v>
+      </c>
+      <c r="L19" s="6" t="str">
+        <v>BOATS</v>
       </c>
       <c r="M19" s="6">
-        <v>6617.5800000000017</v>
+        <v>1</v>
       </c>
       <c r="N19" s="6">
-        <v>4314.8500000000004</v>
+        <v>0</v>
       </c>
       <c r="O19" s="6">
-        <v>6617.5800000000017</v>
+        <v>1</v>
       </c>
       <c r="P19" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>-66.293000000000006</v>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6" t="str">
+        <v>Converted</v>
       </c>
       <c r="R19" s="6">
-        <v>43.247500000000002</v>
+        <v>0</v>
       </c>
       <c r="S19" s="6">
-        <v>-66.293000000000006</v>
-      </c>
-      <c r="T19" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1401,55 +1399,55 @@
         <v>10</v>
       </c>
       <c r="B20" s="16">
-        <v>4334</v>
+        <v>4508.5785454545439</v>
       </c>
       <c r="C20" s="16">
-        <v>6626.8363636363601</v>
+        <v>6514</v>
       </c>
       <c r="D20" s="16">
-        <v>4314</v>
+        <v>4517.6587272727256</v>
       </c>
       <c r="E20" s="16">
-        <v>6626.8363636363601</v>
+        <v>6447.9298181818203</v>
       </c>
       <c r="F20" s="12">
-        <v>43.56666666666667</v>
+        <v>45.14297575757567</v>
       </c>
       <c r="G20" s="12">
-        <v>-66.447272727272662</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H20" s="12">
-        <v>43.233333333333334</v>
+        <v>45.294312121212165</v>
       </c>
       <c r="I20" s="12">
-        <v>-66.447272727272662</v>
-      </c>
-      <c r="L20" s="6">
-        <v>4330.12</v>
+        <v>-64.798830303030329</v>
+      </c>
+      <c r="L20" s="6" t="str">
+        <v>LINES</v>
       </c>
       <c r="M20" s="6">
-        <v>6618.840000000002</v>
+        <v>4</v>
       </c>
       <c r="N20" s="6">
-        <v>4314.8500000000004</v>
+        <v>0</v>
       </c>
       <c r="O20" s="6">
-        <v>6618.840000000002</v>
+        <v>4</v>
       </c>
       <c r="P20" s="6">
-        <v>43.502000000000002</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="6">
-        <v>-66.313999999999993</v>
+        <v>4</v>
       </c>
       <c r="R20" s="6">
-        <v>43.247500000000002</v>
+        <v>0</v>
       </c>
       <c r="S20" s="6">
-        <v>-66.313999999999993</v>
-      </c>
-      <c r="T20" t="e">
-        <v>#N/A</v>
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,55 +1455,55 @@
         <v>11</v>
       </c>
       <c r="B21" s="16">
-        <v>4334</v>
+        <v>4509.2892727272711</v>
       </c>
       <c r="C21" s="16">
-        <v>6628.218181818178</v>
+        <v>6514</v>
       </c>
       <c r="D21" s="16">
-        <v>4314</v>
+        <v>4518.1793636363618</v>
       </c>
       <c r="E21" s="16">
-        <v>6628.218181818178</v>
+        <v>6448.7149090909115</v>
       </c>
       <c r="F21" s="12">
-        <v>43.56666666666667</v>
+        <v>45.154821212121163</v>
       </c>
       <c r="G21" s="12">
-        <v>-66.470303030303</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H21" s="12">
-        <v>43.233333333333334</v>
+        <v>45.302989393939335</v>
       </c>
       <c r="I21" s="12">
-        <v>-66.470303030303</v>
-      </c>
-      <c r="L21" s="6">
-        <v>4330.12</v>
+        <v>-64.811915151515166</v>
+      </c>
+      <c r="L21" s="6" t="str">
+        <v>SPACING</v>
       </c>
       <c r="M21" s="6">
-        <v>6620.1000000000022</v>
+        <v>0.95199999999992235</v>
       </c>
       <c r="N21" s="6">
-        <v>4314.8500000000004</v>
+        <v>0</v>
       </c>
       <c r="O21" s="6">
-        <v>6620.1000000000022</v>
+        <v>0.60266866666673502</v>
       </c>
       <c r="P21" s="6">
-        <v>43.502000000000002</v>
+        <v>1.023997999999968</v>
       </c>
       <c r="Q21" s="6">
-        <v>-66.334999999999994</v>
+        <v>1.5333333333333124E-2</v>
       </c>
       <c r="R21" s="6">
-        <v>43.247500000000002</v>
+        <v>0</v>
       </c>
       <c r="S21" s="6">
-        <v>-66.334999999999994</v>
-      </c>
-      <c r="T21" t="e">
-        <v>#N/A</v>
+        <v>9.3333333333352666E-3</v>
+      </c>
+      <c r="T21">
+        <v>-1.7333333333330831E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1513,55 +1511,55 @@
         <v>12</v>
       </c>
       <c r="B22" s="16">
-        <v>4334</v>
+        <v>4509.9999999999982</v>
       </c>
       <c r="C22" s="16">
-        <v>6629.5999999999958</v>
+        <v>6514</v>
       </c>
       <c r="D22" s="16">
-        <v>4314</v>
+        <v>4518.699999999998</v>
       </c>
       <c r="E22" s="16">
-        <v>6629.5999999999958</v>
+        <v>6449.5000000000027</v>
       </c>
       <c r="F22" s="12">
-        <v>43.56666666666667</v>
+        <v>45.166666666666664</v>
       </c>
       <c r="G22" s="12">
-        <v>-66.493333333333339</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H22" s="12">
-        <v>43.233333333333334</v>
+        <v>45.311666666666667</v>
       </c>
       <c r="I22" s="12">
-        <v>-66.493333333333339</v>
-      </c>
-      <c r="L22" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="M22" s="6">
-        <v>6621.3600000000024</v>
+        <v>-64.825000000000003</v>
+      </c>
+      <c r="L22" s="6" t="str">
+        <v>LINE #</v>
+      </c>
+      <c r="M22" s="6" t="str">
+        <v>START POINT</v>
       </c>
       <c r="N22" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="O22" s="6">
-        <v>6621.3600000000024</v>
+        <v>0</v>
+      </c>
+      <c r="O22" s="6" t="str">
+        <v>TURN POINT</v>
       </c>
       <c r="P22" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>-66.355999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6" t="str">
+        <v>START POINT</v>
       </c>
       <c r="R22" s="6">
-        <v>43.247500000000002</v>
-      </c>
-      <c r="S22" s="6">
-        <v>-66.355999999999995</v>
-      </c>
-      <c r="T22" t="e">
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="S22" s="6" t="str">
+        <v>TURN POINT</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,55 +1567,55 @@
         <v>13</v>
       </c>
       <c r="B23" s="16">
-        <v>4334</v>
+        <v>4510.7107272727253</v>
       </c>
       <c r="C23" s="16">
-        <v>6630.9818181818137</v>
+        <v>6514</v>
       </c>
       <c r="D23" s="16">
-        <v>4314</v>
+        <v>4519.2206363636342</v>
       </c>
       <c r="E23" s="16">
-        <v>6630.9818181818137</v>
+        <v>6450.2850909090939</v>
       </c>
       <c r="F23" s="12">
-        <v>43.56666666666667</v>
+        <v>45.178512121212165</v>
       </c>
       <c r="G23" s="12">
-        <v>-66.516363636363494</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H23" s="12">
-        <v>43.233333333333334</v>
+        <v>45.320343939393837</v>
       </c>
       <c r="I23" s="12">
-        <v>-66.516363636363494</v>
+        <v>-64.83808484848484</v>
       </c>
       <c r="L23" s="6">
-        <v>4330.12</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6">
-        <v>6622.6200000000026</v>
+        <v>4515</v>
       </c>
       <c r="N23" s="6">
-        <v>4314.8500000000004</v>
+        <v>6503</v>
       </c>
       <c r="O23" s="6">
-        <v>6622.6200000000026</v>
+        <v>4519</v>
       </c>
       <c r="P23" s="6">
-        <v>43.502000000000002</v>
+        <v>6450</v>
       </c>
       <c r="Q23" s="6">
-        <v>-66.376999999999995</v>
+        <v>45.25</v>
       </c>
       <c r="R23" s="6">
-        <v>43.247500000000002</v>
+        <v>-65.05</v>
       </c>
       <c r="S23" s="6">
-        <v>-66.376999999999995</v>
-      </c>
-      <c r="T23" t="e">
-        <v>#N/A</v>
+        <v>45.31666666666667</v>
+      </c>
+      <c r="T23">
+        <v>-64.833333333333329</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,55 +1623,55 @@
         <v>14</v>
       </c>
       <c r="B24" s="16">
-        <v>4334</v>
+        <v>4511.4214545454524</v>
       </c>
       <c r="C24" s="16">
-        <v>6632.3636363636315</v>
+        <v>6514</v>
       </c>
       <c r="D24" s="16">
-        <v>4314</v>
+        <v>4519.7412727272704</v>
       </c>
       <c r="E24" s="16">
-        <v>6632.3636363636315</v>
+        <v>6451.0701818181851</v>
       </c>
       <c r="F24" s="12">
-        <v>43.56666666666667</v>
+        <v>45.190357575757503</v>
       </c>
       <c r="G24" s="12">
-        <v>-66.539393939393833</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H24" s="12">
-        <v>43.233333333333334</v>
+        <v>45.32902121212117</v>
       </c>
       <c r="I24" s="12">
-        <v>-66.539393939393833</v>
+        <v>-64.851169696969833</v>
       </c>
       <c r="L24" s="6">
-        <v>4330.12</v>
+        <v>2</v>
       </c>
       <c r="M24" s="6">
-        <v>6623.8800000000028</v>
+        <v>4515.7830000000004</v>
       </c>
       <c r="N24" s="6">
-        <v>4314.8500000000004</v>
+        <v>6503</v>
       </c>
       <c r="O24" s="6">
-        <v>6623.8800000000028</v>
+        <v>4519.4669999999996</v>
       </c>
       <c r="P24" s="6">
-        <v>43.502000000000002</v>
+        <v>6451</v>
       </c>
       <c r="Q24" s="6">
-        <v>-66.397999999999996</v>
+        <v>45.26305</v>
       </c>
       <c r="R24" s="6">
-        <v>43.247500000000002</v>
+        <v>-65.05</v>
       </c>
       <c r="S24" s="6">
-        <v>-66.397999999999996</v>
-      </c>
-      <c r="T24" t="e">
-        <v>#N/A</v>
+        <v>45.324449999999999</v>
+      </c>
+      <c r="T24">
+        <v>-64.849999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,55 +1679,55 @@
         <v>15</v>
       </c>
       <c r="B25" s="16">
-        <v>4334</v>
+        <v>4512.1321818181796</v>
       </c>
       <c r="C25" s="16">
-        <v>6633.7454545454493</v>
+        <v>6514</v>
       </c>
       <c r="D25" s="16">
-        <v>4314</v>
+        <v>4520.2619090909066</v>
       </c>
       <c r="E25" s="16">
-        <v>6633.7454545454493</v>
+        <v>6451.8552727272763</v>
       </c>
       <c r="F25" s="12">
-        <v>43.56666666666667</v>
+        <v>45.202203030302996</v>
       </c>
       <c r="G25" s="12">
-        <v>-66.562424242424171</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H25" s="12">
-        <v>43.233333333333334</v>
+        <v>45.337698484848502</v>
       </c>
       <c r="I25" s="12">
-        <v>-66.562424242424171</v>
+        <v>-64.864254545454671</v>
       </c>
       <c r="L25" s="6">
-        <v>4330.12</v>
+        <v>3</v>
       </c>
       <c r="M25" s="6">
-        <v>6625.1400000000031</v>
+        <v>4516.567</v>
       </c>
       <c r="N25" s="6">
-        <v>4314.8500000000004</v>
+        <v>6503</v>
       </c>
       <c r="O25" s="6">
-        <v>6625.1400000000031</v>
+        <v>4519.933</v>
       </c>
       <c r="P25" s="6">
-        <v>43.502000000000002</v>
+        <v>6452</v>
       </c>
       <c r="Q25" s="6">
-        <v>-66.418999999999997</v>
+        <v>45.276116666666667</v>
       </c>
       <c r="R25" s="6">
-        <v>43.247500000000002</v>
+        <v>-65.05</v>
       </c>
       <c r="S25" s="6">
-        <v>-66.418999999999997</v>
-      </c>
-      <c r="T25" t="e">
-        <v>#N/A</v>
+        <v>45.332216666666667</v>
+      </c>
+      <c r="T25">
+        <v>-64.86666666666666</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,55 +1735,55 @@
         <v>16</v>
       </c>
       <c r="B26" s="16">
-        <v>4334</v>
+        <v>4512.8429090909067</v>
       </c>
       <c r="C26" s="16">
-        <v>6635.1272727272672</v>
+        <v>6514</v>
       </c>
       <c r="D26" s="16">
-        <v>4314</v>
+        <v>4520.7825454545427</v>
       </c>
       <c r="E26" s="16">
-        <v>6635.1272727272672</v>
+        <v>6452.6403636363675</v>
       </c>
       <c r="F26" s="12">
-        <v>43.56666666666667</v>
+        <v>45.214048484848497</v>
       </c>
       <c r="G26" s="12">
-        <v>-66.585454545454496</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H26" s="12">
-        <v>43.233333333333334</v>
+        <v>45.346375757575665</v>
       </c>
       <c r="I26" s="12">
-        <v>-66.585454545454496</v>
+        <v>-64.877339393939494</v>
       </c>
       <c r="L26" s="6">
-        <v>4330.12</v>
+        <v>4</v>
       </c>
       <c r="M26" s="6">
-        <v>6626.4000000000033</v>
+        <v>4517.3500000000004</v>
       </c>
       <c r="N26" s="6">
-        <v>4314.8500000000004</v>
+        <v>6503</v>
       </c>
       <c r="O26" s="6">
-        <v>6626.4000000000033</v>
+        <v>4520.3999999999996</v>
       </c>
       <c r="P26" s="6">
-        <v>43.502000000000002</v>
+        <v>6453</v>
       </c>
       <c r="Q26" s="6">
-        <v>-66.44</v>
+        <v>45.289166666666667</v>
       </c>
       <c r="R26" s="6">
-        <v>43.247500000000002</v>
+        <v>-65.05</v>
       </c>
       <c r="S26" s="6">
-        <v>-66.44</v>
-      </c>
-      <c r="T26" t="e">
-        <v>#N/A</v>
+        <v>45.34</v>
+      </c>
+      <c r="T26">
+        <v>-64.88333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,52 +1791,52 @@
         <v>17</v>
       </c>
       <c r="B27" s="16">
-        <v>4334</v>
+        <v>4513.5536363636338</v>
       </c>
       <c r="C27" s="16">
-        <v>6636.509090909085</v>
+        <v>6514</v>
       </c>
       <c r="D27" s="16">
-        <v>4314</v>
+        <v>4521.3031818181789</v>
       </c>
       <c r="E27" s="16">
-        <v>6636.509090909085</v>
+        <v>6453.4254545454587</v>
       </c>
       <c r="F27" s="12">
-        <v>43.56666666666667</v>
+        <v>45.225893939393835</v>
       </c>
       <c r="G27" s="12">
-        <v>-66.608484848484665</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H27" s="12">
-        <v>43.233333333333334</v>
+        <v>45.355053030302997</v>
       </c>
       <c r="I27" s="12">
-        <v>-66.608484848484665</v>
-      </c>
-      <c r="L27" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="M27" s="6">
-        <v>6627.6600000000035</v>
-      </c>
-      <c r="N27" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="O27" s="6">
-        <v>6627.6600000000035</v>
-      </c>
-      <c r="P27" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>-66.460999999999999</v>
-      </c>
-      <c r="R27" s="6">
-        <v>43.247500000000002</v>
-      </c>
-      <c r="S27" s="6">
-        <v>-66.460999999999999</v>
+        <v>-64.890424242424331</v>
+      </c>
+      <c r="L27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S27" s="6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
@@ -1849,52 +1847,52 @@
         <v>18</v>
       </c>
       <c r="B28" s="16">
-        <v>4334</v>
+        <v>4514.2643636363609</v>
       </c>
       <c r="C28" s="16">
-        <v>6637.8909090909028</v>
+        <v>6514</v>
       </c>
       <c r="D28" s="16">
-        <v>4314</v>
+        <v>4521.8238181818151</v>
       </c>
       <c r="E28" s="16">
-        <v>6637.8909090909028</v>
+        <v>6454.2105454545499</v>
       </c>
       <c r="F28" s="12">
-        <v>43.56666666666667</v>
+        <v>45.237739393939336</v>
       </c>
       <c r="G28" s="12">
-        <v>-66.631515151515003</v>
+        <v>-65.233333333333334</v>
       </c>
       <c r="H28" s="12">
-        <v>43.233333333333334</v>
+        <v>45.36373030303033</v>
       </c>
       <c r="I28" s="12">
-        <v>-66.631515151515003</v>
-      </c>
-      <c r="L28" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="M28" s="6">
-        <v>6628.9200000000037</v>
-      </c>
-      <c r="N28" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="O28" s="6">
-        <v>6628.9200000000037</v>
-      </c>
-      <c r="P28" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>-66.481999999999999</v>
-      </c>
-      <c r="R28" s="6">
-        <v>43.247500000000002</v>
-      </c>
-      <c r="S28" s="6">
-        <v>-66.481999999999999</v>
+        <v>-64.903509090909168</v>
+      </c>
+      <c r="L28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S28" s="6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
@@ -1904,53 +1902,53 @@
       <c r="A29" s="6">
         <v>19</v>
       </c>
-      <c r="B29" s="16">
-        <v>4334</v>
-      </c>
-      <c r="C29" s="16">
-        <v>6639.2727272727207</v>
-      </c>
-      <c r="D29" s="16">
-        <v>4314</v>
-      </c>
-      <c r="E29" s="16">
-        <v>6639.2727272727207</v>
-      </c>
-      <c r="F29" s="12">
-        <v>43.56666666666667</v>
-      </c>
-      <c r="G29" s="12">
-        <v>-66.654545454545328</v>
-      </c>
-      <c r="H29" s="12">
-        <v>43.233333333333334</v>
-      </c>
-      <c r="I29" s="12">
-        <v>-66.654545454545328</v>
-      </c>
-      <c r="L29" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="M29" s="6">
-        <v>6630.1800000000039</v>
-      </c>
-      <c r="N29" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="O29" s="6">
-        <v>6630.1800000000039</v>
-      </c>
-      <c r="P29" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>-66.503</v>
-      </c>
-      <c r="R29" s="6">
-        <v>43.247500000000002</v>
-      </c>
-      <c r="S29" s="6">
-        <v>-66.503</v>
+      <c r="B29" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C29" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I29" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S29" s="6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
@@ -1960,53 +1958,53 @@
       <c r="A30" s="6">
         <v>20</v>
       </c>
-      <c r="B30" s="16">
-        <v>4334</v>
-      </c>
-      <c r="C30" s="16">
-        <v>6640.6545454545385</v>
-      </c>
-      <c r="D30" s="16">
-        <v>4314</v>
-      </c>
-      <c r="E30" s="16">
-        <v>6640.6545454545385</v>
-      </c>
-      <c r="F30" s="12">
-        <v>43.56666666666667</v>
-      </c>
-      <c r="G30" s="12">
-        <v>-66.677575757575667</v>
-      </c>
-      <c r="H30" s="12">
-        <v>43.233333333333334</v>
-      </c>
-      <c r="I30" s="12">
-        <v>-66.677575757575667</v>
-      </c>
-      <c r="L30" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="M30" s="6">
-        <v>6631.4400000000041</v>
-      </c>
-      <c r="N30" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="O30" s="6">
-        <v>6631.4400000000041</v>
-      </c>
-      <c r="P30" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>-66.524000000000001</v>
-      </c>
-      <c r="R30" s="6">
-        <v>43.247500000000002</v>
-      </c>
-      <c r="S30" s="6">
-        <v>-66.524000000000001</v>
+      <c r="B30" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C30" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H30" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I30" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S30" s="6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
@@ -2016,53 +2014,53 @@
       <c r="A31" s="6">
         <v>21</v>
       </c>
-      <c r="B31" s="16">
-        <v>4334</v>
-      </c>
-      <c r="C31" s="16">
-        <v>6642.0363636363563</v>
-      </c>
-      <c r="D31" s="16">
-        <v>4314</v>
-      </c>
-      <c r="E31" s="16">
-        <v>6642.0363636363563</v>
-      </c>
-      <c r="F31" s="12">
-        <v>43.56666666666667</v>
-      </c>
-      <c r="G31" s="12">
-        <v>-66.700606060606006</v>
-      </c>
-      <c r="H31" s="12">
-        <v>43.233333333333334</v>
-      </c>
-      <c r="I31" s="12">
-        <v>-66.700606060606006</v>
-      </c>
-      <c r="L31" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="M31" s="6">
-        <v>6632.7000000000044</v>
-      </c>
-      <c r="N31" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="O31" s="6">
-        <v>6632.7000000000044</v>
-      </c>
-      <c r="P31" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>-66.545000000000002</v>
-      </c>
-      <c r="R31" s="6">
-        <v>43.247500000000002</v>
-      </c>
-      <c r="S31" s="6">
-        <v>-66.545000000000002</v>
+      <c r="B31" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F31" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H31" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I31" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S31" s="6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
@@ -2072,53 +2070,53 @@
       <c r="A32" s="6">
         <v>22</v>
       </c>
-      <c r="B32" s="16">
-        <v>4334</v>
-      </c>
-      <c r="C32" s="16">
-        <v>6643.4181818181742</v>
-      </c>
-      <c r="D32" s="16">
-        <v>4314</v>
-      </c>
-      <c r="E32" s="16">
-        <v>6643.4181818181742</v>
-      </c>
-      <c r="F32" s="12">
-        <v>43.56666666666667</v>
-      </c>
-      <c r="G32" s="12">
-        <v>-66.72363636363616</v>
-      </c>
-      <c r="H32" s="12">
-        <v>43.233333333333334</v>
-      </c>
-      <c r="I32" s="12">
-        <v>-66.72363636363616</v>
-      </c>
-      <c r="L32" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="M32" s="6">
-        <v>6633.9600000000046</v>
-      </c>
-      <c r="N32" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="O32" s="6">
-        <v>6633.9600000000046</v>
-      </c>
-      <c r="P32" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>-66.566000000000003</v>
-      </c>
-      <c r="R32" s="6">
-        <v>43.247500000000002</v>
-      </c>
-      <c r="S32" s="6">
-        <v>-66.566000000000003</v>
+      <c r="B32" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C32" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H32" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I32" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S32" s="6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T32" t="e">
         <v>#N/A</v>
@@ -2128,53 +2126,53 @@
       <c r="A33" s="6">
         <v>23</v>
       </c>
-      <c r="B33" s="16">
-        <v>4334</v>
-      </c>
-      <c r="C33" s="16">
-        <v>6644.799999999992</v>
-      </c>
-      <c r="D33" s="16">
-        <v>4314</v>
-      </c>
-      <c r="E33" s="16">
-        <v>6644.799999999992</v>
-      </c>
-      <c r="F33" s="12">
-        <v>43.56666666666667</v>
-      </c>
-      <c r="G33" s="12">
-        <v>-66.746666666666499</v>
-      </c>
-      <c r="H33" s="12">
-        <v>43.233333333333334</v>
-      </c>
-      <c r="I33" s="12">
-        <v>-66.746666666666499</v>
-      </c>
-      <c r="L33" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="M33" s="6">
-        <v>6635.2200000000048</v>
-      </c>
-      <c r="N33" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="O33" s="6">
-        <v>6635.2200000000048</v>
-      </c>
-      <c r="P33" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>-66.587000000000003</v>
-      </c>
-      <c r="R33" s="6">
-        <v>43.247500000000002</v>
-      </c>
-      <c r="S33" s="6">
-        <v>-66.587000000000003</v>
+      <c r="B33" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C33" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G33" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H33" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I33" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S33" s="6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
@@ -2184,53 +2182,53 @@
       <c r="A34" s="6">
         <v>24</v>
       </c>
-      <c r="B34" s="16">
-        <v>4334</v>
-      </c>
-      <c r="C34" s="16">
-        <v>6646.1818181818098</v>
-      </c>
-      <c r="D34" s="16">
-        <v>4314</v>
-      </c>
-      <c r="E34" s="16">
-        <v>6646.1818181818098</v>
-      </c>
-      <c r="F34" s="12">
-        <v>43.56666666666667</v>
-      </c>
-      <c r="G34" s="12">
-        <v>-66.769696969696838</v>
-      </c>
-      <c r="H34" s="12">
-        <v>43.233333333333334</v>
-      </c>
-      <c r="I34" s="12">
-        <v>-66.769696969696838</v>
-      </c>
-      <c r="L34" s="6">
-        <v>4330.12</v>
-      </c>
-      <c r="M34" s="6">
-        <v>6636.480000000005</v>
-      </c>
-      <c r="N34" s="6">
-        <v>4314.8500000000004</v>
-      </c>
-      <c r="O34" s="6">
-        <v>6636.480000000005</v>
-      </c>
-      <c r="P34" s="6">
-        <v>43.502000000000002</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>-66.60800000000016</v>
-      </c>
-      <c r="R34" s="6">
-        <v>43.247500000000002</v>
-      </c>
-      <c r="S34" s="6">
-        <v>-66.60800000000016</v>
+      <c r="B34" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C34" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G34" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H34" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I34" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="R34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S34" s="6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
@@ -3255,7 +3253,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="12">
         <v>43.56666666666667</v>
@@ -3272,7 +3270,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="12">
         <v>43.56666666666667</v>
@@ -3289,7 +3287,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="12">
         <v>43.56666666666667</v>
@@ -3306,7 +3304,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="12">
         <v>43.56666666666667</v>
@@ -3323,7 +3321,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="12">
         <v>43.56666666666667</v>
@@ -3340,7 +3338,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="12">
         <v>43.56666666666667</v>
@@ -3357,7 +3355,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="12">
         <v>43.56666666666667</v>
@@ -3374,7 +3372,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12">
         <v>43.56666666666667</v>
@@ -3391,7 +3389,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="12">
         <v>43.56666666666667</v>
@@ -3408,7 +3406,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="12">
         <v>43.56666666666667</v>
@@ -3425,7 +3423,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6">
         <v>43.502000000000002</v>
@@ -3442,7 +3440,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6">
         <v>43.502000000000002</v>
@@ -3459,7 +3457,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6">
         <v>43.502000000000002</v>
@@ -3476,7 +3474,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6">
         <v>43.502000000000002</v>
@@ -3493,7 +3491,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6">
         <v>43.502000000000002</v>
@@ -3510,7 +3508,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6">
         <v>43.502000000000002</v>
@@ -3527,7 +3525,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6">
         <v>43.502000000000002</v>
@@ -3544,7 +3542,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6">
         <v>43.502000000000002</v>
@@ -3561,7 +3559,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6">
         <v>43.502000000000002</v>
@@ -3578,7 +3576,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="6">
         <v>43.502000000000002</v>
@@ -4585,7 +4583,7 @@
   </sheetPr>
   <dimension ref="A1:E991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4614,7 +4612,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="16">
         <v>4334</v>
@@ -4631,7 +4629,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="16">
         <v>4334</v>
@@ -4648,7 +4646,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="16">
         <v>4334</v>
@@ -4665,7 +4663,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="16">
         <v>4334</v>
@@ -4682,7 +4680,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="16">
         <v>4334</v>
@@ -4699,7 +4697,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="16">
         <v>4334</v>
@@ -4716,7 +4714,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="16">
         <v>4334</v>
@@ -4733,7 +4731,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="16">
         <v>4334</v>
@@ -4750,7 +4748,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="16">
         <v>4334</v>
@@ -4767,7 +4765,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="16">
         <v>4334</v>
@@ -4784,7 +4782,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="16">
         <v>4334</v>
@@ -4801,7 +4799,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="16">
         <v>4334</v>
@@ -4818,103 +4816,103 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="21">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6">
         <v>4330.12</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="6">
         <v>6613.8000000000011</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="6">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="6">
         <v>6613.8000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="21">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6">
         <v>4330.12</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="6">
         <v>6612.5400000000009</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="6">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="6">
         <v>6612.5400000000009</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="22">
+        <v>41</v>
+      </c>
+      <c r="B16">
         <v>4330.12</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16">
         <v>6611.2800000000007</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16">
         <v>6611.2800000000007</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="22">
+        <v>42</v>
+      </c>
+      <c r="B17">
         <v>4330.12</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17">
         <v>6610.02</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17">
         <v>6610.02</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="22">
+        <v>43</v>
+      </c>
+      <c r="B18">
         <v>4330.12</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18">
         <v>6608.76</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18">
         <v>6608.76</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="22">
+        <v>44</v>
+      </c>
+      <c r="B19">
         <v>4330.12</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19">
         <v>6607.5</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19">
         <v>4314.8500000000004</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19">
         <v>6607.5</v>
       </c>
     </row>
@@ -5904,8 +5902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Surveys/Survey Lines/Survey Lines.xlsx
+++ b/Surveys/Survey Lines/Survey Lines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Surveys\Survey Lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080CEA8-87FC-49A6-A6B3-CA8C56A4D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE423639-233B-4791-B77F-F82BF1D43694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-13890" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>V6</t>
   </si>
   <si>
-    <t>Scots Bay</t>
+    <t>German Bank</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:T26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B9" s="13" t="str">
         <f>IF(B2="German Bank", "German Bank Box", IF(B2="Scots Bay", "Main Survey Box",""))</f>
-        <v>Main Survey Box</v>
+        <v>German Bank Box</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>36</v>
@@ -817,7 +817,7 @@
       <c r="I9" s="11"/>
       <c r="L9" s="1" t="str">
         <f>IF(B2="German Bank", "Seal Island Box", IF(B3="North", "North Box", IF(B3="East", "East Box", IF(B3="Both", "East Box",""))))</f>
-        <v>East Box</v>
+        <v>Seal Island Box</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>36</v>
@@ -861,31 +861,31 @@
       </c>
       <c r="L10" s="6" t="str">
         <f t="array" ref="L10:T34">IF(B2="German Bank",'Back End'!L6:S30, IF(B3="North", 'Back End'!AF18:AM22, IF(B3="East", 'Back End'!AF6:AM10,IF(B3="Both", 'Back End'!AE6:AM22,""))))</f>
-        <v>LINE #</v>
-      </c>
-      <c r="M10" s="6" t="str">
         <v>START POINT</v>
       </c>
-      <c r="N10" s="6">
+      <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="O10" s="6" t="str">
+      <c r="N10" s="6" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="P10" s="6">
+      <c r="O10" s="6">
         <v>0</v>
       </c>
-      <c r="Q10" s="6" t="str">
+      <c r="P10" s="6" t="str">
         <v>START POINT</v>
       </c>
-      <c r="R10" s="6">
+      <c r="Q10" s="6">
         <v>0</v>
       </c>
-      <c r="S10" s="6" t="str">
+      <c r="R10" s="6" t="str">
         <v>TURN POINT</v>
       </c>
-      <c r="T10">
+      <c r="S10" s="6">
         <v>0</v>
+      </c>
+      <c r="T10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -893,55 +893,55 @@
         <v>1</v>
       </c>
       <c r="B11" s="16">
-        <v>4502.1819999999998</v>
+        <v>4334</v>
       </c>
       <c r="C11" s="16">
-        <v>6514</v>
+        <v>6614.4</v>
       </c>
       <c r="D11" s="16">
-        <v>4512.973</v>
+        <v>4314</v>
       </c>
       <c r="E11" s="16">
-        <v>6440.8639999999996</v>
+        <v>6614.4</v>
       </c>
       <c r="F11" s="12">
-        <v>45.036366666666666</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G11" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.239999999999995</v>
       </c>
       <c r="H11" s="12">
-        <v>45.216216666666668</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I11" s="12">
-        <v>-64.681066666666666</v>
+        <v>-66.239999999999995</v>
       </c>
       <c r="L11" s="6">
-        <v>1</v>
+        <v>4330.12</v>
       </c>
       <c r="M11" s="6">
-        <v>4513.4750000000004</v>
+        <v>6607.5</v>
       </c>
       <c r="N11" s="6">
-        <v>6441.48</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
-        <v>4515.8249999999998</v>
+        <v>6607.5</v>
       </c>
       <c r="P11" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q11" s="6">
-        <v>45.224583333333335</v>
+        <v>-66.125</v>
       </c>
       <c r="R11" s="6">
-        <v>-64.691333333333333</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S11" s="6">
-        <v>45.263750000000002</v>
-      </c>
-      <c r="T11">
-        <v>-64.55</v>
+        <v>-66.125</v>
+      </c>
+      <c r="T11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -949,55 +949,55 @@
         <v>2</v>
       </c>
       <c r="B12" s="16">
-        <v>4502.8927272727269</v>
+        <v>4334</v>
       </c>
       <c r="C12" s="16">
-        <v>6514</v>
+        <v>6614.9629629629626</v>
       </c>
       <c r="D12" s="16">
-        <v>4513.4936363636361</v>
+        <v>4314</v>
       </c>
       <c r="E12" s="16">
-        <v>6441.6490909090908</v>
+        <v>6614.9629629629626</v>
       </c>
       <c r="F12" s="12">
-        <v>45.048212121212167</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G12" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.24938271604934</v>
       </c>
       <c r="H12" s="12">
-        <v>45.224893939394001</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I12" s="12">
-        <v>-64.694151515151503</v>
+        <v>-66.24938271604934</v>
       </c>
       <c r="L12" s="6">
-        <v>2</v>
+        <v>4330.12</v>
       </c>
       <c r="M12" s="6">
-        <v>4514.3566666666666</v>
+        <v>6607.9846153846156</v>
       </c>
       <c r="N12" s="6">
-        <v>6442.7966666666662</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
-        <v>4517.1166666666668</v>
+        <v>6607.9846153846156</v>
       </c>
       <c r="P12" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q12" s="6">
-        <v>45.239277777777836</v>
+        <v>-66.133076923076999</v>
       </c>
       <c r="R12" s="6">
-        <v>-64.713277777777833</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S12" s="6">
-        <v>45.285277777777836</v>
-      </c>
-      <c r="T12">
-        <v>-64.55</v>
+        <v>-66.133076923076999</v>
+      </c>
+      <c r="T12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1005,55 +1005,55 @@
         <v>3</v>
       </c>
       <c r="B13" s="16">
-        <v>4503.603454545454</v>
+        <v>4334</v>
       </c>
       <c r="C13" s="16">
-        <v>6514</v>
+        <v>6615.5259259259255</v>
       </c>
       <c r="D13" s="16">
-        <v>4514.0142727272723</v>
+        <v>4314</v>
       </c>
       <c r="E13" s="16">
-        <v>6442.434181818182</v>
+        <v>6615.5259259259255</v>
       </c>
       <c r="F13" s="12">
-        <v>45.060057575757497</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G13" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.258765432098826</v>
       </c>
       <c r="H13" s="12">
-        <v>45.23357121212117</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I13" s="12">
-        <v>-64.707236363636326</v>
+        <v>-66.258765432098826</v>
       </c>
       <c r="L13" s="6">
-        <v>3</v>
+        <v>4330.12</v>
       </c>
       <c r="M13" s="6">
-        <v>4515.2383333333328</v>
+        <v>6608.4692307692312</v>
       </c>
       <c r="N13" s="6">
-        <v>6444.1133333333328</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
-        <v>4518.4083333333338</v>
+        <v>6608.4692307692312</v>
       </c>
       <c r="P13" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q13" s="6">
-        <v>45.253972222222167</v>
+        <v>-66.141153846153827</v>
       </c>
       <c r="R13" s="6">
-        <v>-64.735222222222163</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S13" s="6">
-        <v>45.306805555555499</v>
-      </c>
-      <c r="T13">
-        <v>-64.55</v>
+        <v>-66.141153846153827</v>
+      </c>
+      <c r="T13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1061,55 +1061,55 @@
         <v>4</v>
       </c>
       <c r="B14" s="16">
-        <v>4504.3141818181812</v>
+        <v>4334</v>
       </c>
       <c r="C14" s="16">
-        <v>6514</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="D14" s="16">
-        <v>4514.5349090909085</v>
+        <v>4314</v>
       </c>
       <c r="E14" s="16">
-        <v>6443.2192727272732</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="F14" s="12">
-        <v>45.071903030302998</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G14" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.268148148148171</v>
       </c>
       <c r="H14" s="12">
-        <v>45.242248484848503</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I14" s="12">
-        <v>-64.720321212121164</v>
+        <v>-66.268148148148171</v>
       </c>
       <c r="L14" s="6">
-        <v>4</v>
+        <v>4330.12</v>
       </c>
       <c r="M14" s="6">
-        <v>4516.119999999999</v>
+        <v>6608.9538461538468</v>
       </c>
       <c r="N14" s="6">
-        <v>6445.4299999999994</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
-        <v>4519.7000000000007</v>
+        <v>6608.9538461538468</v>
       </c>
       <c r="P14" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q14" s="6">
-        <v>45.268666666666668</v>
+        <v>-66.14923076923084</v>
       </c>
       <c r="R14" s="6">
-        <v>-64.757166666666663</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S14" s="6">
-        <v>45.328333333333333</v>
-      </c>
-      <c r="T14">
-        <v>-64.55</v>
+        <v>-66.14923076923084</v>
+      </c>
+      <c r="T14" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1117,55 +1117,55 @@
         <v>5</v>
       </c>
       <c r="B15" s="16">
-        <v>4505.0249090909083</v>
+        <v>4334</v>
       </c>
       <c r="C15" s="16">
-        <v>6514</v>
+        <v>6616.6518518518515</v>
       </c>
       <c r="D15" s="16">
-        <v>4515.0555454545447</v>
+        <v>4314</v>
       </c>
       <c r="E15" s="16">
-        <v>6444.0043636363644</v>
+        <v>6616.6518518518515</v>
       </c>
       <c r="F15" s="12">
-        <v>45.083748484848499</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G15" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.277530864197502</v>
       </c>
       <c r="H15" s="12">
-        <v>45.250925757575665</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I15" s="12">
-        <v>-64.733406060606001</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <v>BOTTOM</v>
+        <v>-66.277530864197502</v>
+      </c>
+      <c r="L15" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M15" s="6">
-        <v>4513.4750000000004</v>
+        <v>6609.4384615384624</v>
       </c>
       <c r="N15" s="6">
-        <v>6441.48</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
-        <v>4515.8249999999998</v>
+        <v>6609.4384615384624</v>
       </c>
       <c r="P15" s="6">
-        <v>6433</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q15" s="6">
-        <v>45.224583333333335</v>
+        <v>-66.157307692307668</v>
       </c>
       <c r="R15" s="6">
-        <v>-64.691333333333333</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S15" s="6">
-        <v>45.263750000000002</v>
-      </c>
-      <c r="T15">
-        <v>-64.55</v>
+        <v>-66.157307692307668</v>
+      </c>
+      <c r="T15" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1173,55 +1173,55 @@
         <v>6</v>
       </c>
       <c r="B16" s="16">
-        <v>4505.7356363636354</v>
+        <v>4334</v>
       </c>
       <c r="C16" s="16">
-        <v>6514</v>
+        <v>6617.2148148148144</v>
       </c>
       <c r="D16" s="16">
-        <v>4515.5761818181809</v>
+        <v>4314</v>
       </c>
       <c r="E16" s="16">
-        <v>6444.7894545454556</v>
+        <v>6617.2148148148144</v>
       </c>
       <c r="F16" s="12">
-        <v>45.095593939394</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G16" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.286913580246832</v>
       </c>
       <c r="H16" s="12">
-        <v>45.259603030302998</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I16" s="12">
-        <v>-64.746490909090994</v>
+        <v>-66.286913580246832</v>
       </c>
       <c r="L16" s="6">
-        <v>0</v>
+        <v>4330.12</v>
       </c>
       <c r="M16" s="6">
-        <v>0</v>
+        <v>6609.923076923078</v>
       </c>
       <c r="N16" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
-        <v>0</v>
+        <v>6609.923076923078</v>
       </c>
       <c r="P16" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q16" s="6">
-        <v>0</v>
+        <v>-66.165384615384667</v>
       </c>
       <c r="R16" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+        <v>-66.165384615384667</v>
+      </c>
+      <c r="T16" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1229,56 +1229,56 @@
         <v>7</v>
       </c>
       <c r="B17" s="16">
-        <v>4506.4463636363625</v>
+        <v>4334</v>
       </c>
       <c r="C17" s="16">
-        <v>6514</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="D17" s="16">
-        <v>4516.0968181818171</v>
+        <v>4314</v>
       </c>
       <c r="E17" s="16">
-        <v>6445.5745454545468</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="F17" s="12">
-        <v>45.10743939393933</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G17" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.296296296296333</v>
       </c>
       <c r="H17" s="12">
-        <v>45.26828030303033</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I17" s="12">
-        <v>-64.759575757575831</v>
+        <v>-66.296296296296333</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="6" t="str">
-        <v>NORTH BOX</v>
+      <c r="L17" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>6610.4076923076937</v>
       </c>
       <c r="N17" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
-        <v>0</v>
+        <v>6610.4076923076937</v>
       </c>
       <c r="P17" s="6">
-        <v>0</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q17" s="6">
-        <v>0</v>
+        <v>-66.173461538461495</v>
       </c>
       <c r="R17" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S17" s="6">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
+        <v>-66.173461538461495</v>
+      </c>
+      <c r="T17" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1286,56 +1286,56 @@
         <v>8</v>
       </c>
       <c r="B18" s="16">
-        <v>4507.1570909090897</v>
+        <v>4334</v>
       </c>
       <c r="C18" s="16">
-        <v>6514</v>
+        <v>6618.3407407407403</v>
       </c>
       <c r="D18" s="16">
-        <v>4516.6174545454533</v>
+        <v>4314</v>
       </c>
       <c r="E18" s="16">
-        <v>6446.3596363636379</v>
+        <v>6618.3407407407403</v>
       </c>
       <c r="F18" s="12">
-        <v>45.119284848484831</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G18" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.305679012345664</v>
       </c>
       <c r="H18" s="12">
-        <v>45.2769575757575</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I18" s="12">
-        <v>-64.772660606060668</v>
+        <v>-66.305679012345664</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6" t="str">
-        <v>TOP</v>
+      <c r="L18" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M18" s="6">
-        <v>4517.2759939999996</v>
+        <v>6610.8923076923093</v>
       </c>
       <c r="N18" s="6">
-        <v>6503.107994</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
-        <v>4520.348</v>
+        <v>6610.8923076923093</v>
       </c>
       <c r="P18" s="6">
-        <v>6452.4799940000003</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q18" s="6">
-        <v>45.290999999999997</v>
+        <v>-66.181538461538494</v>
       </c>
       <c r="R18" s="6">
-        <v>-65.052999999999997</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S18" s="6">
-        <v>45.343000000000004</v>
-      </c>
-      <c r="T18">
-        <v>-64.88</v>
+        <v>-66.181538461538494</v>
+      </c>
+      <c r="T18" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1343,55 +1343,55 @@
         <v>9</v>
       </c>
       <c r="B19" s="16">
-        <v>4507.8678181818168</v>
+        <v>4334</v>
       </c>
       <c r="C19" s="16">
-        <v>6514</v>
+        <v>6618.9037037037033</v>
       </c>
       <c r="D19" s="16">
-        <v>4517.1380909090894</v>
+        <v>4314</v>
       </c>
       <c r="E19" s="16">
-        <v>6447.1447272727291</v>
+        <v>6618.9037037037033</v>
       </c>
       <c r="F19" s="12">
-        <v>45.131130303030332</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G19" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.315061728394994</v>
       </c>
       <c r="H19" s="12">
-        <v>45.285634848484833</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I19" s="12">
-        <v>-64.785745454545506</v>
-      </c>
-      <c r="L19" s="6" t="str">
-        <v>BOATS</v>
+        <v>-66.315061728394994</v>
+      </c>
+      <c r="L19" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M19" s="6">
-        <v>1</v>
+        <v>6611.3769230769249</v>
       </c>
       <c r="N19" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
-        <v>1</v>
+        <v>6611.3769230769249</v>
       </c>
       <c r="P19" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="6" t="str">
-        <v>Converted</v>
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>-66.189615384615337</v>
       </c>
       <c r="R19" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
+        <v>-66.189615384615337</v>
+      </c>
+      <c r="T19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1399,55 +1399,55 @@
         <v>10</v>
       </c>
       <c r="B20" s="16">
-        <v>4508.5785454545439</v>
+        <v>4334</v>
       </c>
       <c r="C20" s="16">
-        <v>6514</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="D20" s="16">
-        <v>4517.6587272727256</v>
+        <v>4314</v>
       </c>
       <c r="E20" s="16">
-        <v>6447.9298181818203</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="F20" s="12">
-        <v>45.14297575757567</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G20" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="H20" s="12">
-        <v>45.294312121212165</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I20" s="12">
-        <v>-64.798830303030329</v>
-      </c>
-      <c r="L20" s="6" t="str">
-        <v>LINES</v>
+        <v>-66.324444444444495</v>
+      </c>
+      <c r="L20" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M20" s="6">
-        <v>4</v>
+        <v>6611.8615384615405</v>
       </c>
       <c r="N20" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
-        <v>4</v>
+        <v>6611.8615384615405</v>
       </c>
       <c r="P20" s="6">
-        <v>4</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q20" s="6">
-        <v>4</v>
+        <v>-66.197692307692336</v>
       </c>
       <c r="R20" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S20" s="6">
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
+        <v>-66.197692307692336</v>
+      </c>
+      <c r="T20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,55 +1455,55 @@
         <v>11</v>
       </c>
       <c r="B21" s="16">
-        <v>4509.2892727272711</v>
+        <v>4334</v>
       </c>
       <c r="C21" s="16">
-        <v>6514</v>
+        <v>6620.0296296296292</v>
       </c>
       <c r="D21" s="16">
-        <v>4518.1793636363618</v>
+        <v>4314</v>
       </c>
       <c r="E21" s="16">
-        <v>6448.7149090909115</v>
+        <v>6620.0296296296292</v>
       </c>
       <c r="F21" s="12">
-        <v>45.154821212121163</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G21" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.33382716049384</v>
       </c>
       <c r="H21" s="12">
-        <v>45.302989393939335</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I21" s="12">
-        <v>-64.811915151515166</v>
-      </c>
-      <c r="L21" s="6" t="str">
-        <v>SPACING</v>
+        <v>-66.33382716049384</v>
+      </c>
+      <c r="L21" s="6">
+        <v>4330.12</v>
       </c>
       <c r="M21" s="6">
-        <v>0.95199999999992235</v>
+        <v>6612.3461538461561</v>
       </c>
       <c r="N21" s="6">
-        <v>0</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
-        <v>0.60266866666673502</v>
+        <v>6612.3461538461561</v>
       </c>
       <c r="P21" s="6">
-        <v>1.023997999999968</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q21" s="6">
-        <v>1.5333333333333124E-2</v>
+        <v>-66.205769230769334</v>
       </c>
       <c r="R21" s="6">
-        <v>0</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S21" s="6">
-        <v>9.3333333333352666E-3</v>
-      </c>
-      <c r="T21">
-        <v>-1.7333333333330831E-2</v>
+        <v>-66.205769230769334</v>
+      </c>
+      <c r="T21" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,55 +1511,55 @@
         <v>12</v>
       </c>
       <c r="B22" s="16">
-        <v>4509.9999999999982</v>
+        <v>4334</v>
       </c>
       <c r="C22" s="16">
-        <v>6514</v>
+        <v>6620.5925925925922</v>
       </c>
       <c r="D22" s="16">
-        <v>4518.699999999998</v>
+        <v>4314</v>
       </c>
       <c r="E22" s="16">
-        <v>6449.5000000000027</v>
+        <v>6620.5925925925922</v>
       </c>
       <c r="F22" s="12">
-        <v>45.166666666666664</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G22" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.34320987654317</v>
       </c>
       <c r="H22" s="12">
-        <v>45.311666666666667</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I22" s="12">
-        <v>-64.825000000000003</v>
-      </c>
-      <c r="L22" s="6" t="str">
-        <v>LINE #</v>
-      </c>
-      <c r="M22" s="6" t="str">
-        <v>START POINT</v>
+        <v>-66.34320987654317</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M22" s="6">
+        <v>6612.8307692307717</v>
       </c>
       <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6" t="str">
-        <v>TURN POINT</v>
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O22" s="6">
+        <v>6612.8307692307717</v>
       </c>
       <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6" t="str">
-        <v>START POINT</v>
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>-66.213846153846163</v>
       </c>
       <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6" t="str">
-        <v>TURN POINT</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S22" s="6">
+        <v>-66.213846153846163</v>
+      </c>
+      <c r="T22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,55 +1567,55 @@
         <v>13</v>
       </c>
       <c r="B23" s="16">
-        <v>4510.7107272727253</v>
+        <v>4334</v>
       </c>
       <c r="C23" s="16">
-        <v>6514</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="D23" s="16">
-        <v>4519.2206363636342</v>
+        <v>4314</v>
       </c>
       <c r="E23" s="16">
-        <v>6450.2850909090939</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="F23" s="12">
-        <v>45.178512121212165</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G23" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.352592592592671</v>
       </c>
       <c r="H23" s="12">
-        <v>45.320343939393837</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I23" s="12">
-        <v>-64.83808484848484</v>
+        <v>-66.352592592592671</v>
       </c>
       <c r="L23" s="6">
-        <v>1</v>
+        <v>4330.12</v>
       </c>
       <c r="M23" s="6">
-        <v>4515</v>
+        <v>6613.3153846153873</v>
       </c>
       <c r="N23" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
-        <v>4519</v>
+        <v>6613.3153846153873</v>
       </c>
       <c r="P23" s="6">
-        <v>6450</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q23" s="6">
-        <v>45.25</v>
+        <v>-66.221923076923161</v>
       </c>
       <c r="R23" s="6">
-        <v>-65.05</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S23" s="6">
-        <v>45.31666666666667</v>
-      </c>
-      <c r="T23">
-        <v>-64.833333333333329</v>
+        <v>-66.221923076923161</v>
+      </c>
+      <c r="T23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,55 +1623,55 @@
         <v>14</v>
       </c>
       <c r="B24" s="16">
-        <v>4511.4214545454524</v>
+        <v>4334</v>
       </c>
       <c r="C24" s="16">
-        <v>6514</v>
+        <v>6621.7185185185181</v>
       </c>
       <c r="D24" s="16">
-        <v>4519.7412727272704</v>
+        <v>4314</v>
       </c>
       <c r="E24" s="16">
-        <v>6451.0701818181851</v>
+        <v>6621.7185185185181</v>
       </c>
       <c r="F24" s="12">
-        <v>45.190357575757503</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G24" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.361975308642002</v>
       </c>
       <c r="H24" s="12">
-        <v>45.32902121212117</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I24" s="12">
-        <v>-64.851169696969833</v>
+        <v>-66.361975308642002</v>
       </c>
       <c r="L24" s="6">
-        <v>2</v>
+        <v>4330.12</v>
       </c>
       <c r="M24" s="6">
-        <v>4515.7830000000004</v>
+        <v>6613.8000000000029</v>
       </c>
       <c r="N24" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
-        <v>4519.4669999999996</v>
+        <v>6613.8000000000029</v>
       </c>
       <c r="P24" s="6">
-        <v>6451</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q24" s="6">
-        <v>45.26305</v>
+        <v>-66.23</v>
       </c>
       <c r="R24" s="6">
-        <v>-65.05</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S24" s="6">
-        <v>45.324449999999999</v>
-      </c>
-      <c r="T24">
-        <v>-64.849999999999994</v>
+        <v>-66.23</v>
+      </c>
+      <c r="T24" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,55 +1679,55 @@
         <v>15</v>
       </c>
       <c r="B25" s="16">
-        <v>4512.1321818181796</v>
+        <v>4334</v>
       </c>
       <c r="C25" s="16">
-        <v>6514</v>
+        <v>6622.281481481481</v>
       </c>
       <c r="D25" s="16">
-        <v>4520.2619090909066</v>
+        <v>4314</v>
       </c>
       <c r="E25" s="16">
-        <v>6451.8552727272763</v>
+        <v>6622.281481481481</v>
       </c>
       <c r="F25" s="12">
-        <v>45.202203030302996</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G25" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.371358024691332</v>
       </c>
       <c r="H25" s="12">
-        <v>45.337698484848502</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I25" s="12">
-        <v>-64.864254545454671</v>
+        <v>-66.371358024691332</v>
       </c>
       <c r="L25" s="6">
-        <v>3</v>
+        <v>4330.12</v>
       </c>
       <c r="M25" s="6">
-        <v>4516.567</v>
+        <v>6614.2846153846185</v>
       </c>
       <c r="N25" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
-        <v>4519.933</v>
+        <v>6614.2846153846185</v>
       </c>
       <c r="P25" s="6">
-        <v>6452</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q25" s="6">
-        <v>45.276116666666667</v>
+        <v>-66.238076923077003</v>
       </c>
       <c r="R25" s="6">
-        <v>-65.05</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S25" s="6">
-        <v>45.332216666666667</v>
-      </c>
-      <c r="T25">
-        <v>-64.86666666666666</v>
+        <v>-66.238076923077003</v>
+      </c>
+      <c r="T25" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,55 +1735,55 @@
         <v>16</v>
       </c>
       <c r="B26" s="16">
-        <v>4512.8429090909067</v>
+        <v>4334</v>
       </c>
       <c r="C26" s="16">
-        <v>6514</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="D26" s="16">
-        <v>4520.7825454545427</v>
+        <v>4314</v>
       </c>
       <c r="E26" s="16">
-        <v>6452.6403636363675</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="F26" s="12">
-        <v>45.214048484848497</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G26" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.380740740740663</v>
       </c>
       <c r="H26" s="12">
-        <v>45.346375757575665</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I26" s="12">
-        <v>-64.877339393939494</v>
+        <v>-66.380740740740663</v>
       </c>
       <c r="L26" s="6">
-        <v>4</v>
+        <v>4330.12</v>
       </c>
       <c r="M26" s="6">
-        <v>4517.3500000000004</v>
+        <v>6614.7692307692341</v>
       </c>
       <c r="N26" s="6">
-        <v>6503</v>
+        <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
-        <v>4520.3999999999996</v>
+        <v>6614.7692307692341</v>
       </c>
       <c r="P26" s="6">
-        <v>6453</v>
+        <v>43.502000000000002</v>
       </c>
       <c r="Q26" s="6">
-        <v>45.289166666666667</v>
+        <v>-66.246153846153831</v>
       </c>
       <c r="R26" s="6">
-        <v>-65.05</v>
+        <v>43.247500000000002</v>
       </c>
       <c r="S26" s="6">
-        <v>45.34</v>
-      </c>
-      <c r="T26">
-        <v>-64.88333333333334</v>
+        <v>-66.246153846153831</v>
+      </c>
+      <c r="T26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1791,52 +1791,52 @@
         <v>17</v>
       </c>
       <c r="B27" s="16">
-        <v>4513.5536363636338</v>
+        <v>4334</v>
       </c>
       <c r="C27" s="16">
-        <v>6514</v>
+        <v>6623.4074074074069</v>
       </c>
       <c r="D27" s="16">
-        <v>4521.3031818181789</v>
+        <v>4314</v>
       </c>
       <c r="E27" s="16">
-        <v>6453.4254545454587</v>
+        <v>6623.4074074074069</v>
       </c>
       <c r="F27" s="12">
-        <v>45.225893939393835</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G27" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.390123456790164</v>
       </c>
       <c r="H27" s="12">
-        <v>45.355053030302997</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I27" s="12">
-        <v>-64.890424242424331</v>
-      </c>
-      <c r="L27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R27" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S27" s="6" t="e">
-        <v>#N/A</v>
+        <v>-66.390123456790164</v>
+      </c>
+      <c r="L27" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M27" s="6">
+        <v>6615.2538461538497</v>
+      </c>
+      <c r="N27" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O27" s="6">
+        <v>6615.2538461538497</v>
+      </c>
+      <c r="P27" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>-66.25423076923083</v>
+      </c>
+      <c r="R27" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S27" s="6">
+        <v>-66.25423076923083</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
@@ -1847,52 +1847,52 @@
         <v>18</v>
       </c>
       <c r="B28" s="16">
-        <v>4514.2643636363609</v>
+        <v>4334</v>
       </c>
       <c r="C28" s="16">
-        <v>6514</v>
+        <v>6623.9703703703699</v>
       </c>
       <c r="D28" s="16">
-        <v>4521.8238181818151</v>
+        <v>4314</v>
       </c>
       <c r="E28" s="16">
-        <v>6454.2105454545499</v>
+        <v>6623.9703703703699</v>
       </c>
       <c r="F28" s="12">
-        <v>45.237739393939336</v>
+        <v>43.56666666666667</v>
       </c>
       <c r="G28" s="12">
-        <v>-65.233333333333334</v>
+        <v>-66.399506172839494</v>
       </c>
       <c r="H28" s="12">
-        <v>45.36373030303033</v>
+        <v>43.233333333333334</v>
       </c>
       <c r="I28" s="12">
-        <v>-64.903509090909168</v>
-      </c>
-      <c r="L28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R28" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S28" s="6" t="e">
-        <v>#N/A</v>
+        <v>-66.399506172839494</v>
+      </c>
+      <c r="L28" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M28" s="6">
+        <v>6615.7384615384653</v>
+      </c>
+      <c r="N28" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O28" s="6">
+        <v>6615.7384615384653</v>
+      </c>
+      <c r="P28" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>-66.262307692307829</v>
+      </c>
+      <c r="R28" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S28" s="6">
+        <v>-66.262307692307829</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
@@ -1902,53 +1902,53 @@
       <c r="A29" s="6">
         <v>19</v>
       </c>
-      <c r="B29" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C29" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H29" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I29" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R29" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S29" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B29" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C29" s="16">
+        <v>6624.5333333333328</v>
+      </c>
+      <c r="D29" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E29" s="16">
+        <v>6624.5333333333328</v>
+      </c>
+      <c r="F29" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-66.408888888888839</v>
+      </c>
+      <c r="H29" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I29" s="12">
+        <v>-66.408888888888839</v>
+      </c>
+      <c r="L29" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M29" s="6">
+        <v>6616.223076923081</v>
+      </c>
+      <c r="N29" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O29" s="6">
+        <v>6616.223076923081</v>
+      </c>
+      <c r="P29" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>-66.270384615384671</v>
+      </c>
+      <c r="R29" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S29" s="6">
+        <v>-66.270384615384671</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
@@ -1958,53 +1958,53 @@
       <c r="A30" s="6">
         <v>20</v>
       </c>
-      <c r="B30" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C30" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D30" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I30" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R30" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S30" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B30" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6625.0962962962958</v>
+      </c>
+      <c r="D30" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E30" s="16">
+        <v>6625.0962962962958</v>
+      </c>
+      <c r="F30" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G30" s="12">
+        <v>-66.41827160493834</v>
+      </c>
+      <c r="H30" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I30" s="12">
+        <v>-66.41827160493834</v>
+      </c>
+      <c r="L30" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M30" s="6">
+        <v>6616.7076923076966</v>
+      </c>
+      <c r="N30" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O30" s="6">
+        <v>6616.7076923076966</v>
+      </c>
+      <c r="P30" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>-66.27846153846167</v>
+      </c>
+      <c r="R30" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S30" s="6">
+        <v>-66.27846153846167</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
@@ -2014,53 +2014,53 @@
       <c r="A31" s="6">
         <v>21</v>
       </c>
-      <c r="B31" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C31" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D31" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H31" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I31" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R31" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S31" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B31" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C31" s="16">
+        <v>6625.6592592592588</v>
+      </c>
+      <c r="D31" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E31" s="16">
+        <v>6625.6592592592588</v>
+      </c>
+      <c r="F31" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G31" s="12">
+        <v>-66.427654320987671</v>
+      </c>
+      <c r="H31" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I31" s="12">
+        <v>-66.427654320987671</v>
+      </c>
+      <c r="L31" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M31" s="6">
+        <v>6617.1923076923122</v>
+      </c>
+      <c r="N31" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O31" s="6">
+        <v>6617.1923076923122</v>
+      </c>
+      <c r="P31" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>-66.286538461538498</v>
+      </c>
+      <c r="R31" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S31" s="6">
+        <v>-66.286538461538498</v>
       </c>
       <c r="T31" t="e">
         <v>#N/A</v>
@@ -2070,53 +2070,53 @@
       <c r="A32" s="6">
         <v>22</v>
       </c>
-      <c r="B32" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C32" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F32" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G32" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H32" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I32" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R32" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S32" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B32" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C32" s="16">
+        <v>6626.2222222222217</v>
+      </c>
+      <c r="D32" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E32" s="16">
+        <v>6626.2222222222217</v>
+      </c>
+      <c r="F32" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G32" s="12">
+        <v>-66.437037037037001</v>
+      </c>
+      <c r="H32" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I32" s="12">
+        <v>-66.437037037037001</v>
+      </c>
+      <c r="L32" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M32" s="6">
+        <v>6617.6769230769278</v>
+      </c>
+      <c r="N32" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O32" s="6">
+        <v>6617.6769230769278</v>
+      </c>
+      <c r="P32" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>-66.294615384615497</v>
+      </c>
+      <c r="R32" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S32" s="6">
+        <v>-66.294615384615497</v>
       </c>
       <c r="T32" t="e">
         <v>#N/A</v>
@@ -2126,53 +2126,53 @@
       <c r="A33" s="6">
         <v>23</v>
       </c>
-      <c r="B33" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C33" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H33" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I33" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R33" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S33" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B33" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C33" s="16">
+        <v>6626.7851851851847</v>
+      </c>
+      <c r="D33" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E33" s="16">
+        <v>6626.7851851851847</v>
+      </c>
+      <c r="F33" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G33" s="12">
+        <v>-66.446419753086332</v>
+      </c>
+      <c r="H33" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I33" s="12">
+        <v>-66.446419753086332</v>
+      </c>
+      <c r="L33" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M33" s="6">
+        <v>6618.1615384615434</v>
+      </c>
+      <c r="N33" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O33" s="6">
+        <v>6618.1615384615434</v>
+      </c>
+      <c r="P33" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>-66.30269230769234</v>
+      </c>
+      <c r="R33" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S33" s="6">
+        <v>-66.30269230769234</v>
       </c>
       <c r="T33" t="e">
         <v>#N/A</v>
@@ -2182,53 +2182,53 @@
       <c r="A34" s="6">
         <v>24</v>
       </c>
-      <c r="B34" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C34" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F34" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G34" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H34" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I34" s="12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R34" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S34" s="6" t="e">
-        <v>#N/A</v>
+      <c r="B34" s="16">
+        <v>4334</v>
+      </c>
+      <c r="C34" s="16">
+        <v>6627.3481481481476</v>
+      </c>
+      <c r="D34" s="16">
+        <v>4314</v>
+      </c>
+      <c r="E34" s="16">
+        <v>6627.3481481481476</v>
+      </c>
+      <c r="F34" s="12">
+        <v>43.56666666666667</v>
+      </c>
+      <c r="G34" s="12">
+        <v>-66.455802469135833</v>
+      </c>
+      <c r="H34" s="12">
+        <v>43.233333333333334</v>
+      </c>
+      <c r="I34" s="12">
+        <v>-66.455802469135833</v>
+      </c>
+      <c r="L34" s="6">
+        <v>4330.12</v>
+      </c>
+      <c r="M34" s="6">
+        <v>6618.646153846159</v>
+      </c>
+      <c r="N34" s="6">
+        <v>4314.8500000000004</v>
+      </c>
+      <c r="O34" s="6">
+        <v>6618.646153846159</v>
+      </c>
+      <c r="P34" s="6">
+        <v>43.502000000000002</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>-66.310769230769338</v>
+      </c>
+      <c r="R34" s="6">
+        <v>43.247500000000002</v>
+      </c>
+      <c r="S34" s="6">
+        <v>-66.310769230769338</v>
       </c>
       <c r="T34" t="e">
         <v>#N/A</v>
@@ -3203,7 +3203,7 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"1,2,3,4,5,6,7,8,9,10, 11, 12"</formula1>
+      <formula1>"1,2,3,4,5,6,7,8,9,10, 11, 12, 13, 14"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"German Bank,Scots Bay"</formula1>
@@ -5902,7 +5902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -6025,11 +6025,11 @@
       </c>
       <c r="V3" s="8">
         <f>B4</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="X3" s="6">
         <f t="shared" ref="X3:X4" si="8">V3</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>23</v>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="B4" s="8">
         <f>'Data Entry'!B1</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="L4" s="8">
         <f>B4</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -6083,15 +6083,15 @@
       </c>
       <c r="V4" s="6">
         <f>V3*2</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="X4" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Y4" s="6">
         <f>X4</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>24</v>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B5" s="6">
         <f>B4*2</f>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="L5" s="6">
         <f>(L31-L3)/(L4-1)</f>
-        <v>1.2600000000000364</v>
+        <v>0.4846153846153986</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>26</v>
@@ -6141,15 +6141,15 @@
       </c>
       <c r="V5" s="6">
         <f>(V2-V25)/(V4-1)</f>
-        <v>0.71072727272729186</v>
+        <v>0.28955555555556339</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:Y5" si="10">(X2-X25)/(X4-1)</f>
-        <v>0.52063636363635102</v>
+        <v>0.212111111111106</v>
       </c>
       <c r="Y5" s="6">
         <f t="shared" si="10"/>
-        <v>0.78509090909094748</v>
+        <v>0.31985185185186749</v>
       </c>
       <c r="Z5" s="8" t="s">
         <v>26</v>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="B6" s="6">
         <f>(B32-B3)/(B5-1)</f>
-        <v>1.381818181818248</v>
+        <v>0.56296296296298987</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>26</v>
@@ -6385,14 +6385,14 @@
       </c>
       <c r="M8" s="6">
         <f>M7+L5</f>
-        <v>6608.76</v>
+        <v>6607.9846153846156</v>
       </c>
       <c r="N8" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="12"/>
-        <v>6608.76</v>
+        <v>6607.9846153846156</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="13"/>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="14"/>
-        <v>-66.146000000000001</v>
+        <v>-66.133076923076999</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" ref="R8:R30" si="29">(LEFT(N8,2)+((RIGHT(N8,LEN(N8)-2))/60))</f>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="S8" s="6">
         <f t="shared" ref="S8" si="30">Q8</f>
-        <v>-66.146000000000001</v>
+        <v>-66.133076923076999</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" ref="U8:U24" si="31">U7+1</f>
@@ -6416,22 +6416,22 @@
       </c>
       <c r="V8" s="6">
         <f>V7+$V5</f>
-        <v>4502.8927272727269</v>
+        <v>4502.4715555555549</v>
       </c>
       <c r="W8" s="6">
         <v>6514</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" ref="X8:Y8" si="32">X7+X5</f>
-        <v>4513.4936363636361</v>
+        <v>4513.1851111111109</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="32"/>
-        <v>6441.6490909090908</v>
+        <v>6441.1838518518516</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="16"/>
-        <v>45.048212121212167</v>
+        <v>45.041192592592502</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="17"/>
@@ -6439,11 +6439,11 @@
       </c>
       <c r="AB8" s="6">
         <f t="shared" si="18"/>
-        <v>45.224893939394001</v>
+        <v>45.219751851851832</v>
       </c>
       <c r="AC8" s="6">
         <f t="shared" si="19"/>
-        <v>-64.694151515151503</v>
+        <v>-64.68639753086417</v>
       </c>
       <c r="AE8" s="6">
         <v>2</v>
@@ -6490,14 +6490,14 @@
       </c>
       <c r="C9" s="6">
         <f>C8+B6</f>
-        <v>6615.7818181818175</v>
+        <v>6614.9629629629626</v>
       </c>
       <c r="D9" s="6">
         <v>4314</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="24"/>
-        <v>6615.7818181818175</v>
+        <v>6614.9629629629626</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="25"/>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="26"/>
-        <v>-66.263030303030334</v>
+        <v>-66.24938271604934</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:H31" si="35">(LEFT(D9,2)+((RIGHT(D9,LEN(D9)-2))/60))</f>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" ref="I9" si="36">G9</f>
-        <v>-66.263030303030334</v>
+        <v>-66.24938271604934</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="28"/>
@@ -6524,14 +6524,14 @@
       </c>
       <c r="M9" s="6">
         <f>M8+L5</f>
-        <v>6610.02</v>
+        <v>6608.4692307692312</v>
       </c>
       <c r="N9" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="12"/>
-        <v>6610.02</v>
+        <v>6608.4692307692312</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="13"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="14"/>
-        <v>-66.167000000000002</v>
+        <v>-66.141153846153827</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="29"/>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="S9" s="6">
         <f t="shared" ref="S9" si="37">Q9</f>
-        <v>-66.167000000000002</v>
+        <v>-66.141153846153827</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="31"/>
@@ -6555,22 +6555,22 @@
       </c>
       <c r="V9" s="6">
         <f>V8+$V5</f>
-        <v>4503.603454545454</v>
+        <v>4502.76111111111</v>
       </c>
       <c r="W9" s="6">
         <v>6514</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" ref="X9:Y9" si="38">X8+X5</f>
-        <v>4514.0142727272723</v>
+        <v>4513.3972222222219</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="38"/>
-        <v>6442.434181818182</v>
+        <v>6441.5037037037036</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="16"/>
-        <v>45.060057575757497</v>
+        <v>45.046018518518501</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="17"/>
@@ -6578,11 +6578,11 @@
       </c>
       <c r="AB9" s="6">
         <f t="shared" si="18"/>
-        <v>45.23357121212117</v>
+        <v>45.223287037036997</v>
       </c>
       <c r="AC9" s="6">
         <f t="shared" si="19"/>
-        <v>-64.707236363636326</v>
+        <v>-64.691728395061673</v>
       </c>
       <c r="AE9" s="6">
         <v>3</v>
@@ -6629,14 +6629,14 @@
       </c>
       <c r="C10" s="6">
         <f>C9+B6</f>
-        <v>6617.1636363636353</v>
+        <v>6615.5259259259255</v>
       </c>
       <c r="D10" s="6">
         <v>4314</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="24"/>
-        <v>6617.1636363636353</v>
+        <v>6615.5259259259255</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="25"/>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="26"/>
-        <v>-66.286060606060673</v>
+        <v>-66.258765432098826</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="35"/>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" ref="I10" si="40">G10</f>
-        <v>-66.286060606060673</v>
+        <v>-66.258765432098826</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="28"/>
@@ -6663,14 +6663,14 @@
       </c>
       <c r="M10" s="6">
         <f>M9+L5</f>
-        <v>6611.2800000000007</v>
+        <v>6608.9538461538468</v>
       </c>
       <c r="N10" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="12"/>
-        <v>6611.2800000000007</v>
+        <v>6608.9538461538468</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="13"/>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="14"/>
-        <v>-66.188000000000002</v>
+        <v>-66.14923076923084</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="29"/>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="S10" s="6">
         <f t="shared" ref="S10" si="41">Q10</f>
-        <v>-66.188000000000002</v>
+        <v>-66.14923076923084</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="31"/>
@@ -6694,22 +6694,22 @@
       </c>
       <c r="V10" s="6">
         <f>V9+$V5</f>
-        <v>4504.3141818181812</v>
+        <v>4503.0506666666652</v>
       </c>
       <c r="W10" s="6">
         <v>6514</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" ref="X10:Y10" si="42">X9+X5</f>
-        <v>4514.5349090909085</v>
+        <v>4513.6093333333329</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="42"/>
-        <v>6443.2192727272732</v>
+        <v>6441.8235555555557</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="16"/>
-        <v>45.071903030302998</v>
+        <v>45.0508444444445</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="17"/>
@@ -6717,11 +6717,11 @@
       </c>
       <c r="AB10" s="6">
         <f t="shared" si="18"/>
-        <v>45.242248484848503</v>
+        <v>45.226822222222168</v>
       </c>
       <c r="AC10" s="6">
         <f t="shared" si="19"/>
-        <v>-64.720321212121164</v>
+        <v>-64.697059259259333</v>
       </c>
       <c r="AE10" s="6">
         <v>4</v>
@@ -6768,14 +6768,14 @@
       </c>
       <c r="C11" s="6">
         <f>C10+B6</f>
-        <v>6618.5454545454531</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="D11" s="6">
         <v>4314</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="24"/>
-        <v>6618.5454545454531</v>
+        <v>6616.0888888888885</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="25"/>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="26"/>
-        <v>-66.309090909090827</v>
+        <v>-66.268148148148171</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="35"/>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" ref="I11" si="44">G11</f>
-        <v>-66.309090909090827</v>
+        <v>-66.268148148148171</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="28"/>
@@ -6802,14 +6802,14 @@
       </c>
       <c r="M11" s="6">
         <f>M10+L5</f>
-        <v>6612.5400000000009</v>
+        <v>6609.4384615384624</v>
       </c>
       <c r="N11" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="12"/>
-        <v>6612.5400000000009</v>
+        <v>6609.4384615384624</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="13"/>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="14"/>
-        <v>-66.209000000000003</v>
+        <v>-66.157307692307668</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="29"/>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="S11" s="6">
         <f t="shared" ref="S11" si="45">Q11</f>
-        <v>-66.209000000000003</v>
+        <v>-66.157307692307668</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="31"/>
@@ -6833,22 +6833,22 @@
       </c>
       <c r="V11" s="6">
         <f>V10+$V5</f>
-        <v>4505.0249090909083</v>
+        <v>4503.3402222222203</v>
       </c>
       <c r="W11" s="6">
         <v>6514</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" ref="X11:Y11" si="46">X10+X5</f>
-        <v>4515.0555454545447</v>
+        <v>4513.8214444444438</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="46"/>
-        <v>6444.0043636363644</v>
+        <v>6442.1434074074077</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="16"/>
-        <v>45.083748484848499</v>
+        <v>45.055670370370336</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="17"/>
@@ -6856,11 +6856,11 @@
       </c>
       <c r="AB11" s="6">
         <f t="shared" si="18"/>
-        <v>45.250925757575665</v>
+        <v>45.230357407407332</v>
       </c>
       <c r="AC11" s="6">
         <f t="shared" si="19"/>
-        <v>-64.733406060606001</v>
+        <v>-64.702390123456837</v>
       </c>
       <c r="AE11" s="6" t="s">
         <v>28</v>
@@ -6904,14 +6904,14 @@
       </c>
       <c r="C12" s="6">
         <f>C11+B6</f>
-        <v>6619.927272727271</v>
+        <v>6616.6518518518515</v>
       </c>
       <c r="D12" s="6">
         <v>4314</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="24"/>
-        <v>6619.927272727271</v>
+        <v>6616.6518518518515</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="25"/>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="26"/>
-        <v>-66.332121212121166</v>
+        <v>-66.277530864197502</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="35"/>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" ref="I12" si="51">G12</f>
-        <v>-66.332121212121166</v>
+        <v>-66.277530864197502</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="28"/>
@@ -6938,14 +6938,14 @@
       </c>
       <c r="M12" s="6">
         <f>M11+L5</f>
-        <v>6613.8000000000011</v>
+        <v>6609.923076923078</v>
       </c>
       <c r="N12" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="12"/>
-        <v>6613.8000000000011</v>
+        <v>6609.923076923078</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="13"/>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="14"/>
-        <v>-66.23</v>
+        <v>-66.165384615384667</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="29"/>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="S12" s="6">
         <f t="shared" ref="S12" si="52">Q12</f>
-        <v>-66.23</v>
+        <v>-66.165384615384667</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="31"/>
@@ -6969,22 +6969,22 @@
       </c>
       <c r="V12" s="6">
         <f>V11+$V5</f>
-        <v>4505.7356363636354</v>
+        <v>4503.6297777777754</v>
       </c>
       <c r="W12" s="6">
         <v>6514</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" ref="X12:Y12" si="53">X11+X5</f>
-        <v>4515.5761818181809</v>
+        <v>4514.0335555555548</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="53"/>
-        <v>6444.7894545454556</v>
+        <v>6442.4632592592598</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="16"/>
-        <v>45.095593939394</v>
+        <v>45.060496296296336</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="17"/>
@@ -6992,11 +6992,11 @@
       </c>
       <c r="AB12" s="6">
         <f t="shared" si="18"/>
-        <v>45.259603030302998</v>
+        <v>45.233892592592497</v>
       </c>
       <c r="AC12" s="6">
         <f t="shared" si="19"/>
-        <v>-64.746490909090994</v>
+        <v>-64.707720987654326</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -7009,14 +7009,14 @@
       </c>
       <c r="C13" s="6">
         <f>C12+B6</f>
-        <v>6621.3090909090888</v>
+        <v>6617.2148148148144</v>
       </c>
       <c r="D13" s="6">
         <v>4314</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="24"/>
-        <v>6621.3090909090888</v>
+        <v>6617.2148148148144</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="25"/>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="26"/>
-        <v>-66.355151515151505</v>
+        <v>-66.286913580246832</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="35"/>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" ref="I13" si="54">G13</f>
-        <v>-66.355151515151505</v>
+        <v>-66.286913580246832</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="28"/>
@@ -7043,14 +7043,14 @@
       </c>
       <c r="M13" s="6">
         <f>M12+L5</f>
-        <v>6615.0600000000013</v>
+        <v>6610.4076923076937</v>
       </c>
       <c r="N13" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="12"/>
-        <v>6615.0600000000013</v>
+        <v>6610.4076923076937</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="13"/>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="14"/>
-        <v>-66.251000000000005</v>
+        <v>-66.173461538461495</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="29"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="S13" s="6">
         <f t="shared" ref="S13" si="55">Q13</f>
-        <v>-66.251000000000005</v>
+        <v>-66.173461538461495</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="31"/>
@@ -7074,22 +7074,22 @@
       </c>
       <c r="V13" s="6">
         <f>V12+$V5</f>
-        <v>4506.4463636363625</v>
+        <v>4503.9193333333305</v>
       </c>
       <c r="W13" s="6">
         <v>6514</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ref="X13:Y13" si="56">X12+X5</f>
-        <v>4516.0968181818171</v>
+        <v>4514.2456666666658</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="56"/>
-        <v>6445.5745454545468</v>
+        <v>6442.7831111111118</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="16"/>
-        <v>45.10743939393933</v>
+        <v>45.065322222222164</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="17"/>
@@ -7097,11 +7097,11 @@
       </c>
       <c r="AB13" s="6">
         <f t="shared" si="18"/>
-        <v>45.26828030303033</v>
+        <v>45.237427777777832</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" si="19"/>
-        <v>-64.759575757575831</v>
+        <v>-64.71305185185183</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>29</v>
@@ -7117,14 +7117,14 @@
       </c>
       <c r="C14" s="6">
         <f>C13+B6</f>
-        <v>6622.6909090909066</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="D14" s="6">
         <v>4314</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="24"/>
-        <v>6622.6909090909066</v>
+        <v>6617.7777777777774</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="25"/>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="26"/>
-        <v>-66.378181818181829</v>
+        <v>-66.296296296296333</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="35"/>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" ref="I14" si="57">G14</f>
-        <v>-66.378181818181829</v>
+        <v>-66.296296296296333</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="28"/>
@@ -7151,14 +7151,14 @@
       </c>
       <c r="M14" s="6">
         <f>M13+L5</f>
-        <v>6616.3200000000015</v>
+        <v>6610.8923076923093</v>
       </c>
       <c r="N14" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="12"/>
-        <v>6616.3200000000015</v>
+        <v>6610.8923076923093</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="13"/>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="14"/>
-        <v>-66.272000000000006</v>
+        <v>-66.181538461538494</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" si="29"/>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="S14" s="6">
         <f t="shared" ref="S14" si="58">Q14</f>
-        <v>-66.272000000000006</v>
+        <v>-66.181538461538494</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="31"/>
@@ -7182,22 +7182,22 @@
       </c>
       <c r="V14" s="6">
         <f>V13+$V5</f>
-        <v>4507.1570909090897</v>
+        <v>4504.2088888888857</v>
       </c>
       <c r="W14" s="6">
         <v>6514</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ref="X14:Y14" si="59">X13+X5</f>
-        <v>4516.6174545454533</v>
+        <v>4514.4577777777768</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="59"/>
-        <v>6446.3596363636379</v>
+        <v>6443.1029629629638</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="16"/>
-        <v>45.119284848484831</v>
+        <v>45.070148148148164</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="17"/>
@@ -7205,11 +7205,11 @@
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="18"/>
-        <v>45.2769575757575</v>
+        <v>45.240962962963003</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="19"/>
-        <v>-64.772660606060668</v>
+        <v>-64.718382716049334</v>
       </c>
       <c r="AE14" s="6" t="s">
         <v>21</v>
@@ -7249,14 +7249,14 @@
       </c>
       <c r="C15" s="6">
         <f>C14+B6</f>
-        <v>6624.0727272727245</v>
+        <v>6618.3407407407403</v>
       </c>
       <c r="D15" s="6">
         <v>4314</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="24"/>
-        <v>6624.0727272727245</v>
+        <v>6618.3407407407403</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="25"/>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="26"/>
-        <v>-66.401212121211998</v>
+        <v>-66.305679012345664</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="35"/>
@@ -7272,7 +7272,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" ref="I15" si="60">G15</f>
-        <v>-66.401212121211998</v>
+        <v>-66.305679012345664</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="28"/>
@@ -7283,14 +7283,14 @@
       </c>
       <c r="M15" s="6">
         <f>M14+L5</f>
-        <v>6617.5800000000017</v>
+        <v>6611.3769230769249</v>
       </c>
       <c r="N15" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="12"/>
-        <v>6617.5800000000017</v>
+        <v>6611.3769230769249</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="13"/>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="14"/>
-        <v>-66.293000000000006</v>
+        <v>-66.189615384615337</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="29"/>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="S15" s="6">
         <f t="shared" ref="S15" si="61">Q15</f>
-        <v>-66.293000000000006</v>
+        <v>-66.189615384615337</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="31"/>
@@ -7314,22 +7314,22 @@
       </c>
       <c r="V15" s="6">
         <f>V14+$V5</f>
-        <v>4507.8678181818168</v>
+        <v>4504.4984444444408</v>
       </c>
       <c r="W15" s="6">
         <v>6514</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ref="X15:Y15" si="62">X14+X5</f>
-        <v>4517.1380909090894</v>
+        <v>4514.6698888888877</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="62"/>
-        <v>6447.1447272727291</v>
+        <v>6443.4228148148159</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="16"/>
-        <v>45.131130303030332</v>
+        <v>45.074974074073999</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="17"/>
@@ -7337,11 +7337,11 @@
       </c>
       <c r="AB15" s="6">
         <f t="shared" si="18"/>
-        <v>45.285634848484833</v>
+        <v>45.244498148148168</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" si="19"/>
-        <v>-64.785745454545506</v>
+        <v>-64.723713580246994</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>23</v>
@@ -7371,14 +7371,14 @@
       </c>
       <c r="C16" s="6">
         <f>C15+B6</f>
-        <v>6625.4545454545423</v>
+        <v>6618.9037037037033</v>
       </c>
       <c r="D16" s="6">
         <v>4314</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="24"/>
-        <v>6625.4545454545423</v>
+        <v>6618.9037037037033</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="25"/>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="26"/>
-        <v>-66.424242424242337</v>
+        <v>-66.315061728394994</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="35"/>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" ref="I16" si="63">G16</f>
-        <v>-66.424242424242337</v>
+        <v>-66.315061728394994</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="28"/>
@@ -7405,14 +7405,14 @@
       </c>
       <c r="M16" s="6">
         <f>M15+L5</f>
-        <v>6618.840000000002</v>
+        <v>6611.8615384615405</v>
       </c>
       <c r="N16" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="12"/>
-        <v>6618.840000000002</v>
+        <v>6611.8615384615405</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="13"/>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="14"/>
-        <v>-66.313999999999993</v>
+        <v>-66.197692307692336</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="29"/>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="S16" s="6">
         <f t="shared" ref="S16" si="64">Q16</f>
-        <v>-66.313999999999993</v>
+        <v>-66.197692307692336</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="31"/>
@@ -7436,22 +7436,22 @@
       </c>
       <c r="V16" s="6">
         <f>V15+$V5</f>
-        <v>4508.5785454545439</v>
+        <v>4504.7879999999959</v>
       </c>
       <c r="W16" s="6">
         <v>6514</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" ref="X16:Y16" si="65">X15+X5</f>
-        <v>4517.6587272727256</v>
+        <v>4514.8819999999987</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="65"/>
-        <v>6447.9298181818203</v>
+        <v>6443.7426666666679</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="16"/>
-        <v>45.14297575757567</v>
+        <v>45.079799999999999</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="17"/>
@@ -7459,11 +7459,11 @@
       </c>
       <c r="AB16" s="6">
         <f t="shared" si="18"/>
-        <v>45.294312121212165</v>
+        <v>45.248033333333332</v>
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="19"/>
-        <v>-64.798830303030329</v>
+        <v>-64.729044444444497</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>24</v>
@@ -7500,14 +7500,14 @@
       </c>
       <c r="C17" s="6">
         <f>C16+B6</f>
-        <v>6626.8363636363601</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="D17" s="6">
         <v>4314</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="24"/>
-        <v>6626.8363636363601</v>
+        <v>6619.4666666666662</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="25"/>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="26"/>
-        <v>-66.447272727272662</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="35"/>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="67">G17</f>
-        <v>-66.447272727272662</v>
+        <v>-66.324444444444495</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="28"/>
@@ -7534,14 +7534,14 @@
       </c>
       <c r="M17" s="6">
         <f>M16+L5</f>
-        <v>6620.1000000000022</v>
+        <v>6612.3461538461561</v>
       </c>
       <c r="N17" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="12"/>
-        <v>6620.1000000000022</v>
+        <v>6612.3461538461561</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="13"/>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="14"/>
-        <v>-66.334999999999994</v>
+        <v>-66.205769230769334</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="29"/>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="68">Q17</f>
-        <v>-66.334999999999994</v>
+        <v>-66.205769230769334</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="31"/>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="V17" s="6">
         <f>V16+$V5</f>
-        <v>4509.2892727272711</v>
+        <v>4505.077555555551</v>
       </c>
       <c r="W17" s="6">
         <v>6514</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17:Y17" si="69">X16+X5</f>
-        <v>4518.1793636363618</v>
+        <v>4515.0941111111097</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="69"/>
-        <v>6448.7149090909115</v>
+        <v>6444.0625185185199</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="16"/>
-        <v>45.154821212121163</v>
+        <v>45.084625925925835</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="17"/>
@@ -7588,11 +7588,11 @@
       </c>
       <c r="AB17" s="6">
         <f t="shared" si="18"/>
-        <v>45.302989393939335</v>
+        <v>45.251568518518503</v>
       </c>
       <c r="AC17" s="6">
         <f t="shared" si="19"/>
-        <v>-64.811915151515166</v>
+        <v>-64.734375308642001</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>25</v>
@@ -7632,14 +7632,14 @@
       </c>
       <c r="C18" s="6">
         <f>C17+B6</f>
-        <v>6628.218181818178</v>
+        <v>6620.0296296296292</v>
       </c>
       <c r="D18" s="6">
         <v>4314</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="24"/>
-        <v>6628.218181818178</v>
+        <v>6620.0296296296292</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="25"/>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="26"/>
-        <v>-66.470303030303</v>
+        <v>-66.33382716049384</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="35"/>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" ref="I18" si="70">G18</f>
-        <v>-66.470303030303</v>
+        <v>-66.33382716049384</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="28"/>
@@ -7666,14 +7666,14 @@
       </c>
       <c r="M18" s="6">
         <f>M17+L5</f>
-        <v>6621.3600000000024</v>
+        <v>6612.8307692307717</v>
       </c>
       <c r="N18" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="12"/>
-        <v>6621.3600000000024</v>
+        <v>6612.8307692307717</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="13"/>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="14"/>
-        <v>-66.355999999999995</v>
+        <v>-66.213846153846163</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="29"/>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="S18" s="6">
         <f t="shared" ref="S18" si="71">Q18</f>
-        <v>-66.355999999999995</v>
+        <v>-66.213846153846163</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="31"/>
@@ -7697,22 +7697,22 @@
       </c>
       <c r="V18" s="6">
         <f>V17+$V5</f>
-        <v>4509.9999999999982</v>
+        <v>4505.3671111111062</v>
       </c>
       <c r="W18" s="6">
         <v>6514</v>
       </c>
       <c r="X18" s="9">
         <f t="shared" ref="X18:Y18" si="72">X17+X5</f>
-        <v>4518.699999999998</v>
+        <v>4515.3062222222206</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="72"/>
-        <v>6449.5000000000027</v>
+        <v>6444.382370370372</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="16"/>
-        <v>45.166666666666664</v>
+        <v>45.089451851851834</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="17"/>
@@ -7720,11 +7720,11 @@
       </c>
       <c r="AB18" s="6">
         <f t="shared" si="18"/>
-        <v>45.311666666666667</v>
+        <v>45.255103703703668</v>
       </c>
       <c r="AC18" s="6">
         <f t="shared" si="19"/>
-        <v>-64.825000000000003</v>
+        <v>-64.739706172839504</v>
       </c>
       <c r="AE18" s="6" t="s">
         <v>27</v>
@@ -7752,14 +7752,14 @@
       </c>
       <c r="C19" s="6">
         <f>C18+B6</f>
-        <v>6629.5999999999958</v>
+        <v>6620.5925925925922</v>
       </c>
       <c r="D19" s="6">
         <v>4314</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="24"/>
-        <v>6629.5999999999958</v>
+        <v>6620.5925925925922</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="25"/>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="26"/>
-        <v>-66.493333333333339</v>
+        <v>-66.34320987654317</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="35"/>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" ref="I19" si="73">G19</f>
-        <v>-66.493333333333339</v>
+        <v>-66.34320987654317</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="28"/>
@@ -7786,14 +7786,14 @@
       </c>
       <c r="M19" s="6">
         <f>M18+L5</f>
-        <v>6622.6200000000026</v>
+        <v>6613.3153846153873</v>
       </c>
       <c r="N19" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="12"/>
-        <v>6622.6200000000026</v>
+        <v>6613.3153846153873</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="13"/>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="14"/>
-        <v>-66.376999999999995</v>
+        <v>-66.221923076923161</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="29"/>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="S19" s="6">
         <f t="shared" ref="S19" si="74">Q19</f>
-        <v>-66.376999999999995</v>
+        <v>-66.221923076923161</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="31"/>
@@ -7817,22 +7817,22 @@
       </c>
       <c r="V19" s="6">
         <f>V18+$V5</f>
-        <v>4510.7107272727253</v>
+        <v>4505.6566666666613</v>
       </c>
       <c r="W19" s="6">
         <v>6514</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" ref="X19:Y19" si="75">X18+X5</f>
-        <v>4519.2206363636342</v>
+        <v>4515.5183333333316</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="75"/>
-        <v>6450.2850909090939</v>
+        <v>6444.702222222224</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="16"/>
-        <v>45.178512121212165</v>
+        <v>45.09427777777767</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="17"/>
@@ -7840,11 +7840,11 @@
       </c>
       <c r="AB19" s="6">
         <f t="shared" si="18"/>
-        <v>45.320343939393837</v>
+        <v>45.258638888888832</v>
       </c>
       <c r="AC19" s="6">
         <f t="shared" si="19"/>
-        <v>-64.83808484848484</v>
+        <v>-64.745037037036994</v>
       </c>
       <c r="AE19" s="6">
         <v>1</v>
@@ -7888,14 +7888,14 @@
       </c>
       <c r="C20" s="6">
         <f>C19+B6</f>
-        <v>6630.9818181818137</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="D20" s="6">
         <v>4314</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="24"/>
-        <v>6630.9818181818137</v>
+        <v>6621.1555555555551</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="25"/>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="26"/>
-        <v>-66.516363636363494</v>
+        <v>-66.352592592592671</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="35"/>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" ref="I20" si="77">G20</f>
-        <v>-66.516363636363494</v>
+        <v>-66.352592592592671</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="28"/>
@@ -7922,14 +7922,14 @@
       </c>
       <c r="M20" s="6">
         <f>M19+L5</f>
-        <v>6623.8800000000028</v>
+        <v>6613.8000000000029</v>
       </c>
       <c r="N20" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="12"/>
-        <v>6623.8800000000028</v>
+        <v>6613.8000000000029</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="13"/>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="14"/>
-        <v>-66.397999999999996</v>
+        <v>-66.23</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="29"/>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="S20" s="6">
         <f t="shared" ref="S20" si="78">Q20</f>
-        <v>-66.397999999999996</v>
+        <v>-66.23</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="31"/>
@@ -7953,22 +7953,22 @@
       </c>
       <c r="V20" s="6">
         <f>V19+$V5</f>
-        <v>4511.4214545454524</v>
+        <v>4505.9462222222164</v>
       </c>
       <c r="W20" s="6">
         <v>6514</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" ref="X20:Y20" si="79">X19+X5</f>
-        <v>4519.7412727272704</v>
+        <v>4515.7304444444426</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="79"/>
-        <v>6451.0701818181851</v>
+        <v>6445.022074074076</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="16"/>
-        <v>45.190357575757503</v>
+        <v>45.099103703703669</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="17"/>
@@ -7976,11 +7976,11 @@
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="18"/>
-        <v>45.32902121212117</v>
+        <v>45.262174074073997</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="19"/>
-        <v>-64.851169696969833</v>
+        <v>-64.750367901234668</v>
       </c>
       <c r="AE20" s="6">
         <v>2</v>
@@ -8024,14 +8024,14 @@
       </c>
       <c r="C21" s="6">
         <f>C20+B6</f>
-        <v>6632.3636363636315</v>
+        <v>6621.7185185185181</v>
       </c>
       <c r="D21" s="6">
         <v>4314</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="24"/>
-        <v>6632.3636363636315</v>
+        <v>6621.7185185185181</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="25"/>
@@ -8039,7 +8039,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="26"/>
-        <v>-66.539393939393833</v>
+        <v>-66.361975308642002</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="35"/>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" ref="I21" si="83">G21</f>
-        <v>-66.539393939393833</v>
+        <v>-66.361975308642002</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="28"/>
@@ -8058,14 +8058,14 @@
       </c>
       <c r="M21" s="6">
         <f>M20+L5</f>
-        <v>6625.1400000000031</v>
+        <v>6614.2846153846185</v>
       </c>
       <c r="N21" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="12"/>
-        <v>6625.1400000000031</v>
+        <v>6614.2846153846185</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="13"/>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="14"/>
-        <v>-66.418999999999997</v>
+        <v>-66.238076923077003</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="29"/>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="S21" s="6">
         <f t="shared" ref="S21" si="84">Q21</f>
-        <v>-66.418999999999997</v>
+        <v>-66.238076923077003</v>
       </c>
       <c r="U21" s="6">
         <f t="shared" si="31"/>
@@ -8089,22 +8089,22 @@
       </c>
       <c r="V21" s="6">
         <f>V20+$V5</f>
-        <v>4512.1321818181796</v>
+        <v>4506.2357777777715</v>
       </c>
       <c r="W21" s="6">
         <v>6514</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" ref="X21:Y21" si="85">X20+X5</f>
-        <v>4520.2619090909066</v>
+        <v>4515.9425555555536</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="85"/>
-        <v>6451.8552727272763</v>
+        <v>6445.3419259259281</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="16"/>
-        <v>45.202203030302996</v>
+        <v>45.103929629629498</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="17"/>
@@ -8112,11 +8112,11 @@
       </c>
       <c r="AB21" s="6">
         <f t="shared" si="18"/>
-        <v>45.337698484848502</v>
+        <v>45.265709259259168</v>
       </c>
       <c r="AC21" s="6">
         <f t="shared" si="19"/>
-        <v>-64.864254545454671</v>
+        <v>-64.755698765432172</v>
       </c>
       <c r="AE21" s="6">
         <v>3</v>
@@ -8160,14 +8160,14 @@
       </c>
       <c r="C22" s="6">
         <f>C21+B6</f>
-        <v>6633.7454545454493</v>
+        <v>6622.281481481481</v>
       </c>
       <c r="D22" s="6">
         <v>4314</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="24"/>
-        <v>6633.7454545454493</v>
+        <v>6622.281481481481</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="25"/>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="26"/>
-        <v>-66.562424242424171</v>
+        <v>-66.371358024691332</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="35"/>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" ref="I22" si="86">G22</f>
-        <v>-66.562424242424171</v>
+        <v>-66.371358024691332</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="28"/>
@@ -8194,14 +8194,14 @@
       </c>
       <c r="M22" s="6">
         <f>M21+L5</f>
-        <v>6626.4000000000033</v>
+        <v>6614.7692307692341</v>
       </c>
       <c r="N22" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="12"/>
-        <v>6626.4000000000033</v>
+        <v>6614.7692307692341</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="13"/>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="14"/>
-        <v>-66.44</v>
+        <v>-66.246153846153831</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="29"/>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="S22" s="6">
         <f t="shared" ref="S22" si="87">Q22</f>
-        <v>-66.44</v>
+        <v>-66.246153846153831</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="31"/>
@@ -8225,22 +8225,22 @@
       </c>
       <c r="V22" s="6">
         <f>V21+$V5</f>
-        <v>4512.8429090909067</v>
+        <v>4506.5253333333267</v>
       </c>
       <c r="W22" s="6">
         <v>6514</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" ref="X22:Y22" si="88">X21+X5</f>
-        <v>4520.7825454545427</v>
+        <v>4516.1546666666645</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="88"/>
-        <v>6452.6403636363675</v>
+        <v>6445.6617777777801</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="16"/>
-        <v>45.214048484848497</v>
+        <v>45.108755555555497</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="17"/>
@@ -8248,11 +8248,11 @@
       </c>
       <c r="AB22" s="6">
         <f t="shared" si="18"/>
-        <v>45.346375757575665</v>
+        <v>45.269244444444332</v>
       </c>
       <c r="AC22" s="6">
         <f t="shared" si="19"/>
-        <v>-64.877339393939494</v>
+        <v>-64.761029629629661</v>
       </c>
       <c r="AE22" s="6">
         <v>4</v>
@@ -8296,14 +8296,14 @@
       </c>
       <c r="C23" s="6">
         <f>C22+B6</f>
-        <v>6635.1272727272672</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="D23" s="6">
         <v>4314</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="24"/>
-        <v>6635.1272727272672</v>
+        <v>6622.844444444444</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="25"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="26"/>
-        <v>-66.585454545454496</v>
+        <v>-66.380740740740663</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="35"/>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" ref="I23" si="89">G23</f>
-        <v>-66.585454545454496</v>
+        <v>-66.380740740740663</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="28"/>
@@ -8330,14 +8330,14 @@
       </c>
       <c r="M23" s="6">
         <f>M22+L5</f>
-        <v>6627.6600000000035</v>
+        <v>6615.2538461538497</v>
       </c>
       <c r="N23" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="12"/>
-        <v>6627.6600000000035</v>
+        <v>6615.2538461538497</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="13"/>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="14"/>
-        <v>-66.460999999999999</v>
+        <v>-66.25423076923083</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="29"/>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="S23" s="6">
         <f t="shared" ref="S23" si="90">Q23</f>
-        <v>-66.460999999999999</v>
+        <v>-66.25423076923083</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="31"/>
@@ -8361,22 +8361,22 @@
       </c>
       <c r="V23" s="6">
         <f>V22+$V5</f>
-        <v>4513.5536363636338</v>
+        <v>4506.8148888888818</v>
       </c>
       <c r="W23" s="6">
         <v>6514</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" ref="X23:Y23" si="91">X22+X5</f>
-        <v>4521.3031818181789</v>
+        <v>4516.3667777777755</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="91"/>
-        <v>6453.4254545454587</v>
+        <v>6445.9816296296322</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="16"/>
-        <v>45.225893939393835</v>
+        <v>45.113581481481333</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="17"/>
@@ -8384,11 +8384,11 @@
       </c>
       <c r="AB23" s="6">
         <f t="shared" si="18"/>
-        <v>45.355053030302997</v>
+        <v>45.272779629629667</v>
       </c>
       <c r="AC23" s="6">
         <f t="shared" si="19"/>
-        <v>-64.890424242424331</v>
+        <v>-64.766360493827165</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>28</v>
@@ -8428,14 +8428,14 @@
       </c>
       <c r="C24" s="6">
         <f>C23+B6</f>
-        <v>6636.509090909085</v>
+        <v>6623.4074074074069</v>
       </c>
       <c r="D24" s="6">
         <v>4314</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="24"/>
-        <v>6636.509090909085</v>
+        <v>6623.4074074074069</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="25"/>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="26"/>
-        <v>-66.608484848484665</v>
+        <v>-66.390123456790164</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="35"/>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" ref="I24" si="92">G24</f>
-        <v>-66.608484848484665</v>
+        <v>-66.390123456790164</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="28"/>
@@ -8462,14 +8462,14 @@
       </c>
       <c r="M24" s="6">
         <f>M23+L5</f>
-        <v>6628.9200000000037</v>
+        <v>6615.7384615384653</v>
       </c>
       <c r="N24" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="12"/>
-        <v>6628.9200000000037</v>
+        <v>6615.7384615384653</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="13"/>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="14"/>
-        <v>-66.481999999999999</v>
+        <v>-66.262307692307829</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="29"/>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="S24" s="6">
         <f t="shared" ref="S24" si="93">Q24</f>
-        <v>-66.481999999999999</v>
+        <v>-66.262307692307829</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="31"/>
@@ -8493,22 +8493,22 @@
       </c>
       <c r="V24" s="6">
         <f>V23+$V5</f>
-        <v>4514.2643636363609</v>
+        <v>4507.1044444444369</v>
       </c>
       <c r="W24" s="6">
         <v>6514</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" ref="X24:Y24" si="94">X23+X5</f>
-        <v>4521.8238181818151</v>
+        <v>4516.5788888888865</v>
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="94"/>
-        <v>6454.2105454545499</v>
+        <v>6446.3014814814842</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="16"/>
-        <v>45.237739393939336</v>
+        <v>45.118407407407332</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="17"/>
@@ -8516,11 +8516,11 @@
       </c>
       <c r="AB24" s="6">
         <f t="shared" si="18"/>
-        <v>45.36373030303033</v>
+        <v>45.276314814814832</v>
       </c>
       <c r="AC24" s="6">
         <f t="shared" si="19"/>
-        <v>-64.903509090909168</v>
+        <v>-64.771691358024668</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8533,14 +8533,14 @@
       </c>
       <c r="C25" s="6">
         <f>C24+B6</f>
-        <v>6637.8909090909028</v>
+        <v>6623.9703703703699</v>
       </c>
       <c r="D25" s="6">
         <v>4314</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="24"/>
-        <v>6637.8909090909028</v>
+        <v>6623.9703703703699</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="25"/>
@@ -8548,7 +8548,7 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="26"/>
-        <v>-66.631515151515003</v>
+        <v>-66.399506172839494</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="35"/>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" ref="I25" si="95">G25</f>
-        <v>-66.631515151515003</v>
+        <v>-66.399506172839494</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="28"/>
@@ -8567,14 +8567,14 @@
       </c>
       <c r="M25" s="6">
         <f>M24+L5</f>
-        <v>6630.1800000000039</v>
+        <v>6616.223076923081</v>
       </c>
       <c r="N25" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="12"/>
-        <v>6630.1800000000039</v>
+        <v>6616.223076923081</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="13"/>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="14"/>
-        <v>-66.503</v>
+        <v>-66.270384615384671</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="29"/>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="S25" s="6">
         <f t="shared" ref="S25" si="96">Q25</f>
-        <v>-66.503</v>
+        <v>-66.270384615384671</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>28</v>
@@ -8634,14 +8634,14 @@
       </c>
       <c r="C26" s="6">
         <f>C25+B6</f>
-        <v>6639.2727272727207</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="D26" s="6">
         <v>4314</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="24"/>
-        <v>6639.2727272727207</v>
+        <v>6624.5333333333328</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="25"/>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="26"/>
-        <v>-66.654545454545328</v>
+        <v>-66.408888888888839</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="35"/>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" ref="I26" si="97">G26</f>
-        <v>-66.654545454545328</v>
+        <v>-66.408888888888839</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="28"/>
@@ -8668,14 +8668,14 @@
       </c>
       <c r="M26" s="6">
         <f>M25+L5</f>
-        <v>6631.4400000000041</v>
+        <v>6616.7076923076966</v>
       </c>
       <c r="N26" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="12"/>
-        <v>6631.4400000000041</v>
+        <v>6616.7076923076966</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="13"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="14"/>
-        <v>-66.524000000000001</v>
+        <v>-66.27846153846167</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="29"/>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="S26" s="6">
         <f t="shared" ref="S26" si="98">Q26</f>
-        <v>-66.524000000000001</v>
+        <v>-66.27846153846167</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8704,14 +8704,14 @@
       </c>
       <c r="C27" s="6">
         <f>C26+B6</f>
-        <v>6640.6545454545385</v>
+        <v>6625.0962962962958</v>
       </c>
       <c r="D27" s="6">
         <v>4314</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="24"/>
-        <v>6640.6545454545385</v>
+        <v>6625.0962962962958</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="25"/>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="26"/>
-        <v>-66.677575757575667</v>
+        <v>-66.41827160493834</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="35"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" ref="I27" si="99">G27</f>
-        <v>-66.677575757575667</v>
+        <v>-66.41827160493834</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="28"/>
@@ -8738,14 +8738,14 @@
       </c>
       <c r="M27" s="6">
         <f>M26+L5</f>
-        <v>6632.7000000000044</v>
+        <v>6617.1923076923122</v>
       </c>
       <c r="N27" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="12"/>
-        <v>6632.7000000000044</v>
+        <v>6617.1923076923122</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="13"/>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="14"/>
-        <v>-66.545000000000002</v>
+        <v>-66.286538461538498</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="29"/>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="S27" s="6">
         <f t="shared" ref="S27" si="100">Q27</f>
-        <v>-66.545000000000002</v>
+        <v>-66.286538461538498</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8774,14 +8774,14 @@
       </c>
       <c r="C28" s="6">
         <f>C27+B6</f>
-        <v>6642.0363636363563</v>
+        <v>6625.6592592592588</v>
       </c>
       <c r="D28" s="6">
         <v>4314</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="24"/>
-        <v>6642.0363636363563</v>
+        <v>6625.6592592592588</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="25"/>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="26"/>
-        <v>-66.700606060606006</v>
+        <v>-66.427654320987671</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="35"/>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" ref="I28" si="101">G28</f>
-        <v>-66.700606060606006</v>
+        <v>-66.427654320987671</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="28"/>
@@ -8808,14 +8808,14 @@
       </c>
       <c r="M28" s="6">
         <f>M27+L5</f>
-        <v>6633.9600000000046</v>
+        <v>6617.6769230769278</v>
       </c>
       <c r="N28" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="12"/>
-        <v>6633.9600000000046</v>
+        <v>6617.6769230769278</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="13"/>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="14"/>
-        <v>-66.566000000000003</v>
+        <v>-66.294615384615497</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="29"/>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="S28" s="6">
         <f t="shared" ref="S28" si="102">Q28</f>
-        <v>-66.566000000000003</v>
+        <v>-66.294615384615497</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8844,14 +8844,14 @@
       </c>
       <c r="C29" s="6">
         <f>C28+B6</f>
-        <v>6643.4181818181742</v>
+        <v>6626.2222222222217</v>
       </c>
       <c r="D29" s="6">
         <v>4314</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="24"/>
-        <v>6643.4181818181742</v>
+        <v>6626.2222222222217</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="25"/>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="26"/>
-        <v>-66.72363636363616</v>
+        <v>-66.437037037037001</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="35"/>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="I29" s="6">
         <f t="shared" ref="I29" si="103">G29</f>
-        <v>-66.72363636363616</v>
+        <v>-66.437037037037001</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="28"/>
@@ -8878,14 +8878,14 @@
       </c>
       <c r="M29" s="6">
         <f>M28+L5</f>
-        <v>6635.2200000000048</v>
+        <v>6618.1615384615434</v>
       </c>
       <c r="N29" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="12"/>
-        <v>6635.2200000000048</v>
+        <v>6618.1615384615434</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="13"/>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="14"/>
-        <v>-66.587000000000003</v>
+        <v>-66.30269230769234</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="29"/>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="S29" s="6">
         <f t="shared" ref="S29" si="104">Q29</f>
-        <v>-66.587000000000003</v>
+        <v>-66.30269230769234</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8914,14 +8914,14 @@
       </c>
       <c r="C30" s="6">
         <f>C29+B6</f>
-        <v>6644.799999999992</v>
+        <v>6626.7851851851847</v>
       </c>
       <c r="D30" s="6">
         <v>4314</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="24"/>
-        <v>6644.799999999992</v>
+        <v>6626.7851851851847</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="25"/>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="26"/>
-        <v>-66.746666666666499</v>
+        <v>-66.446419753086332</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="35"/>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" ref="I30" si="105">G30</f>
-        <v>-66.746666666666499</v>
+        <v>-66.446419753086332</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="28"/>
@@ -8948,14 +8948,14 @@
       </c>
       <c r="M30" s="6">
         <f>M29+L5</f>
-        <v>6636.480000000005</v>
+        <v>6618.646153846159</v>
       </c>
       <c r="N30" s="6">
         <v>4314.8500000000004</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="12"/>
-        <v>6636.480000000005</v>
+        <v>6618.646153846159</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="13"/>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="14"/>
-        <v>-66.60800000000016</v>
+        <v>-66.310769230769338</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="29"/>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="S30" s="6">
         <f t="shared" ref="S30" si="106">Q30</f>
-        <v>-66.60800000000016</v>
+        <v>-66.310769230769338</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8984,14 +8984,14 @@
       </c>
       <c r="C31" s="6">
         <f>C30+B6</f>
-        <v>6646.1818181818098</v>
+        <v>6627.3481481481476</v>
       </c>
       <c r="D31" s="6">
         <v>4314</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="24"/>
-        <v>6646.1818181818098</v>
+        <v>6627.3481481481476</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="25"/>
@@ -8999,7 +8999,7 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="26"/>
-        <v>-66.769696969696838</v>
+        <v>-66.455802469135833</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="35"/>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" ref="I31" si="107">G31</f>
-        <v>-66.769696969696838</v>
+        <v>-66.455802469135833</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>30</v>
